--- a/results/dwave_pegasus/spreadsheet25_annealing1.xlsx
+++ b/results/dwave_pegasus/spreadsheet25_annealing1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,31 +432,31 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{0: [624, 622, 623], 7: [4547, 4545, 4546], 17: [4517, 502, 504, 503], 21: [4413, 607], 23: [4425, 4428, 4426, 4427], 25: [234, 4773, 4772, 4771, 235], 27: [4440, 4442, 4441, 354, 352, 353], 30: [4711, 4487, 548, 549, 4712, 550], 34: [4292, 4291, 443, 442], 41: [4323, 382, 4322, 4321], 47: [4275, 4276, 4277, 4398, 682], 9: [444, 203, 4667, 204, 4665, 4666], 13: [370, 368, 4560, 369, 4561], 14: [532, 533, 4637, 4697, 534], 15: [248, 4621, 4620], 29: [339, 4456, 337, 338], 36: [4472, 4471, 262, 263, 4470], 5: [4727, 294, 323, 324, 4726], 12: [4485, 4247, 4246, 233, 232], 18: [412, 4367, 4365, 414, 413, 4366], 19: [4397, 4457, 564, 563], 20: [457, 459, 4486, 458], 28: [4608, 4606, 4607], 35: [4381, 4382, 669, 4383, 4593, 638, 637], 39: [4531, 518, 517, 4532], 40: [520, 519, 473, 4592], 49: [4307, 562, 4262, 4260, 4261], 8: [594, 593], 4: [4801, 385, 383, 384], 11: [277, 4757, 4756, 278, 279], 37: [4650, 683, 684, 4652, 489, 4651], 42: [4832, 4831, 218, 219, 220, 4830], 43: [4605, 187, 188, 189], 1: [4591, 309, 4336, 307, 308], 2: [397, 4563, 398, 400, 4562, 399], 3: [652, 4622, 654, 653], 10: [157, 158, 159, 4696, 4695], 26: [429, 427, 428], 46: [202, 4530, 128, 4290, 127, 4320], 48: [4680, 4683, 4681, 4682], 16: [172, 4410, 4455, 173], 24: [355, 670, 4816, 4817], 32: [322, 4395, 4396], 38: [4636, 4635, 293, 292], 45: [415, 714, 4741, 580, 4742, 4743], 31: [4575, 4576, 488, 4577], 33: [609, 608, 4500, 4502, 4501], 22: [579, 578, 4350, 4351, 4352], 6: [246, 247, 4412, 4411], 44: [217, 487, 472, 4305, 4306]}</t>
+          <t>{0: [1681], 1: [3248], 2: [1641]}</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.02920700308959835</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01998169585616679</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.021</v>
+        <v>0.999</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{0: [624, 622, 623], 7: [4547, 4545, 4546], 17: [4517, 502, 504, 503], 21: [4413, 607], 23: [4425, 4428, 4426, 4427], 25: [234, 4773, 4772, 4771, 235], 27: [4440, 4442, 4441, 354, 352, 353], 30: [4711, 4487, 548, 549, 4712, 550], 34: [4292, 4291, 443, 442], 41: [4323, 382, 4322, 4321], 47: [4275, 4276, 4277, 4398, 682], 9: [444, 203, 4667, 204, 4665, 4666], 13: [370, 368, 4560, 369, 4561], 14: [532, 533, 4637, 4697, 534], 15: [248, 4621, 4620], 29: [339, 4456, 337, 338], 36: [4472, 4471, 262, 263, 4470], 5: [4727, 294, 323, 324, 4726], 12: [4485, 4247, 4246, 233, 232], 18: [412, 4367, 4365, 414, 413, 4366], 19: [4397, 4457, 564, 563], 20: [457, 459, 4486, 458], 28: [4608, 4606, 4607], 35: [4381, 4382, 669, 4383, 4593, 638, 637], 39: [4531, 518, 517, 4532], 40: [520, 519, 473, 4592], 49: [4307, 562, 4262, 4260, 4261], 8: [594, 593], 4: [4801, 385, 383, 384], 11: [277, 4757, 4756, 278, 279], 37: [4650, 683, 684, 4652, 489, 4651], 42: [4832, 4831, 218, 219, 220, 4830], 43: [4605, 187, 188, 189], 1: [4591, 309, 4336, 307, 308], 2: [397, 4563, 398, 400, 4562, 399], 3: [652, 4622, 654, 653], 10: [157, 158, 159, 4696, 4695], 26: [429, 427, 428], 46: [202, 4530, 128, 4290, 127, 4320], 48: [4680, 4683, 4681, 4682], 16: [172, 4410, 4455, 173], 24: [355, 670, 4816, 4817], 32: [322, 4395, 4396], 38: [4636, 4635, 293, 292], 45: [415, 714, 4741, 580, 4742, 4743], 31: [4575, 4576, 488, 4577], 33: [609, 608, 4500, 4502, 4501], 22: [579, 578, 4350, 4351, 4352], 6: [246, 247, 4412, 4411], 44: [217, 487, 472, 4305, 4306]}</t>
+          <t>{0: [1681], 1: [3248], 2: [1641]}</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.02920700308959835</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01998169585616679</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.021</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="3">
@@ -473,30 +473,3884 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>{0: [5571], 1: [5556], 's_0_1': [1289], 's_0_0': [1259], 's_1_1': [5557], 2: [4995], 's_2_2': [295]}</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>{0: [5571], 1: [5556], 's_0_1': [1289], 's_0_0': [1259], 's_1_1': [5557], 2: [4995], 's_2_2': [295]}</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.991</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{0: [3072], 1: [2415], 2: [2280], 3: [4443]}</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>{0: [3072], 1: [2415], 2: [2280], 3: [4443]}</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{0: [3802], 1: [1354], 's_0_1': [3787], 2: [1489], 's_0_2': [1474], 's_0_0': [1399], 's_1_1': [3847], 's_2_2': [3683], 3: [3320], 's_3_3': [947]}</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{0: [3802], 1: [1354], 's_0_1': [3787], 2: [1489], 's_0_2': [1474], 's_0_0': [1399], 's_1_1': [3847], 's_2_2': [3683], 3: [3320], 's_3_3': [947]}</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{0: [3195], 1: [285], 4: [3091], 2: [2788], 3: [1774]}</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>{0: [3195], 1: [285], 4: [3091], 2: [2788], 3: [1774]}</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>{0: [1090], 1: [4880], 's_0_1': [1105], 's_0_0': [4790], 4: [1015], 's_1_4': [1000], 's_1_1': [1135], 's_4_4': [4955], 2: [3103], 's_2_2': [2521], 3: [1397], 's_3_3': [1396]}</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>{0: [1090], 1: [4880], 's_0_1': [1105], 's_0_0': [4790], 4: [1015], 's_1_4': [1000], 's_1_1': [1135], 's_4_4': [4955], 2: [3103], 's_2_2': [2521], 3: [1397], 's_3_3': [1396]}</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.806</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>{0: [1797], 2: [5199], 3: [1782], 4: [1842], 1: [5244], 5: [1752]}</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>{0: [1797], 2: [5199], 3: [1782], 4: [1842], 1: [5244], 5: [1752]}</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>{0: [5083], 2: [2471], 's_0_2': [5098], 3: [2486, 4963], 's_0_3': [2501], 's_0_0': [2441], 's_2_3': [4992], 4: [5053], 's_2_4': [5068], 's_2_2': [5007], 1: [2531], 's_3_1': [4978], 's_3_3': [2485], 's_4_1': [2546], 's_4_4': [5054], 5: [5008], 's_1_5': [4993], 's_1_1': [5023], 's_5_5': [2620]}</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>{0: [5083], 2: [2471], 's_0_2': [5098], 3: [2486, 4963], 's_0_3': [2501], 's_0_0': [2441], 's_2_3': [4992], 4: [5053], 's_2_4': [5068], 's_2_2': [5007], 1: [2531], 's_3_1': [4978], 's_3_3': [2485], 's_4_1': [2546], 's_4_4': [5054], 5: [5008], 's_1_5': [4993], 's_1_1': [5023], 's_5_5': [2620]}</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.344</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>{0: [4398], 3: [637], 1: [4457], 6: [4428], 5: [578], 4: [743], 2: [2082]}</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>{0: [4398], 3: [637], 1: [4457], 6: [4428], 5: [578], 4: [743], 2: [2082]}</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>{0: [3004], 3: [3079, 900], 's_0_3': [930], 's_0_0': [1020], 1: [810], 's_3_1': [825], 6: [855], 's_3_6': [3064], 's_3_3': [3019], 5: [3139], 's_1_5': [3124], 's_1_1': [3183], 's_6_5': [840], 4: [3033], 's_6_4': [3048], 's_6_6': [3094], 's_5_5': [751], 's_4_4': [795], 2: [4224], 's_2_2': [1776]}</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{0: [3004], 3: [3079, 900], 's_0_3': [930], 's_0_0': [1020], 1: [810], 's_3_1': [825], 6: [855], 's_3_6': [3064], 's_3_3': [3019], 5: [3139], 's_1_5': [3124], 's_1_1': [3183], 's_6_5': [840], 4: [3033], 's_6_4': [3048], 's_6_6': [3094], 's_5_5': [751], 's_4_4': [795], 2: [4224], 's_2_2': [1776]}</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.335</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>{0: [5596], 1: [449], 5: [5581], 2: [4773], 4: [654], 7: [670], 3: [655], 6: [4997]}</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>{0: [5596], 1: [449], 5: [5581], 2: [4773], 4: [654], 7: [670], 3: [655], 6: [4997]}</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.994</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>{0: [630], 1: [645], 's_0_1': [3138], 5: [600, 3153], 's_0_5': [3168], 's_0_0': [3123], 's_1_5': [3032], 's_1_1': [3108], 's_5_5': [3152], 2: [4740], 4: [55], 's_2_4': [40], 7: [4755], 's_2_7': [144], 's_2_2': [205], 3: [4770], 's_4_3': [4785], 's_4_4': [56], 's_7_7': [190], 6: [99], 's_3_6': [114], 's_3_3': [84], 's_6_6': [100]}</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>{0: [630], 1: [645], 's_0_1': [3138], 5: [600, 3153], 's_0_5': [3168], 's_0_0': [3123], 's_1_5': [3032], 's_1_1': [3108], 's_5_5': [3152], 2: [4740], 4: [55], 's_2_4': [40], 7: [4755], 's_2_7': [144], 's_2_2': [205], 3: [4770], 's_4_3': [4785], 's_4_4': [56], 's_7_7': [190], 6: [99], 's_3_6': [114], 's_3_3': [84], 's_6_6': [100]}</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>{0: [1687], 2: [4389], 4: [4358], 6: [1792], 7: [1762], 8: [4344], 1: [4298], 5: [1732], 3: [1807]}</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>{0: [1687], 2: [4389], 4: [4358], 6: [1792], 7: [1762], 8: [4344], 1: [4298], 5: [1732], 3: [1807]}</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.968</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>{0: [4190], 2: [996], 's_0_2': [4175], 4: [1041], 's_0_4': [1026], 's_0_0': [1056], 6: [4114], 's_2_6': [1011], 7: [4145, 4144], 's_2_7': [4160], 's_2_2': [4220], 's_4_4': [1042], 8: [906], 's_6_8': [4129], 's_6_6': [4115], 1: [846], 's_7_1': [816, 4189], 's_7_8': [4159], 's_7_7': [951], 5: [4054], 's_8_5': [4069], 3: [4084], 's_8_3': [4099], 's_8_8': [4024], 's_1_5': [861], 's_1_1': [4204], 's_5_5': [800], 's_3_3': [995]}</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>7.631257631257631e-05</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.001649128722907075</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>{0: [4190], 2: [996], 's_0_2': [4175], 4: [1041], 's_0_4': [1026], 's_0_0': [1056], 6: [4114], 's_2_6': [1011], 7: [4145, 4144], 's_2_7': [4160], 's_2_2': [4220], 's_4_4': [1042], 8: [906], 's_6_8': [4129], 's_6_6': [4115], 1: [846], 's_7_1': [816, 4189], 's_7_8': [4159], 's_7_7': [951], 5: [4054], 's_8_5': [4069], 3: [4084], 's_8_3': [4099], 's_8_8': [4024], 's_1_5': [861], 's_1_1': [4204], 's_5_5': [800], 's_3_3': [995]}</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>7.631257631257631e-05</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.001649128722907075</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.116</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>{0: [4992], 3: [2486], 7: [5007], 8: [2471], 2: [5022], 5: [4963], 6: [2531], 9: [2381], 4: [5052], 1: [2669]}</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>{0: [4992], 3: [2486], 7: [5007], 8: [2471], 2: [5022], 5: [4963], 6: [2531], 9: [2381], 4: [5052], 1: [2669]}</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.9379999999999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>{0: [655, 4953], 3: [566, 4997], 's_0_3': [640], 7: [686], 's_0_7': [4982], 8: [581], 's_0_8': [4938], 's_0_0': [4863], 2: [5027], 's_3_2': [521], 5: [430, 4996], 's_3_5': [4967], 's_3_7': [5012], 's_3_8': [5057], 's_3_3': [4922], 's_7_7': [5118], 's_8_2': [596], 's_8_8': [4892], 's_2_2': [611], 6: [4831], 's_5_6': [445], 9: [4981], 's_5_9': [386], 's_5_5': [506], 's_6_6': [400], 4: [341], 's_9_4': [356], 's_9_9': [4980], 's_4_4': [5101], 1: [2118], 's_1_1': [3536]}</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>7.519362358072035e-05</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.001555617780703602</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>{0: [655, 4953], 3: [566, 4997], 's_0_3': [640], 7: [686], 's_0_7': [4982], 8: [581], 's_0_8': [4938], 's_0_0': [4863], 2: [5027], 's_3_2': [521], 5: [430, 4996], 's_3_5': [4967], 's_3_7': [5012], 's_3_8': [5057], 's_3_3': [4922], 's_7_7': [5118], 's_8_2': [596], 's_8_8': [4892], 's_2_2': [611], 6: [4831], 's_5_6': [445], 9: [4981], 's_5_9': [386], 's_5_5': [506], 's_6_6': [400], 4: [341], 's_9_4': [356], 's_9_9': [4980], 's_4_4': [5101], 1: [2118], 's_1_1': [3536]}</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>7.519362358072035e-05</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.001555617780703602</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.167</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>{0: [1678], 1: [5334], 7: [1707], 5: [5348], 10: [5228], 2: [5363], 4: [1722], 9: [5229], 8: [5244], 3: [1752], 6: [1812]}</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>{0: [1678], 1: [5334], 7: [1707], 5: [5348], 10: [5228], 2: [5363], 4: [1722], 9: [5229], 8: [5244], 3: [1752], 6: [1812]}</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.979</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>{0: [1984], 1: [3790], 's_0_1': [1999], 's_0_0': [3685], 7: [1939], 's_1_7': [3805], 's_1_1': [2029], 5: [3774, 3773], 's_7_5': [3759], 10: [3850], 's_7_10': [1924], 's_7_7': [3744], 2: [1789], 's_5_2': [1774], 4: [3819, 1714], 's_5_4': [1729], 's_5_5': [1654], 9: [3909, 1864], 's_10_9': [1909], 's_10_10': [1969], 's_2_4': [3789], 's_2_2': [3804], 8: [1850], 's_4_8': [1835], 's_4_9': [1805], 's_4_4': [1715], 's_9_8': [3895], 3: [3880], 's_9_3': [1940], 's_9_9': [1790], 6: [3984], 's_8_6': [3969], 's_8_8': [1849], 's_6_6': [1760], 's_3_3': [1970]}</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>7.072135785007072e-05</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.001419721350769783</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>{0: [1984], 1: [3790], 's_0_1': [1999], 's_0_0': [3685], 7: [1939], 's_1_7': [3805], 's_1_1': [2029], 5: [3774, 3773], 's_7_5': [3759], 10: [3850], 's_7_10': [1924], 's_7_7': [3744], 2: [1789], 's_5_2': [1774], 4: [3819, 1714], 's_5_4': [1729], 's_5_5': [1654], 9: [3909, 1864], 's_10_9': [1909], 's_10_10': [1969], 's_2_4': [3789], 's_2_2': [3804], 8: [1850], 's_4_8': [1835], 's_4_9': [1805], 's_4_4': [1715], 's_9_8': [3895], 3: [3880], 's_9_3': [1940], 's_9_9': [1790], 6: [3984], 's_8_6': [3969], 's_8_8': [1849], 's_6_6': [1760], 's_3_3': [1970]}</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>7.072135785007072e-05</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.001419721350769783</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.181</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>{0: [1016], 6: [1001], 7: [5135, 1092], 8: [5120], 10: [5075], 5: [1107], 3: [5105], 4: [1031], 1: [5090], 9: [1046], 11: [1061], 2: [4999]}</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.851</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>{0: [1016], 6: [1001], 7: [5135, 1092], 8: [5120], 10: [5075], 5: [1107], 3: [5105], 4: [1031], 1: [5090], 9: [1046], 11: [1061], 2: [4999]}</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.851</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>{0: [3277], 6: [3322, 1411], 's_0_6': [1396], 7: [1441, 1442], 's_0_7': [1457], 8: [1637, 3278], 's_0_8': [3323, 1487], 's_0_0': [3276], 10: [1530, 1531, 3232], 's_6_10': [1426], 's_6_6': [1307], 5: [1561, 3217], 's_7_5': [3187], 's_7_10': [3367], 's_7_7': [3307], 3: [3218, 1696], 's_8_3': [1681], 4: [3293, 1546], 's_8_4': [1667], 's_8_5': [1576], 's_8_8': [3368], 1: [3113], 's_10_1': [1545], 9: [1651, 3233], 's_10_9': [3248], 's_10_4': [3353], 's_10_5': [3158], 's_10_10': [1471], 's_5_3': [3263], 's_5_5': [1562], 11: [3143, 1636], 's_3_11': [1621], 's_3_4': [1606], 's_3_3': [1756], 2: [1591], 's_4_2': [3308], 's_4_4': [3294], 's_1_9': [3098], 's_1_11': [1605], 's_1_1': [3112], 's_9_2': [3203], 's_9_9': [3129], 's_11_11': [3173], 's_2_2': [1592]}</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>{0: [3277], 6: [3322, 1411], 's_0_6': [1396], 7: [1441, 1442], 's_0_7': [1457], 8: [1637, 3278], 's_0_8': [3323, 1487], 's_0_0': [3276], 10: [1530, 1531, 3232], 's_6_10': [1426], 's_6_6': [1307], 5: [1561, 3217], 's_7_5': [3187], 's_7_10': [3367], 's_7_7': [3307], 3: [3218, 1696], 's_8_3': [1681], 4: [3293, 1546], 's_8_4': [1667], 's_8_5': [1576], 's_8_8': [3368], 1: [3113], 's_10_1': [1545], 9: [1651, 3233], 's_10_9': [3248], 's_10_4': [3353], 's_10_5': [3158], 's_10_10': [1471], 's_5_3': [3263], 's_5_5': [1562], 11: [3143, 1636], 's_3_11': [1621], 's_3_4': [1606], 's_3_3': [1756], 2: [1591], 's_4_2': [3308], 's_4_4': [3294], 's_1_9': [3098], 's_1_11': [1605], 's_1_1': [3112], 's_9_2': [3203], 's_9_9': [3129], 's_11_11': [3173], 's_2_2': [1592]}</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>{0: [5184], 2: [5185], 7: [1797], 10: [1947], 9: [2066], 8: [5199], 4: [5245], 3: [2067], 6: [1932], 5: [2052], 12: [5336], 1: [2023], 11: [5425]}</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>{0: [5184], 2: [5185], 7: [1797], 10: [1947], 9: [2066], 8: [5199], 4: [5245], 3: [2067], 6: [1932], 5: [2052], 12: [5336], 1: [2023], 11: [5425]}</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.955</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>{0: [1562, 3473], 2: [3428], 's_0_2': [1532], 7: [1607], 's_0_7': [3503], 10: [1697], 's_0_10': [3458], 's_0_0': [1561], 9: [3354, 1652], 's_2_9': [3443], 's_2_2': [3427], 8: [1727, 3398], 's_7_8': [1592], 's_7_7': [3338], 4: [3489], 's_10_4': [1682], 's_10_8': [3563], 's_10_10': [1698], 3: [3369, 1772], 's_9_3': [3368], 's_9_9': [3413], 6: [1757], 's_8_6': [3474], 's_8_8': [3519], 's_4_3': [1787], 5: [1818], 's_4_5': [3504], 's_4_6': [1742], 's_4_4': [3490], 's_3_3': [3414], 's_6_6': [1758], 12: [3579], 's_5_12': [1803], 's_5_5': [3534], 1: [1848], 11: [3520], 's_1_11': [1833], 's_1_12': [3594], 's_1_1': [3564], 's_11_11': [1968], 's_12_12': [1788]}</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>6.812917291184085e-05</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.001287262816984002</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>{0: [1562, 3473], 2: [3428], 's_0_2': [1532], 7: [1607], 's_0_7': [3503], 10: [1697], 's_0_10': [3458], 's_0_0': [1561], 9: [3354, 1652], 's_2_9': [3443], 's_2_2': [3427], 8: [1727, 3398], 's_7_8': [1592], 's_7_7': [3338], 4: [3489], 's_10_4': [1682], 's_10_8': [3563], 's_10_10': [1698], 3: [3369, 1772], 's_9_3': [3368], 's_9_9': [3413], 6: [1757], 's_8_6': [3474], 's_8_8': [3519], 's_4_3': [1787], 5: [1818], 's_4_5': [3504], 's_4_6': [1742], 's_4_4': [3490], 's_3_3': [3414], 's_6_6': [1758], 12: [3579], 's_5_12': [1803], 's_5_5': [3534], 1: [1848], 11: [3520], 's_1_11': [1833], 's_1_12': [3594], 's_1_1': [3564], 's_11_11': [1968], 's_12_12': [1788]}</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>6.812917291184085e-05</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.001287262816984002</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.058</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>{0: [462], 3: [5252], 5: [477], 9: [5206], 13: [507], 4: [432], 6: [402, 5147], 8: [492], 10: [387], 12: [5191], 11: [431], 1: [5161], 7: [5176], 2: [3771]}</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>{0: [462], 3: [5252], 5: [477], 9: [5206], 13: [507], 4: [432], 6: [402, 5147], 8: [492], 10: [387], 12: [5191], 11: [431], 1: [5161], 7: [5176], 2: [3771]}</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>{0: [1147], 3: [1057, 4370], 's_0_3': [4295], 5: [1162], 's_0_5': [4401], 9: [1208, 4445], 's_0_9': [4460], 's_0_0': [1146], 's_3_5': [4310], 13: [1118], 's_3_13': [4355], 's_3_3': [4369], 's_5_5': [1161], 4: [1193, 1192], 's_9_4': [4551], 6: [4416, 4417], 's_9_6': [1177], 8: [4505, 4506, 1253], 's_9_8': [1103], 10: [4431], 's_9_10': [1223], 12: [4580, 4581], 's_9_12': [1058], 's_9_13': [4475], 's_9_9': [1209], 's_13_6': [1133], 's_13_8': [4520], 's_13_13': [4490], 11: [1327, 4371], 's_4_11': [4326], 's_4_12': [1178], 's_4_4': [1191], 1: [1313, 4491], 's_6_1': [1403], 's_6_8': [1238], 's_6_11': [1342], 's_6_6': [1463], 's_8_1': [1328], 7: [1283], 's_8_7': [4476], 's_8_12': [1148], 's_8_8': [1028], 's_10_7': [1268], 's_10_10': [4430], 's_12_12': [1104], 's_11_1': [4356], 's_11_7': [4446], 's_11_11': [4372], 's_1_7': [4521], 's_1_1': [1314], 's_7_7': [1282], 2: [4929], 's_2_2': [1826]}</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>{0: [1147], 3: [1057, 4370], 's_0_3': [4295], 5: [1162], 's_0_5': [4401], 9: [1208, 4445], 's_0_9': [4460], 's_0_0': [1146], 's_3_5': [4310], 13: [1118], 's_3_13': [4355], 's_3_3': [4369], 's_5_5': [1161], 4: [1193, 1192], 's_9_4': [4551], 6: [4416, 4417], 's_9_6': [1177], 8: [4505, 4506, 1253], 's_9_8': [1103], 10: [4431], 's_9_10': [1223], 12: [4580, 4581], 's_9_12': [1058], 's_9_13': [4475], 's_9_9': [1209], 's_13_6': [1133], 's_13_8': [4520], 's_13_13': [4490], 11: [1327, 4371], 's_4_11': [4326], 's_4_12': [1178], 's_4_4': [1191], 1: [1313, 4491], 's_6_1': [1403], 's_6_8': [1238], 's_6_11': [1342], 's_6_6': [1463], 's_8_1': [1328], 7: [1283], 's_8_7': [4476], 's_8_12': [1148], 's_8_8': [1028], 's_10_7': [1268], 's_10_10': [4430], 's_12_12': [1104], 's_11_1': [4356], 's_11_7': [4446], 's_11_11': [4372], 's_1_7': [4521], 's_1_1': [1314], 's_7_7': [1282], 2: [4929], 's_2_2': [1826]}</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>{0: [5158], 2: [5143], 4: [2426], 9: [5113, 2456], 11: [2532], 3: [5022, 2411], 14: [2547], 10: [5097], 12: [5172], 6: [2441], 7: [5098], 8: [5128], 5: [2486], 1: [5188, 2606], 13: [5083]}</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.004444444444444444</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.01662958838566196</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>{0: [5158], 2: [5143], 4: [2426], 9: [5113, 2456], 11: [2532], 3: [5022, 2411], 14: [2547], 10: [5097], 12: [5172], 6: [2441], 7: [5098], 8: [5128], 5: [2486], 1: [5188, 2606], 13: [5083]}</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0.004444444444444444</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.01662958838566196</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.799</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>{0: [4452], 2: [2318, 4512, 4513], 's_0_2': [2468], 4: [2349, 4377, 2348], 's_0_4': [2407], 9: [2452, 4466, 4467], 's_0_9': [2422], 11: [2273, 4527, 4423, 2378], 's_0_11': [2437], 's_0_0': [4453], 3: [2333, 4481, 4482], 's_2_3': [4497], 's_2_9': [2453], 's_2_11': [2513], 14: [4708, 2483, 2484], 's_2_14': [4528], 's_2_2': [4511], 10: [4542], 's_4_10': [2364], 12: [2363], 's_4_12': [4362], 's_4_4': [2302], 's_9_3': [2393], 6: [2303, 4571, 4572], 's_9_6': [2138, 4586], 7: [4451, 2288], 's_9_7': [2168], 's_9_12': [4393, 4392], 's_9_14': [2482, 4317], 's_9_9': [4378], 's_11_7': [4496], 8: [4421, 4422], 's_11_8': [2272], 's_11_14': [4438], 's_11_11': [4408], 5: [4437], 's_3_5': [2213], 's_3_8': [2183], 's_3_10': [2423], 's_3_3': [4480], 1: [4543], 's_14_1': [2574], 13: [2438, 4587, 4588], 's_14_13': [4558], 's_14_14': [4707], 's_10_7': [4557], 's_10_10': [2258], 's_12_12': [4407], 's_6_13': [4573], 's_6_8': [2153], 's_6_7': [2243, 2242], 's_6_6': [2228, 4617], 's_7_5': [2227], 's_7_7': [4450], 's_8_5': [2198], 's_8_8': [4420], 's_5_5': [2257], 's_1_13': [2544], 's_1_1': [4544], 's_13_13': [2379]}</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0001774937877174299</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.001710767591057364</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>{0: [4452], 2: [2318, 4512, 4513], 's_0_2': [2468], 4: [2349, 4377, 2348], 's_0_4': [2407], 9: [2452, 4466, 4467], 's_0_9': [2422], 11: [2273, 4527, 4423, 2378], 's_0_11': [2437], 's_0_0': [4453], 3: [2333, 4481, 4482], 's_2_3': [4497], 's_2_9': [2453], 's_2_11': [2513], 14: [4708, 2483, 2484], 's_2_14': [4528], 's_2_2': [4511], 10: [4542], 's_4_10': [2364], 12: [2363], 's_4_12': [4362], 's_4_4': [2302], 's_9_3': [2393], 6: [2303, 4571, 4572], 's_9_6': [2138, 4586], 7: [4451, 2288], 's_9_7': [2168], 's_9_12': [4393, 4392], 's_9_14': [2482, 4317], 's_9_9': [4378], 's_11_7': [4496], 8: [4421, 4422], 's_11_8': [2272], 's_11_14': [4438], 's_11_11': [4408], 5: [4437], 's_3_5': [2213], 's_3_8': [2183], 's_3_10': [2423], 's_3_3': [4480], 1: [4543], 's_14_1': [2574], 13: [2438, 4587, 4588], 's_14_13': [4558], 's_14_14': [4707], 's_10_7': [4557], 's_10_10': [2258], 's_12_12': [4407], 's_6_13': [4573], 's_6_8': [2153], 's_6_7': [2243, 2242], 's_6_6': [2228, 4617], 's_7_5': [2227], 's_7_7': [4450], 's_8_5': [2198], 's_8_8': [4420], 's_5_5': [2257], 's_1_13': [2544], 's_1_1': [4544], 's_13_13': [2379]}</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0001774937877174299</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.001710767591057364</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>{0: [2449], 6: [3898], 14: [3853, 3854], 11: [3899], 3: [2525], 4: [3869], 7: [2584], 8: [2614, 3913], 9: [2720], 10: [2570], 2: [2629], 5: [2705], 12: [2555], 13: [2495, 3883], 15: [3884], 1: [3809]}</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.003205128205128205</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.01378577767154267</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>{0: [2449], 6: [3898], 14: [3853, 3854], 11: [3899], 3: [2525], 4: [3869], 7: [2584], 8: [2614, 3913], 9: [2720], 10: [2570], 2: [2629], 5: [2705], 12: [2555], 13: [2495, 3883], 15: [3884], 1: [3809]}</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0.003205128205128205</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.01378577767154267</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.786</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>{0: [3197, 3198], 6: [662, 661], 's_0_6': [676], 14: [767, 856, 3319], 's_0_14': [3183], 's_0_0': [586], 11: [841, 842, 3453, 3454], 's_6_11': [3468], 's_6_6': [3407], 3: [3259], 's_14_3': [3244], 4: [752, 3438], 's_14_4': [3423], 7: [3424, 902], 's_14_7': [3334], 8: [918, 917], 's_14_8': [916, 3154], 9: [781, 3378], 's_14_9': [796], 10: [886], 's_14_10': [3169], 's_14_14': [3273], 2: [766, 3228], 's_11_2': [840, 3139], 5: [3363], 's_11_5': [857], 's_11_7': [827], 's_11_9': [707], 12: [3439, 812], 's_11_12': [887], 's_11_11': [768], 13: [976, 3364], 's_3_13': [901, 3214], 's_3_3': [946], 's_4_5': [692], 's_4_9': [3288], 's_4_12': [3408], 's_4_4': [753], 15: [811, 3289], 's_7_15': [932], 's_7_8': [3394], 's_7_7': [3425], 's_8_15': [3274], 's_8_13': [3379], 's_8_12': [3529], 's_8_8': [3574], 's_9_15': [3349], 's_9_5': [737], 's_9_9': [3377], 's_10_15': [871], 's_10_10': [3184], 1: [721], 's_2_1': [3243], 's_2_15': [3213], 's_2_2': [3108], 's_5_5': [3362], 's_12_12': [3543], 's_13_15': [947], 's_13_13': [3365], 's_15_15': [3290], 's_1_1': [3153]}</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0001044168319933173</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.001507127151481742</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>{0: [3197, 3198], 6: [662, 661], 's_0_6': [676], 14: [767, 856, 3319], 's_0_14': [3183], 's_0_0': [586], 11: [841, 842, 3453, 3454], 's_6_11': [3468], 's_6_6': [3407], 3: [3259], 's_14_3': [3244], 4: [752, 3438], 's_14_4': [3423], 7: [3424, 902], 's_14_7': [3334], 8: [918, 917], 's_14_8': [916, 3154], 9: [781, 3378], 's_14_9': [796], 10: [886], 's_14_10': [3169], 's_14_14': [3273], 2: [766, 3228], 's_11_2': [840, 3139], 5: [3363], 's_11_5': [857], 's_11_7': [827], 's_11_9': [707], 12: [3439, 812], 's_11_12': [887], 's_11_11': [768], 13: [976, 3364], 's_3_13': [901, 3214], 's_3_3': [946], 's_4_5': [692], 's_4_9': [3288], 's_4_12': [3408], 's_4_4': [753], 15: [811, 3289], 's_7_15': [932], 's_7_8': [3394], 's_7_7': [3425], 's_8_15': [3274], 's_8_13': [3379], 's_8_12': [3529], 's_8_8': [3574], 's_9_15': [3349], 's_9_5': [737], 's_9_9': [3377], 's_10_15': [871], 's_10_10': [3184], 1: [721], 's_2_1': [3243], 's_2_15': [3213], 's_2_2': [3108], 's_5_5': [3362], 's_12_12': [3543], 's_13_15': [947], 's_13_13': [3365], 's_15_15': [3290], 's_1_1': [3153]}</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0001044168319933173</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.001507127151481742</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>{0: [782], 10: [3543], 14: [3393], 15: [3469, 3468], 1: [858], 4: [3558, 768], 7: [812], 11: [797, 3408], 12: [753], 3: [707], 16: [3484, 857], 5: [3514], 8: [843, 842], 9: [827], 13: [3454], 6: [3453], 2: [3439]}</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.001809954751131222</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.01015834584644509</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>{0: [782], 10: [3543], 14: [3393], 15: [3469, 3468], 1: [858], 4: [3558, 768], 7: [812], 11: [797, 3408], 12: [753], 3: [707], 16: [3484, 857], 5: [3514], 8: [843, 842], 9: [827], 13: [3454], 6: [3453], 2: [3439]}</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0.001809954751131222</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.01015834584644509</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>{0: [3224, 2701], 10: [3102, 3103, 3104], 's_0_10': [3119], 14: [2776, 3298, 3299], 's_0_14': [3239], 15: [3208, 3209], 's_0_15': [2836], 's_0_0': [2700], 1: [3179, 2400, 3178], 's_10_1': [2445], 4: [2581, 3134, 2580], 's_10_4': [2685], 7: [2311, 3042, 2310], 's_10_7': [2475], 11: [2506, 3163, 2430], 's_10_11': [2415], 12: [2656, 2655], 's_10_12': [2640], 's_10_10': [2521], 3: [2716, 3269], 's_14_3': [2626], 's_14_11': [2491], 16: [2671, 3164], 's_14_16': [3254], 's_14_14': [2611], 's_15_3': [2731], 's_15_11': [3207], 's_15_12': [3193], 's_15_16': [3194], 's_15_15': [2805], 's_1_4': [2610], 5: [3117, 3118], 's_1_5': [2595], 8: [2536, 2461, 3253], 's_1_8': [2476], 's_1_16': [2625], 's_1_1': [3072], 's_4_5': [2551], 9: [3314, 3312, 3313], 's_4_9': [2596], 's_4_12': [3043], 's_4_4': [3058], 's_7_5': [2460], 's_7_9': [2326], 's_7_11': [3162], 13: [3222], 's_7_13': [3237], 's_7_7': [2340], 's_11_8': [3223], 's_11_9': [3328], 6: [2371], 's_11_6': [3192], 's_11_11': [2507], 's_12_16': [3284], 's_12_12': [2984], 's_3_3': [3268], 's_16_9': [3329], 's_16_16': [2670], 's_5_8': [2566], 's_5_5': [2341], 's_8_13': [2431], 's_8_8': [2462], 2: [2207], 's_9_2': [3327], 's_9_9': [2342], 's_13_6': [2386], 's_13_13': [2356], 's_6_6': [3267], 's_2_2': [2208]}</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1.517565824417634e-05</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0004687288932841794</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>{0: [3224, 2701], 10: [3102, 3103, 3104], 's_0_10': [3119], 14: [2776, 3298, 3299], 's_0_14': [3239], 15: [3208, 3209], 's_0_15': [2836], 's_0_0': [2700], 1: [3179, 2400, 3178], 's_10_1': [2445], 4: [2581, 3134, 2580], 's_10_4': [2685], 7: [2311, 3042, 2310], 's_10_7': [2475], 11: [2506, 3163, 2430], 's_10_11': [2415], 12: [2656, 2655], 's_10_12': [2640], 's_10_10': [2521], 3: [2716, 3269], 's_14_3': [2626], 's_14_11': [2491], 16: [2671, 3164], 's_14_16': [3254], 's_14_14': [2611], 's_15_3': [2731], 's_15_11': [3207], 's_15_12': [3193], 's_15_16': [3194], 's_15_15': [2805], 's_1_4': [2610], 5: [3117, 3118], 's_1_5': [2595], 8: [2536, 2461, 3253], 's_1_8': [2476], 's_1_16': [2625], 's_1_1': [3072], 's_4_5': [2551], 9: [3314, 3312, 3313], 's_4_9': [2596], 's_4_12': [3043], 's_4_4': [3058], 's_7_5': [2460], 's_7_9': [2326], 's_7_11': [3162], 13: [3222], 's_7_13': [3237], 's_7_7': [2340], 's_11_8': [3223], 's_11_9': [3328], 6: [2371], 's_11_6': [3192], 's_11_11': [2507], 's_12_16': [3284], 's_12_12': [2984], 's_3_3': [3268], 's_16_9': [3329], 's_16_16': [2670], 's_5_8': [2566], 's_5_5': [2341], 's_8_13': [2431], 's_8_8': [2462], 2: [2207], 's_9_2': [3327], 's_9_9': [2342], 's_13_6': [2386], 's_13_13': [2356], 's_6_6': [3267], 's_2_2': [2208]}</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1.517565824417634e-05</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0004687288932841794</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>{0: [777], 6: [762, 5104], 13: [5088], 8: [791, 5134], 10: [836], 14: [5073], 17: [5119, 912], 3: [5089], 11: [747], 1: [5013], 5: [5149], 7: [5178], 16: [867], 15: [806], 9: [821], 2: [5090], 4: [5163], 12: [1166]}</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.001322751322751323</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.008469741054805354</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>{0: [777], 6: [762, 5104], 13: [5088], 8: [791, 5134], 10: [836], 14: [5073], 17: [5119, 912], 3: [5089], 11: [747], 1: [5013], 5: [5149], 7: [5178], 16: [867], 15: [806], 9: [821], 2: [5090], 4: [5163], 12: [1166]}</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0.001322751322751323</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.008469741054805354</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>{0: [1509], 6: [1615, 4943, 1510], 's_0_6': [4778], 13: [4703, 4702, 1660, 1659], 's_0_13': [4687], 's_0_0': [4732], 8: [1645, 4867, 4868], 's_6_8': [4823], 10: [1555, 4852], 's_6_10': [4973], 14: [4837, 4838], 's_6_14': [1570], 17: [4806, 1390, 4897], 's_6_17': [4898], 's_6_6': [5002], 3: [1359], 's_13_3': [1374], 's_13_8': [4733], 11: [4718], 's_13_11': [1599], 's_13_14': [4853], 's_13_13': [4764], 1: [1435, 1315, 4777], 's_8_1': [4866], 5: [4882, 4881], 's_8_5': [1525], 7: [1481, 1480], 's_8_7': [4748], 16: [4763], 's_8_16': [1630], 's_8_17': [1375], 's_8_8': [1690], 's_10_1': [4851], 's_10_7': [4958], 's_10_10': [4913], 15: [1465, 4716, 4717], 's_14_15': [1450], 's_14_14': [1720], 9: [1405, 4792], 's_17_9': [4836], 's_17_3': [1360], 's_17_5': [1240], 's_17_17': [1466], 's_3_9': [4821], 2: [4671], 's_3_2': [4656], 's_3_3': [4762], 's_11_11': [4719], 's_1_9': [1344], 's_1_15': [1434], 's_1_1': [1316], 's_5_9': [1300], 's_5_15': [1285], 's_5_5': [1225], 's_7_15': [4807], 4: [1420, 1524, 4822], 's_7_4': [4912], 's_7_16': [1495], 's_7_7': [5017], 's_16_4': [1539], 's_16_16': [1584], 's_15_15': [1179], 's_9_4': [4927], 's_9_9': [4791], 12: [1254], 's_2_12': [1239], 's_2_2': [1269], 's_4_4': [1421], 's_12_12': [4686]}</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0001598999898245461</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.001513876860953886</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>{0: [1509], 6: [1615, 4943, 1510], 's_0_6': [4778], 13: [4703, 4702, 1660, 1659], 's_0_13': [4687], 's_0_0': [4732], 8: [1645, 4867, 4868], 's_6_8': [4823], 10: [1555, 4852], 's_6_10': [4973], 14: [4837, 4838], 's_6_14': [1570], 17: [4806, 1390, 4897], 's_6_17': [4898], 's_6_6': [5002], 3: [1359], 's_13_3': [1374], 's_13_8': [4733], 11: [4718], 's_13_11': [1599], 's_13_14': [4853], 's_13_13': [4764], 1: [1435, 1315, 4777], 's_8_1': [4866], 5: [4882, 4881], 's_8_5': [1525], 7: [1481, 1480], 's_8_7': [4748], 16: [4763], 's_8_16': [1630], 's_8_17': [1375], 's_8_8': [1690], 's_10_1': [4851], 's_10_7': [4958], 's_10_10': [4913], 15: [1465, 4716, 4717], 's_14_15': [1450], 's_14_14': [1720], 9: [1405, 4792], 's_17_9': [4836], 's_17_3': [1360], 's_17_5': [1240], 's_17_17': [1466], 's_3_9': [4821], 2: [4671], 's_3_2': [4656], 's_3_3': [4762], 's_11_11': [4719], 's_1_9': [1344], 's_1_15': [1434], 's_1_1': [1316], 's_5_9': [1300], 's_5_15': [1285], 's_5_5': [1225], 's_7_15': [4807], 4: [1420, 1524, 4822], 's_7_4': [4912], 's_7_16': [1495], 's_7_7': [5017], 's_16_4': [1539], 's_16_16': [1584], 's_15_15': [1179], 's_9_4': [4927], 's_9_9': [4791], 12: [1254], 's_2_12': [1239], 's_2_2': [1269], 's_4_4': [1421], 's_12_12': [4686]}</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0001598999898245461</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.001513876860953886</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>{0: [2747], 4: [3389, 2732], 5: [2670, 3299, 2671], 13: [3419], 14: [3374], 18: [3404], 3: [2776, 3224], 9: [2733], 10: [3194, 2731], 16: [2791], 1: [2701, 2702], 6: [2716, 2717], 7: [3209, 2836], 8: [2806, 3044, 2805], 11: [3239], 12: [2820, 2822, 2821], 15: [2792], 17: [3569, 2807], 2: [2837, 2838]}</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.005847953216374269</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0180246023478625</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>{0: [2747], 4: [3389, 2732], 5: [2670, 3299, 2671], 13: [3419], 14: [3374], 18: [3404], 3: [2776, 3224], 9: [2733], 10: [3194, 2731], 16: [2791], 1: [2701, 2702], 6: [2716, 2717], 7: [3209, 2836], 8: [2806, 3044, 2805], 11: [3239], 12: [2820, 2822, 2821], 15: [2792], 17: [3569, 2807], 2: [2837, 2838]}</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0.005847953216374269</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.0180246023478625</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>{0: [1366, 3353, 3352], 4: [3262, 1382, 1381], 's_0_4': [3231], 5: [1502, 1443, 3412, 1442], 's_0_5': [3307], 13: [3278, 3277], 's_0_13': [1546], 14: [3381, 1397], 's_0_14': [1292], 18: [3398, 1638, 1637], 's_0_18': [1622], 's_0_0': [3354], 3: [3456, 1517, 3457], 's_4_3': [3442], 9: [1501], 's_4_9': [3247], 10: [3487, 3489, 3488], 's_4_10': [3502], 's_4_13': [1426], 's_4_14': [3396], 16: [3428, 1352, 3427], 's_4_16': [1351], 's_4_4': [1380], 1: [3534, 3533], 's_5_1': [3532], 6: [3397, 1412], 's_5_6': [1457], 7: [3232, 1532, 1531], 's_5_7': [3367], 8: [3472, 1562, 3473], 's_5_8': [1427], 11: [1547, 3562], 's_5_11': [1458], 's_5_5': [1444], 12: [1696, 1697], 's_13_12': [1681], 15: [1652], 's_13_15': [3293], 's_13_13': [1576], 's_14_3': [1232], 's_14_8': [3382], 's_14_16': [3411], 's_14_14': [1321], 's_18_1': [1727], 's_18_6': [3323, 1487], 's_18_12': [3548], 's_18_15': [3383], 17: [3338, 1606, 1607], 's_18_17': [3368], 's_18_18': [3593], 's_3_1': [1473], 's_3_16': [3426, 1202], 's_3_3': [1263], 's_9_17': [3308], 's_9_9': [3217], 's_10_7': [3503], 's_10_11': [1488], 's_10_6': [1577], 's_10_8': [1653], 's_10_12': [3504], 's_10_10': [1803], 's_16_11': [3561], 's_16_8': [1367], 's_16_15': [3443], 's_16_16': [3429], 's_1_7': [3518], 's_1_11': [1578], 's_1_1': [1788], 's_6_7': [1411], 's_6_11': [1413], 's_6_6': [1472], 2: [3263], 's_7_2': [3248], 's_7_8': [1561], 's_7_11': [3547], 's_7_7': [1530, 3202], 's_8_11': [1563], 's_8_17': [3458], 's_8_12': [1682], 's_8_8': [1623], 's_11_11': [1548], 's_12_12': [3519], 's_15_15': [1651], 's_17_2': [1591], 's_17_17': [1608], 's_2_2': [1636]}</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>5.825604697767629e-05</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0008209763261384543</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>{0: [1366, 3353, 3352], 4: [3262, 1382, 1381], 's_0_4': [3231], 5: [1502, 1443, 3412, 1442], 's_0_5': [3307], 13: [3278, 3277], 's_0_13': [1546], 14: [3381, 1397], 's_0_14': [1292], 18: [3398, 1638, 1637], 's_0_18': [1622], 's_0_0': [3354], 3: [3456, 1517, 3457], 's_4_3': [3442], 9: [1501], 's_4_9': [3247], 10: [3487, 3489, 3488], 's_4_10': [3502], 's_4_13': [1426], 's_4_14': [3396], 16: [3428, 1352, 3427], 's_4_16': [1351], 's_4_4': [1380], 1: [3534, 3533], 's_5_1': [3532], 6: [3397, 1412], 's_5_6': [1457], 7: [3232, 1532, 1531], 's_5_7': [3367], 8: [3472, 1562, 3473], 's_5_8': [1427], 11: [1547, 3562], 's_5_11': [1458], 's_5_5': [1444], 12: [1696, 1697], 's_13_12': [1681], 15: [1652], 's_13_15': [3293], 's_13_13': [1576], 's_14_3': [1232], 's_14_8': [3382], 's_14_16': [3411], 's_14_14': [1321], 's_18_1': [1727], 's_18_6': [3323, 1487], 's_18_12': [3548], 's_18_15': [3383], 17: [3338, 1606, 1607], 's_18_17': [3368], 's_18_18': [3593], 's_3_1': [1473], 's_3_16': [3426, 1202], 's_3_3': [1263], 's_9_17': [3308], 's_9_9': [3217], 's_10_7': [3503], 's_10_11': [1488], 's_10_6': [1577], 's_10_8': [1653], 's_10_12': [3504], 's_10_10': [1803], 's_16_11': [3561], 's_16_8': [1367], 's_16_15': [3443], 's_16_16': [3429], 's_1_7': [3518], 's_1_11': [1578], 's_1_1': [1788], 's_6_7': [1411], 's_6_11': [1413], 's_6_6': [1472], 2: [3263], 's_7_2': [3248], 's_7_8': [1561], 's_7_11': [3547], 's_7_7': [1530, 3202], 's_8_11': [1563], 's_8_17': [3458], 's_8_12': [1682], 's_8_8': [1623], 's_11_11': [1548], 's_12_12': [3519], 's_15_15': [1651], 's_17_2': [1591], 's_17_17': [1608], 's_2_2': [1636]}</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>5.825604697767629e-05</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.0008209763261384543</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>{0: [54], 3: [53], 11: [67, 4590, 68], 12: [4560], 2: [4425], 5: [38], 10: [4410], 6: [159, 158], 8: [203, 204], 14: [4395, 82], 16: [189, 4605], 17: [4575], 18: [129, 128], 1: [173], 4: [39], 9: [4545, 143], 15: [188], 13: [4530], 7: [83], 19: [4380]}</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.003305785123966943</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.01242421188295282</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>{0: [54], 3: [53], 11: [67, 4590, 68], 12: [4560], 2: [4425], 5: [38], 10: [4410], 6: [159, 158], 8: [203, 204], 14: [4395, 82], 16: [189, 4605], 17: [4575], 18: [129, 128], 1: [173], 4: [39], 9: [4545, 143], 15: [188], 13: [4530], 7: [83], 19: [4380]}</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0.003305785123966943</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.01242421188295282</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>{0: [4622, 4563, 623], 3: [670, 653, 654, 4773], 's_0_3': [4637], 11: [743, 4669, 4668, 744], 's_0_11': [4578], 12: [819, 4653, 669, 4652], 's_0_12': [564], 's_0_0': [4517], 2: [760, 4863], 's_3_2': [655], 5: [909, 4774, 910], 's_3_5': [4878, 775], 10: [880, 4758, 4759, 879], 's_3_10': [595], 's_3_3': [4908], 6: [789, 4745, 4744], 's_11_6': [1044], 8: [4713, 699, 698], 's_11_8': [4428], 's_11_10': [834], 14: [894, 4700, 4699], 's_11_14': [1029], 16: [4608, 4610, 833, 4609], 's_11_16': [954], 17: [863, 864], 's_11_17': [4443], 18: [759, 4533], 's_11_18': [4548], 's_11_11': [4383], 1: [805, 804], 's_12_1': [4803], 4: [4714, 939, 940], 's_12_4': [4654], 's_12_8': [4593], 9: [4743, 624], 's_12_9': [4667], 's_12_16': [594], 's_12_18': [668], 's_12_12': [820], 's_2_6': [4789], 's_2_5': [4864], 's_2_8': [700], 's_2_18': [729, 730], 's_2_2': [4848], 's_5_10': [4879], 's_5_4': [4729], 's_5_14': [4624], 's_5_5': [911], 's_10_1': [4924], 's_10_8': [745], 's_10_9': [609], 15: [4760], 's_10_15': [4834, 955], 's_10_10': [4894], 's_6_1': [4818], 's_6_9': [4727, 4728], 13: [4684, 4683], 's_6_13': [984], 's_6_17': [849], 's_6_6': [1090], 's_8_9': [4712], 's_8_16': [4623], 's_8_8': [713], 7: [4594], 's_14_7': [924], 19: [1059], 's_14_19': [4685], 's_14_14': [1089], 's_16_18': [638], 's_16_4': [998, 4580], 's_16_7': [803], 's_16_17': [4488], 's_16_16': [968], 's_17_7': [4638, 818], 's_17_17': [4414], 's_18_13': [774], 's_18_18': [683], 's_1_13': [4698], 's_1_1': [4954], 's_4_4': [4715], 's_9_9': [4697], 's_15_19': [1074], 's_15_15': [1105], 's_13_13': [4682], 's_7_7': [4595], 's_19_19': [1060]}</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0001403771466005334</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.001269876631426879</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>{0: [4622, 4563, 623], 3: [670, 653, 654, 4773], 's_0_3': [4637], 11: [743, 4669, 4668, 744], 's_0_11': [4578], 12: [819, 4653, 669, 4652], 's_0_12': [564], 's_0_0': [4517], 2: [760, 4863], 's_3_2': [655], 5: [909, 4774, 910], 's_3_5': [4878, 775], 10: [880, 4758, 4759, 879], 's_3_10': [595], 's_3_3': [4908], 6: [789, 4745, 4744], 's_11_6': [1044], 8: [4713, 699, 698], 's_11_8': [4428], 's_11_10': [834], 14: [894, 4700, 4699], 's_11_14': [1029], 16: [4608, 4610, 833, 4609], 's_11_16': [954], 17: [863, 864], 's_11_17': [4443], 18: [759, 4533], 's_11_18': [4548], 's_11_11': [4383], 1: [805, 804], 's_12_1': [4803], 4: [4714, 939, 940], 's_12_4': [4654], 's_12_8': [4593], 9: [4743, 624], 's_12_9': [4667], 's_12_16': [594], 's_12_18': [668], 's_12_12': [820], 's_2_6': [4789], 's_2_5': [4864], 's_2_8': [700], 's_2_18': [729, 730], 's_2_2': [4848], 's_5_10': [4879], 's_5_4': [4729], 's_5_14': [4624], 's_5_5': [911], 's_10_1': [4924], 's_10_8': [745], 's_10_9': [609], 15: [4760], 's_10_15': [4834, 955], 's_10_10': [4894], 's_6_1': [4818], 's_6_9': [4727, 4728], 13: [4684, 4683], 's_6_13': [984], 's_6_17': [849], 's_6_6': [1090], 's_8_9': [4712], 's_8_16': [4623], 's_8_8': [713], 7: [4594], 's_14_7': [924], 19: [1059], 's_14_19': [4685], 's_14_14': [1089], 's_16_18': [638], 's_16_4': [998, 4580], 's_16_7': [803], 's_16_17': [4488], 's_16_16': [968], 's_17_7': [4638, 818], 's_17_17': [4414], 's_18_13': [774], 's_18_18': [683], 's_1_13': [4698], 's_1_1': [4954], 's_4_4': [4715], 's_9_9': [4697], 's_15_19': [1074], 's_15_15': [1105], 's_13_13': [4682], 's_7_7': [4595], 's_19_19': [1060]}</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0.0001403771466005334</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.001269876631426879</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>{0: [1644], 2: [1794, 4644, 4643], 5: [1599, 4613], 8: [1734, 4673], 13: [1584, 4599, 4598], 14: [4688], 17: [1630, 1629], 1: [1764, 4628], 6: [4749, 4748], 7: [1749], 11: [1674], 12: [1779], 19: [4734], 9: [4718, 4719], 15: [1810, 4764, 4763], 4: [4703, 1614], 16: [1719, 4808], 20: [1660, 1659], 10: [1539], 3: [4658], 18: [4733]}</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0.006802721088435375</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.01666319552913727</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>{0: [1644], 2: [1794, 4644, 4643], 5: [1599, 4613], 8: [1734, 4673], 13: [1584, 4599, 4598], 14: [4688], 17: [1630, 1629], 1: [1764, 4628], 6: [4749, 4748], 7: [1749], 11: [1674], 12: [1779], 19: [4734], 9: [4718, 4719], 15: [1810, 4764, 4763], 4: [4703, 1614], 16: [1719, 4808], 20: [1660, 1659], 10: [1539], 3: [4658], 18: [4733]}</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0.006802721088435375</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.01666319552913727</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.544</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>{0: [2297, 2641, 2642, 3507, 3508, 3509], 2: [3194, 2670, 3314, 2671], 's_0_2': [3284], 5: [3402, 3478, 2432], 's_0_5': [2597], 8: [3269, 3057, 2445, 3268, 2446], 's_0_8': [2447], 13: [3328, 2401, 3524, 2402, 3523], 's_0_13': [2703], 14: [3567, 3297, 2358, 2357], 's_0_14': [3492], 17: [3162, 3164, 3163], 's_0_17': [2296], 's_0_0': [2208], 1: [2462, 2461, 3299, 3298], 's_2_1': [2552], 6: [3103, 2568, 2566, 2567], 's_2_6': [3104], 7: [2999, 2475, 2998], 's_2_7': [2984], 11: [3224, 2311, 3222, 3223], 's_2_11': [2821], 12: [2625, 2626], 's_2_12': [3074], 's_2_17': [2716], 19: [3434, 3329, 2717], 's_2_19': [2596], 's_2_2': [2790], 's_5_1': [2477], 's_5_6': [2553], 9: [2327, 2326, 3207, 2610, 3208, 2611], 's_5_9': [2312], 's_5_14': [3552], 15: [2505, 3192, 3193, 2507, 2506], 's_5_15': [3463], 's_5_5': [2387], 's_8_1': [2776], 4: [3147, 2537, 2536, 3148], 's_8_4': [2325], 's_8_7': [3073], 's_8_9': [2430], 's_8_15': [2400], 16: [3359, 2656, 2657], 's_8_16': [3254], 20: [2491, 3418, 3358, 2492], 's_8_20': [3313], 's_8_8': [3042], 's_13_1': [2463], 's_13_4': [2538], 's_13_6': [3539], 's_13_11': [2416], 's_13_14': [3522], 's_13_20': [3417], 's_13_13': [2658], 10: [2341, 3342, 2342], 's_14_10': [3357, 2236], 's_14_11': [3312], 's_14_14': [3612], 3: [3237, 2521, 3238], 's_17_3': [2371], 's_17_6': [2551], 's_17_9': [2595], 's_17_16': [3179], 18: [3177, 2220], 's_17_18': [2191], 's_17_17': [2415], 's_1_3': [2431], 's_1_4': [2522], 's_1_9': [2476], 's_1_15': [3343], 's_1_19': [2732], 's_1_1': [2702], 's_6_4': [2460], 's_6_15': [2565, 3013], 's_6_7': [2580, 3088], 's_6_6': [3613], 's_7_15': [2983], 's_7_7': [2655], 's_11_4': [2310], 's_11_11': [2836], 's_12_9': [3134], 's_12_15': [3373], 's_12_19': [3344], 's_12_12': [2627], 's_19_9': [2612], 's_19_16': [3449], 's_19_19': [3404], 's_9_10': [3447], 's_9_15': [3058], 's_9_18': [3206], 's_9_9': [3209], 's_15_4': [2490], 's_15_10': [2356], 's_15_15': [3028], 's_4_3': [3118], 's_4_10': [3132], 's_4_18': [2206], 's_4_20': [3433], 's_4_4': [2295], 's_16_3': [2581], 's_16_20': [3388], 's_16_16': [3464], 's_20_3': [3178], 's_20_20': [2582], 's_10_10': [2251], 's_3_3': [3239], 's_18_18': [3086]}</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>4.686958070473101e-05</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0006601792990807566</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>{0: [2297, 2641, 2642, 3507, 3508, 3509], 2: [3194, 2670, 3314, 2671], 's_0_2': [3284], 5: [3402, 3478, 2432], 's_0_5': [2597], 8: [3269, 3057, 2445, 3268, 2446], 's_0_8': [2447], 13: [3328, 2401, 3524, 2402, 3523], 's_0_13': [2703], 14: [3567, 3297, 2358, 2357], 's_0_14': [3492], 17: [3162, 3164, 3163], 's_0_17': [2296], 's_0_0': [2208], 1: [2462, 2461, 3299, 3298], 's_2_1': [2552], 6: [3103, 2568, 2566, 2567], 's_2_6': [3104], 7: [2999, 2475, 2998], 's_2_7': [2984], 11: [3224, 2311, 3222, 3223], 's_2_11': [2821], 12: [2625, 2626], 's_2_12': [3074], 's_2_17': [2716], 19: [3434, 3329, 2717], 's_2_19': [2596], 's_2_2': [2790], 's_5_1': [2477], 's_5_6': [2553], 9: [2327, 2326, 3207, 2610, 3208, 2611], 's_5_9': [2312], 's_5_14': [3552], 15: [2505, 3192, 3193, 2507, 2506], 's_5_15': [3463], 's_5_5': [2387], 's_8_1': [2776], 4: [3147, 2537, 2536, 3148], 's_8_4': [2325], 's_8_7': [3073], 's_8_9': [2430], 's_8_15': [2400], 16: [3359, 2656, 2657], 's_8_16': [3254], 20: [2491, 3418, 3358, 2492], 's_8_20': [3313], 's_8_8': [3042], 's_13_1': [2463], 's_13_4': [2538], 's_13_6': [3539], 's_13_11': [2416], 's_13_14': [3522], 's_13_20': [3417], 's_13_13': [2658], 10: [2341, 3342, 2342], 's_14_10': [3357, 2236], 's_14_11': [3312], 's_14_14': [3612], 3: [3237, 2521, 3238], 's_17_3': [2371], 's_17_6': [2551], 's_17_9': [2595], 's_17_16': [3179], 18: [3177, 2220], 's_17_18': [2191], 's_17_17': [2415], 's_1_3': [2431], 's_1_4': [2522], 's_1_9': [2476], 's_1_15': [3343], 's_1_19': [2732], 's_1_1': [2702], 's_6_4': [2460], 's_6_15': [2565, 3013], 's_6_7': [2580, 3088], 's_6_6': [3613], 's_7_15': [2983], 's_7_7': [2655], 's_11_4': [2310], 's_11_11': [2836], 's_12_9': [3134], 's_12_15': [3373], 's_12_19': [3344], 's_12_12': [2627], 's_19_9': [2612], 's_19_16': [3449], 's_19_19': [3404], 's_9_10': [3447], 's_9_15': [3058], 's_9_18': [3206], 's_9_9': [3209], 's_15_4': [2490], 's_15_10': [2356], 's_15_15': [3028], 's_4_3': [3118], 's_4_10': [3132], 's_4_18': [2206], 's_4_20': [3433], 's_4_4': [2295], 's_16_3': [2581], 's_16_20': [3388], 's_16_16': [3464], 's_20_3': [3178], 's_20_20': [2582], 's_10_10': [2251], 's_3_3': [3239], 's_18_18': [3086]}</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>4.686958070473101e-05</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.0006601792990807566</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>{0: [1338, 3712], 5: [3741], 6: [3862, 1429], 7: [1459], 12: [3697], 13: [1353], 16: [1368, 1369], 17: [3667], 20: [3772, 1444], 1: [1474, 3802], 4: [1428, 3622], 8: [3682], 9: [3652], 21: [3637], 11: [3726], 2: [3771], 19: [3787], 14: [1383], 3: [1504], 10: [1519, 1518], 15: [1384], 18: [1398]}</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0008741258741258741</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.006242507367607388</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>{0: [1338, 3712], 5: [3741], 6: [3862, 1429], 7: [1459], 12: [3697], 13: [1353], 16: [1368, 1369], 17: [3667], 20: [3772, 1444], 1: [1474, 3802], 4: [1428, 3622], 8: [3682], 9: [3652], 21: [3637], 11: [3726], 2: [3771], 19: [3787], 14: [1383], 3: [1504], 10: [1519, 1518], 15: [1384], 18: [1398]}</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0.0008741258741258741</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.006242507367607388</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>{0: [2677, 4289, 2572, 4288], 5: [4304], 's_0_5': [2722], 6: [4483, 2512, 2513], 's_0_6': [2573], 7: [4453, 2616, 2617], 's_0_7': [4244], 12: [4229], 's_0_12': [2676], 13: [2526, 4228, 2527], 's_0_13': [4303], 16: [2498, 4319, 4318, 2497], 's_0_16': [2557], 17: [4333, 4468, 2632, 4334], 's_0_17': [2631], 20: [2392, 2586, 4259, 4258], 's_0_20': [2707], 's_0_0': [2811], 's_5_16': [2797], 's_5_5': [2842], 1: [2558, 4362, 4363], 's_6_1': [4513], 4: [2542, 4274, 4273], 's_6_4': [2543], 's_6_16': [4558], 's_6_6': [2618], 8: [4379, 2647], 's_7_8': [2648], 9: [4182, 4184, 4183], 's_7_9': [4199], 's_7_20': [4123], 21: [4452, 2436, 2437], 's_7_21': [4439, 4438], 's_7_7': [2615], 's_12_20': [4214], 's_12_12': [2691], 's_13_9': [4198], 11: [4078], 's_13_11': [4063], 's_13_16': [2496], 's_13_17': [2528], 's_13_21': [4213], 's_13_13': [4003], 's_16_1': [4498], 2: [2467, 4393], 's_16_2': [4408], 's_16_4': [2692], 's_16_8': [2782], 's_16_17': [2752], 19: [2602, 4347, 4348], 's_16_19': [2587], 's_16_16': [4543], 14: [2451, 4317, 2452], 's_17_14': [4467], 's_17_17': [4469], 's_20_2': [4287], 3: [2481, 2482], 's_20_3': [4272], 's_20_9': [4197], 10: [4153, 2541], 's_20_10': [4138], 's_20_19': [2377], 's_20_20': [4257], 15: [4422, 4423, 4424], 's_1_15': [2378], 's_1_19': [2257], 's_1_21': [2422], 's_1_1': [4361], 's_4_10': [2601], 's_4_8': [2662], 's_4_9': [2737], 's_4_4': [2796], 's_8_8': [2723], 's_9_14': [2347], 18: [4122, 2316], 's_9_18': [2406], 's_9_9': [2271], 's_21_10': [4168], 's_21_18': [4137], 's_21_21': [2435], 's_11_11': [4079], 's_2_2': [4392], 's_19_15': [2272], 's_19_3': [4378], 's_19_19': [4346], 's_14_15': [2407], 's_14_18': [2317], 's_14_14': [2453], 's_3_10': [2466], 's_3_3': [2480], 's_10_10': [2540], 's_15_15': [2483], 's_18_18': [2315]}</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>5.531218195495376e-05</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0007692172691797192</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>{0: [2677, 4289, 2572, 4288], 5: [4304], 's_0_5': [2722], 6: [4483, 2512, 2513], 's_0_6': [2573], 7: [4453, 2616, 2617], 's_0_7': [4244], 12: [4229], 's_0_12': [2676], 13: [2526, 4228, 2527], 's_0_13': [4303], 16: [2498, 4319, 4318, 2497], 's_0_16': [2557], 17: [4333, 4468, 2632, 4334], 's_0_17': [2631], 20: [2392, 2586, 4259, 4258], 's_0_20': [2707], 's_0_0': [2811], 's_5_16': [2797], 's_5_5': [2842], 1: [2558, 4362, 4363], 's_6_1': [4513], 4: [2542, 4274, 4273], 's_6_4': [2543], 's_6_16': [4558], 's_6_6': [2618], 8: [4379, 2647], 's_7_8': [2648], 9: [4182, 4184, 4183], 's_7_9': [4199], 's_7_20': [4123], 21: [4452, 2436, 2437], 's_7_21': [4439, 4438], 's_7_7': [2615], 's_12_20': [4214], 's_12_12': [2691], 's_13_9': [4198], 11: [4078], 's_13_11': [4063], 's_13_16': [2496], 's_13_17': [2528], 's_13_21': [4213], 's_13_13': [4003], 's_16_1': [4498], 2: [2467, 4393], 's_16_2': [4408], 's_16_4': [2692], 's_16_8': [2782], 's_16_17': [2752], 19: [2602, 4347, 4348], 's_16_19': [2587], 's_16_16': [4543], 14: [2451, 4317, 2452], 's_17_14': [4467], 's_17_17': [4469], 's_20_2': [4287], 3: [2481, 2482], 's_20_3': [4272], 's_20_9': [4197], 10: [4153, 2541], 's_20_10': [4138], 's_20_19': [2377], 's_20_20': [4257], 15: [4422, 4423, 4424], 's_1_15': [2378], 's_1_19': [2257], 's_1_21': [2422], 's_1_1': [4361], 's_4_10': [2601], 's_4_8': [2662], 's_4_9': [2737], 's_4_4': [2796], 's_8_8': [2723], 's_9_14': [2347], 18: [4122, 2316], 's_9_18': [2406], 's_9_9': [2271], 's_21_10': [4168], 's_21_18': [4137], 's_21_21': [2435], 's_11_11': [4079], 's_2_2': [4392], 's_19_15': [2272], 's_19_3': [4378], 's_19_19': [4346], 's_14_15': [2407], 's_14_18': [2317], 's_14_14': [2453], 's_3_10': [2466], 's_3_3': [2480], 's_10_10': [2540], 's_15_15': [2483], 's_18_18': [2315]}</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>5.531218195495376e-05</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.0007692172691797192</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>{0: [2623], 1: [5474], 2: [2608, 5489], 6: [5549, 5459, 2714], 18: [2534, 5533], 4: [2593], 5: [5473, 2549], 15: [2563, 2564], 19: [5444, 2729], 22: [2579, 5548], 3: [2668], 7: [5504], 8: [5519], 10: [5458], 13: [2654, 2653], 20: [5398], 11: [5594, 2669], 12: [5609], 14: [2638], 9: [5578], 16: [5383], 17: [2503], 21: [5563]}</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0.004528985507246377</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.01328159266178911</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>{0: [2623], 1: [5474], 2: [2608, 5489], 6: [5549, 5459, 2714], 18: [2534, 5533], 4: [2593], 5: [5473, 2549], 15: [2563, 2564], 19: [5444, 2729], 22: [2579, 5548], 3: [2668], 7: [5504], 8: [5519], 10: [5458], 13: [2654, 2653], 20: [5398], 11: [5594, 2669], 12: [5609], 14: [2638], 9: [5578], 16: [5383], 17: [2503], 21: [5563]}</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0.004528985507246377</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.01328159266178911</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.542</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>{0: [5538, 539, 5537], 1: [629, 5522, 5493, 628], 's_0_1': [5523], 2: [614, 613, 5402, 5401, 387, 388], 's_0_2': [5612], 6: [5340, 328, 329, 5536, 5535], 's_0_6': [5656, 5657], 18: [493, 5508, 494, 5507], 's_0_18': [524], 's_0_0': [823], 's_1_2': [5702], 4: [312, 5266, 5387, 5386, 403], 's_1_4': [658], 5: [5478, 5477], 's_1_5': [643], 15: [5581, 5583, 5582, 568, 569], 's_1_15': [734], 19: [464, 5567, 5565, 5566], 's_1_19': [554], 22: [5445, 419, 5447, 5446], 's_1_22': [5492], 's_1_1': [719], 3: [5237, 5355, 477, 5356], 's_2_3': [432, 5236], 's_2_6': [509, 5627], 7: [5611, 237, 238, 314, 313, 5385], 's_2_7': [5101], 8: [5146], 's_2_8': [372], 10: [5417, 793, 5418], 's_2_10': [5403], 13: [373, 268, 5281, 267], 's_2_13': [5400], 's_2_15': [5372], 's_2_18': [463], 's_2_19': [5717, 5716], 20: [612, 5313, 5448, 672, 673], 's_2_20': [583], 's_2_2': [5176], 's_6_3': [208], 11: [178, 5505, 179], 's_6_11': [164], 12: [5311, 5310], 's_6_12': [163], 's_6_13': [5491], 14: [779, 5596, 5597, 5598], 's_6_14': [344], 's_6_19': [359], 's_6_22': [224], 's_6_6': [5641], 's_18_4': [5341], 9: [239, 5462, 5461], 's_18_9': [5506], 's_18_10': [5509], 's_18_15': [689], 's_18_22': [5551], 's_18_18': [5371], 's_4_7': [5160], 's_4_8': [5131], 16: [5252, 5251], 's_4_16': [357], 's_4_4': [342], 's_5_9': [5463], 17: [718, 5373], 's_5_17': [703], 21: [448, 5521], 's_5_21': [478], 's_5_22': [523], 's_5_5': [749], 's_15_7': [434], 's_15_9': [404], 's_15_10': [553], 's_15_16': [5267], 's_15_22': [5432], 's_15_15': [5357], 's_19_7': [449], 's_19_11': [5550], 's_19_14': [644], 's_19_19': [5552], 's_22_7': [253], 's_22_11': [209], 's_22_14': [374], 's_22_22': [5431], 's_3_11': [223, 5370], 's_3_16': [297], 's_3_20': [5312], 's_3_3': [5206], 's_7_8': [222], 's_7_13': [5415], 's_7_14': [299], 's_7_7': [5085], 's_8_8': [296], 's_10_17': [808], 's_10_10': [5464], 's_13_9': [5476], 's_13_12': [282], 's_13_16': [327], 's_13_13': [5235, 102], 's_20_14': [778, 5268], 's_20_16': [5207, 537], 's_20_17': [5328], 's_20_20': [5148], 's_11_12': [5325], 's_11_11': [88], 's_12_12': [58], 's_14_14': [764], 's_9_21': [5520], 's_9_9': [5580], 's_16_16': [418], 's_17_17': [853], 's_21_21': [447]}</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0001624871364350322</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.001264948928892261</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>{0: [5538, 539, 5537], 1: [629, 5522, 5493, 628], 's_0_1': [5523], 2: [614, 613, 5402, 5401, 387, 388], 's_0_2': [5612], 6: [5340, 328, 329, 5536, 5535], 's_0_6': [5656, 5657], 18: [493, 5508, 494, 5507], 's_0_18': [524], 's_0_0': [823], 's_1_2': [5702], 4: [312, 5266, 5387, 5386, 403], 's_1_4': [658], 5: [5478, 5477], 's_1_5': [643], 15: [5581, 5583, 5582, 568, 569], 's_1_15': [734], 19: [464, 5567, 5565, 5566], 's_1_19': [554], 22: [5445, 419, 5447, 5446], 's_1_22': [5492], 's_1_1': [719], 3: [5237, 5355, 477, 5356], 's_2_3': [432, 5236], 's_2_6': [509, 5627], 7: [5611, 237, 238, 314, 313, 5385], 's_2_7': [5101], 8: [5146], 's_2_8': [372], 10: [5417, 793, 5418], 's_2_10': [5403], 13: [373, 268, 5281, 267], 's_2_13': [5400], 's_2_15': [5372], 's_2_18': [463], 's_2_19': [5717, 5716], 20: [612, 5313, 5448, 672, 673], 's_2_20': [583], 's_2_2': [5176], 's_6_3': [208], 11: [178, 5505, 179], 's_6_11': [164], 12: [5311, 5310], 's_6_12': [163], 's_6_13': [5491], 14: [779, 5596, 5597, 5598], 's_6_14': [344], 's_6_19': [359], 's_6_22': [224], 's_6_6': [5641], 's_18_4': [5341], 9: [239, 5462, 5461], 's_18_9': [5506], 's_18_10': [5509], 's_18_15': [689], 's_18_22': [5551], 's_18_18': [5371], 's_4_7': [5160], 's_4_8': [5131], 16: [5252, 5251], 's_4_16': [357], 's_4_4': [342], 's_5_9': [5463], 17: [718, 5373], 's_5_17': [703], 21: [448, 5521], 's_5_21': [478], 's_5_22': [523], 's_5_5': [749], 's_15_7': [434], 's_15_9': [404], 's_15_10': [553], 's_15_16': [5267], 's_15_22': [5432], 's_15_15': [5357], 's_19_7': [449], 's_19_11': [5550], 's_19_14': [644], 's_19_19': [5552], 's_22_7': [253], 's_22_11': [209], 's_22_14': [374], 's_22_22': [5431], 's_3_11': [223, 5370], 's_3_16': [297], 's_3_20': [5312], 's_3_3': [5206], 's_7_8': [222], 's_7_13': [5415], 's_7_14': [299], 's_7_7': [5085], 's_8_8': [296], 's_10_17': [808], 's_10_10': [5464], 's_13_9': [5476], 's_13_12': [282], 's_13_16': [327], 's_13_13': [5235, 102], 's_20_14': [778, 5268], 's_20_16': [5207, 537], 's_20_17': [5328], 's_20_20': [5148], 's_11_12': [5325], 's_11_11': [88], 's_12_12': [58], 's_14_14': [764], 's_9_21': [5520], 's_9_9': [5580], 's_16_16': [418], 's_17_17': [853], 's_21_21': [447]}</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0.0001624871364350322</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.001264948928892261</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>{0: [4987], 7: [1466, 4972], 13: [4986], 21: [1525, 4867], 3: [4942], 4: [1345, 4836], 6: [1286, 4971], 9: [4882, 1330, 4881], 12: [5001, 1360], 15: [1375], 20: [1451], 10: [1241], 19: [1256, 1255], 22: [1271, 4911], 1: [1405], 8: [1435], 2: [1316, 5016], 17: [1301, 5031], 18: [1390], 23: [4926, 4927], 11: [4897, 4896], 16: [1211, 1210], 14: [4912], 5: [1240]}</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0.003277153558052434</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.01121643122725743</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>{0: [4987], 7: [1466, 4972], 13: [4986], 21: [1525, 4867], 3: [4942], 4: [1345, 4836], 6: [1286, 4971], 9: [4882, 1330, 4881], 12: [5001, 1360], 15: [1375], 20: [1451], 10: [1241], 19: [1256, 1255], 22: [1271, 4911], 1: [1405], 8: [1435], 2: [1316, 5016], 17: [1301, 5031], 18: [1390], 23: [4926, 4927], 11: [4897, 4896], 16: [1211, 1210], 14: [4912], 5: [1240]}</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0.003277153558052434</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.01121643122725743</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.367</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>{0: [3991], 7: [576, 4005, 4157, 4006, 4007], 's_0_7': [440], 13: [4038, 350, 500, 4037, 4036], 's_0_13': [3992], 21: [3826, 3900, 275, 274], 's_0_21': [320], 's_0_0': [3990], 3: [3872, 4217, 516, 514, 515], 's_7_3': [4127], 4: [3978, 530, 3977], 's_7_4': [620], 6: [4082, 4142, 606, 604, 605], 's_7_6': [4068], 9: [305, 3916, 3886, 485, 365], 's_7_9': [335], 12: [501, 4067, 3765, 3766, 469, 470], 's_7_12': [471], 15: [4095, 259, 4021, 260], 's_7_15': [186], 20: [4261, 4172, 456], 's_7_20': [531], 's_7_7': [125], 's_13_4': [710], 's_13_9': [3871], 10: [4098, 4097, 547, 546], 's_13_10': [726], 's_13_12': [396], 's_13_15': [231], 19: [3812, 559, 560, 3946, 3947], 's_13_19': [499], 22: [4112, 425, 426, 4111], 's_13_22': [561], 's_13_13': [4035], 1: [3902, 3901], 's_21_1': [439], 8: [245, 4052, 306, 4051], 's_21_8': [290], 's_21_9': [3841], 's_21_15': [3825], 's_21_21': [3796], 's_3_4': [4022], 2: [545, 590, 3931, 3933, 3932], 's_3_2': [395], 's_3_8': [4216], 's_3_9': [424], 17: [562, 4262], 's_3_17': [517], 18: [364, 3721, 3722], 's_3_18': [3752, 574], 's_3_20': [397], 's_3_3': [3707], 's_4_1': [575], 's_4_9': [3976], 's_4_12': [3887], 's_4_19': [529], 's_4_4': [725], 23: [621, 4053, 4203, 679, 680, 681], 's_6_23': [4023], 's_6_2': [3888], 's_6_10': [4083], 11: [321, 4081, 4080], 's_6_11': [4141], 's_6_12': [3782], 16: [4247, 4126, 487, 486], 's_6_16': [4248], 's_6_19': [3767], 's_6_6': [619], 's_9_19': [410], 's_9_8': [3945], 's_9_16': [366], 's_9_18': [484], 's_9_9': [304], 's_12_2': [3842], 's_12_10': [4187], 14: [455, 351, 4096], 's_12_14': [411], 's_12_15': [3751, 3750], 's_12_12': [199], 's_15_11': [216], 's_15_14': [4066], 's_15_15': [3810], 's_20_23': [4173], 's_20_14': [352], 's_20_20': [4232], 's_10_2': [800], 5: [651, 711, 4143], 's_10_5': [771], 's_10_17': [4307], 's_10_10': [861], 's_19_23': [665], 's_19_2': [380], 's_19_22': [3962, 3961], 's_19_19': [3692], 's_22_2': [591], 's_22_5': [636], 's_22_11': [4110], 's_22_14': [4186], 's_22_22': [4113], 's_1_23': [3917], 's_1_1': [3903], 's_8_23': [4202, 4201], 's_8_14': [381], 's_8_8': [3975], 's_2_23': [3858], 's_2_2': [860], 's_17_23': [682], 's_17_17': [532], 's_18_23': [664], 's_18_18': [409], 's_23_5': [696], 's_23_23': [4158], 's_11_14': [4156], 's_11_16': [4125], 's_11_11': [322], 's_16_16': [488], 's_14_14': [4171], 's_5_5': [786]}</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>6.800061200550805e-05</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0007560769072620264</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>{0: [3991], 7: [576, 4005, 4157, 4006, 4007], 's_0_7': [440], 13: [4038, 350, 500, 4037, 4036], 's_0_13': [3992], 21: [3826, 3900, 275, 274], 's_0_21': [320], 's_0_0': [3990], 3: [3872, 4217, 516, 514, 515], 's_7_3': [4127], 4: [3978, 530, 3977], 's_7_4': [620], 6: [4082, 4142, 606, 604, 605], 's_7_6': [4068], 9: [305, 3916, 3886, 485, 365], 's_7_9': [335], 12: [501, 4067, 3765, 3766, 469, 470], 's_7_12': [471], 15: [4095, 259, 4021, 260], 's_7_15': [186], 20: [4261, 4172, 456], 's_7_20': [531], 's_7_7': [125], 's_13_4': [710], 's_13_9': [3871], 10: [4098, 4097, 547, 546], 's_13_10': [726], 's_13_12': [396], 's_13_15': [231], 19: [3812, 559, 560, 3946, 3947], 's_13_19': [499], 22: [4112, 425, 426, 4111], 's_13_22': [561], 's_13_13': [4035], 1: [3902, 3901], 's_21_1': [439], 8: [245, 4052, 306, 4051], 's_21_8': [290], 's_21_9': [3841], 's_21_15': [3825], 's_21_21': [3796], 's_3_4': [4022], 2: [545, 590, 3931, 3933, 3932], 's_3_2': [395], 's_3_8': [4216], 's_3_9': [424], 17: [562, 4262], 's_3_17': [517], 18: [364, 3721, 3722], 's_3_18': [3752, 574], 's_3_20': [397], 's_3_3': [3707], 's_4_1': [575], 's_4_9': [3976], 's_4_12': [3887], 's_4_19': [529], 's_4_4': [725], 23: [621, 4053, 4203, 679, 680, 681], 's_6_23': [4023], 's_6_2': [3888], 's_6_10': [4083], 11: [321, 4081, 4080], 's_6_11': [4141], 's_6_12': [3782], 16: [4247, 4126, 487, 486], 's_6_16': [4248], 's_6_19': [3767], 's_6_6': [619], 's_9_19': [410], 's_9_8': [3945], 's_9_16': [366], 's_9_18': [484], 's_9_9': [304], 's_12_2': [3842], 's_12_10': [4187], 14: [455, 351, 4096], 's_12_14': [411], 's_12_15': [3751, 3750], 's_12_12': [199], 's_15_11': [216], 's_15_14': [4066], 's_15_15': [3810], 's_20_23': [4173], 's_20_14': [352], 's_20_20': [4232], 's_10_2': [800], 5: [651, 711, 4143], 's_10_5': [771], 's_10_17': [4307], 's_10_10': [861], 's_19_23': [665], 's_19_2': [380], 's_19_22': [3962, 3961], 's_19_19': [3692], 's_22_2': [591], 's_22_5': [636], 's_22_11': [4110], 's_22_14': [4186], 's_22_22': [4113], 's_1_23': [3917], 's_1_1': [3903], 's_8_23': [4202, 4201], 's_8_14': [381], 's_8_8': [3975], 's_2_23': [3858], 's_2_2': [860], 's_17_23': [682], 's_17_17': [532], 's_18_23': [664], 's_18_18': [409], 's_23_5': [696], 's_23_23': [4158], 's_11_14': [4156], 's_11_16': [4125], 's_11_11': [322], 's_16_16': [488], 's_14_14': [4171], 's_5_5': [786]}</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>6.800061200550805e-05</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.0007560769072620264</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>{0: [402, 403, 5386], 1: [5417, 508], 5: [5207, 462, 5206], 6: [5282], 14: [5341], 15: [567, 5147], 16: [5328, 5327], 18: [5387, 522, 523], 3: [5312, 538], 8: [583], 9: [568, 5252], 20: [507], 4: [5356, 5357], 10: [432], 11: [537], 19: [463, 5402], 21: [477, 5237], 23: [492, 5132], 24: [5297], 2: [598], 7: [553], 13: [5313], 22: [627], 12: [5267], 17: [5403, 673]}</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0.002568807339449542</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.009805790250192578</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>{0: [402, 403, 5386], 1: [5417, 508], 5: [5207, 462, 5206], 6: [5282], 14: [5341], 15: [567, 5147], 16: [5328, 5327], 18: [5387, 522, 523], 3: [5312, 538], 8: [583], 9: [568, 5252], 20: [507], 4: [5356, 5357], 10: [432], 11: [537], 19: [463, 5402], 21: [477, 5237], 23: [492, 5132], 24: [5297], 2: [598], 7: [553], 13: [5313], 22: [627], 12: [5267], 17: [5403, 673]}</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0.002568807339449542</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.009805790250192578</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.571</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>{0: [361, 3197, 3196], 1: [540, 542, 541], 's_0_1': [3182], 5: [616, 391, 3242, 196, 3240, 3241], 's_0_5': [3195], 6: [270, 3152, 3151], 's_0_6': [465], 14: [3226, 3227], 's_0_14': [661], 15: [3091, 345], 's_0_15': [376], 16: [571, 572, 3437, 3436, 422], 's_0_16': [586], 18: [496, 3333, 497, 3332, 3331, 227], 's_0_18': [3181], 's_0_0': [360], 3: [3317, 3271, 407], 's_1_3': [3347], 8: [3407, 587], 's_1_8': [3422], 9: [3122, 437, 436, 3556, 435], 's_1_9': [3167], 's_1_14': [556], 20: [390, 405, 3047, 3046], 's_1_20': [555], 's_1_1': [2912], 4: [3361, 3211, 466], 's_5_4': [3210], 10: [526, 3257], 's_5_10': [3256], 11: [317, 3030, 315, 316], 's_5_11': [3225], 's_5_14': [3212], 's_5_18': [271], 19: [362, 3377, 3376], 's_5_19': [3362], 's_5_20': [615], 21: [3303, 645, 647, 646], 's_5_21': [3243], 23: [3137, 3136], 's_5_23': [406], 24: [255, 256, 257, 3526, 3527, 3528], 's_5_24': [3105], 's_5_5': [3120], 's_6_10': [481], 's_6_18': [226], 's_6_23': [420], 's_6_24': [3166], 's_6_6': [211], 's_14_4': [331], 's_14_21': [3288, 676], 's_14_14': [3228], 's_15_9': [3061], 's_15_20': [3016], 's_15_23': [330], 's_15_15': [3092], 2: [3451, 332, 3481], 's_16_2': [302], 's_16_3': [557], 7: [377, 378], 's_16_7': [3541], 's_16_8': [3272], 's_16_10': [527], 13: [3406, 3405], 's_16_13': [272], 22: [737, 3318], 's_16_22': [3438], 's_16_16': [423], 's_18_2': [3482], 's_18_3': [3270], 's_18_8': [662], 's_18_11': [3316], 12: [525, 601, 600, 602, 3032], 's_18_12': [3452], 17: [3391], 's_18_17': [3390], 's_18_21': [631], 's_18_18': [3285], 's_3_4': [346], 's_3_7': [3421], 's_3_9': [3497, 408], 's_3_10': [451], 's_3_11': [301], 's_3_3': [286], 's_8_12': [617], 's_8_19': [677], 's_8_8': [588], 's_9_2': [3466], 's_9_7': [438, 3586], 's_9_12': [3031], 's_9_19': [421], 's_9_20': [3076], 's_9_24': [3512], 's_9_9': [3555], 's_20_12': [585], 's_20_21': [630], 's_20_20': [2911], 's_4_2': [347], 's_4_10': [3302], 's_4_4': [3360], 's_10_10': [511], 's_11_23': [300], 's_11_24': [3301], 's_11_11': [3015], 's_19_2': [3346], 's_19_7': [363], 's_19_17': [392], 's_19_19': [3378], 's_21_12': [3168], 's_21_22': [3273], 's_21_24': [3513], 's_21_21': [3468], 's_23_12': [3138], 's_23_24': [3121], 's_23_23': [3135], 's_24_7': [3496], 's_24_24': [513], 's_2_13': [287], 's_2_2': [3480], 's_7_7': [3601], 's_13_17': [467], 's_13_13': [152], 's_22_12': [3348], 's_22_22': [736], 's_12_12': [603], 's_17_17': [452]}</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>6.3619302096256e-05</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0007077200579345037</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>{0: [361, 3197, 3196], 1: [540, 542, 541], 's_0_1': [3182], 5: [616, 391, 3242, 196, 3240, 3241], 's_0_5': [3195], 6: [270, 3152, 3151], 's_0_6': [465], 14: [3226, 3227], 's_0_14': [661], 15: [3091, 345], 's_0_15': [376], 16: [571, 572, 3437, 3436, 422], 's_0_16': [586], 18: [496, 3333, 497, 3332, 3331, 227], 's_0_18': [3181], 's_0_0': [360], 3: [3317, 3271, 407], 's_1_3': [3347], 8: [3407, 587], 's_1_8': [3422], 9: [3122, 437, 436, 3556, 435], 's_1_9': [3167], 's_1_14': [556], 20: [390, 405, 3047, 3046], 's_1_20': [555], 's_1_1': [2912], 4: [3361, 3211, 466], 's_5_4': [3210], 10: [526, 3257], 's_5_10': [3256], 11: [317, 3030, 315, 316], 's_5_11': [3225], 's_5_14': [3212], 's_5_18': [271], 19: [362, 3377, 3376], 's_5_19': [3362], 's_5_20': [615], 21: [3303, 645, 647, 646], 's_5_21': [3243], 23: [3137, 3136], 's_5_23': [406], 24: [255, 256, 257, 3526, 3527, 3528], 's_5_24': [3105], 's_5_5': [3120], 's_6_10': [481], 's_6_18': [226], 's_6_23': [420], 's_6_24': [3166], 's_6_6': [211], 's_14_4': [331], 's_14_21': [3288, 676], 's_14_14': [3228], 's_15_9': [3061], 's_15_20': [3016], 's_15_23': [330], 's_15_15': [3092], 2: [3451, 332, 3481], 's_16_2': [302], 's_16_3': [557], 7: [377, 378], 's_16_7': [3541], 's_16_8': [3272], 's_16_10': [527], 13: [3406, 3405], 's_16_13': [272], 22: [737, 3318], 's_16_22': [3438], 's_16_16': [423], 's_18_2': [3482], 's_18_3': [3270], 's_18_8': [662], 's_18_11': [3316], 12: [525, 601, 600, 602, 3032], 's_18_12': [3452], 17: [3391], 's_18_17': [3390], 's_18_21': [631], 's_18_18': [3285], 's_3_4': [346], 's_3_7': [3421], 's_3_9': [3497, 408], 's_3_10': [451], 's_3_11': [301], 's_3_3': [286], 's_8_12': [617], 's_8_19': [677], 's_8_8': [588], 's_9_2': [3466], 's_9_7': [438, 3586], 's_9_12': [3031], 's_9_19': [421], 's_9_20': [3076], 's_9_24': [3512], 's_9_9': [3555], 's_20_12': [585], 's_20_21': [630], 's_20_20': [2911], 's_4_2': [347], 's_4_10': [3302], 's_4_4': [3360], 's_10_10': [511], 's_11_23': [300], 's_11_24': [3301], 's_11_11': [3015], 's_19_2': [3346], 's_19_7': [363], 's_19_17': [392], 's_19_19': [3378], 's_21_12': [3168], 's_21_22': [3273], 's_21_24': [3513], 's_21_21': [3468], 's_23_12': [3138], 's_23_24': [3121], 's_23_23': [3135], 's_24_7': [3496], 's_24_24': [513], 's_2_13': [287], 's_2_2': [3480], 's_7_7': [3601], 's_13_17': [467], 's_13_13': [152], 's_22_12': [3348], 's_22_22': [736], 's_12_12': [603], 's_17_17': [452]}</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>6.3619302096256e-05</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.0007077200579345037</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>{0: [95, 4020], 4: [170], 7: [155, 3945], 8: [4065, 4066], 11: [3886, 140, 3885], 17: [231, 3990], 19: [4005, 4006], 20: [185, 186], 5: [3915, 305], 12: [3960, 3961], 16: [3900, 216, 215], 23: [320, 3930], 1: [245], 9: [290], 14: [110, 3975], 15: [260], 2: [4051, 4050], 25: [4110, 306], 24: [3991, 350], 3: [4035, 4036], 18: [4125], 10: [3976, 275], 22: [201], 21: [200], 6: [4095], 13: [4021]}</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0.006227106227106228</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.01512957980077904</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>{0: [95, 4020], 4: [170], 7: [155, 3945], 8: [4065, 4066], 11: [3886, 140, 3885], 17: [231, 3990], 19: [4005, 4006], 20: [185, 186], 5: [3915, 305], 12: [3960, 3961], 16: [3900, 216, 215], 23: [320, 3930], 1: [245], 9: [290], 14: [110, 3975], 15: [260], 2: [4051, 4050], 25: [4110, 306], 24: [3991, 350], 3: [4035, 4036], 18: [4125], 10: [3976, 275], 22: [201], 21: [200], 6: [4095], 13: [4021]}</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0.006227106227106228</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.01512957980077904</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.331</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>{0: [297, 281, 296, 5087, 5086], 4: [490, 492, 491], 's_0_4': [506], 7: [416, 4966, 4968, 521, 4967], 's_0_7': [280], 8: [851, 552, 5028, 551, 5027], 's_0_8': [567], 11: [611, 821, 5149, 5148], 's_0_11': [5072], 17: [5251, 477, 5252], 's_0_17': [282], 19: [5101, 5102, 583, 582, 5103], 's_0_19': [5116], 20: [5056, 446, 5117, 627, 626, 5119, 5118], 's_0_20': [597], 's_0_0': [5010], 5: [4846, 4758, 4847, 4712, 430, 580], 's_4_5': [4862], 's_4_7': [4952], 12: [4906, 805, 4908, 535, 4907], 's_4_12': [505], 16: [5011, 386, 5176, 388, 387], 's_4_16': [5161], 's_4_17': [5267], 's_4_19': [5222], 23: [4816, 610, 609, 4818, 4817], 's_4_23': [520, 4922], 's_4_4': [489, 4666], 1: [536, 537, 311, 312, 5221, 447, 5297], 's_7_1': [5057], 9: [761, 731, 5058], 's_7_9': [4969, 4954], 14: [5042, 5043], 's_7_14': [566], 15: [371, 4997, 4996], 's_7_15': [401], 's_7_19': [341], 's_7_7': [295], 's_8_1': [553], 2: [867, 5177, 5178], 's_8_2': [866], 's_8_14': [5044], 's_8_20': [5147], 25: [508, 431, 747, 5133, 5132, 507], 's_8_25': [5026], 's_8_8': [5059], 's_11_14': [806], 's_11_20': [912], 's_11_23': [819, 820], 24: [672, 5088, 671], 's_11_24': [732], 's_11_11': [5074], 's_17_1': [5237], 3: [357, 355, 356], 's_17_3': [5266], 18: [493, 5356], 's_17_18': [462, 463, 5432], 's_17_19': [568, 5402], 's_17_20': [612], 's_17_25': [5282], 's_17_17': [5250], 's_19_1': [326], 10: [581, 4938, 4773, 715], 's_19_10': [716], 's_19_16': [5371, 5372], 's_19_20': [5328], 22: [5268, 642, 640, 641], 's_19_22': [5283], 's_19_19': [598], 's_20_2': [836], 's_20_3': [5041], 's_20_14': [701], 's_20_16': [5071], 's_20_25': [402], 's_20_20': [881], 's_5_25': [656, 655, 654], 's_5_10': [624], 's_5_12': [534], 21: [4832, 745, 4833], 's_5_21': [4848], 's_5_5': [684], 's_12_16': [340, 4921], 's_12_23': [804], 's_12_9': [4998], 's_12_10': [4937], 's_12_21': [625], 's_12_12': [310, 4815], 6: [5192, 5012, 687, 686], 's_16_6': [5191], 's_16_25': [5341], 's_16_3': [5146], 's_16_18': [373], 's_16_16': [5131], 's_23_15': [370], 's_23_3': [4801], 's_23_21': [865], 's_23_23': [608], 's_1_6': [5207], 13: [4878, 4877, 460, 4982, 4981], 's_1_13': [4980], 's_1_15': [5206, 372], 's_1_1': [327], 's_9_6': [5013], 's_9_24': [762], 's_9_9': [4924], 's_14_10': [746], 's_14_14': [776], 's_15_6': [596], 's_15_13': [475], 's_15_3': [4936], 's_15_15': [4995], 's_2_22': [5269], 's_2_25': [5208], 's_2_2': [5224], 's_25_6': [522], 's_25_18': [5327], 's_25_25': [748], 's_24_13': [670], 's_24_24': [777], 's_3_13': [4831], 's_3_3': [4891], 's_18_18': [418], 's_10_6': [4953], 's_10_13': [595], 's_10_10': [4939], 's_22_6': [5298], 's_22_21': [4863], 's_22_22': [763], 's_21_21': [4834], 's_6_6': [688], 's_13_13': [790]}</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0004122137404580152</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.001758775975400887</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>{0: [297, 281, 296, 5087, 5086], 4: [490, 492, 491], 's_0_4': [506], 7: [416, 4966, 4968, 521, 4967], 's_0_7': [280], 8: [851, 552, 5028, 551, 5027], 's_0_8': [567], 11: [611, 821, 5149, 5148], 's_0_11': [5072], 17: [5251, 477, 5252], 's_0_17': [282], 19: [5101, 5102, 583, 582, 5103], 's_0_19': [5116], 20: [5056, 446, 5117, 627, 626, 5119, 5118], 's_0_20': [597], 's_0_0': [5010], 5: [4846, 4758, 4847, 4712, 430, 580], 's_4_5': [4862], 's_4_7': [4952], 12: [4906, 805, 4908, 535, 4907], 's_4_12': [505], 16: [5011, 386, 5176, 388, 387], 's_4_16': [5161], 's_4_17': [5267], 's_4_19': [5222], 23: [4816, 610, 609, 4818, 4817], 's_4_23': [520, 4922], 's_4_4': [489, 4666], 1: [536, 537, 311, 312, 5221, 447, 5297], 's_7_1': [5057], 9: [761, 731, 5058], 's_7_9': [4969, 4954], 14: [5042, 5043], 's_7_14': [566], 15: [371, 4997, 4996], 's_7_15': [401], 's_7_19': [341], 's_7_7': [295], 's_8_1': [553], 2: [867, 5177, 5178], 's_8_2': [866], 's_8_14': [5044], 's_8_20': [5147], 25: [508, 431, 747, 5133, 5132, 507], 's_8_25': [5026], 's_8_8': [5059], 's_11_14': [806], 's_11_20': [912], 's_11_23': [819, 820], 24: [672, 5088, 671], 's_11_24': [732], 's_11_11': [5074], 's_17_1': [5237], 3: [357, 355, 356], 's_17_3': [5266], 18: [493, 5356], 's_17_18': [462, 463, 5432], 's_17_19': [568, 5402], 's_17_20': [612], 's_17_25': [5282], 's_17_17': [5250], 's_19_1': [326], 10: [581, 4938, 4773, 715], 's_19_10': [716], 's_19_16': [5371, 5372], 's_19_20': [5328], 22: [5268, 642, 640, 641], 's_19_22': [5283], 's_19_19': [598], 's_20_2': [836], 's_20_3': [5041], 's_20_14': [701], 's_20_16': [5071], 's_20_25': [402], 's_20_20': [881], 's_5_25': [656, 655, 654], 's_5_10': [624], 's_5_12': [534], 21: [4832, 745, 4833], 's_5_21': [4848], 's_5_5': [684], 's_12_16': [340, 4921], 's_12_23': [804], 's_12_9': [4998], 's_12_10': [4937], 's_12_21': [625], 's_12_12': [310, 4815], 6: [5192, 5012, 687, 686], 's_16_6': [5191], 's_16_25': [5341], 's_16_3': [5146], 's_16_18': [373], 's_16_16': [5131], 's_23_15': [370], 's_23_3': [4801], 's_23_21': [865], 's_23_23': [608], 's_1_6': [5207], 13: [4878, 4877, 460, 4982, 4981], 's_1_13': [4980], 's_1_15': [5206, 372], 's_1_1': [327], 's_9_6': [5013], 's_9_24': [762], 's_9_9': [4924], 's_14_10': [746], 's_14_14': [776], 's_15_6': [596], 's_15_13': [475], 's_15_3': [4936], 's_15_15': [4995], 's_2_22': [5269], 's_2_25': [5208], 's_2_2': [5224], 's_25_6': [522], 's_25_18': [5327], 's_25_25': [748], 's_24_13': [670], 's_24_24': [777], 's_3_13': [4831], 's_3_3': [4891], 's_18_18': [418], 's_10_6': [4953], 's_10_13': [595], 's_10_10': [4939], 's_22_6': [5298], 's_22_21': [4863], 's_22_22': [763], 's_21_21': [4834], 's_6_6': [688], 's_13_13': [790]}</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0004122137404580152</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.001758775975400887</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>{0: [1286, 1287, 5121], 1: [5180, 1181], 3: [5241], 6: [5122], 8: [1407, 5226, 5227], 12: [5137, 5136], 15: [1360, 4986], 21: [1256, 1257], 22: [5151, 1212], 23: [1242, 5181], 13: [1272, 5106], 16: [1196], 19: [1346, 5076], 2: [1317, 1316], 4: [5092, 5062, 1406], 7: [5047, 1391], 11: [1331, 5166], 25: [5107, 1361], 20: [1301, 1302], 24: [5060, 1166], 17: [1241, 5091], 5: [5030, 5031], 9: [5046], 10: [5016], 18: [1271, 1211, 5061], 26: [5152], 14: [1376, 5077]}</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0.007597340930674263</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.01541857834195814</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>{0: [1286, 1287, 5121], 1: [5180, 1181], 3: [5241], 6: [5122], 8: [1407, 5226, 5227], 12: [5137, 5136], 15: [1360, 4986], 21: [1256, 1257], 22: [5151, 1212], 23: [1242, 5181], 13: [1272, 5106], 16: [1196], 19: [1346, 5076], 2: [1317, 1316], 4: [5092, 5062, 1406], 7: [5047, 1391], 11: [1331, 5166], 25: [5107, 1361], 20: [1301, 1302], 24: [5060, 1166], 17: [1241, 5091], 5: [5030, 5031], 9: [5046], 10: [5016], 18: [1271, 1211, 5061], 26: [5152], 14: [1376, 5077]}</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0.007597340930674263</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.01541857834195814</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>{0: [4297, 1746, 1748, 4298, 1747], 1: [1416, 1419, 1418, 1417], 's_0_1': [4088, 4087], 3: [1656, 1657], 's_0_3': [4118], 6: [4508, 4510, 4511, 4509], 's_0_6': [1763], 8: [4313, 1716, 1719, 1718, 1717], 's_0_8': [4344], 12: [4358, 1627, 4373, 1629, 1628], 's_0_12': [1582], 15: [1701, 1702, 4434, 4435], 's_0_15': [4493, 1673], 21: [4238, 4239, 1777, 1778, 1779, 4674, 4675], 's_0_21': [1477], 22: [4327, 1792, 4329, 4328], 's_0_22': [1552], 23: [4192, 4193, 1686, 1687, 4478, 1688], 's_0_23': [1642, 4223], 's_0_0': [4074, 4073], 13: [1776, 1448, 4210, 4209, 4208, 1447, 4207], 's_1_13': [4282, 1462], 16: [4462, 4463, 2077, 4465, 4464], 's_1_16': [1463, 4507], 19: [4688, 1837, 4687, 1838, 1839, 4689], 's_1_19': [4702], 's_1_23': [1536, 4132], 's_1_1': [4057], 's_3_8': [4133], 's_3_13': [4224], 's_3_21': [1672], 's_3_22': [4254], 's_3_3': [4013], 2: [1599, 4538, 1598], 's_6_2': [1613], 4: [4374, 1897, 2033, 4375], 's_6_4': [1988], 7: [2108, 2138, 4421], 's_6_7': [2153], 11: [4477, 1583, 4555, 4554, 4553], 's_6_11': [2048], 25: [1658, 1945, 1659, 4628, 4629, 1944], 's_6_25': [1883], 's_6_6': [2228], 's_8_4': [4404, 4405], 's_8_11': [4539], 20: [4766, 1825, 4763, 4765, 1764, 4764], 's_8_20': [4779], 's_8_21': [4614], 's_8_22': [4314], 's_8_8': [1715], 's_12_2': [4418], 's_12_16': [4448], 's_12_19': [1644], 's_12_21': [4673], 's_12_22': [1567], 's_12_23': [4178], 24: [1522, 4357], 's_12_24': [4403], 's_12_12': [4613], 's_15_4': [2003], 17: [4660, 1959, 1958, 1957, 1956], 's_15_17': [4420], 's_15_21': [4419], 's_15_25': [1943], 's_15_15': [1808], 5: [4690, 1975, 1974, 1973, 4450], 's_21_5': [2034], 9: [1868, 4525, 4523, 4526, 4524], 's_21_9': [1793], 10: [4705, 4824, 1899], 's_21_10': [1780], 's_21_13': [1731], 's_21_17': [4240], 's_21_23': [4569], 's_21_21': [2124], 18: [1914, 1913, 1912, 4390, 4387, 4388, 4389], 's_22_18': [4299], 's_22_24': [1507], 26: [4269], 's_22_26': [1807], 's_22_22': [4326], 's_23_2': [1703], 's_23_25': [4584], 's_23_23': [1685], 's_13_11': [4492], 's_13_16': [4447], 's_13_17': [1971], 's_13_18': [1911], 's_13_19': [1449], 's_13_24': [4312], 's_13_13': [2002], 's_16_5': [2092], 's_16_17': [4300], 's_16_18': [1643], 's_16_19': [4449], 's_16_16': [2076], 's_19_9': [4494], 14: [1869, 4780], 's_19_14': [1884], 's_19_20': [1584], 's_19_25': [1794], 's_19_26': [1852], 's_19_19': [4686], 's_2_9': [1553], 's_2_11': [1568], 's_2_20': [4643], 's_2_2': [4703], 's_4_7': [2047], 's_4_17': [4480], 's_4_18': [1942], 's_4_4': [4360], 's_7_9': [2018], 's_7_5': [4451], 's_7_7': [4571], 's_11_9': [2063], 's_11_5': [2019], 's_11_18': [1898], 's_11_11': [4568, 1508], 's_25_20': [4854], 's_25_5': [4900], 's_25_10': [4659], 's_25_14': [1930], 's_25_25': [4930], 's_20_10': [1855], 's_20_17': [2049], 's_20_20': [1765], 's_24_18': [1432], 's_24_24': [4356], 's_17_9': [4570], 's_17_5': [1989], 's_17_10': [4735], 's_17_18': [4615], 's_17_17': [4105], 's_5_10': [4750], 's_5_14': [1960], 's_5_5': [4870], 's_9_18': [1867], 's_9_9': [2213], 's_10_18': [4720], 's_10_14': [1840], 's_10_10': [1810], 's_18_18': [1823], 's_26_26': [4270], 's_14_14': [2005]}</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0.000103448275862069</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0008382928124926356</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>{0: [4297, 1746, 1748, 4298, 1747], 1: [1416, 1419, 1418, 1417], 's_0_1': [4088, 4087], 3: [1656, 1657], 's_0_3': [4118], 6: [4508, 4510, 4511, 4509], 's_0_6': [1763], 8: [4313, 1716, 1719, 1718, 1717], 's_0_8': [4344], 12: [4358, 1627, 4373, 1629, 1628], 's_0_12': [1582], 15: [1701, 1702, 4434, 4435], 's_0_15': [4493, 1673], 21: [4238, 4239, 1777, 1778, 1779, 4674, 4675], 's_0_21': [1477], 22: [4327, 1792, 4329, 4328], 's_0_22': [1552], 23: [4192, 4193, 1686, 1687, 4478, 1688], 's_0_23': [1642, 4223], 's_0_0': [4074, 4073], 13: [1776, 1448, 4210, 4209, 4208, 1447, 4207], 's_1_13': [4282, 1462], 16: [4462, 4463, 2077, 4465, 4464], 's_1_16': [1463, 4507], 19: [4688, 1837, 4687, 1838, 1839, 4689], 's_1_19': [4702], 's_1_23': [1536, 4132], 's_1_1': [4057], 's_3_8': [4133], 's_3_13': [4224], 's_3_21': [1672], 's_3_22': [4254], 's_3_3': [4013], 2: [1599, 4538, 1598], 's_6_2': [1613], 4: [4374, 1897, 2033, 4375], 's_6_4': [1988], 7: [2108, 2138, 4421], 's_6_7': [2153], 11: [4477, 1583, 4555, 4554, 4553], 's_6_11': [2048], 25: [1658, 1945, 1659, 4628, 4629, 1944], 's_6_25': [1883], 's_6_6': [2228], 's_8_4': [4404, 4405], 's_8_11': [4539], 20: [4766, 1825, 4763, 4765, 1764, 4764], 's_8_20': [4779], 's_8_21': [4614], 's_8_22': [4314], 's_8_8': [1715], 's_12_2': [4418], 's_12_16': [4448], 's_12_19': [1644], 's_12_21': [4673], 's_12_22': [1567], 's_12_23': [4178], 24: [1522, 4357], 's_12_24': [4403], 's_12_12': [4613], 's_15_4': [2003], 17: [4660, 1959, 1958, 1957, 1956], 's_15_17': [4420], 's_15_21': [4419], 's_15_25': [1943], 's_15_15': [1808], 5: [4690, 1975, 1974, 1973, 4450], 's_21_5': [2034], 9: [1868, 4525, 4523, 4526, 4524], 's_21_9': [1793], 10: [4705, 4824, 1899], 's_21_10': [1780], 's_21_13': [1731], 's_21_17': [4240], 's_21_23': [4569], 's_21_21': [2124], 18: [1914, 1913, 1912, 4390, 4387, 4388, 4389], 's_22_18': [4299], 's_22_24': [1507], 26: [4269], 's_22_26': [1807], 's_22_22': [4326], 's_23_2': [1703], 's_23_25': [4584], 's_23_23': [1685], 's_13_11': [4492], 's_13_16': [4447], 's_13_17': [1971], 's_13_18': [1911], 's_13_19': [1449], 's_13_24': [4312], 's_13_13': [2002], 's_16_5': [2092], 's_16_17': [4300], 's_16_18': [1643], 's_16_19': [4449], 's_16_16': [2076], 's_19_9': [4494], 14: [1869, 4780], 's_19_14': [1884], 's_19_20': [1584], 's_19_25': [1794], 's_19_26': [1852], 's_19_19': [4686], 's_2_9': [1553], 's_2_11': [1568], 's_2_20': [4643], 's_2_2': [4703], 's_4_7': [2047], 's_4_17': [4480], 's_4_18': [1942], 's_4_4': [4360], 's_7_9': [2018], 's_7_5': [4451], 's_7_7': [4571], 's_11_9': [2063], 's_11_5': [2019], 's_11_18': [1898], 's_11_11': [4568, 1508], 's_25_20': [4854], 's_25_5': [4900], 's_25_10': [4659], 's_25_14': [1930], 's_25_25': [4930], 's_20_10': [1855], 's_20_17': [2049], 's_20_20': [1765], 's_24_18': [1432], 's_24_24': [4356], 's_17_9': [4570], 's_17_5': [1989], 's_17_10': [4735], 's_17_18': [4615], 's_17_17': [4105], 's_5_10': [4750], 's_5_14': [1960], 's_5_5': [4870], 's_9_18': [1867], 's_9_9': [2213], 's_10_18': [4720], 's_10_14': [1840], 's_10_10': [1810], 's_18_18': [1823], 's_26_26': [4270], 's_14_14': [2005]}</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0.000103448275862069</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.0008382928124926356</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>{0: [276], 3: [4216, 291], 9: [246, 4186, 4185], 12: [4125], 13: [185, 4110, 186], 14: [4201, 232], 17: [275, 3945], 18: [4156, 201, 4155], 5: [4141, 4140], 11: [381, 351, 4096], 19: [261, 260], 21: [290], 25: [305, 306], 10: [156, 3900, 155], 22: [4095, 171], 20: [216], 2: [3991, 3990], 4: [4036, 231], 8: [320, 3915], 15: [3960, 245], 24: [4080], 26: [4051, 321], 16: [4066], 1: [4005, 95], 6: [3870, 200], 27: [4171, 336], 23: [4020, 4021], 7: [170]}</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0.003092145949288806</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.01057902621803092</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>{0: [276], 3: [4216, 291], 9: [246, 4186, 4185], 12: [4125], 13: [185, 4110, 186], 14: [4201, 232], 17: [275, 3945], 18: [4156, 201, 4155], 5: [4141, 4140], 11: [381, 351, 4096], 19: [261, 260], 21: [290], 25: [305, 306], 10: [156, 3900, 155], 22: [4095, 171], 20: [216], 2: [3991, 3990], 4: [4036, 231], 8: [320, 3915], 15: [3960, 245], 24: [4080], 26: [4051, 321], 16: [4066], 1: [4005, 95], 6: [3870, 200], 27: [4171, 336], 23: [4020, 4021], 7: [170]}</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0.003092145949288806</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.01057902621803092</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.261</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>{0: [4859, 4918, 2679, 4919, 2680], 3: [2588, 4737, 4738, 4979, 2590, 2589], 's_0_3': [2576], 9: [2713, 2712, 2710, 2711], 's_0_9': [2725], 12: [4664, 2514, 4633, 2709, 4634], 's_0_12': [2515], 13: [5097, 5098, 5099, 2769, 2770, 2771], 's_0_13': [4739], 14: [2695, 2696, 5112, 5113, 5114], 's_0_14': [2694], 17: [2439, 2156, 4976, 2546, 4977, 4978, 2440], 's_0_17': [2455], 18: [5203, 5204, 2847, 2846, 2845, 4829, 4828, 4827], 's_0_18': [2755], 's_0_0': [2815], 5: [5264, 2319, 2320, 2321, 2322, 5262, 5263], 's_3_5': [4722], 's_3_9': [4754], 11: [2635, 2637, 2636], 's_3_11': [4843], 's_3_12': [4648], 's_3_14': [2666], 19: [4964, 4962, 4963], 's_3_19': [2651], 21: [4753, 4603, 2499], 's_3_21': [2545], 25: [2664, 2665, 4902, 4904, 4903, 2470], 's_3_25': [4813], 's_3_3': [4483], 's_9_5': [2728], 10: [2785, 4993, 4994], 's_9_10': [4844], 's_9_13': [4814], 's_9_19': [2726], 22: [2649, 2650, 4949, 5052, 5053, 2561], 's_9_22': [4724], 's_9_25': [4769], 's_9_9': [5129], 's_12_13': [4679], 20: [2604, 4692, 4693], 's_12_20': [2603], 's_12_22': [4709], 's_12_25': [4604], 's_12_12': [2844], 2: [2529, 2530, 2532, 4948, 2531], 's_13_2': [5083], 4: [5022, 2484, 2485, 2487, 2486], 's_13_4': [2456], 's_13_5': [2383, 2382], 8: [5174, 2516, 2517, 5233, 2682, 5234], 's_13_8': [2772], 15: [2562, 5188, 5187, 5186, 2231, 2230], 's_13_15': [2577], 's_13_18': [2757], 24: [2291, 5021], 's_13_24': [5082], 's_13_25': [4694], 's_13_13': [2768, 2767], 's_14_4': [2471], 's_14_11': [4874], 's_14_25': [4784], 26: [2217, 2215, 4871, 2216], 's_14_26': [2202], 's_14_14': [2397], 's_17_8': [5068], 's_17_10': [4992], 's_17_15': [2157], 16: [4841, 4842], 's_17_16': [2155], 's_17_21': [2454], 's_17_22': [5051], 's_17_24': [2171], 's_17_25': [4888], 's_17_26': [2095], 's_17_17': [2126], 1: [5218, 2337, 5217], 's_18_1': [2502], 6: [2742, 2741], 's_18_6': [5219], 's_18_10': [2784], 's_18_11': [2634], 's_18_20': [2424], 's_18_25': [2500], 27: [2335, 4872], 's_18_27': [2380], 's_18_18': [2830], 's_5_20': [4707], 's_5_11': [2622], 's_5_22': [5067], 's_5_27': [4812], 's_5_5': [5261], 23: [2411, 4678, 2619, 2620, 5172, 5173, 2621], 's_11_23': [5084], 's_11_22': [5054], 's_11_11': [5368], 's_19_23': [2410], 's_19_22': [2351], 's_19_26': [2201], 's_19_19': [4961], 's_21_4': [4618], 's_21_23': [4663], 's_21_21': [2379], 's_25_2': [4798], 's_25_4': [4783], 's_25_10': [2756], 's_25_27': [2425], 's_25_25': [2469], 's_10_2': [5008], 's_10_8': [2786], 's_10_6': [5009], 's_10_22': [2605], 's_10_10': [2800], 7: [2592, 2591, 5039, 5038], 's_22_7': [2501], 's_22_24': [2261], 's_22_22': [2648], 's_20_2': [2544], 's_20_23': [2559], 's_20_20': [2349], 's_2_1': [2547], 's_2_4': [2381], 's_2_8': [5143], 's_2_15': [4947], 's_2_2': [4543], 's_4_1': [2336], 's_4_8': [5248], 's_4_16': [4857], 's_4_23': [5037], 's_4_4': [4933], 's_8_7': [5294], 's_8_23': [5159], 's_8_6': [5189], 's_8_8': [5309], 's_15_1': [5142], 's_15_7': [5144], 's_15_16': [4856], 's_15_23': [5171], 's_15_24': [2246], 's_15_15': [2232], 's_24_26': [5006], 's_24_24': [5127], 's_26_27': [4797], 's_26_26': [4752], 's_16_27': [2290], 's_16_16': [2140], 's_1_7': [2607], 's_1_23': [2367], 's_1_1': [2442], 's_6_7': [5024], 's_6_6': [5249], 's_27_27': [4887], 's_23_7': [2606], 's_23_23': [2618], 's_7_7': [2593]}</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0001548387096774193</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0009874129790817543</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>{0: [4859, 4918, 2679, 4919, 2680], 3: [2588, 4737, 4738, 4979, 2590, 2589], 's_0_3': [2576], 9: [2713, 2712, 2710, 2711], 's_0_9': [2725], 12: [4664, 2514, 4633, 2709, 4634], 's_0_12': [2515], 13: [5097, 5098, 5099, 2769, 2770, 2771], 's_0_13': [4739], 14: [2695, 2696, 5112, 5113, 5114], 's_0_14': [2694], 17: [2439, 2156, 4976, 2546, 4977, 4978, 2440], 's_0_17': [2455], 18: [5203, 5204, 2847, 2846, 2845, 4829, 4828, 4827], 's_0_18': [2755], 's_0_0': [2815], 5: [5264, 2319, 2320, 2321, 2322, 5262, 5263], 's_3_5': [4722], 's_3_9': [4754], 11: [2635, 2637, 2636], 's_3_11': [4843], 's_3_12': [4648], 's_3_14': [2666], 19: [4964, 4962, 4963], 's_3_19': [2651], 21: [4753, 4603, 2499], 's_3_21': [2545], 25: [2664, 2665, 4902, 4904, 4903, 2470], 's_3_25': [4813], 's_3_3': [4483], 's_9_5': [2728], 10: [2785, 4993, 4994], 's_9_10': [4844], 's_9_13': [4814], 's_9_19': [2726], 22: [2649, 2650, 4949, 5052, 5053, 2561], 's_9_22': [4724], 's_9_25': [4769], 's_9_9': [5129], 's_12_13': [4679], 20: [2604, 4692, 4693], 's_12_20': [2603], 's_12_22': [4709], 's_12_25': [4604], 's_12_12': [2844], 2: [2529, 2530, 2532, 4948, 2531], 's_13_2': [5083], 4: [5022, 2484, 2485, 2487, 2486], 's_13_4': [2456], 's_13_5': [2383, 2382], 8: [5174, 2516, 2517, 5233, 2682, 5234], 's_13_8': [2772], 15: [2562, 5188, 5187, 5186, 2231, 2230], 's_13_15': [2577], 's_13_18': [2757], 24: [2291, 5021], 's_13_24': [5082], 's_13_25': [4694], 's_13_13': [2768, 2767], 's_14_4': [2471], 's_14_11': [4874], 's_14_25': [4784], 26: [2217, 2215, 4871, 2216], 's_14_26': [2202], 's_14_14': [2397], 's_17_8': [5068], 's_17_10': [4992], 's_17_15': [2157], 16: [4841, 4842], 's_17_16': [2155], 's_17_21': [2454], 's_17_22': [5051], 's_17_24': [2171], 's_17_25': [4888], 's_17_26': [2095], 's_17_17': [2126], 1: [5218, 2337, 5217], 's_18_1': [2502], 6: [2742, 2741], 's_18_6': [5219], 's_18_10': [2784], 's_18_11': [2634], 's_18_20': [2424], 's_18_25': [2500], 27: [2335, 4872], 's_18_27': [2380], 's_18_18': [2830], 's_5_20': [4707], 's_5_11': [2622], 's_5_22': [5067], 's_5_27': [4812], 's_5_5': [5261], 23: [2411, 4678, 2619, 2620, 5172, 5173, 2621], 's_11_23': [5084], 's_11_22': [5054], 's_11_11': [5368], 's_19_23': [2410], 's_19_22': [2351], 's_19_26': [2201], 's_19_19': [4961], 's_21_4': [4618], 's_21_23': [4663], 's_21_21': [2379], 's_25_2': [4798], 's_25_4': [4783], 's_25_10': [2756], 's_25_27': [2425], 's_25_25': [2469], 's_10_2': [5008], 's_10_8': [2786], 's_10_6': [5009], 's_10_22': [2605], 's_10_10': [2800], 7: [2592, 2591, 5039, 5038], 's_22_7': [2501], 's_22_24': [2261], 's_22_22': [2648], 's_20_2': [2544], 's_20_23': [2559], 's_20_20': [2349], 's_2_1': [2547], 's_2_4': [2381], 's_2_8': [5143], 's_2_15': [4947], 's_2_2': [4543], 's_4_1': [2336], 's_4_8': [5248], 's_4_16': [4857], 's_4_23': [5037], 's_4_4': [4933], 's_8_7': [5294], 's_8_23': [5159], 's_8_6': [5189], 's_8_8': [5309], 's_15_1': [5142], 's_15_7': [5144], 's_15_16': [4856], 's_15_23': [5171], 's_15_24': [2246], 's_15_15': [2232], 's_24_26': [5006], 's_24_24': [5127], 's_26_27': [4797], 's_26_26': [4752], 's_16_27': [2290], 's_16_16': [2140], 's_1_7': [2607], 's_1_23': [2367], 's_1_1': [2442], 's_6_7': [5024], 's_6_6': [5249], 's_27_27': [4887], 's_23_7': [2606], 's_23_23': [2618], 's_7_7': [2593]}</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0.0001548387096774193</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.0009874129790817543</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>{0: [276, 232, 4246], 1: [4291, 4290], 2: [142, 4185, 141], 5: [218, 217], 6: [157, 4320], 7: [4336, 4275, 322], 8: [188, 4260, 187], 10: [172, 4335], 16: [4305, 4306], 20: [277], 21: [4217, 262, 261, 4216], 24: [352], 4: [4201, 382, 383], 11: [246, 4411, 247], 18: [307], 19: [441, 4366, 442], 23: [4321, 337], 13: [4350, 4351], 25: [4395, 4396, 368], 26: [111, 4170], 27: [4156, 4155, 127, 126], 15: [233, 4381], 14: [4365], 17: [4380], 22: [4455, 202, 203], 3: [427], 9: [367, 4230, 4231], 28: [291, 292], 12: [336, 4171]}</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0.01201435481354346</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.01886873641170975</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>{0: [276, 232, 4246], 1: [4291, 4290], 2: [142, 4185, 141], 5: [218, 217], 6: [157, 4320], 7: [4336, 4275, 322], 8: [188, 4260, 187], 10: [172, 4335], 16: [4305, 4306], 20: [277], 21: [4217, 262, 261, 4216], 24: [352], 4: [4201, 382, 383], 11: [246, 4411, 247], 18: [307], 19: [441, 4366, 442], 23: [4321, 337], 13: [4350, 4351], 25: [4395, 4396, 368], 26: [111, 4170], 27: [4156, 4155, 127, 126], 15: [233, 4381], 14: [4365], 17: [4380], 22: [4455, 202, 203], 3: [427], 9: [367, 4230, 4231], 28: [291, 292], 12: [336, 4171]}</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0.01201435481354346</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.01886873641170975</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.149</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>{0: [728, 217, 4201, 727, 4203, 4202], 1: [502, 4158, 4156, 4157, 501], 's_0_1': [711], 2: [383, 4171, 382], 's_0_2': [336], 5: [4367, 471, 472, 4621, 473], 's_0_5': [4217], 6: [202, 4307, 4306, 4305], 's_0_6': [4260], 7: [4531, 609, 4532, 608, 607, 4383], 's_0_7': [4413], 8: [4246, 4247, 714, 713, 712, 4248], 's_0_8': [4428], 10: [4291, 787, 4293, 4292], 's_0_10': [4458], 16: [4517, 801, 802, 4518, 803, 4638], 's_0_16': [4488], 20: [4471, 4473, 683, 623, 4472], 's_0_20': [4503], 21: [744, 4066, 743, 4067, 4068, 741, 742], 's_0_21': [216], 24: [456, 682, 4232, 4233], 's_0_24': [4338], 's_0_0': [4173], 4: [4591, 351, 352, 353, 4651, 354], 's_1_4': [4096], 's_1_5': [4142], 11: [4620, 276, 277, 278, 4635], 's_1_11': [321, 4125], 's_1_16': [4143], 18: [4187, 547], 's_1_18': [546], 19: [413, 411, 412], 's_1_19': [4052], 23: [549, 548, 758, 4353, 757, 4352], 's_1_23': [756], 's_1_24': [487], 's_1_1': [366], 's_2_10': [397], 's_2_11': [4501], 13: [441, 443, 322, 4366, 442], 's_2_13': [4381], 25: [339, 4442, 4441, 4262, 4261, 337, 338], 's_2_25': [4351], 26: [4412, 260, 261, 4411, 262], 's_2_26': [4216], 27: [579, 4455, 427, 4456, 188, 4457, 578], 's_2_27': [4321], 's_2_2': [4170], 's_5_4': [384], 's_5_6': [622], 's_5_7': [414], 's_5_11': [4636], 's_5_13': [4111], 15: [562, 563, 399, 4592, 4622, 564], 's_5_15': [489], 's_5_5': [470], 's_6_10': [4290], 's_6_11': [292], 14: [172, 4365], 's_6_14': [4230], 17: [653, 652], 's_6_17': [637], 22: [232, 233, 234, 4608, 4607, 4606], 's_6_22': [4185], 's_6_25': [577], 's_6_27': [187], 's_6_6': [157], 3: [4564, 4562, 4563], 's_7_3': [594], 9: [4427, 516, 519, 518, 517], 's_7_9': [4727], 's_7_10': [4384], 's_7_11': [293], 's_7_15': [4682], 's_7_20': [4533], 's_7_24': [697], 's_7_25': [593], 28: [774, 324, 4696, 624, 4698, 4697], 's_7_28': [4743], 's_7_7': [4530], 's_8_9': [4127, 636], 's_8_10': [4368], 's_8_11': [291], 's_8_13': [307], 's_8_16': [699], 's_8_18': [621], 's_8_21': [4653], 's_8_25': [426], 's_8_26': [246], 's_8_28': [4758], 's_8_8': [4713], 's_10_9': [532], 's_10_16': [4414], 's_10_17': [4323], 's_10_21': [4308], 's_10_25': [4443], 's_10_10': [862], 's_16_3': [698], 's_16_9': [4112, 4113], 's_16_20': [818], 's_16_21': [4128], 's_16_16': [849], 's_20_15': [4547], 's_20_19': [398], 's_20_22': [428], 's_20_23': [773], 's_20_25': [488], 's_20_28': [4548], 's_20_20': [4474], 's_21_4': [4051], 's_21_19': [396], 's_21_22': [231], 's_21_26': [245], 's_21_28': [729], 's_21_21': [4008], 's_24_9': [606, 4172], 's_24_13': [4231], 's_24_19': [4126], 's_24_23': [4234], 's_24_25': [667], 's_24_24': [455], 12: [4487, 458, 4485, 368, 4486], 's_4_12': [248], 's_4_15': [504], 's_4_25': [4726], 's_4_4': [4650], 's_11_13': [4546], 's_11_27': [4440], 's_11_28': [279], 's_11_11': [174], 's_18_15': [4322], 's_18_23': [4188], 's_18_25': [4277], 's_18_18': [486], 's_19_13': [4141], 's_19_25': [4276], 's_19_27': [4397], 's_19_19': [3991], 's_23_9': [457], 's_23_12': [4502], 's_23_15': [4637], 's_23_28': [4667], 's_23_23': [4249], 's_13_3': [4577], 's_13_14': [4275], 's_13_15': [4382], 's_13_13': [440], 's_25_9': [533], 's_25_15': [4681], 's_25_17': [651], 's_25_22': [4576], 's_25_27': [503], 's_25_25': [4741], 's_26_9': [4426], 's_26_12': [218], 's_26_27': [4410], 's_26_26': [4036], 's_27_14': [4380], 's_27_17': [4398], 's_27_28': [4652], 's_27_27': [580], 's_15_17': [638], 's_15_22': [684], 's_15_28': [669], 's_15_15': [4623], 's_14_22': [4335], 's_14_14': [173], 's_17_22': [4593], 's_17_17': [654], 's_22_9': [534], 's_22_22': [4605], 's_3_3': [668], 's_9_28': [4712], 's_9_9': [520], 's_28_28': [294], 's_12_12': [459]}</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>3.954802259887006e-05</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.000471031962646208</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>{0: [728, 217, 4201, 727, 4203, 4202], 1: [502, 4158, 4156, 4157, 501], 's_0_1': [711], 2: [383, 4171, 382], 's_0_2': [336], 5: [4367, 471, 472, 4621, 473], 's_0_5': [4217], 6: [202, 4307, 4306, 4305], 's_0_6': [4260], 7: [4531, 609, 4532, 608, 607, 4383], 's_0_7': [4413], 8: [4246, 4247, 714, 713, 712, 4248], 's_0_8': [4428], 10: [4291, 787, 4293, 4292], 's_0_10': [4458], 16: [4517, 801, 802, 4518, 803, 4638], 's_0_16': [4488], 20: [4471, 4473, 683, 623, 4472], 's_0_20': [4503], 21: [744, 4066, 743, 4067, 4068, 741, 742], 's_0_21': [216], 24: [456, 682, 4232, 4233], 's_0_24': [4338], 's_0_0': [4173], 4: [4591, 351, 352, 353, 4651, 354], 's_1_4': [4096], 's_1_5': [4142], 11: [4620, 276, 277, 278, 4635], 's_1_11': [321, 4125], 's_1_16': [4143], 18: [4187, 547], 's_1_18': [546], 19: [413, 411, 412], 's_1_19': [4052], 23: [549, 548, 758, 4353, 757, 4352], 's_1_23': [756], 's_1_24': [487], 's_1_1': [366], 's_2_10': [397], 's_2_11': [4501], 13: [441, 443, 322, 4366, 442], 's_2_13': [4381], 25: [339, 4442, 4441, 4262, 4261, 337, 338], 's_2_25': [4351], 26: [4412, 260, 261, 4411, 262], 's_2_26': [4216], 27: [579, 4455, 427, 4456, 188, 4457, 578], 's_2_27': [4321], 's_2_2': [4170], 's_5_4': [384], 's_5_6': [622], 's_5_7': [414], 's_5_11': [4636], 's_5_13': [4111], 15: [562, 563, 399, 4592, 4622, 564], 's_5_15': [489], 's_5_5': [470], 's_6_10': [4290], 's_6_11': [292], 14: [172, 4365], 's_6_14': [4230], 17: [653, 652], 's_6_17': [637], 22: [232, 233, 234, 4608, 4607, 4606], 's_6_22': [4185], 's_6_25': [577], 's_6_27': [187], 's_6_6': [157], 3: [4564, 4562, 4563], 's_7_3': [594], 9: [4427, 516, 519, 518, 517], 's_7_9': [4727], 's_7_10': [4384], 's_7_11': [293], 's_7_15': [4682], 's_7_20': [4533], 's_7_24': [697], 's_7_25': [593], 28: [774, 324, 4696, 624, 4698, 4697], 's_7_28': [4743], 's_7_7': [4530], 's_8_9': [4127, 636], 's_8_10': [4368], 's_8_11': [291], 's_8_13': [307], 's_8_16': [699], 's_8_18': [621], 's_8_21': [4653], 's_8_25': [426], 's_8_26': [246], 's_8_28': [4758], 's_8_8': [4713], 's_10_9': [532], 's_10_16': [4414], 's_10_17': [4323], 's_10_21': [4308], 's_10_25': [4443], 's_10_10': [862], 's_16_3': [698], 's_16_9': [4112, 4113], 's_16_20': [818], 's_16_21': [4128], 's_16_16': [849], 's_20_15': [4547], 's_20_19': [398], 's_20_22': [428], 's_20_23': [773], 's_20_25': [488], 's_20_28': [4548], 's_20_20': [4474], 's_21_4': [4051], 's_21_19': [396], 's_21_22': [231], 's_21_26': [245], 's_21_28': [729], 's_21_21': [4008], 's_24_9': [606, 4172], 's_24_13': [4231], 's_24_19': [4126], 's_24_23': [4234], 's_24_25': [667], 's_24_24': [455], 12: [4487, 458, 4485, 368, 4486], 's_4_12': [248], 's_4_15': [504], 's_4_25': [4726], 's_4_4': [4650], 's_11_13': [4546], 's_11_27': [4440], 's_11_28': [279], 's_11_11': [174], 's_18_15': [4322], 's_18_23': [4188], 's_18_25': [4277], 's_18_18': [486], 's_19_13': [4141], 's_19_25': [4276], 's_19_27': [4397], 's_19_19': [3991], 's_23_9': [457], 's_23_12': [4502], 's_23_15': [4637], 's_23_28': [4667], 's_23_23': [4249], 's_13_3': [4577], 's_13_14': [4275], 's_13_15': [4382], 's_13_13': [440], 's_25_9': [533], 's_25_15': [4681], 's_25_17': [651], 's_25_22': [4576], 's_25_27': [503], 's_25_25': [4741], 's_26_9': [4426], 's_26_12': [218], 's_26_27': [4410], 's_26_26': [4036], 's_27_14': [4380], 's_27_17': [4398], 's_27_28': [4652], 's_27_27': [580], 's_15_17': [638], 's_15_22': [684], 's_15_28': [669], 's_15_15': [4623], 's_14_22': [4335], 's_14_14': [173], 's_17_22': [4593], 's_17_17': [654], 's_22_9': [534], 's_22_22': [4605], 's_3_3': [668], 's_9_28': [4712], 's_9_9': [520], 's_28_28': [294], 's_12_12': [459]}</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>3.954802259887006e-05</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.000471031962646208</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>{0: [4643, 1643, 1644], 2: [1659, 4538], 6: [4358], 7: [4658, 1748, 1749], 8: [4523, 4524, 1718], 13: [4373], 16: [1732, 4554, 1733], 19: [1688, 4493], 20: [1702, 4584, 1703], 23: [1552, 4613, 1553], 25: [1629, 1628], 26: [4447, 4448], 27: [1598, 4463], 3: [4629, 4628], 9: [1583, 4508], 11: [1538, 4553], 21: [1824, 4568, 4569], 28: [1613, 4419, 4418], 14: [4389, 1674, 1673], 17: [1792, 4359], 24: [1614], 5: [1763], 10: [1809, 4433, 4434, 1808], 15: [4403, 1658, 4404], 29: [4614], 12: [4374], 1: [4509, 1823], 4: [4494, 4464, 1778], 22: [4477, 4478], 18: [1687, 1762, 4313]}</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0.004271548436308161</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.01158918354557358</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>{0: [4643, 1643, 1644], 2: [1659, 4538], 6: [4358], 7: [4658, 1748, 1749], 8: [4523, 4524, 1718], 13: [4373], 16: [1732, 4554, 1733], 19: [1688, 4493], 20: [1702, 4584, 1703], 23: [1552, 4613, 1553], 25: [1629, 1628], 26: [4447, 4448], 27: [1598, 4463], 3: [4629, 4628], 9: [1583, 4508], 11: [1538, 4553], 21: [1824, 4568, 4569], 28: [1613, 4419, 4418], 14: [4389, 1674, 1673], 17: [1792, 4359], 24: [1614], 5: [1763], 10: [1809, 4433, 4434, 1808], 15: [4403, 1658, 4404], 29: [4614], 12: [4374], 1: [4509, 1823], 4: [4494, 4464, 1778], 22: [4477, 4478], 18: [1687, 1762, 4313]}</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0.004271548436308161</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.01158918354557358</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.141</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>{0: [5072, 506, 235, 4952, 236, 4951], 2: [4939, 4936, 4937, 4938], 's_0_2': [250], 6: [176, 4965, 341, 5070, 4966], 's_0_6': [4950], 7: [565, 4741, 4742], 's_0_7': [220], 8: [865, 834, 4815, 4818, 4817, 4816, 429], 's_0_8': [264, 4710], 13: [221, 222], 's_0_13': [4995], 16: [5119, 612, 5118, 609, 610, 611], 's_0_16': [4953], 19: [5148, 582, 581, 4999, 4997, 4998], 's_0_19': [5087], 20: [5044, 5041, 5043, 596, 5042], 's_0_20': [597], 23: [4606, 4860, 4861, 4831, 384, 385], 's_0_23': [234], 25: [5117, 5116, 280, 567, 281], 's_0_25': [295], 26: [5206, 266, 507, 342, 5161, 5160], 's_0_26': [265], 27: [324, 416, 325, 4906], 's_0_27': [4967], 's_0_0': [4890], 3: [745, 551, 4711, 550, 4713, 4712], 's_2_3': [700, 4878], 9: [5298, 5297, 5299, 882, 880, 881], 's_2_9': [790, 4954], 11: [462, 5312, 5026, 432, 430, 431], 's_2_11': [386], 's_2_19': [731], 's_2_20': [371], 21: [4922, 4833, 4832, 535], 's_2_21': [820], 's_2_25': [4921], 's_2_27': [340], 28: [522, 4862, 521, 519, 520], 's_2_28': [475], 's_2_2': [4935], 's_6_13': [5010], 14: [970, 356, 4849, 4848, 4847, 4846, 355], 's_6_14': [4996], 17: [402, 5135, 5134, 5133, 5071, 5132], 's_6_17': [5086], 's_6_20': [5040], 's_6_25': [5025], 's_6_6': [41], 's_7_3': [4727], 's_7_14': [370], 's_7_21': [534], 24: [489, 4607], 's_7_24': [564], 's_7_27': [415], 's_7_28': [580, 4743], 's_7_7': [4877], 's_8_3': [4714], 5: [5282, 5283, 760, 761, 762, 5193, 702], 's_8_5': [4789], 10: [399, 4681, 279], 's_8_10': [4696], 's_8_14': [4801], 15: [4969, 866, 5177, 5178, 867], 's_8_15': [835], 's_8_16': [4802], 's_8_23': [190], 29: [4667, 4666], 's_8_29': [654], 's_8_8': [4668], 12: [5222, 5220, 5221], 's_13_12': [237], 's_13_25': [4980], 's_13_13': [5085], 1: [537, 4982, 536], 's_16_1': [5207], 4: [4907, 5012, 566], 's_16_4': [671], 's_16_5': [747], 's_16_14': [850, 851], 's_16_17': [777], 's_16_19': [5192], 's_16_20': [821], 22: [130, 131, 132, 5265, 5266, 598, 5267], 's_16_22': [627], 's_16_29': [624], 's_16_16': [4968], 's_19_3': [746], 's_19_4': [5057], 's_19_5': [701], 's_19_9': [4984], 's_19_15': [4970, 985], 's_19_20': [776], 's_19_28': [4892], 's_19_19': [716, 5103], 's_20_3': [595], 's_20_4': [5027], 's_20_9': [5058, 5059], 's_20_11': [491], 's_20_14': [940, 941], 18: [4771, 310, 5281, 312, 311], 's_20_18': [326], 's_20_27': [5056], 's_20_20': [836], 's_23_10': [354], 's_23_11': [445], 's_23_21': [460], 's_23_22': [4875], 's_23_24': [4636], 's_23_28': [505], 's_23_29': [4651], 's_23_23': [293], 's_25_11': [282, 5190, 5191], 's_25_15': [5176, 5175], 's_25_26': [5131], 's_25_28': [4876, 400, 4787], 's_25_25': [5102], 's_26_5': [492], 's_26_9': [477], 's_26_26': [177], 's_27_4': [5011], 's_27_10': [4650], 's_27_18': [4891], 's_27_27': [4635], 's_3_10': [309], 's_3_14': [730], 's_3_24': [549], 's_3_3': [699], 's_9_15': [672], 's_9_11': [418], 's_9_14': [895], 's_9_22': [583], 's_9_9': [5209], 's_11_21': [401], 's_11_22': [5313], 's_11_11': [538], 's_21_1': [640], 's_21_5': [775], 's_21_4': [490], 's_21_14': [670], 's_21_21': [4834], 's_28_1': [625], 's_28_5': [4863], 's_28_24': [4697], 's_28_28': [4772, 4773], 's_14_17': [971], 's_14_14': [4850], 's_17_15': [687], 's_17_17': [1077], 's_24_24': [458], 's_5_1': [5073, 686], 's_5_18': [5253, 5252, 5251, 388], 's_5_22': [5268], 's_5_5': [807], 's_10_18': [294], 's_10_29': [369], 's_10_10': [4682], 's_15_1': [5162], 's_15_15': [5239], 's_29_29': [4665, 219], 's_12_1': [5237], 's_12_18': [327], 's_12_12': [267], 's_1_1': [5147], 's_4_4': [5013], 's_22_22': [117], 's_18_18': [238]}</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0001736526946107785</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.001004828958743594</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>{0: [5072, 506, 235, 4952, 236, 4951], 2: [4939, 4936, 4937, 4938], 's_0_2': [250], 6: [176, 4965, 341, 5070, 4966], 's_0_6': [4950], 7: [565, 4741, 4742], 's_0_7': [220], 8: [865, 834, 4815, 4818, 4817, 4816, 429], 's_0_8': [264, 4710], 13: [221, 222], 's_0_13': [4995], 16: [5119, 612, 5118, 609, 610, 611], 's_0_16': [4953], 19: [5148, 582, 581, 4999, 4997, 4998], 's_0_19': [5087], 20: [5044, 5041, 5043, 596, 5042], 's_0_20': [597], 23: [4606, 4860, 4861, 4831, 384, 385], 's_0_23': [234], 25: [5117, 5116, 280, 567, 281], 's_0_25': [295], 26: [5206, 266, 507, 342, 5161, 5160], 's_0_26': [265], 27: [324, 416, 325, 4906], 's_0_27': [4967], 's_0_0': [4890], 3: [745, 551, 4711, 550, 4713, 4712], 's_2_3': [700, 4878], 9: [5298, 5297, 5299, 882, 880, 881], 's_2_9': [790, 4954], 11: [462, 5312, 5026, 432, 430, 431], 's_2_11': [386], 's_2_19': [731], 's_2_20': [371], 21: [4922, 4833, 4832, 535], 's_2_21': [820], 's_2_25': [4921], 's_2_27': [340], 28: [522, 4862, 521, 519, 520], 's_2_28': [475], 's_2_2': [4935], 's_6_13': [5010], 14: [970, 356, 4849, 4848, 4847, 4846, 355], 's_6_14': [4996], 17: [402, 5135, 5134, 5133, 5071, 5132], 's_6_17': [5086], 's_6_20': [5040], 's_6_25': [5025], 's_6_6': [41], 's_7_3': [4727], 's_7_14': [370], 's_7_21': [534], 24: [489, 4607], 's_7_24': [564], 's_7_27': [415], 's_7_28': [580, 4743], 's_7_7': [4877], 's_8_3': [4714], 5: [5282, 5283, 760, 761, 762, 5193, 702], 's_8_5': [4789], 10: [399, 4681, 279], 's_8_10': [4696], 's_8_14': [4801], 15: [4969, 866, 5177, 5178, 867], 's_8_15': [835], 's_8_16': [4802], 's_8_23': [190], 29: [4667, 4666], 's_8_29': [654], 's_8_8': [4668], 12: [5222, 5220, 5221], 's_13_12': [237], 's_13_25': [4980], 's_13_13': [5085], 1: [537, 4982, 536], 's_16_1': [5207], 4: [4907, 5012, 566], 's_16_4': [671], 's_16_5': [747], 's_16_14': [850, 851], 's_16_17': [777], 's_16_19': [5192], 's_16_20': [821], 22: [130, 131, 132, 5265, 5266, 598, 5267], 's_16_22': [627], 's_16_29': [624], 's_16_16': [4968], 's_19_3': [746], 's_19_4': [5057], 's_19_5': [701], 's_19_9': [4984], 's_19_15': [4970, 985], 's_19_20': [776], 's_19_28': [4892], 's_19_19': [716, 5103], 's_20_3': [595], 's_20_4': [5027], 's_20_9': [5058, 5059], 's_20_11': [491], 's_20_14': [940, 941], 18: [4771, 310, 5281, 312, 311], 's_20_18': [326], 's_20_27': [5056], 's_20_20': [836], 's_23_10': [354], 's_23_11': [445], 's_23_21': [460], 's_23_22': [4875], 's_23_24': [4636], 's_23_28': [505], 's_23_29': [4651], 's_23_23': [293], 's_25_11': [282, 5190, 5191], 's_25_15': [5176, 5175], 's_25_26': [5131], 's_25_28': [4876, 400, 4787], 's_25_25': [5102], 's_26_5': [492], 's_26_9': [477], 's_26_26': [177], 's_27_4': [5011], 's_27_10': [4650], 's_27_18': [4891], 's_27_27': [4635], 's_3_10': [309], 's_3_14': [730], 's_3_24': [549], 's_3_3': [699], 's_9_15': [672], 's_9_11': [418], 's_9_14': [895], 's_9_22': [583], 's_9_9': [5209], 's_11_21': [401], 's_11_22': [5313], 's_11_11': [538], 's_21_1': [640], 's_21_5': [775], 's_21_4': [490], 's_21_14': [670], 's_21_21': [4834], 's_28_1': [625], 's_28_5': [4863], 's_28_24': [4697], 's_28_28': [4772, 4773], 's_14_17': [971], 's_14_14': [4850], 's_17_15': [687], 's_17_17': [1077], 's_24_24': [458], 's_5_1': [5073, 686], 's_5_18': [5253, 5252, 5251, 388], 's_5_22': [5268], 's_5_5': [807], 's_10_18': [294], 's_10_29': [369], 's_10_10': [4682], 's_15_1': [5162], 's_15_15': [5239], 's_29_29': [4665, 219], 's_12_1': [5237], 's_12_18': [327], 's_12_12': [267], 's_1_1': [5147], 's_4_4': [5013], 's_22_22': [117], 's_18_18': [238]}</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0.0001736526946107785</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.001004828958743594</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>{0: [4878, 760, 4774], 1: [4729, 4728], 2: [4909, 4833, 820], 5: [954, 4775, 955], 6: [730, 4863, 4864], 9: [714, 715, 4818], 10: [4879], 16: [819, 4653], 18: [4790, 4789, 1045], 24: [4698, 789], 27: [4803, 864, 865], 30: [835, 834], 3: [4819, 940], 14: [850, 849], 15: [924, 925], 20: [4760, 4759, 745, 4758], 21: [985, 984], 25: [775, 4609, 774], 29: [804, 805], 4: [4668, 4669, 969, 970], 7: [4834], 11: [4925, 4924], 28: [4939, 895], 8: [4683, 4684], 22: [999, 4804], 13: [911, 4744, 910], 26: [4699, 880, 879], 12: [4849, 4848], 23: [4714], 17: [894], 19: [700]}</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0.007815830609634786</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.01493736302196722</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>{0: [4878, 760, 4774], 1: [4729, 4728], 2: [4909, 4833, 820], 5: [954, 4775, 955], 6: [730, 4863, 4864], 9: [714, 715, 4818], 10: [4879], 16: [819, 4653], 18: [4790, 4789, 1045], 24: [4698, 789], 27: [4803, 864, 865], 30: [835, 834], 3: [4819, 940], 14: [850, 849], 15: [924, 925], 20: [4760, 4759, 745, 4758], 21: [985, 984], 25: [775, 4609, 774], 29: [804, 805], 4: [4668, 4669, 969, 970], 7: [4834], 11: [4925, 4924], 28: [4939, 895], 8: [4683, 4684], 22: [999, 4804], 13: [911, 4744, 910], 26: [4699, 880, 879], 12: [4849, 4848], 23: [4714], 17: [894], 19: [700]}</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0.007815830609634786</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.01493736302196722</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>{0: [4451, 4452, 2632, 2616, 2617, 4454, 4453], 1: [2649, 4544, 2648, 4498, 4496, 4497], 's_0_1': [2333], 2: [4228, 4364, 4363, 4378, 2435, 2436, 2437], 's_0_2': [4229], 5: [4617, 4618, 2691, 2692, 2693, 2694, 4619], 's_0_5': [4184], 6: [4347, 2287, 2289, 4466, 2288], 's_0_6': [2138], 9: [2677, 4679, 2770, 4319, 2769, 2768, 2767], 's_0_9': [2797], 10: [4091, 2199, 2196, 2197, 4526, 2198], 's_0_10': [2153], 16: [2663, 2740, 2739, 2662, 2736, 4379, 2738, 2737], 's_0_16': [4244], 18: [2587, 2316, 4273, 4197, 4198, 4138, 2586], 's_0_18': [4199], 24: [2723, 2724, 4589], 's_0_24': [4439], 27: [2304, 2303, 2302, 4259, 2392, 4258, 4257], 's_0_27': [2631], 30: [4334, 4333, 4332, 4407, 2256, 2259, 2258, 2257], 's_0_30': [2602], 's_0_0': [4450], 3: [2514, 2512, 2513], 's_1_3': [2498, 2499, 4678], 's_1_5': [2709], 's_1_6': [2213], 's_1_9': [2754], 14: [4211, 2182, 2183, 2184, 2185, 4859, 4856, 4857, 4858], 's_1_14': [2650], 15: [2346, 4483, 4092, 2559, 2558, 2557, 2556, 4093], 's_1_15': [4574], 's_1_16': [4559], 20: [4633, 4603, 2530, 2528, 2633, 2529], 's_1_20': [2664], 21: [2482, 2468, 2483], 's_1_21': [4482], 25: [2545, 4739, 2274, 4737, 4738], 's_1_25': [4724], 's_1_27': [4481], 29: [2363, 4288, 4287, 2361, 2362, 4017], 's_1_29': [2348], 's_1_1': [4495], 4: [4392, 2423, 2422, 2497, 4393], 's_2_4': [4467], 7: [2420, 4061, 4064, 4063, 4062], 's_2_7': [2481], 's_2_9': [2782], 11: [4183, 4181, 4182], 's_2_11': [2406], 's_2_16': [2753], 's_2_20': [2527], 's_2_21': [2467], 's_2_27': [2647], 28: [4301, 4302, 2452, 2450, 2451], 's_2_28': [4153], 's_2_29': [4122], 's_2_2': [2434], 's_5_4': [4304, 4303], 's_5_6': [2228, 4646, 2154], 's_5_7': [4079], 8: [4002, 4109, 2765, 4003, 4004], 's_5_8': [2690], 's_5_10': [2243], 22: [2544, 4572, 4573], 's_5_22': [2364], 's_5_5': [4124], 's_6_4': [4362], 's_6_10': [4602], 's_6_25': [4752], 's_6_27': [4271], 's_6_28': [2227], 's_6_29': [4437], 's_6_6': [4676, 2229], 's_9_14': [2785], 's_9_24': [4499], 's_9_25': [2784], 's_9_27': [2707], 's_9_30': [2722], 's_9_9': [2842], 13: [2574, 4693, 4692, 4691, 2121, 2122, 2123, 2124], 's_10_13': [4706], 's_10_14': [4286], 's_10_15': [4077], 's_10_27': [2212], 's_10_30': [4121], 's_10_10': [2151], 's_16_8': [2751], 's_16_14': [4844], 's_16_18': [4274], 's_16_24': [4484], 26: [4409, 4408, 2439, 4662, 2379, 2378], 's_16_26': [2708], 's_16_29': [4289], 's_16_30': [4349], 's_16_16': [4829], 's_18_3': [2511], 's_18_4': [2421], 's_18_7': [2286], 's_18_11': [4196], 12: [4421, 4422, 2541, 2542, 2543, 4423], 's_18_12': [4168], 's_18_15': [2585], 's_18_27': [2317], 's_18_28': [2347], 's_18_29': [4137], 's_18_18': [4167], 's_24_13': [4694], 's_24_20': [2603], 's_24_26': [4394], 's_24_24': [2588], 's_27_12': [4213], 's_27_22': [4587], 's_27_25': [4661], 's_27_28': [4272], 's_27_27': [4256], 's_30_11': [2572], 23: [4887, 4768, 4722, 2380], 's_30_23': [2260], 's_30_26': [4557], 's_30_28': [2377], 's_30_30': [4212], 's_3_12': [4468], 's_3_15': [4663], 's_3_20': [4513], 's_3_23': [4753], 's_3_3': [4723], 's_14_12': [2168], 's_14_13': [4721], 's_14_20': [4843], 's_14_23': [4842], 's_14_25': [4826], 's_14_28': [4316], 's_14_14': [2815], 's_15_7': [2376], 's_15_8': [2630], 's_15_13': [4543], 's_15_20': [4604], 's_15_26': [2573], 's_15_15': [4049], 's_20_4': [4438], 's_20_22': [2394], 's_20_25': [2484], 's_20_20': [4873], 's_21_12': [4528], 's_21_22': [4588], 's_21_21': [4558], 's_25_26': [2469], 's_25_25': [2619], 's_29_4': [4512], 's_29_8': [4018], 's_29_11': [2601], 's_29_12': [4527, 2318], 's_29_29': [2285], 's_4_4': [4348], 's_7_13': [4076], 's_7_28': [3942], 's_7_7': [2419], 's_11_13': [2106], 's_11_28': [2167], 's_11_11': [2226], 17: [2407, 2409, 2408], 's_28_17': [4317], 's_28_28': [4300], 's_8_8': [2615], 's_22_26': [4708], 's_22_22': [4571], 's_13_17': [2424], 's_13_26': [2454], 's_13_13': [4645], 's_26_12': [2393], 's_26_23': [4798], 's_26_26': [2440], 19: [4048], 's_12_19': [2526], 's_12_12': [2062], 's_23_17': [4783], 's_23_23': [2305], 's_17_17': [4542], 's_19_19': [2465]}</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0001215469613259668</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0008472335609594506</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>{0: [4451, 4452, 2632, 2616, 2617, 4454, 4453], 1: [2649, 4544, 2648, 4498, 4496, 4497], 's_0_1': [2333], 2: [4228, 4364, 4363, 4378, 2435, 2436, 2437], 's_0_2': [4229], 5: [4617, 4618, 2691, 2692, 2693, 2694, 4619], 's_0_5': [4184], 6: [4347, 2287, 2289, 4466, 2288], 's_0_6': [2138], 9: [2677, 4679, 2770, 4319, 2769, 2768, 2767], 's_0_9': [2797], 10: [4091, 2199, 2196, 2197, 4526, 2198], 's_0_10': [2153], 16: [2663, 2740, 2739, 2662, 2736, 4379, 2738, 2737], 's_0_16': [4244], 18: [2587, 2316, 4273, 4197, 4198, 4138, 2586], 's_0_18': [4199], 24: [2723, 2724, 4589], 's_0_24': [4439], 27: [2304, 2303, 2302, 4259, 2392, 4258, 4257], 's_0_27': [2631], 30: [4334, 4333, 4332, 4407, 2256, 2259, 2258, 2257], 's_0_30': [2602], 's_0_0': [4450], 3: [2514, 2512, 2513], 's_1_3': [2498, 2499, 4678], 's_1_5': [2709], 's_1_6': [2213], 's_1_9': [2754], 14: [4211, 2182, 2183, 2184, 2185, 4859, 4856, 4857, 4858], 's_1_14': [2650], 15: [2346, 4483, 4092, 2559, 2558, 2557, 2556, 4093], 's_1_15': [4574], 's_1_16': [4559], 20: [4633, 4603, 2530, 2528, 2633, 2529], 's_1_20': [2664], 21: [2482, 2468, 2483], 's_1_21': [4482], 25: [2545, 4739, 2274, 4737, 4738], 's_1_25': [4724], 's_1_27': [4481], 29: [2363, 4288, 4287, 2361, 2362, 4017], 's_1_29': [2348], 's_1_1': [4495], 4: [4392, 2423, 2422, 2497, 4393], 's_2_4': [4467], 7: [2420, 4061, 4064, 4063, 4062], 's_2_7': [2481], 's_2_9': [2782], 11: [4183, 4181, 4182], 's_2_11': [2406], 's_2_16': [2753], 's_2_20': [2527], 's_2_21': [2467], 's_2_27': [2647], 28: [4301, 4302, 2452, 2450, 2451], 's_2_28': [4153], 's_2_29': [4122], 's_2_2': [2434], 's_5_4': [4304, 4303], 's_5_6': [2228, 4646, 2154], 's_5_7': [4079], 8: [4002, 4109, 2765, 4003, 4004], 's_5_8': [2690], 's_5_10': [2243], 22: [2544, 4572, 4573], 's_5_22': [2364], 's_5_5': [4124], 's_6_4': [4362], 's_6_10': [4602], 's_6_25': [4752], 's_6_27': [4271], 's_6_28': [2227], 's_6_29': [4437], 's_6_6': [4676, 2229], 's_9_14': [2785], 's_9_24': [4499], 's_9_25': [2784], 's_9_27': [2707], 's_9_30': [2722], 's_9_9': [2842], 13: [2574, 4693, 4692, 4691, 2121, 2122, 2123, 2124], 's_10_13': [4706], 's_10_14': [4286], 's_10_15': [4077], 's_10_27': [2212], 's_10_30': [4121], 's_10_10': [2151], 's_16_8': [2751], 's_16_14': [4844], 's_16_18': [4274], 's_16_24': [4484], 26: [4409, 4408, 2439, 4662, 2379, 2378], 's_16_26': [2708], 's_16_29': [4289], 's_16_30': [4349], 's_16_16': [4829], 's_18_3': [2511], 's_18_4': [2421], 's_18_7': [2286], 's_18_11': [4196], 12: [4421, 4422, 2541, 2542, 2543, 4423], 's_18_12': [4168], 's_18_15': [2585], 's_18_27': [2317], 's_18_28': [2347], 's_18_29': [4137], 's_18_18': [4167], 's_24_13': [4694], 's_24_20': [2603], 's_24_26': [4394], 's_24_24': [2588], 's_27_12': [4213], 's_27_22': [4587], 's_27_25': [4661], 's_27_28': [4272], 's_27_27': [4256], 's_30_11': [2572], 23: [4887, 4768, 4722, 2380], 's_30_23': [2260], 's_30_26': [4557], 's_30_28': [2377], 's_30_30': [4212], 's_3_12': [4468], 's_3_15': [4663], 's_3_20': [4513], 's_3_23': [4753], 's_3_3': [4723], 's_14_12': [2168], 's_14_13': [4721], 's_14_20': [4843], 's_14_23': [4842], 's_14_25': [4826], 's_14_28': [4316], 's_14_14': [2815], 's_15_7': [2376], 's_15_8': [2630], 's_15_13': [4543], 's_15_20': [4604], 's_15_26': [2573], 's_15_15': [4049], 's_20_4': [4438], 's_20_22': [2394], 's_20_25': [2484], 's_20_20': [4873], 's_21_12': [4528], 's_21_22': [4588], 's_21_21': [4558], 's_25_26': [2469], 's_25_25': [2619], 's_29_4': [4512], 's_29_8': [4018], 's_29_11': [2601], 's_29_12': [4527, 2318], 's_29_29': [2285], 's_4_4': [4348], 's_7_13': [4076], 's_7_28': [3942], 's_7_7': [2419], 's_11_13': [2106], 's_11_28': [2167], 's_11_11': [2226], 17: [2407, 2409, 2408], 's_28_17': [4317], 's_28_28': [4300], 's_8_8': [2615], 's_22_26': [4708], 's_22_22': [4571], 's_13_17': [2424], 's_13_26': [2454], 's_13_13': [4645], 's_26_12': [2393], 's_26_23': [4798], 's_26_26': [2440], 19: [4048], 's_12_19': [2526], 's_12_12': [2062], 's_23_17': [4783], 's_23_23': [2305], 's_17_17': [4542], 's_19_19': [2465]}</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0.0001215469613259668</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.0008472335609594506</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>{0: [1857, 5154, 5155], 2: [5185, 2007], 9: [5109, 5110], 15: [4885, 1901, 1900], 17: [1826, 1827], 18: [1915, 5125, 1916], 22: [4945, 1842, 1841], 24: [5018, 1706], 26: [1977, 1976], 27: [1945, 5079, 1946, 5080], 31: [1812, 5095, 5094], 3: [2066, 2036, 5065], 6: [5020, 2006, 5035], 14: [5139, 5140], 10: [1931, 1930, 4870], 12: [1721, 1720, 4884], 29: [1751, 5049], 30: [4869, 1736, 1735], 1: [4854, 1705, 4853], 8: [5034, 1780, 1781], 11: [1796, 5019], 13: [5003, 1870, 5005, 5004], 25: [1856, 4974, 4975], 5: [4929, 4930, 1960], 21: [4944, 1811], 23: [4914, 4915], 19: [1676, 4960, 4959], 20: [1990, 5050, 1991], 7: [1961], 16: [1855, 4780], 4: [4839, 1795], 28: [5064]}</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0.002604166666666667</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.008945606269436284</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>{0: [1857, 5154, 5155], 2: [5185, 2007], 9: [5109, 5110], 15: [4885, 1901, 1900], 17: [1826, 1827], 18: [1915, 5125, 1916], 22: [4945, 1842, 1841], 24: [5018, 1706], 26: [1977, 1976], 27: [1945, 5079, 1946, 5080], 31: [1812, 5095, 5094], 3: [2066, 2036, 5065], 6: [5020, 2006, 5035], 14: [5139, 5140], 10: [1931, 1930, 4870], 12: [1721, 1720, 4884], 29: [1751, 5049], 30: [4869, 1736, 1735], 1: [4854, 1705, 4853], 8: [5034, 1780, 1781], 11: [1796, 5019], 13: [5003, 1870, 5005, 5004], 25: [1856, 4974, 4975], 5: [4929, 4930, 1960], 21: [4944, 1811], 23: [4914, 4915], 19: [1676, 4960, 4959], 20: [1990, 5050, 1991], 7: [1961], 16: [1855, 4780], 4: [4839, 1795], 28: [5064]}</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0.002604166666666667</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.008945606269436284</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>{0: [1501, 1502, 1891, 3547, 3548, 3460, 1892, 3549], 2: [2327, 2328, 2042, 3536, 2343, 3537], 's_0_2': [3445], 9: [3387, 3386, 3382, 1637, 3383, 3384, 3385], 's_0_9': [1638], 15: [1817, 3397, 3398, 3715, 1863, 3399, 1862], 's_0_15': [1547], 17: [1474, 3217, 1471, 1473, 1472], 's_0_17': [3472], 18: [2056, 3432, 3431, 2057, 2027, 3429, 3430], 's_0_18': [1877], 22: [3327, 2013, 2012, 3324, 3325, 2041, 3326], 's_0_22': [3280], 24: [1876, 3352, 3355, 3354, 3353], 's_0_24': [3340], 26: [3234, 3236, 3235], 's_0_26': [3219], 27: [3552, 1968, 2373, 2086, 3462, 3461, 3565, 2087], 's_0_27': [3564], 31: [1577, 1578, 3683, 3684, 3685, 3686, 3687], 's_0_31': [1758], 's_0_0': [3427], 3: [2298, 2296, 2297], 's_2_3': [2283], 6: [2192, 2358, 2357, 3191, 2281, 3312], 's_2_6': [3357], 's_2_9': [3372], 14: [3716, 3730, 2028, 2029], 's_2_14': [3506], 's_2_27': [3582], 's_2_31': [2313], 's_2_2': [3657], 10: [3417, 2372, 3102, 1725, 3099, 3100, 2371, 3101], 's_9_10': [2477], 12: [3579, 1740, 1741, 1742, 1743, 3580, 3578], 's_9_12': [1757], 's_9_17': [1487], 's_9_24': [1516], 's_9_27': [2147], 29: [1608, 1606, 1607], 's_9_29': [3323], 30: [2073, 2072, 1996, 1997, 3415], 's_9_30': [1982], 's_9_9': [2446], 1: [1442, 1441], 's_15_1': [3412], 8: [1575, 1576, 1802, 3279, 1667, 3278], 's_15_8': [3414], 11: [3309, 3310, 1953, 1952, 1756, 3190, 1951], 's_15_11': [3670], 's_15_12': [1698, 3714], 13: [1591, 3293, 3297, 3296, 3295, 3294, 1861], 's_15_13': [1622], 's_15_14': [1969], 's_15_18': [1772], 25: [3627, 1831, 3622, 1832, 1833, 3626, 3625, 3624, 3623], 's_15_25': [1834], 's_15_31': [1938, 1939], 's_15_15': [1864], 5: [3127, 2178, 2177, 3128, 3129, 3130, 3131, 2176], 's_17_5': [3143], 21: [3367, 3366, 1351, 1651, 3247, 3250, 3249, 3248], 's_17_21': [1546], 's_17_25': [1488], 's_17_31': [1518, 1517, 3488], 's_17_17': [1426], 's_18_3': [3447], 's_18_8': [1847], 's_18_10': [2055], 's_18_11': [3550], 's_18_14': [2058], 23: [1998, 2163, 3490, 3491], 's_18_23': [2162], 's_18_25': [3444], 's_18_26': [2026], 's_18_18': [2222], 's_22_6': [2342], 's_22_8': [1771], 's_22_11': [3220, 2011], 's_22_13': [2311], 's_22_14': [3610], 19: [1905, 1967, 3177, 3176, 1966, 3175], 's_22_19': [2326], 20: [2117, 3371, 1653, 1652, 3368, 3369, 3370], 's_22_20': [2071], 's_22_22': [3328], 's_24_1': [1457], 's_24_11': [1711], 's_24_19': [1875], 's_24_29': [1592], 's_24_24': [3351], 's_26_3': [3221], 's_26_6': [2146], 's_26_13': [2236], 's_26_25': [1846], 's_26_26': [2131], 's_27_3': [3566], 7: [3266, 3581, 2209, 2206, 2207, 2208], 's_27_7': [3251], 's_27_10': [2432], 's_27_13': [3281], 16: [1727, 3519, 1682, 3520], 's_27_16': [3521], 's_27_20': [2282], 's_27_30': [3446], 's_27_27': [2478], 's_31_3': [3672], 's_31_7': [2194], 's_31_8': [1562, 1561, 3187], 's_31_12': [1593], 's_31_14': [2014], 's_31_21': [3518, 1532, 1531], 's_31_29': [3653], 's_31_31': [1669], 's_3_6': [3492], 's_3_13': [3282], 's_3_3': [2299], 's_6_5': [3401], 's_6_7': [3522], 's_6_11': [3311], 's_6_20': [2251], 's_6_25': [3612], 's_6_6': [2220], 's_14_12': [2043], 's_14_14': [3745], 4: [1636, 1726, 3232, 3233], 's_10_4': [3203], 's_10_13': [2116, 2115], 's_10_25': [3114], 's_10_30': [3115], 's_10_10': [3053], 's_12_5': [1755], 's_12_13': [3188], 's_12_8': [1668], 's_12_16': [3534], 's_12_23': [3489], 28: [3656, 1923, 3655], 's_12_28': [3654], 's_12_29': [3563], 's_12_30': [3595], 's_12_12': [3069], 's_29_13': [3218], 's_29_21': [1621, 3173], 's_29_20': [3428], 's_29_25': [3458, 3459], 's_29_29': [1605], 's_30_5': [3416], 's_30_21': [3265], 's_30_19': [3160], 's_30_28': [2088], 's_30_30': [3701], 's_1_4': [1456], 's_1_5': [3142], 's_1_1': [3307], 's_8_4': [3158], 's_8_5': [1560], 's_8_11': [3308], 's_8_21': [3113], 's_8_8': [3037], 's_11_13': [2101], 's_11_21': [1786], 's_11_28': [3640], 's_11_11': [2070], 's_13_4': [1696], 's_13_5': [1590], 's_13_19': [1936], 's_13_13': [3298], 's_25_16': [3535], 's_25_21': [3264], 's_25_7': [2193], 's_25_23': [1848], 's_25_19': [3189], 's_25_28': [1893], 's_25_25': [1353], 's_5_7': [3132], 's_5_20': [3341], 's_5_21': [1486], 's_5_23': [3476], 's_5_5': [1350], 's_21_4': [1411], 's_21_19': [1981], 's_21_21': [1366], 's_23_20': [2102], 's_23_23': [2164], 's_19_7': [3162], 's_19_20': [3400], 's_19_19': [1860], 's_20_16': [3473], 's_20_20': [2266], 's_7_7': [3116], 's_16_4': [1681], 's_16_16': [3504], 's_4_4': [1635], 's_28_28': [1908, 3744]}</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0001237113402061856</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.000788912431740577</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>{0: [1501, 1502, 1891, 3547, 3548, 3460, 1892, 3549], 2: [2327, 2328, 2042, 3536, 2343, 3537], 's_0_2': [3445], 9: [3387, 3386, 3382, 1637, 3383, 3384, 3385], 's_0_9': [1638], 15: [1817, 3397, 3398, 3715, 1863, 3399, 1862], 's_0_15': [1547], 17: [1474, 3217, 1471, 1473, 1472], 's_0_17': [3472], 18: [2056, 3432, 3431, 2057, 2027, 3429, 3430], 's_0_18': [1877], 22: [3327, 2013, 2012, 3324, 3325, 2041, 3326], 's_0_22': [3280], 24: [1876, 3352, 3355, 3354, 3353], 's_0_24': [3340], 26: [3234, 3236, 3235], 's_0_26': [3219], 27: [3552, 1968, 2373, 2086, 3462, 3461, 3565, 2087], 's_0_27': [3564], 31: [1577, 1578, 3683, 3684, 3685, 3686, 3687], 's_0_31': [1758], 's_0_0': [3427], 3: [2298, 2296, 2297], 's_2_3': [2283], 6: [2192, 2358, 2357, 3191, 2281, 3312], 's_2_6': [3357], 's_2_9': [3372], 14: [3716, 3730, 2028, 2029], 's_2_14': [3506], 's_2_27': [3582], 's_2_31': [2313], 's_2_2': [3657], 10: [3417, 2372, 3102, 1725, 3099, 3100, 2371, 3101], 's_9_10': [2477], 12: [3579, 1740, 1741, 1742, 1743, 3580, 3578], 's_9_12': [1757], 's_9_17': [1487], 's_9_24': [1516], 's_9_27': [2147], 29: [1608, 1606, 1607], 's_9_29': [3323], 30: [2073, 2072, 1996, 1997, 3415], 's_9_30': [1982], 's_9_9': [2446], 1: [1442, 1441], 's_15_1': [3412], 8: [1575, 1576, 1802, 3279, 1667, 3278], 's_15_8': [3414], 11: [3309, 3310, 1953, 1952, 1756, 3190, 1951], 's_15_11': [3670], 's_15_12': [1698, 3714], 13: [1591, 3293, 3297, 3296, 3295, 3294, 1861], 's_15_13': [1622], 's_15_14': [1969], 's_15_18': [1772], 25: [3627, 1831, 3622, 1832, 1833, 3626, 3625, 3624, 3623], 's_15_25': [1834], 's_15_31': [1938, 1939], 's_15_15': [1864], 5: [3127, 2178, 2177, 3128, 3129, 3130, 3131, 2176], 's_17_5': [3143], 21: [3367, 3366, 1351, 1651, 3247, 3250, 3249, 3248], 's_17_21': [1546], 's_17_25': [1488], 's_17_31': [1518, 1517, 3488], 's_17_17': [1426], 's_18_3': [3447], 's_18_8': [1847], 's_18_10': [2055], 's_18_11': [3550], 's_18_14': [2058], 23: [1998, 2163, 3490, 3491], 's_18_23': [2162], 's_18_25': [3444], 's_18_26': [2026], 's_18_18': [2222], 's_22_6': [2342], 's_22_8': [1771], 's_22_11': [3220, 2011], 's_22_13': [2311], 's_22_14': [3610], 19: [1905, 1967, 3177, 3176, 1966, 3175], 's_22_19': [2326], 20: [2117, 3371, 1653, 1652, 3368, 3369, 3370], 's_22_20': [2071], 's_22_22': [3328], 's_24_1': [1457], 's_24_11': [1711], 's_24_19': [1875], 's_24_29': [1592], 's_24_24': [3351], 's_26_3': [3221], 's_26_6': [2146], 's_26_13': [2236], 's_26_25': [1846], 's_26_26': [2131], 's_27_3': [3566], 7: [3266, 3581, 2209, 2206, 2207, 2208], 's_27_7': [3251], 's_27_10': [2432], 's_27_13': [3281], 16: [1727, 3519, 1682, 3520], 's_27_16': [3521], 's_27_20': [2282], 's_27_30': [3446], 's_27_27': [2478], 's_31_3': [3672], 's_31_7': [2194], 's_31_8': [1562, 1561, 3187], 's_31_12': [1593], 's_31_14': [2014], 's_31_21': [3518, 1532, 1531], 's_31_29': [3653], 's_31_31': [1669], 's_3_6': [3492], 's_3_13': [3282], 's_3_3': [2299], 's_6_5': [3401], 's_6_7': [3522], 's_6_11': [3311], 's_6_20': [2251], 's_6_25': [3612], 's_6_6': [2220], 's_14_12': [2043], 's_14_14': [3745], 4: [1636, 1726, 3232, 3233], 's_10_4': [3203], 's_10_13': [2116, 2115], 's_10_25': [3114], 's_10_30': [3115], 's_10_10': [3053], 's_12_5': [1755], 's_12_13': [3188], 's_12_8': [1668], 's_12_16': [3534], 's_12_23': [3489], 28: [3656, 1923, 3655], 's_12_28': [3654], 's_12_29': [3563], 's_12_30': [3595], 's_12_12': [3069], 's_29_13': [3218], 's_29_21': [1621, 3173], 's_29_20': [3428], 's_29_25': [3458, 3459], 's_29_29': [1605], 's_30_5': [3416], 's_30_21': [3265], 's_30_19': [3160], 's_30_28': [2088], 's_30_30': [3701], 's_1_4': [1456], 's_1_5': [3142], 's_1_1': [3307], 's_8_4': [3158], 's_8_5': [1560], 's_8_11': [3308], 's_8_21': [3113], 's_8_8': [3037], 's_11_13': [2101], 's_11_21': [1786], 's_11_28': [3640], 's_11_11': [2070], 's_13_4': [1696], 's_13_5': [1590], 's_13_19': [1936], 's_13_13': [3298], 's_25_16': [3535], 's_25_21': [3264], 's_25_7': [2193], 's_25_23': [1848], 's_25_19': [3189], 's_25_28': [1893], 's_25_25': [1353], 's_5_7': [3132], 's_5_20': [3341], 's_5_21': [1486], 's_5_23': [3476], 's_5_5': [1350], 's_21_4': [1411], 's_21_19': [1981], 's_21_21': [1366], 's_23_20': [2102], 's_23_23': [2164], 's_19_7': [3162], 's_19_20': [3400], 's_19_19': [1860], 's_20_16': [3473], 's_20_20': [2266], 's_7_7': [3116], 's_16_4': [1681], 's_16_16': [3504], 's_4_4': [1635], 's_28_28': [1908, 3744]}</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0.0001237113402061856</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.000788912431740577</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>{0: [4451, 4452], 8: [2349, 2348], 11: [2273, 4437, 2272], 17: [2154, 2153], 18: [4377, 2257], 21: [2168, 2169], 30: [2393], 4: [2318, 4422, 4421], 19: [4527, 4526], 25: [4497, 2138, 4496], 27: [2198, 4602, 2199], 9: [2288, 4467, 4466], 10: [4572, 4571, 2078], 12: [4436], 20: [4331, 2242], 31: [2228, 4631], 5: [2108, 4541], 15: [4557, 4556], 16: [4586, 4587], 22: [4601, 2092, 2093], 23: [2139, 4676], 28: [2213, 4706, 2214], 29: [4511, 2122, 2123], 1: [2379, 2378], 24: [2227, 4362, 4361], 26: [4646, 4512, 2258], 32: [2243, 4481], 2: [2363, 4392, 2302], 3: [2364, 4542], 6: [4376, 2077], 7: [2304, 2303], 14: [2182, 2184, 2183], 13: [4347, 4346]}</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0.004355481419701603</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0113957502940607</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>{0: [4451, 4452], 8: [2349, 2348], 11: [2273, 4437, 2272], 17: [2154, 2153], 18: [4377, 2257], 21: [2168, 2169], 30: [2393], 4: [2318, 4422, 4421], 19: [4527, 4526], 25: [4497, 2138, 4496], 27: [2198, 4602, 2199], 9: [2288, 4467, 4466], 10: [4572, 4571, 2078], 12: [4436], 20: [4331, 2242], 31: [2228, 4631], 5: [2108, 4541], 15: [4557, 4556], 16: [4586, 4587], 22: [4601, 2092, 2093], 23: [2139, 4676], 28: [2213, 4706, 2214], 29: [4511, 2122, 2123], 1: [2379, 2378], 24: [2227, 4362, 4361], 26: [4646, 4512, 2258], 32: [2243, 4481], 2: [2363, 4392, 2302], 3: [2364, 4542], 6: [4376, 2077], 7: [2304, 2303], 14: [2182, 2184, 2183], 13: [4347, 4346]}</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0.004355481419701603</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.0113957502940607</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.271</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>{0: [4591, 4500, 248], 8: [4503, 4501, 4502], 's_0_8': [293], 11: [323, 324, 4711, 4713, 4712], 's_0_11': [309, 4696], 17: [247, 594, 593, 4440, 4441, 4442], 's_0_17': [203], 18: [4636, 4635, 503, 4666, 4757, 504], 's_0_18': [4620, 174], 21: [157, 158, 159, 372, 371, 4936, 160, 4935], 's_0_21': [4545, 113], 30: [4695, 249, 370, 4756], 's_0_30': [4530, 204], 's_0_0': [4561], 4: [968, 940, 939, 713, 4548, 4549], 's_8_4': [4504], 's_8_18': [488], 19: [4668, 4411, 4667, 4412, 533, 534], 's_8_19': [308], 25: [820, 548, 4487, 819, 818, 4488], 's_8_25': [4517], 27: [4774, 760, 4368, 4698, 758, 759], 's_8_27': [728], 's_8_8': [383], 9: [4546, 4547, 279, 280, 278], 's_11_9': [4726], 10: [894, 4758, 789, 790, 791, 4759, 5073, 5072], 's_11_10': [580], 12: [804, 4789, 863, 864, 4879, 865], 's_11_12': [4714], 's_11_18': [415], 's_11_19': [4426], 20: [609, 610, 4891, 625, 4892], 's_11_20': [325], 31: [446, 4803, 714, 5041, 5042, 5043, 716, 715], 's_11_31': [775], 's_11_11': [4485], 5: [892, 4563, 4564, 893], 's_17_5': [683], 's_17_9': [353], 15: [266, 668, 669, 4577, 4576, 263, 264, 4578, 265], 's_17_15': [262], 16: [4532, 801, 802, 4531, 803, 4533], 's_17_16': [338], 22: [848, 849, 4652, 655, 4744, 654, 4743], 's_17_22': [4443], 23: [4470, 4472, 4471], 's_17_23': [233], 28: [4399, 4621, 832, 833, 564, 4622, 4623], 's_17_28': [563], 29: [490, 4397, 427, 489, 4592, 4727, 428], 's_17_29': [442], 's_17_17': [652], 1: [4771, 4772, 549, 550], 's_18_1': [505], 24: [4815, 4816, 4818, 565, 4817], 's_18_24': [444], 26: [4381, 684, 218, 4608, 4607, 4606, 219, 220, 221], 's_18_26': [399], 's_18_30': [339], 's_18_18': [502], 's_21_15': [5101], 's_21_23': [173], 's_21_24': [175], 's_21_26': [4380], 's_21_31': [311, 312, 5236], 32: [4323, 4320, 4321, 608, 607, 4322], 's_21_32': [172], 's_21_21': [4590], 's_30_1': [385], 's_30_9': [4861], 's_30_24': [4801], 's_30_26': [235], 's_30_30': [4755], 2: [4999, 745, 4952, 744, 4998, 4953, 746], 's_4_2': [941], 's_4_12': [955], 's_4_16': [4534], 's_4_22': [4745], 's_4_27': [4458], 's_4_28': [4624], 's_4_4': [4804], 's_19_1': [4637], 's_19_2': [729], 's_19_10': [4669], 's_19_22': [4653], 's_19_25': [4427], 's_19_26': [292], 's_19_29': [398], 's_19_19': [472], 's_25_1': [4847, 4848], 's_25_2': [4954], 's_25_12': [4519], 's_25_16': [698], 's_25_23': [4473], 's_25_27': [4367], 's_25_29': [4486], 's_25_31': [5013, 821], 's_25_32': [547], 's_25_25': [4352], 3: [969, 4684, 774, 4681, 4682, 4683], 's_27_3': [773], 's_27_15': [4518], 's_27_24': [850], 's_27_2': [4863], 's_27_26': [4609], 6: [4834, 700, 4832, 4833], 's_27_6': [880], 's_27_10': [4699], 's_27_16': [787], 's_27_22': [4878], 's_27_28': [4369], 's_27_27': [4384], 's_9_1': [294, 295], 's_9_15': [4830], 's_9_16': [473], 's_9_20': [4906], 's_9_28': [414], 's_9_32': [277], 's_9_9': [281], 's_10_3': [4760], 's_10_15': [552, 5131, 5132], 7: [4594, 637, 4593, 638], 's_10_7': [879], 's_10_26': [4728], 's_10_5': [925, 924], 's_10_6': [805], 14: [4457, 622, 623, 536, 535, 4802, 624], 's_10_14': [5087], 's_10_22': [656], 's_10_31': [611], 's_10_10': [792], 's_12_5': [4414], 's_12_6': [895], 's_12_22': [910], 's_12_12': [4864], 's_20_24': [566], 's_20_2': [416], 's_20_6': [475, 4831], 's_20_22': [4968], 's_20_29': [460, 459], 's_20_20': [401], 's_31_24': [730], 's_31_7': [699], 's_31_26': [5040], 's_31_28': [834], 's_31_14': [5102], 's_31_31': [5176], 's_5_3': [909], 's_5_15': [4579], 's_5_16': [4234], 's_5_28': [4339], 's_5_32': [4324], 's_5_5': [4294], 's_15_1': [4921, 310], 's_15_22': [4908, 670], 's_15_26': [458], 's_15_28': [384], 's_15_29': [4562], 's_15_32': [4428], 's_15_15': [267], 's_16_3': [369], 's_16_7': [4338], 's_16_28': [4308], 's_16_16': [4219], 's_22_24': [4742], 13: [596, 595], 's_22_13': [4938], 's_22_14': [4982], 's_22_22': [4651], 's_23_7': [653], 's_23_14': [578], 's_23_23': [188], 's_28_14': [4398], 's_28_29': [4697], 's_28_28': [923], 's_29_13': [4862], 's_29_26': [4396], 's_29_14': [4922], 's_29_29': [426], 's_1_3': [429], 's_1_24': [400], 's_1_1': [551], 's_24_13': [4877], 's_24_24': [190], 's_26_3': [4680], 's_26_2': [4951], 's_26_7': [352, 4292, 4291], 's_26_32': [337], 's_26_26': [4350], 's_32_14': [4413], 's_32_32': [606], 's_2_3': [4638], 's_2_7': [4353, 743], 's_2_13': [4997], 's_2_2': [581], 's_3_3': [970], 's_6_13': [4773], 's_6_14': [4788], 's_6_6': [4835], 's_7_7': [636], 's_14_13': [5012], 's_14_14': [4787], 's_13_13': [597]}</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0.001838235294117647</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.002765918069677063</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>{0: [4591, 4500, 248], 8: [4503, 4501, 4502], 's_0_8': [293], 11: [323, 324, 4711, 4713, 4712], 's_0_11': [309, 4696], 17: [247, 594, 593, 4440, 4441, 4442], 's_0_17': [203], 18: [4636, 4635, 503, 4666, 4757, 504], 's_0_18': [4620, 174], 21: [157, 158, 159, 372, 371, 4936, 160, 4935], 's_0_21': [4545, 113], 30: [4695, 249, 370, 4756], 's_0_30': [4530, 204], 's_0_0': [4561], 4: [968, 940, 939, 713, 4548, 4549], 's_8_4': [4504], 's_8_18': [488], 19: [4668, 4411, 4667, 4412, 533, 534], 's_8_19': [308], 25: [820, 548, 4487, 819, 818, 4488], 's_8_25': [4517], 27: [4774, 760, 4368, 4698, 758, 759], 's_8_27': [728], 's_8_8': [383], 9: [4546, 4547, 279, 280, 278], 's_11_9': [4726], 10: [894, 4758, 789, 790, 791, 4759, 5073, 5072], 's_11_10': [580], 12: [804, 4789, 863, 864, 4879, 865], 's_11_12': [4714], 's_11_18': [415], 's_11_19': [4426], 20: [609, 610, 4891, 625, 4892], 's_11_20': [325], 31: [446, 4803, 714, 5041, 5042, 5043, 716, 715], 's_11_31': [775], 's_11_11': [4485], 5: [892, 4563, 4564, 893], 's_17_5': [683], 's_17_9': [353], 15: [266, 668, 669, 4577, 4576, 263, 264, 4578, 265], 's_17_15': [262], 16: [4532, 801, 802, 4531, 803, 4533], 's_17_16': [338], 22: [848, 849, 4652, 655, 4744, 654, 4743], 's_17_22': [4443], 23: [4470, 4472, 4471], 's_17_23': [233], 28: [4399, 4621, 832, 833, 564, 4622, 4623], 's_17_28': [563], 29: [490, 4397, 427, 489, 4592, 4727, 428], 's_17_29': [442], 's_17_17': [652], 1: [4771, 4772, 549, 550], 's_18_1': [505], 24: [4815, 4816, 4818, 565, 4817], 's_18_24': [444], 26: [4381, 684, 218, 4608, 4607, 4606, 219, 220, 221], 's_18_26': [399], 's_18_30': [339], 's_18_18': [502], 's_21_15': [5101], 's_21_23': [173], 's_21_24': [175], 's_21_26': [4380], 's_21_31': [311, 312, 5236], 32: [4323, 4320, 4321, 608, 607, 4322], 's_21_32': [172], 's_21_21': [4590], 's_30_1': [385], 's_30_9': [4861], 's_30_24': [4801], 's_30_26': [235], 's_30_30': [4755], 2: [4999, 745, 4952, 744, 4998, 4953, 746], 's_4_2': [941], 's_4_12': [955], 's_4_16': [4534], 's_4_22': [4745], 's_4_27': [4458], 's_4_28': [4624], 's_4_4': [4804], 's_19_1': [4637], 's_19_2': [729], 's_19_10': [4669], 's_19_22': [4653], 's_19_25': [4427], 's_19_26': [292], 's_19_29': [398], 's_19_19': [472], 's_25_1': [4847, 4848], 's_25_2': [4954], 's_25_12': [4519], 's_25_16': [698], 's_25_23': [4473], 's_25_27': [4367], 's_25_29': [4486], 's_25_31': [5013, 821], 's_25_32': [547], 's_25_25': [4352], 3: [969, 4684, 774, 4681, 4682, 4683], 's_27_3': [773], 's_27_15': [4518], 's_27_24': [850], 's_27_2': [4863], 's_27_26': [4609], 6: [4834, 700, 4832, 4833], 's_27_6': [880], 's_27_10': [4699], 's_27_16': [787], 's_27_22': [4878], 's_27_28': [4369], 's_27_27': [4384], 's_9_1': [294, 295], 's_9_15': [4830], 's_9_16': [473], 's_9_20': [4906], 's_9_28': [414], 's_9_32': [277], 's_9_9': [281], 's_10_3': [4760], 's_10_15': [552, 5131, 5132], 7: [4594, 637, 4593, 638], 's_10_7': [879], 's_10_26': [4728], 's_10_5': [925, 924], 's_10_6': [805], 14: [4457, 622, 623, 536, 535, 4802, 624], 's_10_14': [5087], 's_10_22': [656], 's_10_31': [611], 's_10_10': [792], 's_12_5': [4414], 's_12_6': [895], 's_12_22': [910], 's_12_12': [4864], 's_20_24': [566], 's_20_2': [416], 's_20_6': [475, 4831], 's_20_22': [4968], 's_20_29': [460, 459], 's_20_20': [401], 's_31_24': [730], 's_31_7': [699], 's_31_26': [5040], 's_31_28': [834], 's_31_14': [5102], 's_31_31': [5176], 's_5_3': [909], 's_5_15': [4579], 's_5_16': [4234], 's_5_28': [4339], 's_5_32': [4324], 's_5_5': [4294], 's_15_1': [4921, 310], 's_15_22': [4908, 670], 's_15_26': [458], 's_15_28': [384], 's_15_29': [4562], 's_15_32': [4428], 's_15_15': [267], 's_16_3': [369], 's_16_7': [4338], 's_16_28': [4308], 's_16_16': [4219], 's_22_24': [4742], 13: [596, 595], 's_22_13': [4938], 's_22_14': [4982], 's_22_22': [4651], 's_23_7': [653], 's_23_14': [578], 's_23_23': [188], 's_28_14': [4398], 's_28_29': [4697], 's_28_28': [923], 's_29_13': [4862], 's_29_26': [4396], 's_29_14': [4922], 's_29_29': [426], 's_1_3': [429], 's_1_24': [400], 's_1_1': [551], 's_24_13': [4877], 's_24_24': [190], 's_26_3': [4680], 's_26_2': [4951], 's_26_7': [352, 4292, 4291], 's_26_32': [337], 's_26_26': [4350], 's_32_14': [4413], 's_32_32': [606], 's_2_3': [4638], 's_2_7': [4353, 743], 's_2_13': [4997], 's_2_2': [581], 's_3_3': [970], 's_6_13': [4773], 's_6_14': [4788], 's_6_6': [4835], 's_7_7': [636], 's_14_13': [5012], 's_14_14': [4787], 's_13_13': [597]}</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0.001838235294117647</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.002765918069677063</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>{0: [2068, 5545], 5: [1963, 1964], 7: [5546, 2203, 2204], 8: [1993, 5425], 12: [2039], 17: [2008, 5395], 22: [5440, 5441], 27: [2084, 2083], 30: [5455, 5456], 31: [2097, 5636, 2099, 2098], 14: [5515, 2189, 5516], 15: [5605, 5486, 2024], 26: [5650, 2069, 5651], 2: [5366, 2144, 2143], 4: [2053, 5531, 5530], 6: [2234, 5590, 5591], 10: [2219, 5261, 2218], 13: [5607, 2114, 5606], 16: [5561, 5560, 1978, 1979], 21: [2113, 5426], 23: [2158, 2159], 29: [2038, 5337, 2052, 5336], 1: [2188, 5350, 5351], 19: [1977, 5275, 5276], 24: [5576, 1994, 5575], 33: [2082, 2023, 5321], 18: [5471], 9: [5380, 5381], 28: [5501, 2128, 2129], 3: [2233, 5411], 32: [2173, 2174], 25: [5396, 2249, 2248], 11: [5652, 5517, 2294], 20: [5487, 2293]}</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0.004357298474945533</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.01082494929975588</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>{0: [2068, 5545], 5: [1963, 1964], 7: [5546, 2203, 2204], 8: [1993, 5425], 12: [2039], 17: [2008, 5395], 22: [5440, 5441], 27: [2084, 2083], 30: [5455, 5456], 31: [2097, 5636, 2099, 2098], 14: [5515, 2189, 5516], 15: [5605, 5486, 2024], 26: [5650, 2069, 5651], 2: [5366, 2144, 2143], 4: [2053, 5531, 5530], 6: [2234, 5590, 5591], 10: [2219, 5261, 2218], 13: [5607, 2114, 5606], 16: [5561, 5560, 1978, 1979], 21: [2113, 5426], 23: [2158, 2159], 29: [2038, 5337, 2052, 5336], 1: [2188, 5350, 5351], 19: [1977, 5275, 5276], 24: [5576, 1994, 5575], 33: [2082, 2023, 5321], 18: [5471], 9: [5380, 5381], 28: [5501, 2128, 2129], 3: [2233, 5411], 32: [2173, 2174], 25: [5396, 2249, 2248], 11: [5652, 5517, 2294], 20: [5487, 2293]}</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0.004357298474945533</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.01082494929975588</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>{0: [1104, 1103, 4219, 4220, 4265, 1102], 5: [4579, 4550, 833, 4549], 's_0_5': [1089], 7: [4402, 1268, 4221, 1146, 1147, 4400, 4401], 's_0_7': [1117], 8: [4833, 760, 759, 758, 891, 4384, 892], 's_0_8': [876], 12: [4745, 4519, 4504, 969, 4595, 4503, 968], 's_0_12': [1105], 17: [1221, 4536, 1222, 1223], 's_0_17': [4535], 22: [1072, 4610, 1073, 4671, 4670, 4685, 1074], 's_0_22': [4700], 27: [4324, 1163, 4323, 862, 1162, 4325], 's_0_27': [861], 30: [4177, 4176, 4175, 728, 727, 4173, 4174], 's_0_30': [801], 31: [1210, 1042, 1043, 4701, 1209, 1208, 4416, 4415], 's_0_31': [4625], 's_0_0': [1071], 's_5_8': [4623], 14: [802, 803, 4669, 4668, 804], 's_5_14': [4548], 15: [4819, 4639, 1011, 1012, 1014, 1013], 's_5_15': [4638], 's_5_22': [1119], 26: [4836, 4835, 4834, 878, 879, 880], 's_5_26': [4534], 's_5_5': [834], 2: [4716, 1285, 1282, 1283, 1284], 's_7_2': [4236], 4: [4775, 4222, 4776, 4777, 4774, 1450, 1449, 1448, 1447], 's_7_4': [4387], 6: [1269, 1178, 4564, 4567, 4566, 954, 4565], 's_7_6': [953], 10: [4489, 4490, 1133, 1237, 1371, 4252, 4251, 1132], 's_7_10': [1236], 13: [4462, 4461, 4458, 4459, 4460], 's_7_13': [4446], 16: [4640, 1191, 4432, 1194, 1193, 1192, 4431], 's_7_16': [1342], 21: [877, 939, 938, 4354], 's_7_21': [4385], 23: [4069, 4626, 1255, 1254, 1253, 1252, 1251, 4071, 4070], 's_7_23': [4356], 29: [1326, 966, 1026, 4144, 1041, 4146, 4145], 's_7_29': [1161], 's_7_7': [4355], 1: [4866, 4865, 1165, 819, 820, 4864], 's_8_1': [850], 's_8_4': [865], 19: [4189, 936, 4295, 4294, 937], 's_8_19': [4099], 24: [775, 774, 771, 772, 4488, 773], 's_8_24': [4713], 's_8_29': [4084], 33: [4339, 952, 4250, 1059, 1058, 4100, 1056, 1057], 's_8_33': [4249], 's_8_8': [4878, 715], 's_12_4': [1090], 's_12_6': [818], 's_12_15': [940], 18: [923, 924], 's_12_18': [4699], 's_12_24': [713], 's_12_30': [4518], 's_12_12': [4714], 9: [1433, 1434, 1329, 1328, 4612], 's_17_9': [1343], 's_17_16': [4115], 's_17_19': [4310], 28: [4597, 1344, 1314, 4656, 4655, 4654, 743, 4653, 744], 's_17_28': [1299], 's_17_29': [1206], 's_17_33': [4130], 's_17_17': [1220], 3: [1372, 1374, 1373], 's_22_3': [1359], 's_22_10': [983], 's_22_14': [1044], 's_22_16': [1179], 's_22_21': [4580], 's_22_31': [1239], 's_22_22': [1149], 's_27_6': [4581], 's_27_13': [832], 's_27_14': [4293], 's_27_16': [4596], 's_27_21': [982], 's_27_24': [4278], 's_27_31': [4611], 's_27_33': [4520], 's_27_27': [697], 's_30_2': [4191], 's_30_4': [1416], 's_30_10': [1356], 's_30_15': [4190], 's_30_16': [1176], 's_30_24': [4188, 786], 's_30_28': [4398], 32: [4474, 4475, 1311, 1312, 1313, 4476], 's_30_32': [4473], 's_30_30': [4172], 's_31_1': [4850], 's_31_2': [4761], 's_31_9': [4731], 's_31_10': [1118], 's_31_19': [4235], 's_31_21': [967], 25: [4702, 1404, 1403], 's_31_25': [4686, 4687], 's_31_26': [4414], 's_31_28': [1224], 's_31_31': [4896], 's_14_1': [4803], 's_14_4': [789], 11: [1028, 1088, 4429, 4430], 's_14_11': [1029], 's_14_15': [4818], 's_14_18': [4609], 's_14_28': [714], 's_14_14': [805], 20: [1027, 4342, 4341, 4340], 's_15_20': [4309], 's_15_26': [1015], 's_15_32': [998], 's_15_6': [955], 's_15_4': [895], 's_15_16': [4820], 's_15_18': [925], 's_15_33': [4160], 's_15_15': [1030], 's_26_2': [1300], 's_26_6': [4624], 's_26_11': [4444], 's_26_13': [893], 's_26_26': [4837], 's_2_1': [4881], 's_2_9': [4717], 's_2_20': [1267], 's_2_32': [4281], 's_2_2': [1286], 's_4_28': [1164], 's_4_9': [4492], 's_4_10': [4237], 's_4_13': [4447], 's_4_24': [4789], 's_4_29': [1341], 's_4_4': [1240], 's_6_28': [4551], 's_6_32': [1148], 's_6_3': [4582], 's_6_6': [1464], 's_10_20': [1432], 's_10_32': [4371], 's_10_3': [4311], 's_10_11': [4505], 's_10_19': [4296], 's_10_24': [4206, 4204, 4205], 's_10_33': [4280], 's_10_10': [1370], 's_13_23': [1238], 's_13_28': [4443], 's_13_11': [787], 's_13_16': [1298], 's_13_24': [698], 's_13_25': [1388], 's_13_13': [4457], 's_16_9': [1327], 's_16_11': [4445], 's_16_19': [1177], 's_16_25': [4417], 's_16_16': [4791], 's_21_18': [4399], 's_21_21': [817], 's_23_1': [4926], 's_23_3': [1358], 's_23_9': [4641], 's_23_24': [4054], 's_23_25': [1389], 's_23_28': [4821], 's_23_29': [1116], 's_23_33': [1175], 's_23_23': [4101], 's_29_20': [4264], 's_29_32': [1296], 's_29_19': [4129], 's_29_29': [1040], 's_1_28': [1315], 's_1_1': [4879], 's_19_19': [816], 's_24_28': [4533], 's_24_11': [863], 's_24_24': [4008], 's_33_28': [984, 4760], 's_33_32': [4085, 4086], 's_33_33': [1160], 's_18_28': [909], 's_18_32': [908], 's_18_18': [4594], 's_9_25': [4762], 's_9_9': [4732], 's_28_3': [4806], 's_28_28': [745], 's_3_20': [4327], 's_3_3': [4357], 's_32_25': [4491], 's_32_32': [1310], 's_25_25': [4537], 's_11_20': [1087], 's_11_11': [4428], 's_20_20': [1477]}</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0001745283018867924</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0009150335517643036</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>{0: [1104, 1103, 4219, 4220, 4265, 1102], 5: [4579, 4550, 833, 4549], 's_0_5': [1089], 7: [4402, 1268, 4221, 1146, 1147, 4400, 4401], 's_0_7': [1117], 8: [4833, 760, 759, 758, 891, 4384, 892], 's_0_8': [876], 12: [4745, 4519, 4504, 969, 4595, 4503, 968], 's_0_12': [1105], 17: [1221, 4536, 1222, 1223], 's_0_17': [4535], 22: [1072, 4610, 1073, 4671, 4670, 4685, 1074], 's_0_22': [4700], 27: [4324, 1163, 4323, 862, 1162, 4325], 's_0_27': [861], 30: [4177, 4176, 4175, 728, 727, 4173, 4174], 's_0_30': [801], 31: [1210, 1042, 1043, 4701, 1209, 1208, 4416, 4415], 's_0_31': [4625], 's_0_0': [1071], 's_5_8': [4623], 14: [802, 803, 4669, 4668, 804], 's_5_14': [4548], 15: [4819, 4639, 1011, 1012, 1014, 1013], 's_5_15': [4638], 's_5_22': [1119], 26: [4836, 4835, 4834, 878, 879, 880], 's_5_26': [4534], 's_5_5': [834], 2: [4716, 1285, 1282, 1283, 1284], 's_7_2': [4236], 4: [4775, 4222, 4776, 4777, 4774, 1450, 1449, 1448, 1447], 's_7_4': [4387], 6: [1269, 1178, 4564, 4567, 4566, 954, 4565], 's_7_6': [953], 10: [4489, 4490, 1133, 1237, 1371, 4252, 4251, 1132], 's_7_10': [1236], 13: [4462, 4461, 4458, 4459, 4460], 's_7_13': [4446], 16: [4640, 1191, 4432, 1194, 1193, 1192, 4431], 's_7_16': [1342], 21: [877, 939, 938, 4354], 's_7_21': [4385], 23: [4069, 4626, 1255, 1254, 1253, 1252, 1251, 4071, 4070], 's_7_23': [4356], 29: [1326, 966, 1026, 4144, 1041, 4146, 4145], 's_7_29': [1161], 's_7_7': [4355], 1: [4866, 4865, 1165, 819, 820, 4864], 's_8_1': [850], 's_8_4': [865], 19: [4189, 936, 4295, 4294, 937], 's_8_19': [4099], 24: [775, 774, 771, 772, 4488, 773], 's_8_24': [4713], 's_8_29': [4084], 33: [4339, 952, 4250, 1059, 1058, 4100, 1056, 1057], 's_8_33': [4249], 's_8_8': [4878, 715], 's_12_4': [1090], 's_12_6': [818], 's_12_15': [940], 18: [923, 924], 's_12_18': [4699], 's_12_24': [713], 's_12_30': [4518], 's_12_12': [4714], 9: [1433, 1434, 1329, 1328, 4612], 's_17_9': [1343], 's_17_16': [4115], 's_17_19': [4310], 28: [4597, 1344, 1314, 4656, 4655, 4654, 743, 4653, 744], 's_17_28': [1299], 's_17_29': [1206], 's_17_33': [4130], 's_17_17': [1220], 3: [1372, 1374, 1373], 's_22_3': [1359], 's_22_10': [983], 's_22_14': [1044], 's_22_16': [1179], 's_22_21': [4580], 's_22_31': [1239], 's_22_22': [1149], 's_27_6': [4581], 's_27_13': [832], 's_27_14': [4293], 's_27_16': [4596], 's_27_21': [982], 's_27_24': [4278], 's_27_31': [4611], 's_27_33': [4520], 's_27_27': [697], 's_30_2': [4191], 's_30_4': [1416], 's_30_10': [1356], 's_30_15': [4190], 's_30_16': [1176], 's_30_24': [4188, 786], 's_30_28': [4398], 32: [4474, 4475, 1311, 1312, 1313, 4476], 's_30_32': [4473], 's_30_30': [4172], 's_31_1': [4850], 's_31_2': [4761], 's_31_9': [4731], 's_31_10': [1118], 's_31_19': [4235], 's_31_21': [967], 25: [4702, 1404, 1403], 's_31_25': [4686, 4687], 's_31_26': [4414], 's_31_28': [1224], 's_31_31': [4896], 's_14_1': [4803], 's_14_4': [789], 11: [1028, 1088, 4429, 4430], 's_14_11': [1029], 's_14_15': [4818], 's_14_18': [4609], 's_14_28': [714], 's_14_14': [805], 20: [1027, 4342, 4341, 4340], 's_15_20': [4309], 's_15_26': [1015], 's_15_32': [998], 's_15_6': [955], 's_15_4': [895], 's_15_16': [4820], 's_15_18': [925], 's_15_33': [4160], 's_15_15': [1030], 's_26_2': [1300], 's_26_6': [4624], 's_26_11': [4444], 's_26_13': [893], 's_26_26': [4837], 's_2_1': [4881], 's_2_9': [4717], 's_2_20': [1267], 's_2_32': [4281], 's_2_2': [1286], 's_4_28': [1164], 's_4_9': [4492], 's_4_10': [4237], 's_4_13': [4447], 's_4_24': [4789], 's_4_29': [1341], 's_4_4': [1240], 's_6_28': [4551], 's_6_32': [1148], 's_6_3': [4582], 's_6_6': [1464], 's_10_20': [1432], 's_10_32': [4371], 's_10_3': [4311], 's_10_11': [4505], 's_10_19': [4296], 's_10_24': [4206, 4204, 4205], 's_10_33': [4280], 's_10_10': [1370], 's_13_23': [1238], 's_13_28': [4443], 's_13_11': [787], 's_13_16': [1298], 's_13_24': [698], 's_13_25': [1388], 's_13_13': [4457], 's_16_9': [1327], 's_16_11': [4445], 's_16_19': [1177], 's_16_25': [4417], 's_16_16': [4791], 's_21_18': [4399], 's_21_21': [817], 's_23_1': [4926], 's_23_3': [1358], 's_23_9': [4641], 's_23_24': [4054], 's_23_25': [1389], 's_23_28': [4821], 's_23_29': [1116], 's_23_33': [1175], 's_23_23': [4101], 's_29_20': [4264], 's_29_32': [1296], 's_29_19': [4129], 's_29_29': [1040], 's_1_28': [1315], 's_1_1': [4879], 's_19_19': [816], 's_24_28': [4533], 's_24_11': [863], 's_24_24': [4008], 's_33_28': [984, 4760], 's_33_32': [4085, 4086], 's_33_33': [1160], 's_18_28': [909], 's_18_32': [908], 's_18_18': [4594], 's_9_25': [4762], 's_9_9': [4732], 's_28_3': [4806], 's_28_28': [745], 's_3_20': [4327], 's_3_3': [4357], 's_32_25': [4491], 's_32_32': [1310], 's_25_25': [4537], 's_11_20': [1087], 's_11_11': [4428], 's_20_20': [1477]}</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0001745283018867924</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.0009150335517643036</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>{0: [1730], 3: [3938, 3940, 3939], 4: [4059, 1791], 13: [4044, 1656], 20: [4014], 23: [3999, 4000, 1970], 24: [3984, 1910, 3985], 27: [1715, 1714], 34: [4074, 4075], 18: [4045, 4046, 2105], 19: [3879, 1820], 29: [1806, 1805], 31: [1761, 1760], 32: [3834, 2030, 3835], 33: [2015], 5: [4179, 4180, 1956, 1955], 10: [1790], 22: [4119, 1926, 1925], 26: [3894, 1745], 7: [2016, 4015, 1895], 9: [4061, 4060, 1865], 1: [2000, 3925], 6: [4029, 4030], 15: [1909, 3880], 16: [3804, 3805, 2060, 2059], 17: [3849, 3850, 3970, 1985], 11: [1879, 4089, 1880], 12: [4104], 14: [1940, 3954], 28: [2045], 25: [3908, 3910, 3909], 30: [2106, 4105], 21: [1835, 3969], 2: [1851, 3895, 1850], 8: [3924]}</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0.008668889458835601</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.01520381536611324</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>{0: [1730], 3: [3938, 3940, 3939], 4: [4059, 1791], 13: [4044, 1656], 20: [4014], 23: [3999, 4000, 1970], 24: [3984, 1910, 3985], 27: [1715, 1714], 34: [4074, 4075], 18: [4045, 4046, 2105], 19: [3879, 1820], 29: [1806, 1805], 31: [1761, 1760], 32: [3834, 2030, 3835], 33: [2015], 5: [4179, 4180, 1956, 1955], 10: [1790], 22: [4119, 1926, 1925], 26: [3894, 1745], 7: [2016, 4015, 1895], 9: [4061, 4060, 1865], 1: [2000, 3925], 6: [4029, 4030], 15: [1909, 3880], 16: [3804, 3805, 2060, 2059], 17: [3849, 3850, 3970, 1985], 11: [1879, 4089, 1880], 12: [4104], 14: [1940, 3954], 28: [2045], 25: [3908, 3910, 3909], 30: [2106, 4105], 21: [1835, 3969], 2: [1851, 3895, 1850], 8: [3924]}</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0.008668889458835601</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.01520381536611324</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.134</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>{0: [3942, 3941, 3940, 3506, 2072, 2073, 2074, 2075], 3: [3580, 2343, 3582, 3581, 2631, 2630, 2629, 2628, 3583], 's_0_3': [2028], 4: [2135, 3925, 3927, 3926], 's_0_4': [3881], 13: [4106, 3986, 2240], 's_0_13': [2150], 20: [3536, 3538, 3537], 's_0_20': [2087], 23: [2493, 2076, 2495, 4197, 2496, 2494, 4196, 4198], 's_0_23': [2106, 4105], 24: [2540, 3671, 3672, 2538, 2539, 3673], 's_0_24': [3686], 27: [2706, 2705, 2704, 2703, 3509, 2237, 3508, 3507], 's_0_27': [3446], 34: [4079, 2420, 4078], 's_0_34': [2405], 's_0_0': [3775], 18: [3956, 2253, 2329, 3703, 2300, 2299, 3701, 3702], 's_3_18': [3704], 19: [3566, 3492, 2193], 's_3_19': [2358], 's_3_23': [3883, 3884], 's_3_24': [3674], 's_3_27': [3689], 29: [4049, 4048, 2314, 2315, 4047], 's_3_29': [4034], 31: [2239, 2208, 2238, 3596], 's_3_31': [3595], 32: [4077, 2586, 2316, 2451, 4123, 4122], 's_3_32': [4229], 33: [4259, 4258], 's_3_33': [2616], 's_3_3': [2627], 5: [2284, 3911, 3988, 3987, 2285], 's_4_5': [2269], 10: [2225, 3687, 2224, 2222, 2223], 's_4_10': [4001], 's_4_13': [2105], 22: [2644, 2376, 2375, 3854, 3853], 's_4_22': [2390], 's_4_4': [4046], 's_13_18': [2301], 26: [2345, 4032, 2347, 2346], 's_13_26': [4062], 's_13_29': [2270], 's_13_13': [2241], 7: [2482, 2481, 2478, 2479, 2480], 's_20_7': [3523], 9: [2432, 2435, 3823, 2433, 2434], 's_20_9': [2447], 's_20_10': [2298], 's_20_23': [2508], 's_20_27': [2402], 's_20_20': [2417], 1: [2571, 3973, 2568, 2569, 2570], 's_23_1': [2572], 's_23_5': [2510], 6: [3597, 2328, 3643, 3642], 's_23_6': [3688, 2418], 's_23_7': [4018], 's_23_9': [4003], 15: [2178, 2179, 2182, 2181, 2180], 's_23_15': [4211], 16: [2523, 3612, 3613], 's_23_16': [3553], 17: [3899, 2151, 4136, 2660, 4138, 4137, 2661], 's_23_17': [2256], 's_23_22': [4033], 's_23_24': [3568], 's_23_23': [2557], 's_24_6': [2268], 's_24_9': [3838], 11: [3958, 2331, 2330, 3957], 's_24_11': [3943], 12: [3762, 3793, 2449], 's_24_12': [3763], 14: [2102, 3476, 3477, 3478, 2582, 2583, 3928, 2584], 's_24_14': [3808], 's_24_15': [3521, 2148], 28: [2463, 3493, 2462], 's_24_28': [3463], 's_24_24': [3670], 's_27_16': [2553], 's_27_19': [2327], 's_27_34': [2721], 's_27_27': [3779], 's_34_5': [2585], 's_34_7': [2466], 's_34_9': [4092], 's_34_11': [2450], 's_34_29': [2615], 's_34_34': [2691], 's_18_5': [3972], 's_18_6': [2359], 's_18_9': [2448], 's_18_7': [3732], 's_18_11': [3882], 25: [3836, 2163, 2164, 2165, 2166, 2421, 4152, 4151], 's_18_25': [2119], 30: [3792, 2373, 2374], 's_18_30': [3627], 's_18_18': [3700], 's_19_14': [2282], 's_19_15': [3611], 's_19_31': [3522], 's_19_19': [2192], 's_29_17': [2690], 's_29_32': [2541], 's_29_12': [3777], 's_29_26': [2361], 's_29_11': [4002], 21: [2209, 2212, 2211, 2210], 's_29_21': [2196], 's_29_29': [2255], 's_31_5': [2283], 's_31_6': [3641], 's_31_21': [3717], 's_31_25': [3626], 's_31_31': [3731], 's_32_1': [2556], 2: [2524, 4332, 2525, 2526, 2527, 4331, 4333], 's_32_2': [4168], 's_32_17': [2436], 's_32_11': [4167], 's_32_21': [4227], 's_32_33': [4244], 's_32_32': [4273], 's_33_7': [2467], 's_33_25': [2406], 's_33_33': [2722], 's_5_1': [2555], 's_5_2': [2287, 2286], 's_5_15': [3761], 's_5_30': [3807], 's_5_5': [3910], 's_10_6': [2313], 's_10_14': [3418, 3417, 3416], 's_10_26': [2344], 8: [3851, 2134, 3748, 3746, 3747], 's_10_8': [3806], 's_10_21': [3791], 's_10_10': [3401], 's_22_2': [2377], 's_22_17': [2720], 's_22_12': [3794], 's_22_14': [3869], 's_22_7': [2464], 's_22_8': [2659], 's_22_22': [2643], 's_26_2': [2362], 's_26_21': [4257], 's_26_25': [4272], 's_26_26': [4347], 's_7_9': [4063], 's_7_28': [2477], 's_7_7': [4348], 's_9_2': [3868], 's_9_16': [3628], 's_9_11': [3912], 's_9_14': [3433], 's_9_9': [3402], 's_1_2': [4108], 's_1_16': [3598], 's_1_17': [4064], 's_1_1': [2567], 's_6_2': [3658], 's_6_6': [3657], 's_15_2': [4346], 's_15_17': [4076], 's_15_14': [3491], 's_15_8': [3716], 's_15_15': [4166], 's_16_30': [2388], 's_16_16': [3614], 's_17_14': [2645], 's_17_21': [4121], 's_17_25': [2271], 's_17_17': [4019], 's_11_11': [2360], 's_12_2': [3898], 's_12_30': [2389], 's_12_12': [2404], 's_14_2': [3913], 's_14_8': [3733], 's_14_25': [3461], 's_14_14': [3341], 's_28_30': [3552], 's_28_28': [2507], 's_25_8': [3866], 's_25_25': [2422], 's_30_30': [3462], 's_21_8': [2194], 's_21_21': [2213], 's_2_2': [4303], 's_8_8': [2030]}</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0.000346938775510204</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.001324330986359806</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>{0: [3942, 3941, 3940, 3506, 2072, 2073, 2074, 2075], 3: [3580, 2343, 3582, 3581, 2631, 2630, 2629, 2628, 3583], 's_0_3': [2028], 4: [2135, 3925, 3927, 3926], 's_0_4': [3881], 13: [4106, 3986, 2240], 's_0_13': [2150], 20: [3536, 3538, 3537], 's_0_20': [2087], 23: [2493, 2076, 2495, 4197, 2496, 2494, 4196, 4198], 's_0_23': [2106, 4105], 24: [2540, 3671, 3672, 2538, 2539, 3673], 's_0_24': [3686], 27: [2706, 2705, 2704, 2703, 3509, 2237, 3508, 3507], 's_0_27': [3446], 34: [4079, 2420, 4078], 's_0_34': [2405], 's_0_0': [3775], 18: [3956, 2253, 2329, 3703, 2300, 2299, 3701, 3702], 's_3_18': [3704], 19: [3566, 3492, 2193], 's_3_19': [2358], 's_3_23': [3883, 3884], 's_3_24': [3674], 's_3_27': [3689], 29: [4049, 4048, 2314, 2315, 4047], 's_3_29': [4034], 31: [2239, 2208, 2238, 3596], 's_3_31': [3595], 32: [4077, 2586, 2316, 2451, 4123, 4122], 's_3_32': [4229], 33: [4259, 4258], 's_3_33': [2616], 's_3_3': [2627], 5: [2284, 3911, 3988, 3987, 2285], 's_4_5': [2269], 10: [2225, 3687, 2224, 2222, 2223], 's_4_10': [4001], 's_4_13': [2105], 22: [2644, 2376, 2375, 3854, 3853], 's_4_22': [2390], 's_4_4': [4046], 's_13_18': [2301], 26: [2345, 4032, 2347, 2346], 's_13_26': [4062], 's_13_29': [2270], 's_13_13': [2241], 7: [2482, 2481, 2478, 2479, 2480], 's_20_7': [3523], 9: [2432, 2435, 3823, 2433, 2434], 's_20_9': [2447], 's_20_10': [2298], 's_20_23': [2508], 's_20_27': [2402], 's_20_20': [2417], 1: [2571, 3973, 2568, 2569, 2570], 's_23_1': [2572], 's_23_5': [2510], 6: [3597, 2328, 3643, 3642], 's_23_6': [3688, 2418], 's_23_7': [4018], 's_23_9': [4003], 15: [2178, 2179, 2182, 2181, 2180], 's_23_15': [4211], 16: [2523, 3612, 3613], 's_23_16': [3553], 17: [3899, 2151, 4136, 2660, 4138, 4137, 2661], 's_23_17': [2256], 's_23_22': [4033], 's_23_24': [3568], 's_23_23': [2557], 's_24_6': [2268], 's_24_9': [3838], 11: [3958, 2331, 2330, 3957], 's_24_11': [3943], 12: [3762, 3793, 2449], 's_24_12': [3763], 14: [2102, 3476, 3477, 3478, 2582, 2583, 3928, 2584], 's_24_14': [3808], 's_24_15': [3521, 2148], 28: [2463, 3493, 2462], 's_24_28': [3463], 's_24_24': [3670], 's_27_16': [2553], 's_27_19': [2327], 's_27_34': [2721], 's_27_27': [3779], 's_34_5': [2585], 's_34_7': [2466], 's_34_9': [4092], 's_34_11': [2450], 's_34_29': [2615], 's_34_34': [2691], 's_18_5': [3972], 's_18_6': [2359], 's_18_9': [2448], 's_18_7': [3732], 's_18_11': [3882], 25: [3836, 2163, 2164, 2165, 2166, 2421, 4152, 4151], 's_18_25': [2119], 30: [3792, 2373, 2374], 's_18_30': [3627], 's_18_18': [3700], 's_19_14': [2282], 's_19_15': [3611], 's_19_31': [3522], 's_19_19': [2192], 's_29_17': [2690], 's_29_32': [2541], 's_29_12': [3777], 's_29_26': [2361], 's_29_11': [4002], 21: [2209, 2212, 2211, 2210], 's_29_21': [2196], 's_29_29': [2255], 's_31_5': [2283], 's_31_6': [3641], 's_31_21': [3717], 's_31_25': [3626], 's_31_31': [3731], 's_32_1': [2556], 2: [2524, 4332, 2525, 2526, 2527, 4331, 4333], 's_32_2': [4168], 's_32_17': [2436], 's_32_11': [4167], 's_32_21': [4227], 's_32_33': [4244], 's_32_32': [4273], 's_33_7': [2467], 's_33_25': [2406], 's_33_33': [2722], 's_5_1': [2555], 's_5_2': [2287, 2286], 's_5_15': [3761], 's_5_30': [3807], 's_5_5': [3910], 's_10_6': [2313], 's_10_14': [3418, 3417, 3416], 's_10_26': [2344], 8: [3851, 2134, 3748, 3746, 3747], 's_10_8': [3806], 's_10_21': [3791], 's_10_10': [3401], 's_22_2': [2377], 's_22_17': [2720], 's_22_12': [3794], 's_22_14': [3869], 's_22_7': [2464], 's_22_8': [2659], 's_22_22': [2643], 's_26_2': [2362], 's_26_21': [4257], 's_26_25': [4272], 's_26_26': [4347], 's_7_9': [4063], 's_7_28': [2477], 's_7_7': [4348], 's_9_2': [3868], 's_9_16': [3628], 's_9_11': [3912], 's_9_14': [3433], 's_9_9': [3402], 's_1_2': [4108], 's_1_16': [3598], 's_1_17': [4064], 's_1_1': [2567], 's_6_2': [3658], 's_6_6': [3657], 's_15_2': [4346], 's_15_17': [4076], 's_15_14': [3491], 's_15_8': [3716], 's_15_15': [4166], 's_16_30': [2388], 's_16_16': [3614], 's_17_14': [2645], 's_17_21': [4121], 's_17_25': [2271], 's_17_17': [4019], 's_11_11': [2360], 's_12_2': [3898], 's_12_30': [2389], 's_12_12': [2404], 's_14_2': [3913], 's_14_8': [3733], 's_14_25': [3461], 's_14_14': [3341], 's_28_30': [3552], 's_28_28': [2507], 's_25_8': [3866], 's_25_25': [2422], 's_30_30': [3462], 's_21_8': [2194], 's_21_21': [2213], 's_2_2': [4303], 's_8_8': [2030]}</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0.000346938775510204</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.001324330986359806</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>{0: [176, 431, 5056, 5055], 1: [161, 160], 9: [175, 4846, 4845], 10: [5041, 5040], 14: [221, 222], 17: [295, 296], 20: [5160, 446, 5161], 21: [521, 5116, 5117], 25: [250, 251], 27: [131, 5071, 5070], 28: [5146, 371, 372], 31: [4966, 356], 32: [387, 385, 386], 33: [4876, 430], 2: [460, 4831, 4830], 6: [4860, 326, 4861, 325], 23: [475, 4995, 4996], 24: [266, 236, 5025], 5: [445, 4967], 11: [505, 506, 5102, 5101], 12: [235, 4771], 18: [4816, 355], 22: [4772, 491, 490], 26: [101, 100, 4906, 4905], 29: [402, 4891, 401], 3: [265, 4952, 4950, 4951], 4: [4936, 4937, 520], 8: [191, 281, 5010], 13: [4981, 4980], 19: [5087, 5086], 30: [4922, 4921], 7: [340, 341, 5026], 15: [5011, 415, 416], 16: [4815, 311, 310], 35: [280], 34: [206, 205]}</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0.009223300970873786</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.01480128063584825</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>{0: [176, 431, 5056, 5055], 1: [161, 160], 9: [175, 4846, 4845], 10: [5041, 5040], 14: [221, 222], 17: [295, 296], 20: [5160, 446, 5161], 21: [521, 5116, 5117], 25: [250, 251], 27: [131, 5071, 5070], 28: [5146, 371, 372], 31: [4966, 356], 32: [387, 385, 386], 33: [4876, 430], 2: [460, 4831, 4830], 6: [4860, 326, 4861, 325], 23: [475, 4995, 4996], 24: [266, 236, 5025], 5: [445, 4967], 11: [505, 506, 5102, 5101], 12: [235, 4771], 18: [4816, 355], 22: [4772, 491, 490], 26: [101, 100, 4906, 4905], 29: [402, 4891, 401], 3: [265, 4952, 4950, 4951], 4: [4936, 4937, 520], 8: [191, 281, 5010], 13: [4981, 4980], 19: [5087, 5086], 30: [4922, 4921], 7: [340, 341, 5026], 15: [5011, 415, 416], 16: [4815, 311, 310], 35: [280], 34: [206, 205]}</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0.009223300970873786</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.01480128063584825</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>{0: [2225, 2527, 2223, 2224, 2526, 3852, 3853, 2525], 1: [1988, 1987, 3971, 3970, 3985, 1986, 1985], 's_0_1': [2195], 9: [4468, 4258, 2406, 2407, 4465, 4466, 4467], 's_0_9': [2528], 10: [2134, 3746, 2344, 3747], 's_0_10': [3821], 14: [2570, 2571, 2273, 4527, 4528, 2573, 4333, 2572], 's_0_14': [4093], 17: [3760, 2093, 3808, 3807, 3806, 2092, 2091, 2090, 2089], 's_0_17': [2284], 20: [2450, 2498, 4078, 2496, 4319, 4318, 2497], 's_0_20': [4108], 21: [3778, 2603, 2602, 2599, 2600, 4288, 2601], 's_0_21': [3823], 25: [3881, 2495, 2315, 3882, 2239, 3883, 2238, 3656], 's_0_25': [3596], 27: [3941, 3911, 3986, 3686, 2164, 2165], 's_0_27': [3851], 28: [2389, 3641, 2598, 3643, 3642], 's_0_28': [2390], 31: [2209, 2210, 2211, 2721, 4064, 4063, 4062], 's_0_31': [2240], 32: [2511, 2179, 4139, 4138, 2180, 4137, 2181, 4136], 's_0_32': [2226], 33: [2467, 2465, 4183, 2466], 's_0_33': [3988], 's_0_0': [2541], 2: [3719, 2016, 2015, 3718, 3717, 3716, 2014], 's_1_2': [3835], 6: [4165, 2121, 4169, 4168, 4167, 4166], 's_1_6': [2001, 4075], 's_1_9': [2003], 23: [4030, 2348, 4092, 2347, 4031, 4032, 2346], 's_1_23': [1940], 24: [4195, 4196, 4498, 4497, 4496, 2213, 2212], 's_1_24': [4495], 's_1_27': [3910], 's_1_1': [2002], 5: [2433, 2434, 2437, 2436, 2435], 's_9_5': [4272], 11: [4362, 4587, 4105, 4106, 2303, 2302, 2301], 's_9_11': [4451], 12: [2632, 2631], 's_9_12': [4453], 18: [4226, 4227, 2722, 4229, 4228], 's_9_18': [2451], 22: [4438, 4439], 's_9_22': [2483], 's_9_23': [4197], 's_9_32': [4122], 's_9_33': [2468], 's_9_9': [4469], 26: [2404, 3761, 3762], 's_10_26': [2194], 's_10_27': [2133], 's_10_28': [3748], 29: [2257, 2256, 2255, 2253, 3928, 3927, 3926, 2254], 's_10_29': [3672], 's_10_31': [3687], 's_10_32': [3791], 's_10_10': [2343], 3: [3777, 2448, 3794, 2614, 2449, 3913, 3912], 's_14_3': [3838], 4: [2378, 3958, 3957, 2377, 2376, 2375], 's_14_4': [4287, 2482], 8: [2227, 2285, 2286, 2287, 4300, 4303, 4302, 4301], 's_14_8': [2557], 's_14_11': [4542], 13: [2705, 2706, 2707, 2708, 4514, 4513, 4512, 4511], 's_14_13': [2423], 's_14_20': [2512], 's_14_21': [2587], 's_14_24': [2543], 's_14_14': [4631], 's_17_2': [2119], 's_17_8': [4361], 's_17_11': [4586], 's_17_13': [4526], 19: [4423, 4421, 4422], 's_17_19': [2077], 's_17_21': [2584], 's_17_23': [4046], 's_17_24': [2076], 's_17_26': [2149], 30: [3732, 2314, 3702, 3701, 2106, 2105, 2104], 's_17_30': [2107, 4241], 's_17_17': [3809], 's_20_5': [4378], 7: [2558, 4394, 2676, 2677], 's_20_7': [2692], 's_20_8': [4304], 15: [3582, 2421, 2418, 2420, 2419], 's_20_15': [2405], 's_20_24': [2513], 's_20_25': [4018], 's_20_20': [2737], 's_21_4': [2585], 's_21_6': [2616], 's_21_7': [4259], 's_21_24': [2588], 's_21_28': [2554], 's_21_21': [4574], 's_25_2': [2030], 's_25_3': [2540], 's_25_4': [3943], 's_25_8': [3897], 's_25_27': [2300], 's_25_28': [2118], 's_25_31': [3836], 's_25_25': [3626], 's_27_3': [3776], 's_27_8': [3956], 's_27_28': [2148], 's_27_32': [3671], 's_27_27': [2058], 's_28_15': [2478], 's_28_26': [2374], 's_28_29': [3792], 's_28_28': [2298], 's_31_7': [4109], 's_31_11': [4091], 's_31_13': [4019], 16: [2644, 2647, 4199, 2645, 2646], 's_31_16': [4079], 's_31_23': [2316], 's_31_32': [4151], 's_31_31': [2208], 's_32_6': [2661], 's_32_7': [4124], 's_32_12': [4123], 's_32_18': [2182], 's_32_29': [2271], 's_32_33': [2481], 's_32_32': [2178], 's_33_3': [2480], 's_33_4': [3972, 3973], 's_33_5': [4348], 's_33_6': [4153], 35: [4271, 4048, 4047, 4001, 2196, 2197], 's_33_35': [4033], 's_33_33': [4198], 's_2_5': [3703], 's_2_6': [4120], 's_2_11': [2031], 34: [3868, 2689, 3869], 's_2_34': [2494], 's_2_2': [2613], 's_6_7': [2691], 's_6_8': [1956, 1957], 's_6_15': [4152], 's_6_16': [2781], 's_6_30': [4090], 's_6_35': [2241], 's_6_6': [4164], 's_23_4': [4182], 's_23_8': [4407], 's_23_13': [2363], 's_23_15': [4002], 's_23_35': [2330], 's_23_23': [1836], 's_24_8': [2032], 's_24_11': [2136], 's_24_13': [2138], 's_24_30': [4181], 's_24_24': [1941], 's_5_3': [3613], 's_5_4': [4317], 's_5_22': [2452], 's_5_26': [3898], 's_5_5': [3628], 's_11_4': [4347], 's_11_19': [2333], 's_11_29': [4392], 's_11_11': [2151], 's_12_16': [4364], 's_12_18': [4214], 's_12_22': [2617], 's_12_12': [2633], 's_18_15': [4213], 's_18_16': [4334], 's_18_30': [4211], 's_18_4': [2392], 's_18_7': [4184], 's_18_18': [2017], 's_22_4': [2393], 's_22_7': [4424], 's_22_19': [4437], 's_22_22': [2693], 's_26_34': [2464], 's_26_3': [2359], 's_26_26': [2269], 's_29_3': [2360], 's_29_16': [2660], 's_29_4': [2555], 's_29_19': [2272], 's_29_30': [3925], 's_29_29': [4121], 's_3_34': [3793, 2509], 's_3_15': [3688], 's_3_16': [2659], 's_3_30': [2329], 's_3_3': [2734], 's_4_15': [3942], 's_4_4': [2630], 's_8_16': [2662], 's_8_19': [2242], 's_8_35': [2167], 's_8_8': [2122], 's_13_34': [3839], 's_13_16': [3899], 's_13_13': [2768], 's_19_19': [2183], 's_30_15': [2313], 's_30_35': [2120], 's_30_30': [2043], 's_7_7': [2559], 's_15_15': [3673], 's_16_34': [3854], 's_16_16': [2648], 's_35_35': [2137], 's_34_34': [3749]}</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>8.108108108108109e-05</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0005988789136800091</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>{0: [2225, 2527, 2223, 2224, 2526, 3852, 3853, 2525], 1: [1988, 1987, 3971, 3970, 3985, 1986, 1985], 's_0_1': [2195], 9: [4468, 4258, 2406, 2407, 4465, 4466, 4467], 's_0_9': [2528], 10: [2134, 3746, 2344, 3747], 's_0_10': [3821], 14: [2570, 2571, 2273, 4527, 4528, 2573, 4333, 2572], 's_0_14': [4093], 17: [3760, 2093, 3808, 3807, 3806, 2092, 2091, 2090, 2089], 's_0_17': [2284], 20: [2450, 2498, 4078, 2496, 4319, 4318, 2497], 's_0_20': [4108], 21: [3778, 2603, 2602, 2599, 2600, 4288, 2601], 's_0_21': [3823], 25: [3881, 2495, 2315, 3882, 2239, 3883, 2238, 3656], 's_0_25': [3596], 27: [3941, 3911, 3986, 3686, 2164, 2165], 's_0_27': [3851], 28: [2389, 3641, 2598, 3643, 3642], 's_0_28': [2390], 31: [2209, 2210, 2211, 2721, 4064, 4063, 4062], 's_0_31': [2240], 32: [2511, 2179, 4139, 4138, 2180, 4137, 2181, 4136], 's_0_32': [2226], 33: [2467, 2465, 4183, 2466], 's_0_33': [3988], 's_0_0': [2541], 2: [3719, 2016, 2015, 3718, 3717, 3716, 2014], 's_1_2': [3835], 6: [4165, 2121, 4169, 4168, 4167, 4166], 's_1_6': [2001, 4075], 's_1_9': [2003], 23: [4030, 2348, 4092, 2347, 4031, 4032, 2346], 's_1_23': [1940], 24: [4195, 4196, 4498, 4497, 4496, 2213, 2212], 's_1_24': [4495], 's_1_27': [3910], 's_1_1': [2002], 5: [2433, 2434, 2437, 2436, 2435], 's_9_5': [4272], 11: [4362, 4587, 4105, 4106, 2303, 2302, 2301], 's_9_11': [4451], 12: [2632, 2631], 's_9_12': [4453], 18: [4226, 4227, 2722, 4229, 4228], 's_9_18': [2451], 22: [4438, 4439], 's_9_22': [2483], 's_9_23': [4197], 's_9_32': [4122], 's_9_33': [2468], 's_9_9': [4469], 26: [2404, 3761, 3762], 's_10_26': [2194], 's_10_27': [2133], 's_10_28': [3748], 29: [2257, 2256, 2255, 2253, 3928, 3927, 3926, 2254], 's_10_29': [3672], 's_10_31': [3687], 's_10_32': [3791], 's_10_10': [2343], 3: [3777, 2448, 3794, 2614, 2449, 3913, 3912], 's_14_3': [3838], 4: [2378, 3958, 3957, 2377, 2376, 2375], 's_14_4': [4287, 2482], 8: [2227, 2285, 2286, 2287, 4300, 4303, 4302, 4301], 's_14_8': [2557], 's_14_11': [4542], 13: [2705, 2706, 2707, 2708, 4514, 4513, 4512, 4511], 's_14_13': [2423], 's_14_20': [2512], 's_14_21': [2587], 's_14_24': [2543], 's_14_14': [4631], 's_17_2': [2119], 's_17_8': [4361], 's_17_11': [4586], 's_17_13': [4526], 19: [4423, 4421, 4422], 's_17_19': [2077], 's_17_21': [2584], 's_17_23': [4046], 's_17_24': [2076], 's_17_26': [2149], 30: [3732, 2314, 3702, 3701, 2106, 2105, 2104], 's_17_30': [2107, 4241], 's_17_17': [3809], 's_20_5': [4378], 7: [2558, 4394, 2676, 2677], 's_20_7': [2692], 's_20_8': [4304], 15: [3582, 2421, 2418, 2420, 2419], 's_20_15': [2405], 's_20_24': [2513], 's_20_25': [4018], 's_20_20': [2737], 's_21_4': [2585], 's_21_6': [2616], 's_21_7': [4259], 's_21_24': [2588], 's_21_28': [2554], 's_21_21': [4574], 's_25_2': [2030], 's_25_3': [2540], 's_25_4': [3943], 's_25_8': [3897], 's_25_27': [2300], 's_25_28': [2118], 's_25_31': [3836], 's_25_25': [3626], 's_27_3': [3776], 's_27_8': [3956], 's_27_28': [2148], 's_27_32': [3671], 's_27_27': [2058], 's_28_15': [2478], 's_28_26': [2374], 's_28_29': [3792], 's_28_28': [2298], 's_31_7': [4109], 's_31_11': [4091], 's_31_13': [4019], 16: [2644, 2647, 4199, 2645, 2646], 's_31_16': [4079], 's_31_23': [2316], 's_31_32': [4151], 's_31_31': [2208], 's_32_6': [2661], 's_32_7': [4124], 's_32_12': [4123], 's_32_18': [2182], 's_32_29': [2271], 's_32_33': [2481], 's_32_32': [2178], 's_33_3': [2480], 's_33_4': [3972, 3973], 's_33_5': [4348], 's_33_6': [4153], 35: [4271, 4048, 4047, 4001, 2196, 2197], 's_33_35': [4033], 's_33_33': [4198], 's_2_5': [3703], 's_2_6': [4120], 's_2_11': [2031], 34: [3868, 2689, 3869], 's_2_34': [2494], 's_2_2': [2613], 's_6_7': [2691], 's_6_8': [1956, 1957], 's_6_15': [4152], 's_6_16': [2781], 's_6_30': [4090], 's_6_35': [2241], 's_6_6': [4164], 's_23_4': [4182], 's_23_8': [4407], 's_23_13': [2363], 's_23_15': [4002], 's_23_35': [2330], 's_23_23': [1836], 's_24_8': [2032], 's_24_11': [2136], 's_24_13': [2138], 's_24_30': [4181], 's_24_24': [1941], 's_5_3': [3613], 's_5_4': [4317], 's_5_22': [2452], 's_5_26': [3898], 's_5_5': [3628], 's_11_4': [4347], 's_11_19': [2333], 's_11_29': [4392], 's_11_11': [2151], 's_12_16': [4364], 's_12_18': [4214], 's_12_22': [2617], 's_12_12': [2633], 's_18_15': [4213], 's_18_16': [4334], 's_18_30': [4211], 's_18_4': [2392], 's_18_7': [4184], 's_18_18': [2017], 's_22_4': [2393], 's_22_7': [4424], 's_22_19': [4437], 's_22_22': [2693], 's_26_34': [2464], 's_26_3': [2359], 's_26_26': [2269], 's_29_3': [2360], 's_29_16': [2660], 's_29_4': [2555], 's_29_19': [2272], 's_29_30': [3925], 's_29_29': [4121], 's_3_34': [3793, 2509], 's_3_15': [3688], 's_3_16': [2659], 's_3_30': [2329], 's_3_3': [2734], 's_4_15': [3942], 's_4_4': [2630], 's_8_16': [2662], 's_8_19': [2242], 's_8_35': [2167], 's_8_8': [2122], 's_13_34': [3839], 's_13_16': [3899], 's_13_13': [2768], 's_19_19': [2183], 's_30_15': [2313], 's_30_35': [2120], 's_30_30': [2043], 's_7_7': [2559], 's_15_15': [3673], 's_16_34': [3854], 's_16_16': [2648], 's_35_35': [2137], 's_34_34': [3749]}</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>8.108108108108109e-05</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.0005988789136800091</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>{0: [4881, 1480, 4882], 2: [1555, 4852], 3: [4821, 1255], 4: [1390], 7: [1375, 4851], 8: [1361, 1359, 1360], 15: [1285, 1286], 17: [1315, 4717, 4716], 21: [4928, 1496, 1495, 4822], 22: [4762, 1450], 26: [1509, 1510], 32: [1465, 4867], 9: [4973, 4972], 12: [4943, 4941, 4942], 27: [4958, 1391, 4957], 35: [4868, 1540], 6: [4791, 1240], 10: [4837, 4836], 11: [1225, 4866], 28: [1300, 4911, 1301], 13: [4896, 4897], 23: [4927], 1: [1345, 4987, 4986], 16: [4912], 30: [4806, 1570, 4807], 33: [1316, 5002, 5001], 34: [1451, 5062], 18: [1271, 1270], 19: [1466, 5046, 5047], 20: [5122, 1405, 5016, 1406], 24: [1330, 4732, 1329, 4731], 14: [1434, 1436, 1435], 29: [1419, 1421, 1420], 31: [1211, 1210, 1209], 5: [4793, 4792], 36: [4777, 4686, 1344], 25: [1524, 1525]}</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0.003220241518113858</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.009103860806055571</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>{0: [4881, 1480, 4882], 2: [1555, 4852], 3: [4821, 1255], 4: [1390], 7: [1375, 4851], 8: [1361, 1359, 1360], 15: [1285, 1286], 17: [1315, 4717, 4716], 21: [4928, 1496, 1495, 4822], 22: [4762, 1450], 26: [1509, 1510], 32: [1465, 4867], 9: [4973, 4972], 12: [4943, 4941, 4942], 27: [4958, 1391, 4957], 35: [4868, 1540], 6: [4791, 1240], 10: [4837, 4836], 11: [1225, 4866], 28: [1300, 4911, 1301], 13: [4896, 4897], 23: [4927], 1: [1345, 4987, 4986], 16: [4912], 30: [4806, 1570, 4807], 33: [1316, 5002, 5001], 34: [1451, 5062], 18: [1271, 1270], 19: [1466, 5046, 5047], 20: [5122, 1405, 5016, 1406], 24: [1330, 4732, 1329, 4731], 14: [1434, 1436, 1435], 29: [1419, 1421, 1420], 31: [1211, 1210, 1209], 5: [4793, 4792], 36: [4777, 4686, 1344], 25: [1524, 1525]}</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0.003220241518113858</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.009103860806055571</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>{0: [3262, 3263, 3474, 1878, 1877, 1876, 3264], 2: [3261, 3038, 1322, 1321, 1320, 1575, 3036, 3037], 's_0_2': [1576], 3: [3849, 3577, 1729, 3579, 1728, 3578], 's_0_3': [1833], 4: [1546, 1547, 3653, 3725, 3726, 3727, 1548], 's_0_4': [3654], 7: [3278, 3277, 1426, 3787, 1429, 1430, 1428, 1427], 's_0_7': [1561], 8: [1712, 1818, 3504], 's_0_8': [3609], 15: [1516, 1517, 1519, 1518], 's_0_15': [1501], 17: [3711, 3712, 3713, 3714, 1801, 1802, 1803, 1804], 's_0_17': [3729], 21: [1907, 1727, 3396, 3399, 3398, 3397], 's_0_21': [1787], 22: [1412, 3534, 3471, 1382, 3472, 3473, 1682], 's_0_22': [3535], 26: [3564, 1892, 3112, 3113, 1636, 1891, 3234, 3233], 's_0_26': [1486], 32: [3325, 1906, 3186, 3187, 3188, 3189, 1905], 's_0_32': [3265], 's_0_0': [3549, 3550], 9: [1744, 1743, 1335, 1742, 1741, 3127, 3128, 3129, 1740], 's_2_9': [1710], 12: [3862, 3488, 3231, 1460, 1459, 1458, 3487, 1397, 1396], 's_2_12': [1231], 's_2_22': [3502], 's_2_26': [1621, 1620], 27: [1395, 1084, 3082, 1351, 3366, 1350, 3365, 1082, 1083], 's_2_27': [3051], 's_2_32': [1515], 35: [1291, 1293, 1292], 's_2_35': [3291], 's_2_2': [1260], 6: [3667, 3670, 3669, 3668], 's_3_6': [1893], 's_3_8': [3624], 10: [3682, 3427, 3652, 1367, 3576, 1368], 's_3_10': [3683, 1593], 11: [3832, 3835, 3834, 1594, 3833], 's_3_11': [1714], 's_3_15': [3848], 's_3_21': [1908], 28: [1939, 1938, 1937, 1936, 1935, 3024, 3023, 3022, 1245, 3021], 's_3_28': [1923], 's_3_3': [3580], 's_4_7': [3547], 's_4_10': [1309], 13: [1711, 1667, 3384, 3382, 3383], 's_4_13': [3428], 23: [1668, 1669], 's_4_23': [3458], 's_4_27': [3740], 's_4_4': [1219], 1: [3803, 3441, 1534, 3561, 1336, 3907, 3906, 1339, 1338, 1337], 's_7_1': [3802], 's_7_6': [1489], 's_7_10': [1413], 's_7_13': [3367], 16: [3293, 3295, 3294], 's_7_16': [3279], 's_7_17': [1399], 's_7_7': [3457], 's_8_9': [3444], 30: [3503, 1624, 1623], 's_8_30': [3563], 33: [3099, 1653, 1652, 1651, 3096, 3097, 3098], 's_8_33': [3489], 34: [3413, 1442, 3412], 's_8_34': [1697], 's_8_8': [1713], 's_15_11': [3817], 18: [3608, 1384, 1383, 3607], 's_15_18': [3637], 19: [3232, 1170, 1171, 1411, 3322, 3321], 's_15_19': [3247], 20: [1846, 3590, 3591, 3592, 1847, 1848, 3594, 3593], 's_15_20': [3622, 1488], 24: [1771, 1773, 3770, 3684, 3772, 1772, 3771, 3773, 1654], 's_15_24': [1504], 's_15_15': [3698], 's_17_10': [1294], 14: [1817, 3306, 3307, 3310, 3309, 3308], 's_17_14': [1726, 3249], 's_17_18': [3697], 's_17_26': [3114], 29: [1472, 3323, 3204, 3203, 1606], 's_17_29': [1816], 31: [1275, 1276, 1279, 1278, 1277], 's_17_31': [3696], 's_17_33': [3324], 's_17_17': [3774], 's_21_1': [1262], 5: [3070, 3066, 3067, 3068, 3069, 1863, 1862, 1861, 1860], 's_21_5': [3459], 's_21_10': [1247, 1248], 's_21_14': [1457], 's_21_26': [3460], 's_21_35': [1232, 3456], 's_21_21': [3400], 's_22_24': [1788], 's_22_30': [1502], 's_22_34': [1562], 36: [3336, 1215, 1217, 1216], 's_22_36': [1202], 's_22_22': [1352], 's_26_13': [1696], 's_26_16': [1786], 25: [3562, 1530, 1531, 1532], 's_26_25': [3158], 's_26_27': [1500], 's_26_33': [1560], 's_26_26': [3250], 's_32_5': [3160], 's_32_19': [3185], 's_32_20': [3340], 's_32_24': [3369], 's_32_35': [3246, 1261], 's_32_32': [3115], 's_9_1': [3804], 's_9_24': [1758], 's_9_25': [3143], 's_9_27': [1425], 's_9_28': [1785], 's_9_35': [3142], 's_9_9': [1745], 's_12_1': [3877], 's_12_6': [1444], 's_12_11': [3863], 's_12_14': [1366], 's_12_18': [3847], 's_12_19': [1381], 's_12_25': [1443], 's_12_30': [1607], 's_12_35': [3381], 's_12_12': [1369], 's_27_14': [1112], 's_27_19': [1141, 3290], 's_27_24': [3755], 's_27_20': [3575], 's_27_28': [1455], 's_27_27': [3470], 's_35_1': [3621], 's_35_10': [3411], 's_35_33': [3111], 's_35_35': [3201], 's_6_10': [1474], 's_6_5': [3685], 's_6_30': [1639], 's_6_6': [1834], 's_10_1': [1233], 's_10_29': [1487], 's_10_10': [3651], 's_11_24': [1564], 's_11_28': [1924], 's_11_11': [3836], 's_28_5': [3700], 's_28_13': [1922], 's_28_16': [1921], 's_28_31': [3006], 's_28_33': [1755], 's_28_28': [3790], 's_13_25': [3443], 's_13_16': [1681], 's_13_33': [3368], 's_13_34': [1757], 's_13_13': [1577], 's_23_1': [3788], 's_23_33': [3519], 's_23_23': [3638], 's_1_14': [1307], 's_1_18': [1398], 's_1_19': [3276, 1201], 's_1_24': [3756], 's_1_25': [3518, 3517, 3532], 's_1_36': [3426], 's_1_1': [1549, 1550], 's_16_14': [1966], 's_16_29': [1591], 's_16_16': [2027], 's_30_18': [3623], 's_30_24': [3758], 's_30_25': [3533], 's_30_30': [3548], 's_33_14': [3354], 's_33_19': [1410], 's_33_29': [1831], 's_33_33': [3095, 1155], 's_34_14': [1622], 's_34_19': [3351, 3352], 's_34_29': [1637], 's_34_34': [1592], 's_18_20': [1578], 's_18_24': [1698], 's_18_18': [1563], 's_19_29': [1471], 's_19_31': [3126], 's_19_19': [3200], 's_20_14': [1832], 's_20_5': [3520], 's_20_29': [1473], 's_20_20': [3589], 's_24_29': [3218, 3219], 's_24_31': [1264], 's_24_24': [1609], 's_14_29': [1756], 's_14_36': [3215, 1186], 's_14_14': [3311], 's_29_5': [3084, 1725, 1845], 's_29_29': [3173], 's_31_36': [3156], 's_31_31': [3801], 's_5_25': [1545], 's_5_36': [3081], 's_5_5': [1185], 's_36_36': [3410], 's_25_25': [3353]}</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0001187214611872146</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0007547932774770363</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>{0: [3262, 3263, 3474, 1878, 1877, 1876, 3264], 2: [3261, 3038, 1322, 1321, 1320, 1575, 3036, 3037], 's_0_2': [1576], 3: [3849, 3577, 1729, 3579, 1728, 3578], 's_0_3': [1833], 4: [1546, 1547, 3653, 3725, 3726, 3727, 1548], 's_0_4': [3654], 7: [3278, 3277, 1426, 3787, 1429, 1430, 1428, 1427], 's_0_7': [1561], 8: [1712, 1818, 3504], 's_0_8': [3609], 15: [1516, 1517, 1519, 1518], 's_0_15': [1501], 17: [3711, 3712, 3713, 3714, 1801, 1802, 1803, 1804], 's_0_17': [3729], 21: [1907, 1727, 3396, 3399, 3398, 3397], 's_0_21': [1787], 22: [1412, 3534, 3471, 1382, 3472, 3473, 1682], 's_0_22': [3535], 26: [3564, 1892, 3112, 3113, 1636, 1891, 3234, 3233], 's_0_26': [1486], 32: [3325, 1906, 3186, 3187, 3188, 3189, 1905], 's_0_32': [3265], 's_0_0': [3549, 3550], 9: [1744, 1743, 1335, 1742, 1741, 3127, 3128, 3129, 1740], 's_2_9': [1710], 12: [3862, 3488, 3231, 1460, 1459, 1458, 3487, 1397, 1396], 's_2_12': [1231], 's_2_22': [3502], 's_2_26': [1621, 1620], 27: [1395, 1084, 3082, 1351, 3366, 1350, 3365, 1082, 1083], 's_2_27': [3051], 's_2_32': [1515], 35: [1291, 1293, 1292], 's_2_35': [3291], 's_2_2': [1260], 6: [3667, 3670, 3669, 3668], 's_3_6': [1893], 's_3_8': [3624], 10: [3682, 3427, 3652, 1367, 3576, 1368], 's_3_10': [3683, 1593], 11: [3832, 3835, 3834, 1594, 3833], 's_3_11': [1714], 's_3_15': [3848], 's_3_21': [1908], 28: [1939, 1938, 1937, 1936, 1935, 3024, 3023, 3022, 1245, 3021], 's_3_28': [1923], 's_3_3': [3580], 's_4_7': [3547], 's_4_10': [1309], 13: [1711, 1667, 3384, 3382, 3383], 's_4_13': [3428], 23: [1668, 1669], 's_4_23': [3458], 's_4_27': [3740], 's_4_4': [1219], 1: [3803, 3441, 1534, 3561, 1336, 3907, 3906, 1339, 1338, 1337], 's_7_1': [3802], 's_7_6': [1489], 's_7_10': [1413], 's_7_13': [3367], 16: [3293, 3295, 3294], 's_7_16': [3279], 's_7_17': [1399], 's_7_7': [3457], 's_8_9': [3444], 30: [3503, 1624, 1623], 's_8_30': [3563], 33: [3099, 1653, 1652, 1651, 3096, 3097, 3098], 's_8_33': [3489], 34: [3413, 1442, 3412], 's_8_34': [1697], 's_8_8': [1713], 's_15_11': [3817], 18: [3608, 1384, 1383, 3607], 's_15_18': [3637], 19: [3232, 1170, 1171, 1411, 3322, 3321], 's_15_19': [3247], 20: [1846, 3590, 3591, 3592, 1847, 1848, 3594, 3593], 's_15_20': [3622, 1488], 24: [1771, 1773, 3770, 3684, 3772, 1772, 3771, 3773, 1654], 's_15_24': [1504], 's_15_15': [3698], 's_17_10': [1294], 14: [1817, 3306, 3307, 3310, 3309, 3308], 's_17_14': [1726, 3249], 's_17_18': [3697], 's_17_26': [3114], 29: [1472, 3323, 3204, 3203, 1606], 's_17_29': [1816], 31: [1275, 1276, 1279, 1278, 1277], 's_17_31': [3696], 's_17_33': [3324], 's_17_17': [3774], 's_21_1': [1262], 5: [3070, 3066, 3067, 3068, 3069, 1863, 1862, 1861, 1860], 's_21_5': [3459], 's_21_10': [1247, 1248], 's_21_14': [1457], 's_21_26': [3460], 's_21_35': [1232, 3456], 's_21_21': [3400], 's_22_24': [1788], 's_22_30': [1502], 's_22_34': [1562], 36: [3336, 1215, 1217, 1216], 's_22_36': [1202], 's_22_22': [1352], 's_26_13': [1696], 's_26_16': [1786], 25: [3562, 1530, 1531, 1532], 's_26_25': [3158], 's_26_27': [1500], 's_26_33': [1560], 's_26_26': [3250], 's_32_5': [3160], 's_32_19': [3185], 's_32_20': [3340], 's_32_24': [3369], 's_32_35': [3246, 1261], 's_32_32': [3115], 's_9_1': [3804], 's_9_24': [1758], 's_9_25': [3143], 's_9_27': [1425], 's_9_28': [1785], 's_9_35': [3142], 's_9_9': [1745], 's_12_1': [3877], 's_12_6': [1444], 's_12_11': [3863], 's_12_14': [1366], 's_12_18': [3847], 's_12_19': [1381], 's_12_25': [1443], 's_12_30': [1607], 's_12_35': [3381], 's_12_12': [1369], 's_27_14': [1112], 's_27_19': [1141, 3290], 's_27_24': [3755], 's_27_20': [3575], 's_27_28': [1455], 's_27_27': [3470], 's_35_1': [3621], 's_35_10': [3411], 's_35_33': [3111], 's_35_35': [3201], 's_6_10': [1474], 's_6_5': [3685], 's_6_30': [1639], 's_6_6': [1834], 's_10_1': [1233], 's_10_29': [1487], 's_10_10': [3651], 's_11_24': [1564], 's_11_28': [1924], 's_11_11': [3836], 's_28_5': [3700], 's_28_13': [1922], 's_28_16': [1921], 's_28_31': [3006], 's_28_33': [1755], 's_28_28': [3790], 's_13_25': [3443], 's_13_16': [1681], 's_13_33': [3368], 's_13_34': [1757], 's_13_13': [1577], 's_23_1': [3788], 's_23_33': [3519], 's_23_23': [3638], 's_1_14': [1307], 's_1_18': [1398], 's_1_19': [3276, 1201], 's_1_24': [3756], 's_1_25': [3518, 3517, 3532], 's_1_36': [3426], 's_1_1': [1549, 1550], 's_16_14': [1966], 's_16_29': [1591], 's_16_16': [2027], 's_30_18': [3623], 's_30_24': [3758], 's_30_25': [3533], 's_30_30': [3548], 's_33_14': [3354], 's_33_19': [1410], 's_33_29': [1831], 's_33_33': [3095, 1155], 's_34_14': [1622], 's_34_19': [3351, 3352], 's_34_29': [1637], 's_34_34': [1592], 's_18_20': [1578], 's_18_24': [1698], 's_18_18': [1563], 's_19_29': [1471], 's_19_31': [3126], 's_19_19': [3200], 's_20_14': [1832], 's_20_5': [3520], 's_20_29': [1473], 's_20_20': [3589], 's_24_29': [3218, 3219], 's_24_31': [1264], 's_24_24': [1609], 's_14_29': [1756], 's_14_36': [3215, 1186], 's_14_14': [3311], 's_29_5': [3084, 1725, 1845], 's_29_29': [3173], 's_31_36': [3156], 's_31_31': [3801], 's_5_25': [1545], 's_5_36': [3081], 's_5_5': [1185], 's_36_36': [3410], 's_25_25': [3353]}</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0.0001187214611872146</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.0007547932774770363</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>{0: [773, 4415, 908, 4414, 863], 3: [4458, 4459, 1044, 1043], 8: [774], 9: [4445, 1088, 1089], 11: [834, 833, 4473], 14: [819, 4488, 818], 20: [849, 4684, 848], 22: [4504, 878, 879], 24: [4669, 909], 29: [4518, 759, 758], 31: [1120, 1119, 4534, 4535], 32: [984, 983, 4475, 4474], 1: [4429, 4430, 1073], 2: [4746, 4744, 4745], 4: [1028, 1029], 7: [4564, 4566, 4565], 12: [4611, 4609, 4610], 16: [4520, 968, 4519], 17: [1105, 4685, 1103, 1104], 13: [998, 4638, 4639], 37: [4653, 4655, 4654], 23: [4640, 4594, 1074, 4595], 27: [1164, 4505, 1163], 33: [4489, 4490, 1223, 4670, 1224], 34: [1149, 1148, 4550], 6: [1014, 4579, 4580, 1013], 19: [1209, 4625, 4623, 4624], 30: [744, 4668], 5: [4759, 804, 4548, 803], 10: [4731, 4729, 4730], 21: [4699, 4700], 26: [4549, 955, 953, 954], 15: [940, 939], 28: [894, 893], 36: [925, 864, 4714], 18: [4444, 924, 923], 35: [1058, 1059, 999, 4715], 25: [1239, 4761, 969, 4760]}</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0.007099861089674332</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.01291871560768199</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>{0: [773, 4415, 908, 4414, 863], 3: [4458, 4459, 1044, 1043], 8: [774], 9: [4445, 1088, 1089], 11: [834, 833, 4473], 14: [819, 4488, 818], 20: [849, 4684, 848], 22: [4504, 878, 879], 24: [4669, 909], 29: [4518, 759, 758], 31: [1120, 1119, 4534, 4535], 32: [984, 983, 4475, 4474], 1: [4429, 4430, 1073], 2: [4746, 4744, 4745], 4: [1028, 1029], 7: [4564, 4566, 4565], 12: [4611, 4609, 4610], 16: [4520, 968, 4519], 17: [1105, 4685, 1103, 1104], 13: [998, 4638, 4639], 37: [4653, 4655, 4654], 23: [4640, 4594, 1074, 4595], 27: [1164, 4505, 1163], 33: [4489, 4490, 1223, 4670, 1224], 34: [1149, 1148, 4550], 6: [1014, 4579, 4580, 1013], 19: [1209, 4625, 4623, 4624], 30: [744, 4668], 5: [4759, 804, 4548, 803], 10: [4731, 4729, 4730], 21: [4699, 4700], 26: [4549, 955, 953, 954], 15: [940, 939], 28: [894, 893], 36: [925, 864, 4714], 18: [4444, 924, 923], 35: [1058, 1059, 999, 4715], 25: [1239, 4761, 969, 4760]}</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0.007099861089674332</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.01291871560768199</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>{0: [500, 3246, 3245, 3244, 3243, 3242, 496, 497, 498, 499], 3: [3651, 1321, 1322, 1323, 1639, 3698, 3697], 's_0_3': [1336], 8: [3167, 3183, 3168, 721, 722], 's_0_8': [736], 9: [3562, 3561, 1067, 1068, 3560, 3527, 3528, 693, 3559, 3558], 's_0_9': [961, 3350], 11: [677, 3362, 511, 512], 's_0_11': [3302], 14: [931, 3259, 811, 3319, 590, 589, 588, 587, 3318, 3260, 691], 's_0_14': [646], 20: [3469, 3184, 3801, 1204, 886, 1203, 1202, 3380, 3379, 887], 's_0_20': [1186], 22: [3797, 933, 934, 3798, 3799], 's_0_22': [3782], 24: [3753, 844, 3827, 634, 3829, 3828], 's_0_24': [484], 29: [1263, 3321, 3156, 1262, 1261], 's_0_29': [3261], 31: [648, 649, 1158, 1159, 3876, 3872, 3873, 3874, 3875], 's_0_31': [485], 32: [3619, 513, 843, 3541, 3542, 3543], 's_0_32': [3617], 's_0_0': [3247], 1: [1577, 3276, 1307, 3411, 1457, 1517, 3412], 's_3_1': [1578, 3653], 2: [3588, 3591, 3589, 1143, 3590], 's_3_2': [3576], 4: [1368, 3652, 647, 1398, 3517, 3516, 3515, 3512, 3513, 3514], 's_3_4': [1638, 3518], 7: [692, 1427, 3454, 3502, 3455, 3456, 1337, 1234, 1338, 3453, 3741], 's_3_7': [3396], 12: [3757, 1127, 3620, 1128, 1129, 3754, 1309, 3756, 3755], 's_3_12': [3758], 16: [3682, 1111, 1112, 3531, 1113, 3681, 1114], 's_3_16': [3683], 17: [1414, 3784, 1249, 3785, 3786, 3787, 3472, 1489, 1488], 's_3_17': [1384], 's_3_20': [3381], 's_3_3': [1320], 13: [920, 3410, 3844, 3409, 3408, 3407, 661, 662, 663, 664, 3843], 's_8_13': [3273], 37: [3488, 1366, 1367, 3487, 780, 3486, 3484, 782, 3485, 781], 's_8_37': [3213], 's_8_8': [3138], 's_9_1': [1502], 's_9_7': [723], 's_9_12': [3365], 23: [3547, 528, 3587, 1428, 1429, 3712, 3711, 603, 3708, 3709, 3710], 's_9_23': [3632, 483], 27: [559, 3307, 3306, 1141, 558, 1007, 1006, 3290, 3289, 3288, 3287, 557], 's_9_27': [1066], 's_9_32': [437], 33: [964, 3320, 1097, 3679, 3680, 1098, 3980, 3860, 1100, 1099], 's_9_33': [873], 34: [3530, 993, 992], 's_9_34': [3529], 's_9_37': [1532], 's_9_9': [543], 6: [767, 3338, 3337, 3336, 3335, 3334, 3333, 3332, 410, 409, 408, 407], 's_11_6': [3363], 's_11_7': [3452, 3467], 's_11_14': [616], 19: [3422, 3425, 3424, 3423], 's_11_19': [572], 30: [766, 3199, 3197, 3198], 's_11_30': [3182], 's_11_32': [678], 's_11_11': [3212], 5: [795, 3229, 3228, 799, 798, 797, 796], 's_14_5': [841], 's_14_7': [3348], 10: [994, 3800, 1084, 1081, 1082, 1083], 's_14_10': [3125], 's_14_20': [1021], 21: [3693, 3769, 917, 918, 3694, 919], 's_14_21': [902], 's_14_23': [3722], 26: [3950, 3214, 1220, 1219, 1218, 1217, 1051, 3215, 1216], 's_14_26': [976], 's_14_30': [586], 's_14_31': [575], 's_14_33': [1036], 's_14_14': [3812], 's_20_2': [1294, 1293], 's_20_7': [3606], 's_20_12': [3770], 15: [1339, 740, 3922, 3916, 3917, 3921, 3920, 3919, 3918], 's_20_15': [3816, 1280], 's_20_17': [1279, 3726], 's_20_21': [3439], 's_20_23': [3802], 28: [3695, 1037, 1038, 1039], 's_20_28': [3364], 's_20_30': [3154], 36: [3889, 829, 3649, 828, 827, 3393, 3170, 3169, 3378, 751, 752], 's_20_36': [1005], 's_20_20': [1189, 1190], 's_22_2': [948], 's_22_5': [3783], 18: [3740, 3739, 3633, 3664, 3603, 783, 3738], 's_22_18': [709], 's_22_23': [739], 's_22_24': [529], 's_22_27': [544], 's_22_28': [3500], 's_22_22': [3796], 's_24_12': [889], 's_24_13': [619], 's_24_21': [3768, 694], 's_24_23': [604], 's_24_31': [3826, 439], 's_24_33': [814, 813], 35: [3724, 3904, 1442, 1443, 1445, 949, 950, 1444, 3890, 3891, 3892], 's_24_35': [979], 's_24_24': [454], 's_29_1': [3366], 's_29_6': [1277], 's_29_12': [1126, 3126], 's_29_16': [3171], 's_29_37': [3216, 1276], 's_29_29': [3096], 's_31_2': [3696], 's_31_6': [3887], 's_31_16': [1115], 's_31_18': [784], 25: [1172, 1474, 1174, 1173, 3621, 1472, 1473, 3622], 's_31_25': [3846], 's_31_33': [935], 's_31_31': [1265], 's_32_4': [3557], 's_32_6': [3662], 's_32_12': [3545, 3544], 's_32_18': [768], 's_32_27': [3647], 's_32_37': [812], 's_32_32': [3540], 's_1_7': [3426], 's_1_17': [3533], 's_1_23': [1353, 1352, 3442], 's_1_26': [1171], 's_1_27': [3291], 's_1_35': [3367], 's_1_1': [3322, 1411], 's_2_26': [3725], 's_2_4': [1383], 's_2_5': [3573], 's_2_25': [1233], 's_2_33': [3575], 's_2_2': [1008], 's_4_17': [3607], 's_4_35': [3667], 's_4_6': [393], 's_4_19': [632], 's_4_33': [858], 's_4_37': [3468], 's_4_4': [3637], 's_7_6': [1382], 's_7_16': [3532], 's_7_18': [738], 's_7_26': [3501], 's_7_27': [1231, 1232, 3441], 's_7_33': [3861], 's_7_34': [977], 's_7_35': [1235], 's_7_7': [1412], 's_12_17': [3772, 3771], 's_12_23': [1504, 3832], 's_12_35': [1354], 's_12_25': [3636], 's_12_33': [3815, 1054], 's_12_16': [3666], 's_12_28': [3605], 's_12_34': [1053], 's_12_12': [1564], 's_16_17': [1264], 's_16_23': [1413], 's_16_26': [3351], 's_16_27': [3230], 's_16_13': [1187], 's_16_18': [1188], 's_16_19': [1157], 's_16_16': [3095], 's_17_10': [1144], 's_17_21': [874], 's_17_25': [3577], 's_17_35': [1459], 's_17_37': [1248, 1247], 's_17_17': [1490], 's_13_23': [679], 's_13_27': [3572], 's_13_35': [3934], 's_13_5': [3227], 's_13_33': [947], 's_13_15': [665], 's_13_18': [3618], 's_13_28': [3845], 's_13_30': [676], 's_13_36': [857], 's_13_13': [3964], 's_37_27': [3262, 1381], 's_37_35': [3277], 's_37_25': [3503], 's_37_6': [1397], 's_37_19': [872], 's_37_18': [753], 's_37_28': [1022], 's_37_30': [3139], 's_37_37': [3231, 3232], 's_23_5': [724, 3723], 's_23_18': [754], 's_23_21': [618], 's_23_27': [3707], 's_23_23': [3847], 's_27_6': [3272, 466], 's_27_10': [3305], 's_27_21': [3692], 's_27_34': [3394], 's_27_35': [1292, 3352], 's_27_27': [3377], 's_33_26': [3935], 's_33_35': [1070], 's_33_10': [3470], 's_33_18': [769], 's_33_19': [932], 's_33_28': [1023], 's_33_33': [1025], 's_34_35': [3665], 's_34_19': [962], 's_34_34': [991], 's_6_26': [1052], 's_6_5': [3349], 's_6_25': [1487], 's_6_15': [395], 's_6_19': [482], 's_6_6': [1622], 's_19_36': [707], 's_19_19': [3437], 's_30_5': [3124], 's_30_36': [990], 's_30_30': [600], 's_5_26': [901], 's_5_5': [3093], 's_10_35': [1009], 's_10_28': [1069], 's_10_36': [3650], 's_10_10': [1080], 's_21_28': [3574], 's_21_21': [3274], 's_26_15': [1205], 's_26_36': [3155], 's_26_26': [1050], 's_15_25': [1475], 's_15_15': [1549], 's_28_18': [978], 's_28_28': [1024], 's_36_35': [3634], 's_36_18': [888], 's_36_36': [960], 's_18_18': [633], 's_35_25': [3457], 's_35_35': [3949], 's_25_25': [3727]}</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0.0001178707224334601</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0006590023859071114</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>{0: [500, 3246, 3245, 3244, 3243, 3242, 496, 497, 498, 499], 3: [3651, 1321, 1322, 1323, 1639, 3698, 3697], 's_0_3': [1336], 8: [3167, 3183, 3168, 721, 722], 's_0_8': [736], 9: [3562, 3561, 1067, 1068, 3560, 3527, 3528, 693, 3559, 3558], 's_0_9': [961, 3350], 11: [677, 3362, 511, 512], 's_0_11': [3302], 14: [931, 3259, 811, 3319, 590, 589, 588, 587, 3318, 3260, 691], 's_0_14': [646], 20: [3469, 3184, 3801, 1204, 886, 1203, 1202, 3380, 3379, 887], 's_0_20': [1186], 22: [3797, 933, 934, 3798, 3799], 's_0_22': [3782], 24: [3753, 844, 3827, 634, 3829, 3828], 's_0_24': [484], 29: [1263, 3321, 3156, 1262, 1261], 's_0_29': [3261], 31: [648, 649, 1158, 1159, 3876, 3872, 3873, 3874, 3875], 's_0_31': [485], 32: [3619, 513, 843, 3541, 3542, 3543], 's_0_32': [3617], 's_0_0': [3247], 1: [1577, 3276, 1307, 3411, 1457, 1517, 3412], 's_3_1': [1578, 3653], 2: [3588, 3591, 3589, 1143, 3590], 's_3_2': [3576], 4: [1368, 3652, 647, 1398, 3517, 3516, 3515, 3512, 3513, 3514], 's_3_4': [1638, 3518], 7: [692, 1427, 3454, 3502, 3455, 3456, 1337, 1234, 1338, 3453, 3741], 's_3_7': [3396], 12: [3757, 1127, 3620, 1128, 1129, 3754, 1309, 3756, 3755], 's_3_12': [3758], 16: [3682, 1111, 1112, 3531, 1113, 3681, 1114], 's_3_16': [3683], 17: [1414, 3784, 1249, 3785, 3786, 3787, 3472, 1489, 1488], 's_3_17': [1384], 's_3_20': [3381], 's_3_3': [1320], 13: [920, 3410, 3844, 3409, 3408, 3407, 661, 662, 663, 664, 3843], 's_8_13': [3273], 37: [3488, 1366, 1367, 3487, 780, 3486, 3484, 782, 3485, 781], 's_8_37': [3213], 's_8_8': [3138], 's_9_1': [1502], 's_9_7': [723], 's_9_12': [3365], 23: [3547, 528, 3587, 1428, 1429, 3712, 3711, 603, 3708, 3709, 3710], 's_9_23': [3632, 483], 27: [559, 3307, 3306, 1141, 558, 1007, 1006, 3290, 3289, 3288, 3287, 557], 's_9_27': [1066], 's_9_32': [437], 33: [964, 3320, 1097, 3679, 3680, 1098, 3980, 3860, 1100, 1099], 's_9_33': [873], 34: [3530, 993, 992], 's_9_34': [3529], 's_9_37': [1532], 's_9_9': [543], 6: [767, 3338, 3337, 3336, 3335, 3334, 3333, 3332, 410, 409, 408, 407], 's_11_6': [3363], 's_11_7': [3452, 3467], 's_11_14': [616], 19: [3422, 3425, 3424, 3423], 's_11_19': [572], 30: [766, 3199, 3197, 3198], 's_11_30': [3182], 's_11_32': [678], 's_11_11': [3212], 5: [795, 3229, 3228, 799, 798, 797, 796], 's_14_5': [841], 's_14_7': [3348], 10: [994, 3800, 1084, 1081, 1082, 1083], 's_14_10': [3125], 's_14_20': [1021], 21: [3693, 3769, 917, 918, 3694, 919], 's_14_21': [902], 's_14_23': [3722], 26: [3950, 3214, 1220, 1219, 1218, 1217, 1051, 3215, 1216], 's_14_26': [976], 's_14_30': [586], 's_14_31': [575], 's_14_33': [1036], 's_14_14': [3812], 's_20_2': [1294, 1293], 's_20_7': [3606], 's_20_12': [3770], 15: [1339, 740, 3922, 3916, 3917, 3921, 3920, 3919, 3918], 's_20_15': [3816, 1280], 's_20_17': [1279, 3726], 's_20_21': [3439], 's_20_23': [3802], 28: [3695, 1037, 1038, 1039], 's_20_28': [3364], 's_20_30': [3154], 36: [3889, 829, 3649, 828, 827, 3393, 3170, 3169, 3378, 751, 752], 's_20_36': [1005], 's_20_20': [1189, 1190], 's_22_2': [948], 's_22_5': [3783], 18: [3740, 3739, 3633, 3664, 3603, 783, 3738], 's_22_18': [709], 's_22_23': [739], 's_22_24': [529], 's_22_27': [544], 's_22_28': [3500], 's_22_22': [3796], 's_24_12': [889], 's_24_13': [619], 's_24_21': [3768, 694], 's_24_23': [604], 's_24_31': [3826, 439], 's_24_33': [814, 813], 35: [3724, 3904, 1442, 1443, 1445, 949, 950, 1444, 3890, 3891, 3892], 's_24_35': [979], 's_24_24': [454], 's_29_1': [3366], 's_29_6': [1277], 's_29_12': [1126, 3126], 's_29_16': [3171], 's_29_37': [3216, 1276], 's_29_29': [3096], 's_31_2': [3696], 's_31_6': [3887], 's_31_16': [1115], 's_31_18': [784], 25: [1172, 1474, 1174, 1173, 3621, 1472, 1473, 3622], 's_31_25': [3846], 's_31_33': [935], 's_31_31': [1265], 's_32_4': [3557], 's_32_6': [3662], 's_32_12': [3545, 3544], 's_32_18': [768], 's_32_27': [3647], 's_32_37': [812], 's_32_32': [3540], 's_1_7': [3426], 's_1_17': [3533], 's_1_23': [1353, 1352, 3442], 's_1_26': [1171], 's_1_27': [3291], 's_1_35': [3367], 's_1_1': [3322, 1411], 's_2_26': [3725], 's_2_4': [1383], 's_2_5': [3573], 's_2_25': [1233], 's_2_33': [3575], 's_2_2': [1008], 's_4_17': [3607], 's_4_35': [3667], 's_4_6': [393], 's_4_19': [632], 's_4_33': [858], 's_4_37': [3468], 's_4_4': [3637], 's_7_6': [1382], 's_7_16': [3532], 's_7_18': [738], 's_7_26': [3501], 's_7_27': [1231, 1232, 3441], 's_7_33': [3861], 's_7_34': [977], 's_7_35': [1235], 's_7_7': [1412], 's_12_17': [3772, 3771], 's_12_23': [1504, 3832], 's_12_35': [1354], 's_12_25': [3636], 's_12_33': [3815, 1054], 's_12_16': [3666], 's_12_28': [3605], 's_12_34': [1053], 's_12_12': [1564], 's_16_17': [1264], 's_16_23': [1413], 's_16_26': [3351], 's_16_27': [3230], 's_16_13': [1187], 's_16_18': [1188], 's_16_19': [1157], 's_16_16': [3095], 's_17_10': [1144], 's_17_21': [874], 's_17_25': [3577], 's_17_35': [1459], 's_17_37': [1248, 1247], 's_17_17': [1490], 's_13_23': [679], 's_13_27': [3572], 's_13_35': [3934], 's_13_5': [3227], 's_13_33': [947], 's_13_15': [665], 's_13_18': [3618], 's_13_28': [3845], 's_13_30': [676], 's_13_36': [857], 's_13_13': [3964], 's_37_27': [3262, 1381], 's_37_35': [3277], 's_37_25': [3503], 's_37_6': [1397], 's_37_19': [872], 's_37_18': [753], 's_37_28': [1022], 's_37_30': [3139], 's_37_37': [3231, 3232], 's_23_5': [724, 3723], 's_23_18': [754], 's_23_21': [618], 's_23_27': [3707], 's_23_23': [3847], 's_27_6': [3272, 466], 's_27_10': [3305], 's_27_21': [3692], 's_27_34': [3394], 's_27_35': [1292, 3352], 's_27_27': [3377], 's_33_26': [3935], 's_33_35': [1070], 's_33_10': [3470], 's_33_18': [769], 's_33_19': [932], 's_33_28': [1023], 's_33_33': [1025], 's_34_35': [3665], 's_34_19': [962], 's_34_34': [991], 's_6_26': [1052], 's_6_5': [3349], 's_6_25': [1487], 's_6_15': [395], 's_6_19': [482], 's_6_6': [1622], 's_19_36': [707], 's_19_19': [3437], 's_30_5': [3124], 's_30_36': [990], 's_30_30': [600], 's_5_26': [901], 's_5_5': [3093], 's_10_35': [1009], 's_10_28': [1069], 's_10_36': [3650], 's_10_10': [1080], 's_21_28': [3574], 's_21_21': [3274], 's_26_15': [1205], 's_26_36': [3155], 's_26_26': [1050], 's_15_25': [1475], 's_15_15': [1549], 's_28_18': [978], 's_28_28': [1024], 's_36_35': [3634], 's_36_18': [888], 's_36_36': [960], 's_18_18': [633], 's_35_25': [3457], 's_35_35': [3949], 's_25_25': [3727]}</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0.0001178707224334601</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.0006590023859071114</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>{0: [3331, 378, 377], 5: [3435, 3436], 7: [302, 303], 11: [213, 212], 13: [93, 257, 92, 3421, 3420], 17: [452, 3390, 3391], 18: [3555, 3556, 363], 23: [316, 3360, 317], 29: [3570, 3571], 30: [3541, 318, 3540], 33: [3330, 168, 167], 35: [3315, 3316, 3317, 557], 38: [362, 256, 3301], 4: [348, 347, 346, 3271], 6: [197, 3465, 198], 8: [3332, 393, 392], 16: [3406, 243, 227, 242, 3405], 26: [286, 287], 36: [3512, 272, 3511], 37: [437, 3467, 3466], 3: [3646, 422, 423], 9: [3617, 288, 3615, 3616], 15: [438, 258, 3601, 3600], 27: [229, 453, 3661, 3662], 31: [3375, 498, 497, 3376], 10: [183, 3285, 182], 22: [543, 3481, 3482], 32: [3660, 3525, 153], 34: [331, 333, 332], 12: [467, 466], 19: [3527, 3526], 20: [3437, 3361, 483, 482], 24: [364, 3630, 3631], 25: [3286, 408, 407], 21: [3451, 3452], 28: [3585, 3586, 3587, 558], 1: [421, 271, 3347, 3346], 2: [3542, 513, 512, 3407], 14: [3497, 228, 3496]}</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0.006498877466619401</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.01202501587517135</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>{0: [3331, 378, 377], 5: [3435, 3436], 7: [302, 303], 11: [213, 212], 13: [93, 257, 92, 3421, 3420], 17: [452, 3390, 3391], 18: [3555, 3556, 363], 23: [316, 3360, 317], 29: [3570, 3571], 30: [3541, 318, 3540], 33: [3330, 168, 167], 35: [3315, 3316, 3317, 557], 38: [362, 256, 3301], 4: [348, 347, 346, 3271], 6: [197, 3465, 198], 8: [3332, 393, 392], 16: [3406, 243, 227, 242, 3405], 26: [286, 287], 36: [3512, 272, 3511], 37: [437, 3467, 3466], 3: [3646, 422, 423], 9: [3617, 288, 3615, 3616], 15: [438, 258, 3601, 3600], 27: [229, 453, 3661, 3662], 31: [3375, 498, 497, 3376], 10: [183, 3285, 182], 22: [543, 3481, 3482], 32: [3660, 3525, 153], 34: [331, 333, 332], 12: [467, 466], 19: [3527, 3526], 20: [3437, 3361, 483, 482], 24: [364, 3630, 3631], 25: [3286, 408, 407], 21: [3451, 3452], 28: [3585, 3586, 3587, 558], 1: [421, 271, 3347, 3346], 2: [3542, 513, 512, 3407], 14: [3497, 228, 3496]}</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0.006498877466619401</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.01202501587517135</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.059</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>{0: [3703, 3702, 2238, 1997, 1998, 3625, 3626], 5: [3775, 4033, 4032, 4031, 4030, 1970, 1969, 1968, 3521, 3520], 's_0_5': [2118], 7: [3748, 2510, 2508, 2509], 's_0_7': [2494], 11: [1831, 3429, 3340, 1832], 's_0_11': [3325], 13: [3299, 2656, 2671, 3179, 3177, 3176, 3175, 3178, 3564, 1921, 1922, 1923], 's_0_13': [3295], 17: [3639, 3373, 3372, 1954, 3371, 3640, 1953, 1952, 3370, 2027], 's_0_17': [3445], 18: [3399, 3400, 3401, 2282, 3507, 3794, 3793, 2434, 2358, 3582, 2433], 's_0_18': [1982], 23: [3415, 2419, 3853, 2072, 2073, 3745, 2119, 3852, 3851], 's_0_23': [2043], 29: [2778, 3614, 3610, 3611, 3612, 3613], 's_0_29': [2028], 30: [2087, 3689, 3688, 3685, 3687, 2088, 3686], 's_0_30': [2418], 33: [3868, 2525, 2480, 2524, 3898], 's_0_33': [2464], 35: [2239, 3414, 2300, 1877, 1878, 1879, 3924, 3925, 3926], 's_0_35': [3490], 38: [3506, 2193, 2192, 3297, 2178, 2177, 3296], 's_0_38': [3581], 's_0_0': [3385], 4: [2611, 3237, 3234, 3236, 3235, 2056, 3460, 3238, 2057], 's_5_4': [2042], 6: [1905, 1906, 3956, 2165, 3866, 2104, 3730, 3957, 3729, 1908, 1907], 's_5_6': [1892], 's_5_7': [2495], 8: [1865, 1864, 1860, 1861, 1862, 1863], 's_5_8': [4045], 's_5_13': [1848], 16: [2015, 2012, 2013, 3701, 3779, 3778, 2014, 3777, 3776, 2179], 's_5_16': [3655], 26: [2330, 2329, 2328, 3342, 2310, 2311, 2312, 2327], 's_5_26': [4047], 's_5_33': [2526], 36: [2150, 2211, 3987, 3986, 2210, 2207, 2208, 2209], 's_5_36': [2420], 37: [3869, 3759, 2583, 2584, 3808, 2075, 3760, 2074, 3806, 3807], 's_5_37': [4046], 's_5_38': [3522], 's_5_5': [4015, 1925], 3: [2522, 3628, 2553, 2552, 3431, 3432, 3433], 's_7_3': [3553], 9: [3115, 3673, 3117, 3118, 3119, 2731, 3674, 2732, 2733, 3116, 3599, 2673], 's_7_9': [2493, 3583], 15: [2629, 3329, 2626, 3733, 2628, 2627], 's_7_15': [3913], 27: [2540, 2537, 2538, 2539], 's_7_27': [3838], 31: [3597, 2448, 3718, 1938, 3717, 3716, 1937, 3715, 1939], 's_7_31': [3598], 's_7_7': [4003], 10: [3744, 3579, 1817, 1818, 1819], 's_11_10': [3294], 's_11_13': [3204], 's_11_18': [1772], 22: [2341, 3133, 3130, 3131, 2357, 2356, 3132], 's_11_22': [1846], 's_11_31': [3355], 's_11_35': [1876], 's_11_11': [1742], 's_13_4': [2566], 's_13_8': [3160], 's_13_9': [2430], 's_13_10': [3549], 's_13_15': [2625], 's_13_17': [1788], 's_13_22': [3250, 2026], 32: [2435, 3973, 2657, 3464, 2748, 2749, 2750, 3974], 's_13_32': [3418, 2492, 2491], 34: [2131, 3251, 2569, 2567, 3344, 3252, 2568, 2415, 2416, 3343], 's_13_34': [2326], 's_13_13': [3563], 's_17_3': [2462], 's_17_4': [3341], 's_17_10': [3654], 12: [1984, 3834, 1985, 3835], 's_17_12': [1955, 3940], 's_17_18': [1967], 19: [2447, 3463, 2266, 2267, 3910, 3462, 3911, 2269, 2268], 's_17_19': [2297], 20: [2149, 2148, 2147, 2146], 's_17_20': [3326], 's_17_26': [3387], 's_17_27': [3388], 's_17_30': [2058], 's_17_31': [2029], 's_17_34': [2446], 's_17_36': [3386], 's_17_37': [3805], 's_17_17': [3638], 's_18_16': [2614], 's_18_22': [3357], 24: [2734, 3643, 3644], 's_18_24': [3809], 25: [3569, 3789, 3790, 3791, 2134, 2612, 3568, 3567, 3566, 2133], 's_18_25': [2432], 's_18_29': [2313], 's_18_30': [2704], 's_18_31': [3747], 's_18_32': [2689, 3764], 's_18_34': [2281], 's_18_36': [3416], 's_18_37': [2599], 's_18_18': [3762], 's_23_4': [3550], 's_23_10': [3580], 's_23_20': [3536], 21: [2386, 2387, 3476, 3477, 2388], 's_23_21': [3446, 2117], 's_23_26': [2345, 3927], 's_23_30': [2089], 's_23_33': [2404], 's_23_23': [2030], 's_29_3': [2463], 's_29_15': [3659], 's_29_16': [2779], 's_29_20': [3491, 2163], 28: [3732, 3883, 3972, 2376, 2373, 2374, 2375], 's_29_28': [3627], 's_29_30': [2283], 's_29_32': [3749], 's_29_29': [2718], 's_30_3': [2554], 's_30_8': [3670], 's_30_12': [1893, 1894], 's_30_15': [2613], 's_30_16': [3595], 's_30_19': [3672], 's_30_20': [3671], 's_30_25': [3641], 's_30_37': [2344], 's_30_30': [2359], 's_33_6': [2465], 's_33_15': [3928], 's_33_24': [3658], 's_33_28': [2390], 's_33_31': [2479], 's_33_32': [4048], 's_33_33': [3988, 2600], 1: [2162, 2041, 1847, 3312, 3310, 3190, 2101, 3311], 's_35_1': [3444], 2: [3221, 2221, 3538, 3537, 2224, 2223, 2222], 's_35_2': [3897], 's_35_6': [2135], 's_35_8': [3609], 's_35_10': [3459], 's_35_12': [1909], 's_35_16': [2254], 's_35_28': [4017], 's_35_35': [3474], 's_38_1': [2071], 's_38_4': [2116], 's_38_26': [3492], 's_38_34': [2236], 's_38_38': [3281], 's_4_1': [2055], 's_4_8': [3219], 's_4_15': [3254], 's_4_19': [2251], 's_4_25': [3565], 's_4_31': [1936], 's_4_4': [1786], 's_6_16': [3881], 's_6_28': [2270], 's_6_37': [3971], 's_6_9': [3100], 's_6_10': [1804], 's_6_32': [2450], 's_6_6': [3728], 's_8_1': [3189], 's_8_12': [3819], 's_8_22': [1875], 's_8_37': [4104, 4105], 's_8_8': [4089, 1821], 's_16_1': [3280], 's_16_2': [3746], 's_16_12': [3985], 14: [3402, 3403, 2644, 2643, 2642], 's_16_14': [2659], 's_16_19': [3761], 's_16_20': [3656], 's_16_24': [2719], 's_16_31': [2164], 's_16_16': [2824], 's_26_36': [2314, 2315], 's_26_37': [3792], 's_26_14': [3417], 's_26_19': [3642], 's_26_22': [3147], 's_26_9': [2325], 's_26_26': [3012], 's_36_1': [2206, 3191], 's_36_20': [3821], 's_36_25': [3731], 's_36_28': [3941, 2255], 's_36_37': [4001], 's_36_36': [4151], 's_37_2': [3836], 's_37_3': [2598], 's_37_34': [3719], 's_37_14': [3854], 's_37_37': [4061], 's_3_1': [3313, 3314], 's_3_14': [2597], 's_3_15': [3629], 's_3_19': [2523], 's_3_21': [2417], 's_3_22': [3447], 's_3_27': [3298], 's_3_34': [3494], 's_3_3': [3430], 's_9_34': [2176], 's_9_27': [2536], 's_9_25': [2478], 's_9_31': [2389], 's_9_24': [2658], 's_9_32': [2747], 's_9_9': [3239], 's_15_28': [3884], 's_15_14': [2641], 's_15_24': [3734], 's_15_32': [2630], 's_15_15': [3223, 3224], 's_27_2': [3523], 's_27_34': [3328], 's_27_14': [3763], 's_27_32': [3359, 3358], 's_27_27': [3943], 's_31_19': [2253], 's_31_21': [2343], 's_31_25': [3774, 1834], 's_31_12': [3865], 's_31_31': [1940], 's_10_25': [3804], 's_10_10': [3624], 's_22_14': [2342], 's_22_21': [3102], 's_22_22': [2280], 's_32_19': [3584, 2703, 3509, 2582], 's_32_32': [2780], 's_34_1': [2296], 's_34_14': [2372], 's_34_19': [3282], 's_34_20': [3206, 3207, 2371], 's_34_21': [3222], 's_34_24': [2688, 2687], 's_34_25': [3524], 's_34_34': [2717], 's_12_19': [2000], 's_12_12': [1835], 's_19_14': [2402], 's_19_19': [2477, 2476], 's_20_2': [3266], 's_20_25': [3596], 's_20_20': [3161], 's_24_24': [2735], 's_25_14': [3449], 's_25_21': [3552], 's_25_25': [1759], 's_21_28': [3493], 's_21_21': [2385], 's_28_2': [3882], 's_28_28': [4063], 's_1_2': [3327], 's_1_1': [3265], 's_2_2': [2225], 's_14_14': [2645]}</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0001911764705882353</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0008162758286104656</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>{0: [3703, 3702, 2238, 1997, 1998, 3625, 3626], 5: [3775, 4033, 4032, 4031, 4030, 1970, 1969, 1968, 3521, 3520], 's_0_5': [2118], 7: [3748, 2510, 2508, 2509], 's_0_7': [2494], 11: [1831, 3429, 3340, 1832], 's_0_11': [3325], 13: [3299, 2656, 2671, 3179, 3177, 3176, 3175, 3178, 3564, 1921, 1922, 1923], 's_0_13': [3295], 17: [3639, 3373, 3372, 1954, 3371, 3640, 1953, 1952, 3370, 2027], 's_0_17': [3445], 18: [3399, 3400, 3401, 2282, 3507, 3794, 3793, 2434, 2358, 3582, 2433], 's_0_18': [1982], 23: [3415, 2419, 3853, 2072, 2073, 3745, 2119, 3852, 3851], 's_0_23': [2043], 29: [2778, 3614, 3610, 3611, 3612, 3613], 's_0_29': [2028], 30: [2087, 3689, 3688, 3685, 3687, 2088, 3686], 's_0_30': [2418], 33: [3868, 2525, 2480, 2524, 3898], 's_0_33': [2464], 35: [2239, 3414, 2300, 1877, 1878, 1879, 3924, 3925, 3926], 's_0_35': [3490], 38: [3506, 2193, 2192, 3297, 2178, 2177, 3296], 's_0_38': [3581], 's_0_0': [3385], 4: [2611, 3237, 3234, 3236, 3235, 2056, 3460, 3238, 2057], 's_5_4': [2042], 6: [1905, 1906, 3956, 2165, 3866, 2104, 3730, 3957, 3729, 1908, 1907], 's_5_6': [1892], 's_5_7': [2495], 8: [1865, 1864, 1860, 1861, 1862, 1863], 's_5_8': [4045], 's_5_13': [1848], 16: [2015, 2012, 2013, 3701, 3779, 3778, 2014, 3777, 3776, 2179], 's_5_16': [3655], 26: [2330, 2329, 2328, 3342, 2310, 2311, 2312, 2327], 's_5_26': [4047], 's_5_33': [2526], 36: [2150, 2211, 3987, 3986, 2210, 2207, 2208, 2209], 's_5_36': [2420], 37: [3869, 3759, 2583, 2584, 3808, 2075, 3760, 2074, 3806, 3807], 's_5_37': [4046], 's_5_38': [3522], 's_5_5': [4015, 1925], 3: [2522, 3628, 2553, 2552, 3431, 3432, 3433], 's_7_3': [3553], 9: [3115, 3673, 3117, 3118, 3119, 2731, 3674, 2732, 2733, 3116, 3599, 2673], 's_7_9': [2493, 3583], 15: [2629, 3329, 2626, 3733, 2628, 2627], 's_7_15': [3913], 27: [2540, 2537, 2538, 2539], 's_7_27': [3838], 31: [3597, 2448, 3718, 1938, 3717, 3716, 1937, 3715, 1939], 's_7_31': [3598], 's_7_7': [4003], 10: [3744, 3579, 1817, 1818, 1819], 's_11_10': [3294], 's_11_13': [3204], 's_11_18': [1772], 22: [2341, 3133, 3130, 3131, 2357, 2356, 3132], 's_11_22': [1846], 's_11_31': [3355], 's_11_35': [1876], 's_11_11': [1742], 's_13_4': [2566], 's_13_8': [3160], 's_13_9': [2430], 's_13_10': [3549], 's_13_15': [2625], 's_13_17': [1788], 's_13_22': [3250, 2026], 32: [2435, 3973, 2657, 3464, 2748, 2749, 2750, 3974], 's_13_32': [3418, 2492, 2491], 34: [2131, 3251, 2569, 2567, 3344, 3252, 2568, 2415, 2416, 3343], 's_13_34': [2326], 's_13_13': [3563], 's_17_3': [2462], 's_17_4': [3341], 's_17_10': [3654], 12: [1984, 3834, 1985, 3835], 's_17_12': [1955, 3940], 's_17_18': [1967], 19: [2447, 3463, 2266, 2267, 3910, 3462, 3911, 2269, 2268], 's_17_19': [2297], 20: [2149, 2148, 2147, 2146], 's_17_20': [3326], 's_17_26': [3387], 's_17_27': [3388], 's_17_30': [2058], 's_17_31': [2029], 's_17_34': [2446], 's_17_36': [3386], 's_17_37': [3805], 's_17_17': [3638], 's_18_16': [2614], 's_18_22': [3357], 24: [2734, 3643, 3644], 's_18_24': [3809], 25: [3569, 3789, 3790, 3791, 2134, 2612, 3568, 3567, 3566, 2133], 's_18_25': [2432], 's_18_29': [2313], 's_18_30': [2704], 's_18_31': [3747], 's_18_32': [2689, 3764], 's_18_34': [2281], 's_18_36': [3416], 's_18_37': [2599], 's_18_18': [3762], 's_23_4': [3550], 's_23_10': [3580], 's_23_20': [3536], 21: [2386, 2387, 3476, 3477, 2388], 's_23_21': [3446, 2117], 's_23_26': [2345, 3927], 's_23_30': [2089], 's_23_33': [2404], 's_23_23': [2030], 's_29_3': [2463], 's_29_15': [3659], 's_29_16': [2779], 's_29_20': [3491, 2163], 28: [3732, 3883, 3972, 2376, 2373, 2374, 2375], 's_29_28': [3627], 's_29_30': [2283], 's_29_32': [3749], 's_29_29': [2718], 's_30_3': [2554], 's_30_8': [3670], 's_30_12': [1893, 1894], 's_30_15': [2613], 's_30_16': [3595], 's_30_19': [3672], 's_30_20': [3671], 's_30_25': [3641], 's_30_37': [2344], 's_30_30': [2359], 's_33_6': [2465], 's_33_15': [3928], 's_33_24': [3658], 's_33_28': [2390], 's_33_31': [2479], 's_33_32': [4048], 's_33_33': [3988, 2600], 1: [2162, 2041, 1847, 3312, 3310, 3190, 2101, 3311], 's_35_1': [3444], 2: [3221, 2221, 3538, 3537, 2224, 2223, 2222], 's_35_2': [3897], 's_35_6': [2135], 's_35_8': [3609], 's_35_10': [3459], 's_35_12': [1909], 's_35_16': [2254], 's_35_28': [4017], 's_35_35': [3474], 's_38_1': [2071], 's_38_4': [2116], 's_38_26': [3492], 's_38_34': [2236], 's_38_38': [3281], 's_4_1': [2055], 's_4_8': [3219], 's_4_15': [3254], 's_4_19': [2251], 's_4_25': [3565], 's_4_31': [1936], 's_4_4': [1786], 's_6_16': [3881], 's_6_28': [2270], 's_6_37': [3971], 's_6_9': [3100], 's_6_10': [1804], 's_6_32': [2450], 's_6_6': [3728], 's_8_1': [3189], 's_8_12': [3819], 's_8_22': [1875], 's_8_37': [4104, 4105], 's_8_8': [4089, 1821], 's_16_1': [3280], 's_16_2': [3746], 's_16_12': [3985], 14: [3402, 3403, 2644, 2643, 2642], 's_16_14': [2659], 's_16_19': [3761], 's_16_20': [3656], 's_16_24': [2719], 's_16_31': [2164], 's_16_16': [2824], 's_26_36': [2314, 2315], 's_26_37': [3792], 's_26_14': [3417], 's_26_19': [3642], 's_26_22': [3147], 's_26_9': [2325], 's_26_26': [3012], 's_36_1': [2206, 3191], 's_36_20': [3821], 's_36_25': [3731], 's_36_28': [3941, 2255], 's_36_37': [4001], 's_36_36': [4151], 's_37_2': [3836], 's_37_3': [2598], 's_37_34': [3719], 's_37_14': [3854], 's_37_37': [4061], 's_3_1': [3313, 3314], 's_3_14': [2597], 's_3_15': [3629], 's_3_19': [2523], 's_3_21': [2417], 's_3_22': [3447], 's_3_27': [3298], 's_3_34': [3494], 's_3_3': [3430], 's_9_34': [2176], 's_9_27': [2536], 's_9_25': [2478], 's_9_31': [2389], 's_9_24': [2658], 's_9_32': [2747], 's_9_9': [3239], 's_15_28': [3884], 's_15_14': [2641], 's_15_24': [3734], 's_15_32': [2630], 's_15_15': [3223, 3224], 's_27_2': [3523], 's_27_34': [3328], 's_27_14': [3763], 's_27_32': [3359, 3358], 's_27_27': [3943], 's_31_19': [2253], 's_31_21': [2343], 's_31_25': [3774, 1834], 's_31_12': [3865], 's_31_31': [1940], 's_10_25': [3804], 's_10_10': [3624], 's_22_14': [2342], 's_22_21': [3102], 's_22_22': [2280], 's_32_19': [3584, 2703, 3509, 2582], 's_32_32': [2780], 's_34_1': [2296], 's_34_14': [2372], 's_34_19': [3282], 's_34_20': [3206, 3207, 2371], 's_34_21': [3222], 's_34_24': [2688, 2687], 's_34_25': [3524], 's_34_34': [2717], 's_12_19': [2000], 's_12_12': [1835], 's_19_14': [2402], 's_19_19': [2477, 2476], 's_20_2': [3266], 's_20_25': [3596], 's_20_20': [3161], 's_24_24': [2735], 's_25_14': [3449], 's_25_21': [3552], 's_25_25': [1759], 's_21_28': [3493], 's_21_21': [2385], 's_28_2': [3882], 's_28_28': [4063], 's_1_2': [3327], 's_1_1': [3265], 's_2_2': [2225], 's_14_14': [2645]}</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0.0001911764705882353</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.0008162758286104656</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>{0: [3607, 1592, 1593, 3608], 2: [3324, 1668, 1667], 4: [1471, 1473, 1472], 5: [3429, 3427, 3428], 7: [1322, 3503, 3502], 8: [1488], 12: [1696, 1697, 3592, 3593, 1698], 13: [1578, 1576, 1577], 16: [3458, 1622, 1623], 18: [3353, 3354], 23: [3561, 3562, 1682, 3563], 32: [1292, 1293, 3518, 3517], 33: [1428, 1427], 36: [1307, 3338, 3337], 14: [1591, 1517, 3322, 3323, 1516], 34: [3398, 3397], 17: [3217, 3218, 1351, 3216], 21: [3441, 1652, 3443, 3442], 25: [1396, 3472, 1397], 26: [1426, 1382, 1381, 1486, 3247], 28: [3577, 1456, 1457, 1458], 29: [3187, 1412, 1411], 31: [1532, 3487, 3488], 6: [1742, 3381, 3383, 3382], 10: [1606, 1607], 20: [3457, 1352], 24: [3233, 1547, 1546, 3232], 35: [3309, 1487, 3307, 3308], 1: [1336, 3533, 1337, 3532], 3: [1366, 1367], 15: [3261, 1321], 27: [3173, 1562, 1561], 38: [3263, 3262, 1501, 1502], 9: [3547, 1563], 37: [1443, 3352, 1442], 11: [3277, 3278], 19: [3411, 3413, 3412], 30: [1441, 1531, 3202, 1530], 39: [1638, 1637, 1681, 3293], 22: [1757, 3366, 3368, 3367]}</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0.008984375000000001</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.01370531624441315</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>{0: [3607, 1592, 1593, 3608], 2: [3324, 1668, 1667], 4: [1471, 1473, 1472], 5: [3429, 3427, 3428], 7: [1322, 3503, 3502], 8: [1488], 12: [1696, 1697, 3592, 3593, 1698], 13: [1578, 1576, 1577], 16: [3458, 1622, 1623], 18: [3353, 3354], 23: [3561, 3562, 1682, 3563], 32: [1292, 1293, 3518, 3517], 33: [1428, 1427], 36: [1307, 3338, 3337], 14: [1591, 1517, 3322, 3323, 1516], 34: [3398, 3397], 17: [3217, 3218, 1351, 3216], 21: [3441, 1652, 3443, 3442], 25: [1396, 3472, 1397], 26: [1426, 1382, 1381, 1486, 3247], 28: [3577, 1456, 1457, 1458], 29: [3187, 1412, 1411], 31: [1532, 3487, 3488], 6: [1742, 3381, 3383, 3382], 10: [1606, 1607], 20: [3457, 1352], 24: [3233, 1547, 1546, 3232], 35: [3309, 1487, 3307, 3308], 1: [1336, 3533, 1337, 3532], 3: [1366, 1367], 15: [3261, 1321], 27: [3173, 1562, 1561], 38: [3263, 3262, 1501, 1502], 9: [3547, 1563], 37: [1443, 3352, 1442], 11: [3277, 3278], 19: [3411, 3413, 3412], 30: [1441, 1531, 3202, 1530], 39: [1638, 1637, 1681, 3293], 22: [1757, 3366, 3368, 3367]}</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0.008984375000000001</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.01370531624441315</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>{0: [563, 3857, 560, 4127, 562, 561], 2: [4172, 622, 621], 's_0_2': [606], 4: [383, 728, 4383, 608, 607, 368, 4441, 4442], 's_0_4': [4457], 5: [4290, 4291, 3890, 4292, 1025, 4293, 1026, 1027, 4294], 's_0_5': [4307], 7: [335, 4005, 663, 4010, 4009, 664, 665, 4008, 4007, 4006], 's_0_7': [666], 8: [4114, 742, 3993, 4113, 4112, 741], 's_0_8': [3992], 12: [683, 682, 4323, 4322, 4321, 4320, 203, 202, 201, 200], 's_0_12': [4277], 13: [3826, 3827, 349, 3828, 3829, 889, 3889, 892, 891, 890], 's_0_13': [439], 16: [877, 4231, 4232, 3977, 4233, 3978, 800, 801, 4235, 4234], 's_0_16': [636], 18: [4355, 4351, 486, 487, 4352, 4354, 4353], 's_0_18': [4367], 23: [3979, 920, 319, 3811, 3812, 3813, 859, 935, 3814], 's_0_23': [410], 32: [3886, 649, 695, 633, 634, 3887, 3888], 's_0_32': [3872], 33: [4202, 514, 518, 517, 515, 516], 's_0_33': [4517], 36: [546, 4067, 1010, 4099, 4068, 711, 4098], 's_0_36': [547], 's_0_0': [564], 's_2_12': [4428], 14: [860, 861, 4095, 4083, 4082, 531, 4052, 4051, 258, 259, 260], 's_2_14': [4187], 's_2_18': [501], 34: [4444, 4398, 743, 4443], 's_2_34': [4413], 's_2_2': [577], 's_4_12': [4487], 17: [263, 488, 4560, 4563, 4561, 4562], 's_4_17': [369], 's_4_18': [593], 21: [427, 426, 3961, 423, 424, 425], 's_4_21': [4366], 25: [770, 771, 772, 653, 652, 4338], 's_4_25': [4637], 26: [4456, 338, 4381, 4157, 4156, 336, 337], 's_4_26': [398], 28: [441, 4260, 503, 502, 863, 4261, 862, 4263, 4262], 's_4_28': [4486], 29: [784, 785, 713, 4458, 787, 786], 's_4_29': [712], 31: [3919, 3918, 3917, 378, 379, 382, 381, 380, 3916], 's_4_31': [367], 's_4_34': [637], 's_4_4': [548], 6: [473, 472, 3860, 3859, 3858, 575, 3962, 470, 471], 's_5_6': [1100], 10: [1043, 1042, 1039, 1040, 1041], 's_5_10': [4190], 20: [3796, 3795, 4140, 262, 123, 124, 125, 126, 4185, 261], 's_5_20': [187], 's_5_21': [442], 's_5_23': [964], 24: [4501, 4502, 773, 4384, 1069, 1070, 1071, 1072, 938, 4503, 4385], 's_5_24': [4070], 's_5_26': [247], 's_5_33': [397], 35: [4126, 411, 4020, 4025, 4024, 4023, 4021, 4022], 's_5_35': [1055], 's_5_5': [3875], 1: [544, 618, 591, 590, 589, 3645, 3646, 3647, 3632], 's_7_1': [3678], 3: [3618, 3617, 273, 3615, 3616], 's_7_3': [438, 3571, 3572], 's_7_8': [4038], 's_7_10': [3995], 's_7_13': [334], 15: [3750, 170, 169], 's_7_15': [155], 's_7_20': [231], 's_7_26': [366], 27: [4591, 304, 309, 308, 305, 306, 307], 's_7_27': [320], 's_7_31': [710], 's_7_32': [3767], 38: [4144, 293, 292, 4143, 4110, 4142, 4141, 291, 290, 289], 's_7_38': [186], 's_7_7': [1116], 's_8_12': [4248], 's_8_25': [4173], 's_8_28': [4278], 's_8_32': [740], 's_8_35': [906], 's_8_8': [4115], 9: [3710, 3709, 3708, 3707, 3840, 3841, 3842, 499], 's_12_9': [185], 's_12_17': [204], 's_12_21': [4336], 's_12_24': [4500], 's_12_28': [217], 's_12_34': [4368], 's_12_35': [412], 37: [3751, 216, 215, 3900, 3798, 3797, 3901, 455, 454], 's_12_37': [3930], 's_12_38': [4125], 's_12_12': [3870], 's_13_9': [874], 11: [3931, 3932, 3935, 3934, 755, 3933], 's_13_11': [3874], 's_13_14': [4174], 's_13_16': [4069], 's_13_18': [4369], 19: [4592, 4593, 3799, 814, 815, 816, 817, 818, 4594], 's_13_19': [829], 's_13_21': [3766], 's_13_27': [3856], 's_13_29': [4399], 30: [4534, 4533, 4532, 353, 4531, 350, 351, 352], 's_13_30': [893], 's_13_35': [875], 39: [725, 726, 4053, 4054, 681, 924, 923, 922, 921], 's_13_39': [4324], 's_13_13': [4204, 757], 's_16_1': [3873, 680], 's_16_6': [4247], 's_16_10': [4309], 's_16_11': [620], 's_16_18': [802], 's_16_20': [4230, 96], 22: [1058, 4577, 4580, 878, 4578, 774, 4579], 's_16_22': [1057], 's_16_32': [485], 's_16_36': [1011], 's_16_16': [1087], 's_18_6': [457], 's_18_21': [4111], 's_18_24': [1103], 's_18_27': [322], 's_18_30': [4096], 's_18_35': [4081], 's_18_36': [995, 996, 997], 's_18_39': [908], 's_18_18': [1147], 's_23_1': [318], 's_23_14': [3720], 's_23_19': [979], 's_23_33': [529], 's_23_37': [604], 's_23_39': [936, 937, 4264], 's_23_23': [858], 's_32_3': [648], 's_32_6': [545], 's_32_14': [696], 's_32_33': [3722], 's_32_37': [244], 's_32_38': [3871], 's_32_32': [3603], 's_33_6': [4217], 's_33_9': [3782], 's_33_22': [533], 's_33_26': [4201], 's_33_36': [4203], 's_33_33': [3692], 's_36_10': [965, 966, 4205], 's_36_14': [605], 's_36_21': [4037], 's_36_29': [4158], 's_36_35': [576], 's_36_38': [876], 's_36_39': [4218], 's_36_36': [4100], 's_14_3': [3631, 3630], 's_14_20': [3600], 's_14_37': [4080], 's_14_39': [846], 's_14_11': [440], 's_14_15': [3735, 199], 's_14_27': [3765], 's_14_35': [275], 's_14_14': [243], 's_34_10': [1028], 's_34_22': [4459], 's_34_24': [953], 's_34_28': [667], 's_34_34': [697], 's_17_20': [4426, 4425, 143], 's_17_38': [278], 's_17_22': [594], 's_17_24': [623], 's_17_25': [638], 's_17_29': [698], 's_17_30': [4576], 's_17_17': [158], 's_21_1': [3662], 's_21_6': [4427], 's_21_11': [365], 's_21_27': [4546, 428], 's_21_28': [4382], 's_21_31': [3601], 's_21_35': [3991], 's_21_38': [3781], 's_21_21': [422], 's_25_38': [651], 's_25_11': [756], 's_25_19': [4128], 's_25_22': [4548], 's_25_28': [4308], 's_25_29': [4219], 's_25_25': [4472], 's_26_38': [396], 's_26_24': [413], 's_26_27': [4216], 's_26_28': [4171], 's_26_35': [456], 's_26_26': [4155], 's_28_6': [4306], 's_28_20': [246], 's_28_38': [4186], 's_28_19': [864], 's_28_24': [4519], 's_28_29': [4473], 's_28_30': [4471], 's_28_28': [157], 's_29_6': [3963], 's_29_31': [3903], 's_29_37': [799], 's_29_22': [848], 's_29_24': [758], 's_29_35': [4039], 's_29_29': [783], 's_31_1': [619], 's_31_3': [363], 's_31_10': [3904], 's_31_30': [4276], 's_31_31': [3920], 's_6_1': [3843], 's_6_10': [1024], 's_6_19': [3947, 3948], 's_6_24': [3845], 's_6_35': [530], 's_6_6': [3861], 's_10_22': [4550], 's_10_24': [3800], 's_10_35': [4040], 's_10_10': [1038], 's_20_1': [138], 's_20_3': [3676, 3675], 's_20_37': [3990], 's_20_20': [141], 's_24_9': [3695], 's_24_38': [4145], 's_24_11': [1145, 4085], 's_24_22': [939], 's_24_24': [4340], 's_35_37': [500], 's_35_38': [951], 's_35_15': [4035], 's_35_27': [4036], 's_35_35': [1086], 's_1_3': [498], 's_1_9': [409], 's_1_37': [3752], 's_1_38': [288], 's_1_39': [4097], 's_1_1': [617], 's_3_3': [213], 's_15_37': [3915], 's_15_38': [171], 's_15_15': [3690], 's_27_9': [3706], 's_27_38': [4440], 's_27_19': [4606, 4607], 's_27_30': [4411], 's_27_27': [4681], 's_38_39': [4159], 's_38_38': [4620], 's_9_9': [828], 's_37_11': [754], 's_37_19': [3783, 3784], 's_37_30': [4066], 's_37_37': [724], 's_11_39': [830], 's_11_11': [1175], 's_19_39': [4414], 's_19_22': [849, 4623], 's_19_19': [819], 's_30_39': [909], 's_30_22': [549], 's_30_30': [983], 's_39_22': [4564], 's_39_39': [925], 's_22_22': [4565]}</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0001655172413793103</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0007687103334120153</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>{0: [563, 3857, 560, 4127, 562, 561], 2: [4172, 622, 621], 's_0_2': [606], 4: [383, 728, 4383, 608, 607, 368, 4441, 4442], 's_0_4': [4457], 5: [4290, 4291, 3890, 4292, 1025, 4293, 1026, 1027, 4294], 's_0_5': [4307], 7: [335, 4005, 663, 4010, 4009, 664, 665, 4008, 4007, 4006], 's_0_7': [666], 8: [4114, 742, 3993, 4113, 4112, 741], 's_0_8': [3992], 12: [683, 682, 4323, 4322, 4321, 4320, 203, 202, 201, 200], 's_0_12': [4277], 13: [3826, 3827, 349, 3828, 3829, 889, 3889, 892, 891, 890], 's_0_13': [439], 16: [877, 4231, 4232, 3977, 4233, 3978, 800, 801, 4235, 4234], 's_0_16': [636], 18: [4355, 4351, 486, 487, 4352, 4354, 4353], 's_0_18': [4367], 23: [3979, 920, 319, 3811, 3812, 3813, 859, 935, 3814], 's_0_23': [410], 32: [3886, 649, 695, 633, 634, 3887, 3888], 's_0_32': [3872], 33: [4202, 514, 518, 517, 515, 516], 's_0_33': [4517], 36: [546, 4067, 1010, 4099, 4068, 711, 4098], 's_0_36': [547], 's_0_0': [564], 's_2_12': [4428], 14: [860, 861, 4095, 4083, 4082, 531, 4052, 4051, 258, 259, 260], 's_2_14': [4187], 's_2_18': [501], 34: [4444, 4398, 743, 4443], 's_2_34': [4413], 's_2_2': [577], 's_4_12': [4487], 17: [263, 488, 4560, 4563, 4561, 4562], 's_4_17': [369], 's_4_18': [593], 21: [427, 426, 3961, 423, 424, 425], 's_4_21': [4366], 25: [770, 771, 772, 653, 652, 4338], 's_4_25': [4637], 26: [4456, 338, 4381, 4157, 4156, 336, 337], 's_4_26': [398], 28: [441, 4260, 503, 502, 863, 4261, 862, 4263, 4262], 's_4_28': [4486], 29: [784, 785, 713, 4458, 787, 786], 's_4_29': [712], 31: [3919, 3918, 3917, 378, 379, 382, 381, 380, 3916], 's_4_31': [367], 's_4_34': [637], 's_4_4': [548], 6: [473, 472, 3860, 3859, 3858, 575, 3962, 470, 471], 's_5_6': [1100], 10: [1043, 1042, 1039, 1040, 1041], 's_5_10': [4190], 20: [3796, 3795, 4140, 262, 123, 124, 125, 126, 4185, 261], 's_5_20': [187], 's_5_21': [442], 's_5_23': [964], 24: [4501, 4502, 773, 4384, 1069, 1070, 1071, 1072, 938, 4503, 4385], 's_5_24': [4070], 's_5_26': [247], 's_5_33': [397], 35: [4126, 411, 4020, 4025, 4024, 4023, 4021, 4022], 's_5_35': [1055], 's_5_5': [3875], 1: [544, 618, 591, 590, 589, 3645, 3646, 3647, 3632], 's_7_1': [3678], 3: [3618, 3617, 273, 3615, 3616], 's_7_3': [438, 3571, 3572], 's_7_8': [4038], 's_7_10': [3995], 's_7_13': [334], 15: [3750, 170, 169], 's_7_15': [155], 's_7_20': [231], 's_7_26': [366], 27: [4591, 304, 309, 308, 305, 306, 307], 's_7_27': [320], 's_7_31': [710], 's_7_32': [3767], 38: [4144, 293, 292, 4143, 4110, 4142, 4141, 291, 290, 289], 's_7_38': [186], 's_7_7': [1116], 's_8_12': [4248], 's_8_25': [4173], 's_8_28': [4278], 's_8_32': [740], 's_8_35': [906], 's_8_8': [4115], 9: [3710, 3709, 3708, 3707, 3840, 3841, 3842, 499], 's_12_9': [185], 's_12_17': [204], 's_12_21': [4336], 's_12_24': [4500], 's_12_28': [217], 's_12_34': [4368], 's_12_35': [412], 37: [3751, 216, 215, 3900, 3798, 3797, 3901, 455, 454], 's_12_37': [3930], 's_12_38': [4125], 's_12_12': [3870], 's_13_9': [874], 11: [3931, 3932, 3935, 3934, 755, 3933], 's_13_11': [3874], 's_13_14': [4174], 's_13_16': [4069], 's_13_18': [4369], 19: [4592, 4593, 3799, 814, 815, 816, 817, 818, 4594], 's_13_19': [829], 's_13_21': [3766], 's_13_27': [3856], 's_13_29': [4399], 30: [4534, 4533, 4532, 353, 4531, 350, 351, 352], 's_13_30': [893], 's_13_35': [875], 39: [725, 726, 4053, 4054, 681, 924, 923, 922, 921], 's_13_39': [4324], 's_13_13': [4204, 757], 's_16_1': [3873, 680], 's_16_6': [4247], 's_16_10': [4309], 's_16_11': [620], 's_16_18': [802], 's_16_20': [4230, 96], 22: [1058, 4577, 4580, 878, 4578, 774, 4579], 's_16_22': [1057], 's_16_32': [485], 's_16_36': [1011], 's_16_16': [1087], 's_18_6': [457], 's_18_21': [4111], 's_18_24': [1103], 's_18_27': [322], 's_18_30': [4096], 's_18_35': [4081], 's_18_36': [995, 996, 997], 's_18_39': [908], 's_18_18': [1147], 's_23_1': [318], 's_23_14': [3720], 's_23_19': [979], 's_23_33': [529], 's_23_37': [604], 's_23_39': [936, 937, 4264], 's_23_23': [858], 's_32_3': [648], 's_32_6': [545], 's_32_14': [696], 's_32_33': [3722], 's_32_37': [244], 's_32_38': [3871], 's_32_32': [3603], 's_33_6': [4217], 's_33_9': [3782], 's_33_22': [533], 's_33_26': [4201], 's_33_36': [4203], 's_33_33': [3692], 's_36_10': [965, 966, 4205], 's_36_14': [605], 's_36_21': [4037], 's_36_29': [4158], 's_36_35': [576], 's_36_38': [876], 's_36_39': [4218], 's_36_36': [4100], 's_14_3': [3631, 3630], 's_14_20': [3600], 's_14_37': [4080], 's_14_39': [846], 's_14_11': [440], 's_14_15': [3735, 199], 's_14_27': [3765], 's_14_35': [275], 's_14_14': [243], 's_34_10': [1028], 's_34_22': [4459], 's_34_24': [953], 's_34_28': [667], 's_34_34': [697], 's_17_20': [4426, 4425, 143], 's_17_38': [278], 's_17_22': [594], 's_17_24': [623], 's_17_25': [638], 's_17_29': [698], 's_17_30': [4576], 's_17_17': [158], 's_21_1': [3662], 's_21_6': [4427], 's_21_11': [365], 's_21_27': [4546, 428], 's_21_28': [4382], 's_21_31': [3601], 's_21_35': [3991], 's_21_38': [3781], 's_21_21': [422], 's_25_38': [651], 's_25_11': [756], 's_25_19': [4128], 's_25_22': [4548], 's_25_28': [4308], 's_25_29': [4219], 's_25_25': [4472], 's_26_38': [396], 's_26_24': [413], 's_26_27': [4216], 's_26_28': [4171], 's_26_35': [456], 's_26_26': [4155], 's_28_6': [4306], 's_28_20': [246], 's_28_38': [4186], 's_28_19': [864], 's_28_24': [4519], 's_28_29': [4473], 's_28_30': [4471], 's_28_28': [157], 's_29_6': [3963], 's_29_31': [3903], 's_29_37': [799], 's_29_22': [848], 's_29_24': [758], 's_29_35': [4039], 's_29_29': [783], 's_31_1': [619], 's_31_3': [363], 's_31_10': [3904], 's_31_30': [4276], 's_31_31': [3920], 's_6_1': [3843], 's_6_10': [1024], 's_6_19': [3947, 3948], 's_6_24': [3845], 's_6_35': [530], 's_6_6': [3861], 's_10_22': [4550], 's_10_24': [3800], 's_10_35': [4040], 's_10_10': [1038], 's_20_1': [138], 's_20_3': [3676, 3675], 's_20_37': [3990], 's_20_20': [141], 's_24_9': [3695], 's_24_38': [4145], 's_24_11': [1145, 4085], 's_24_22': [939], 's_24_24': [4340], 's_35_37': [500], 's_35_38': [951], 's_35_15': [4035], 's_35_27': [4036], 's_35_35': [1086], 's_1_3': [498], 's_1_9': [409], 's_1_37': [3752], 's_1_38': [288], 's_1_39': [4097], 's_1_1': [617], 's_3_3': [213], 's_15_37': [3915], 's_15_38': [171], 's_15_15': [3690], 's_27_9': [3706], 's_27_38': [4440], 's_27_19': [4606, 4607], 's_27_30': [4411], 's_27_27': [4681], 's_38_39': [4159], 's_38_38': [4620], 's_9_9': [828], 's_37_11': [754], 's_37_19': [3783, 3784], 's_37_30': [4066], 's_37_37': [724], 's_11_39': [830], 's_11_11': [1175], 's_19_39': [4414], 's_19_22': [849, 4623], 's_19_19': [819], 's_30_39': [909], 's_30_22': [549], 's_30_30': [983], 's_39_22': [4564], 's_39_39': [925], 's_22_22': [4565]}</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0.0001655172413793103</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.0007687103334120153</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>{0: [3508, 3447, 2401, 2402], 1: [2627, 3568, 3567], 4: [3327, 3328], 5: [2508, 2507], 7: [3342, 3343], 12: [2583, 2582, 3252, 3253, 2581], 19: [2207, 3359, 3357, 3358], 20: [3403, 3401, 3402], 24: [2342, 3582, 2343], 26: [3493, 2237, 3492], 28: [2236, 3373, 3371, 3372], 33: [2448, 2447, 3433], 36: [3446, 2177, 2178], 37: [2476, 2478, 2477], 38: [2446, 3222, 3282, 2326], 3: [2416, 3538, 3462, 2417], 6: [3523, 3522, 3566, 2192, 2193], 14: [2358, 2357], 15: [3344, 3298, 3418, 2552], 22: [3539, 2657, 2658], 30: [2388, 2387], 35: [3464, 2703, 2462, 3463], 8: [3553, 2372, 2373, 3552], 16: [2539, 2538, 2537, 3388], 17: [2283, 2281, 2282], 21: [2521, 2523, 2522], 32: [2162, 2266, 3297, 3296], 40: [2296, 2297], 18: [3177, 3178, 2493, 2492, 2491], 11: [3537, 2221, 2222], 23: [3478, 3476, 3477], 25: [3598, 2163, 3597, 2208, 3596], 34: [3628, 2327, 2328, 3627], 39: [3583, 2642, 2568, 3494], 9: [2431, 2432], 13: [3507, 3387, 2313, 2312], 27: [3417, 3416, 2267], 29: [3267, 3268, 2597, 2596], 2: [2598, 2463, 3643], 31: [3312, 2567, 3314, 3313], 10: [2268, 2298, 3613, 3612]}</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0.01265423242467719</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.01605269220815617</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>{0: [3508, 3447, 2401, 2402], 1: [2627, 3568, 3567], 4: [3327, 3328], 5: [2508, 2507], 7: [3342, 3343], 12: [2583, 2582, 3252, 3253, 2581], 19: [2207, 3359, 3357, 3358], 20: [3403, 3401, 3402], 24: [2342, 3582, 2343], 26: [3493, 2237, 3492], 28: [2236, 3373, 3371, 3372], 33: [2448, 2447, 3433], 36: [3446, 2177, 2178], 37: [2476, 2478, 2477], 38: [2446, 3222, 3282, 2326], 3: [2416, 3538, 3462, 2417], 6: [3523, 3522, 3566, 2192, 2193], 14: [2358, 2357], 15: [3344, 3298, 3418, 2552], 22: [3539, 2657, 2658], 30: [2388, 2387], 35: [3464, 2703, 2462, 3463], 8: [3553, 2372, 2373, 3552], 16: [2539, 2538, 2537, 3388], 17: [2283, 2281, 2282], 21: [2521, 2523, 2522], 32: [2162, 2266, 3297, 3296], 40: [2296, 2297], 18: [3177, 3178, 2493, 2492, 2491], 11: [3537, 2221, 2222], 23: [3478, 3476, 3477], 25: [3598, 2163, 3597, 2208, 3596], 34: [3628, 2327, 2328, 3627], 39: [3583, 2642, 2568, 3494], 9: [2431, 2432], 13: [3507, 3387, 2313, 2312], 27: [3417, 3416, 2267], 29: [3267, 3268, 2597, 2596], 2: [2598, 2463, 3643], 31: [3312, 2567, 3314, 3313], 10: [2268, 2298, 3613, 3612]}</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0.01265423242467719</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01605269220815617</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>{0: [1374, 1138, 1137, 1136, 4763, 4762, 4761, 1135], 1: [4733, 4732, 4731, 1029, 1121, 1120, 4730], 's_0_1': [1270], 4: [926, 927, 928, 5389, 5390, 5391, 1632, 1633, 5393, 5392], 's_0_4': [5375], 5: [4822, 5017, 1495, 4912, 1496], 's_0_5': [1554], 7: [5224, 5225, 5229, 5228, 5227, 5226], 's_0_7': [1122], 12: [4941, 1826, 1165, 1166, 1167, 5331, 5332, 5333, 5334, 1828, 1827], 's_0_12': [5195], 19: [1164, 1178, 1179, 1765, 4808, 4807, 4806, 1075, 4804, 4805], 's_0_19': [4820], 20: [1224, 1602, 1601, 4928, 1600, 1598, 4611, 4612, 4613, 1599], 's_0_20': [1419], 24: [4714, 4716, 4715, 4790, 1089, 1092, 1091, 1090], 's_0_24': [5090], 26: [4943, 4942, 5361, 1362, 1359, 1360, 1361], 's_0_26': [5360], 28: [4669, 968, 5319, 5318, 5317, 5316, 5315, 972, 971, 970, 969], 's_0_28': [4760], 33: [4824, 4823, 1615, 1616, 5166, 1376, 1375, 4957, 4958], 's_0_33': [1614], 36: [4447, 4583, 1583, 1584], 's_0_36': [4748], 37: [4746, 5135, 1288, 5136, 1287, 1286, 1284, 1285], 's_0_37': [5121], 38: [1149, 1150, 4985, 5273, 5272, 1407, 1406, 4986], 's_0_38': [4880], 's_0_0': [5210], 3: [1329, 4793, 4792, 1420, 1421, 1573, 5378, 5377, 1453, 5077, 1452], 's_1_3': [1524], 6: [1648, 4565, 4566, 4567, 4568, 1647, 1646, 1645, 1644], 's_1_6': [1119], 14: [4900, 4899, 1660, 1663, 1662, 1661, 4898], 's_1_14': [4718], 15: [4896, 1345, 4881, 1482, 1481, 1480, 4882], 's_1_15': [1344], 22: [5152, 5060, 1347, 5061, 1346], 's_1_22': [5045], 30: [4685, 4924, 878, 4684, 880, 879], 's_1_30': [1028, 4459], 35: [5076, 5003, 4970, 4971, 1242, 5002, 5001, 1241], 's_1_35': [5000], 's_1_37': [4956], 's_1_1': [4734], 's_4_3': [1618], 8: [1586, 5063, 5029, 5030, 1541, 5032, 5031], 's_4_8': [912, 911], 's_4_14': [5363], 16: [5080, 5079, 1557, 1556, 5078], 's_4_16': [1558], 17: [1438, 5347, 5346, 5344, 1108, 5345], 's_4_17': [883], 21: [1497, 1736, 1781, 5124, 5123], 's_4_21': [1498], 's_4_30': [4939], 32: [898, 897, 896, 1479, 4628, 4627, 4626, 4625, 4624, 895, 894], 's_4_32': [5419], 's_4_37': [5134], 40: [5423, 5424, 4537, 4538, 1674, 1798, 1797, 1796, 1795, 4794, 1675], 's_4_40': [1768], 's_4_4': [1378], 's_5_3': [1465], 's_5_15': [4897], 's_5_16': [1571], 18: [1706, 1705, 1330, 4836, 4837, 4838], 's_5_18': [1435], 's_5_20': [1510], 's_5_26': [5062], 's_5_33': [4867], 's_5_35': [4972, 1451], 's_5_5': [1494], 11: [4909, 4705, 4704, 4703, 4702, 4701, 4700, 4699, 834, 837, 836, 835], 's_7_11': [5239], 's_7_15': [5242], 's_7_16': [1857], 's_7_24': [5240], 's_7_32': [882], 's_7_37': [957], 's_7_38': [1437], 's_7_40': [1782], 's_7_7': [1872], 's_12_3': [1483], 's_12_16': [1542], 's_12_17': [1182], 's_12_19': [4865], 's_12_22': [4895, 1106], 23: [1540, 4849, 4850, 4851, 1448, 1449, 1450, 4852], 's_12_23': [1060, 4910], 25: [987, 5183, 5182, 5181, 5180, 5179, 986, 983, 984, 985], 's_12_25': [5184], 34: [1811, 4914, 1735, 4670, 4671, 4672, 1733, 4673, 1734], 's_12_34': [5019], 's_12_35': [1123, 5270, 1077, 1076], 's_12_38': [5304, 1678], 39: [1722, 4974, 4869, 5064, 1721, 1720], 's_12_39': [5274], 's_12_40': [5394], 's_12_12': [5409], 's_19_6': [1630], 9: [1212, 1211, 1208, 1209, 1210], 's_19_9': [4506], 's_19_14': [4944], 's_19_20': [4929], 's_19_24': [1045], 's_19_25': [4775], 's_19_28': [4940], 's_19_30': [4925], 's_19_32': [1074, 4640], 's_19_39': [4884], 's_19_40': [4536], 's_19_19': [1177], 's_20_6': [5288], 's_20_8': [4987, 1525], 's_20_11': [1299], 13: [4494, 4489, 4490, 1553, 4491, 4493, 4492], 's_20_13': [1163], 27: [1303, 1767, 5260, 5259, 5258, 5254, 5255, 5256, 5257], 's_20_27': [1617], 29: [4747, 1388, 5107, 1391, 1389, 1390], 's_20_29': [4927], 's_20_32': [1193], 's_20_34': [4643], 's_20_36': [4508], 's_20_40': [1538], 's_20_20': [1597], 's_24_3': [4791], 's_24_6': [4580], 's_24_11': [1044], 's_24_23': [940], 's_24_25': [5105], 's_24_30': [4789], 's_24_37': [1194], 's_24_24': [999, 998, 997], 's_26_6': [1358], 's_26_11': [4687], 's_26_17': [1273], 's_26_25': [1257, 1258], 's_26_27': [1377], 's_26_28': [1393], 's_26_33': [5092], 's_26_34': [4656], 's_26_35': [5196], 's_26_26': [1363, 5541, 1319], 's_28_6': [954], 's_28_8': [5014], 's_28_11': [4864], 's_28_13': [4474], 's_28_17': [1048], 's_28_22': [1332], 's_28_30': [4879], 's_28_34': [1104, 4595, 4596], 's_28_35': [4955], 's_28_39': [1737], 's_28_28': [5074], 2: [5241, 5139, 5138, 1302, 5137], 's_33_2': [1331], 's_33_3': [4778, 1509], 's_33_8': [5016], 's_33_21': [5167], 's_33_29': [5047], 31: [1974, 1764, 1794, 4750, 1810, 4749], 's_33_31': [1825], 's_33_37': [1272], 's_33_38': [5122], 's_33_33': [4853], 's_36_6': [4688], 's_36_23': [4477], 's_36_32': [4657], 's_36_36': [4523], 's_37_2': [5091], 's_37_8': [1181], 's_37_27': [5271], 's_37_29': [4821], 's_37_34': [1314, 4551], 's_37_35': [5301], 's_37_37': [1283, 4461, 1357], 's_38_3': [1572], 's_38_9': [4926], 's_38_14': [5348, 1707], 's_38_18': [4835], 's_38_30': [4984, 881], 's_38_34': [4655], 's_38_38': [4776], 's_3_2': [1467], 's_3_6': [1649, 5453], 's_3_11': [1539], 's_3_14': [5408], 's_3_17': [5362], 's_3_21': [5197], 's_3_22': [5287], 's_3_40': [5468, 5469], 's_3_3': [1454], 's_6_2': [5153], 's_6_9': [4581], 's_6_27': [5213], 's_6_32': [1013], 's_6_6': [1058], 's_14_8': [1676], 10: [4975, 4674, 5364, 1917, 1916, 1913, 1914, 1915], 's_14_10': [4915], 's_14_23': [4913], 's_14_27': [5289], 's_14_31': [4779], 's_14_14': [1664], 's_15_18': [1300], 's_15_21': [5212], 's_15_22': [1271], 's_15_32': [1434, 4717], 's_15_15': [1255], 's_22_25': [1422], 's_22_22': [5302], 's_30_13': [909, 908], 's_30_25': [4549], 's_30_30': [4759], 's_35_2': [1317], 's_35_9': [5151], 's_35_18': [1690], 's_35_23': [1030, 1031], 's_35_27': [1196, 1197], 's_35_29': [5106], 's_35_39': [1751], 's_35_35': [1046], 's_8_2': [1511], 's_8_18': [5093], 's_8_23': [4973], 's_8_29': [1436], 's_8_39': [1631, 4988], 's_8_8': [956], 's_16_2': [1812], 's_16_10': [4960, 1961], 's_16_21': [5094], 's_16_16': [5081], 's_17_25': [5330], 's_17_27': [913], 's_17_32': [5269, 943], 's_17_17': [1078], 's_21_18': [5018], 's_21_34': [5049], 's_21_21': [5125], 's_32_25': [5209], 's_32_29': [4641], 's_32_40': [1688], 's_32_27': [5284, 867], 's_32_31': [1749], 's_32_32': [4609], 's_40_18': [4883], 's_40_29': [1373, 4522], 's_40_10': [4839], 's_40_13': [1403], 's_40_40': [1799], 's_18_2': [5154], 's_18_25': [1691], 's_18_39': [4868], 's_18_18': [4959], 's_11_25': [4894], 's_11_10': [1900, 1899], 's_11_27': [822], 's_11_31': [1959], 's_11_11': [5163], 's_23_25': [4999, 1015], 's_23_9': [1225], 's_23_13': [4642, 1508, 1507], 's_23_23': [1240], 's_25_2': [1752], 's_25_13': [1313, 4521, 4520, 4519], 's_25_39': [5168], 's_25_25': [1587], 's_34_13': [4478], 's_34_10': [5034], 's_34_34': [4719], 's_39_10': [4870], 's_39_31': [1840], 's_39_39': [5065], 's_9_13': [4475], 's_9_27': [1227], 's_9_9': [1207], 's_13_10': [4479], 's_13_13': [1748], 's_27_10': [5275], 's_27_27': [2008], 's_29_2': [1392], 's_29_29': [4417], 's_2_2': [5211], 's_31_31': [1779], 's_10_10': [4510]}</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0002857142857142857</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.0009810450882662971</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>{0: [1374, 1138, 1137, 1136, 4763, 4762, 4761, 1135], 1: [4733, 4732, 4731, 1029, 1121, 1120, 4730], 's_0_1': [1270], 4: [926, 927, 928, 5389, 5390, 5391, 1632, 1633, 5393, 5392], 's_0_4': [5375], 5: [4822, 5017, 1495, 4912, 1496], 's_0_5': [1554], 7: [5224, 5225, 5229, 5228, 5227, 5226], 's_0_7': [1122], 12: [4941, 1826, 1165, 1166, 1167, 5331, 5332, 5333, 5334, 1828, 1827], 's_0_12': [5195], 19: [1164, 1178, 1179, 1765, 4808, 4807, 4806, 1075, 4804, 4805], 's_0_19': [4820], 20: [1224, 1602, 1601, 4928, 1600, 1598, 4611, 4612, 4613, 1599], 's_0_20': [1419], 24: [4714, 4716, 4715, 4790, 1089, 1092, 1091, 1090], 's_0_24': [5090], 26: [4943, 4942, 5361, 1362, 1359, 1360, 1361], 's_0_26': [5360], 28: [4669, 968, 5319, 5318, 5317, 5316, 5315, 972, 971, 970, 969], 's_0_28': [4760], 33: [4824, 4823, 1615, 1616, 5166, 1376, 1375, 4957, 4958], 's_0_33': [1614], 36: [4447, 4583, 1583, 1584], 's_0_36': [4748], 37: [4746, 5135, 1288, 5136, 1287, 1286, 1284, 1285], 's_0_37': [5121], 38: [1149, 1150, 4985, 5273, 5272, 1407, 1406, 4986], 's_0_38': [4880], 's_0_0': [5210], 3: [1329, 4793, 4792, 1420, 1421, 1573, 5378, 5377, 1453, 5077, 1452], 's_1_3': [1524], 6: [1648, 4565, 4566, 4567, 4568, 1647, 1646, 1645, 1644], 's_1_6': [1119], 14: [4900, 4899, 1660, 1663, 1662, 1661, 4898], 's_1_14': [4718], 15: [4896, 1345, 4881, 1482, 1481, 1480, 4882], 's_1_15': [1344], 22: [5152, 5060, 1347, 5061, 1346], 's_1_22': [5045], 30: [4685, 4924, 878, 4684, 880, 879], 's_1_30': [1028, 4459], 35: [5076, 5003, 4970, 4971, 1242, 5002, 5001, 1241], 's_1_35': [5000], 's_1_37': [4956], 's_1_1': [4734], 's_4_3': [1618], 8: [1586, 5063, 5029, 5030, 1541, 5032, 5031], 's_4_8': [912, 911], 's_4_14': [5363], 16: [5080, 5079, 1557, 1556, 5078], 's_4_16': [1558], 17: [1438, 5347, 5346, 5344, 1108, 5345], 's_4_17': [883], 21: [1497, 1736, 1781, 5124, 5123], 's_4_21': [1498], 's_4_30': [4939], 32: [898, 897, 896, 1479, 4628, 4627, 4626, 4625, 4624, 895, 894], 's_4_32': [5419], 's_4_37': [5134], 40: [5423, 5424, 4537, 4538, 1674, 1798, 1797, 1796, 1795, 4794, 1675], 's_4_40': [1768], 's_4_4': [1378], 's_5_3': [1465], 's_5_15': [4897], 's_5_16': [1571], 18: [1706, 1705, 1330, 4836, 4837, 4838], 's_5_18': [1435], 's_5_20': [1510], 's_5_26': [5062], 's_5_33': [4867], 's_5_35': [4972, 1451], 's_5_5': [1494], 11: [4909, 4705, 4704, 4703, 4702, 4701, 4700, 4699, 834, 837, 836, 835], 's_7_11': [5239], 's_7_15': [5242], 's_7_16': [1857], 's_7_24': [5240], 's_7_32': [882], 's_7_37': [957], 's_7_38': [1437], 's_7_40': [1782], 's_7_7': [1872], 's_12_3': [1483], 's_12_16': [1542], 's_12_17': [1182], 's_12_19': [4865], 's_12_22': [4895, 1106], 23: [1540, 4849, 4850, 4851, 1448, 1449, 1450, 4852], 's_12_23': [1060, 4910], 25: [987, 5183, 5182, 5181, 5180, 5179, 986, 983, 984, 985], 's_12_25': [5184], 34: [1811, 4914, 1735, 4670, 4671, 4672, 1733, 4673, 1734], 's_12_34': [5019], 's_12_35': [1123, 5270, 1077, 1076], 's_12_38': [5304, 1678], 39: [1722, 4974, 4869, 5064, 1721, 1720], 's_12_39': [5274], 's_12_40': [5394], 's_12_12': [5409], 's_19_6': [1630], 9: [1212, 1211, 1208, 1209, 1210], 's_19_9': [4506], 's_19_14': [4944], 's_19_20': [4929], 's_19_24': [1045], 's_19_25': [4775], 's_19_28': [4940], 's_19_30': [4925], 's_19_32': [1074, 4640], 's_19_39': [4884], 's_19_40': [4536], 's_19_19': [1177], 's_20_6': [5288], 's_20_8': [4987, 1525], 's_20_11': [1299], 13: [4494, 4489, 4490, 1553, 4491, 4493, 4492], 's_20_13': [1163], 27: [1303, 1767, 5260, 5259, 5258, 5254, 5255, 5256, 5257], 's_20_27': [1617], 29: [4747, 1388, 5107, 1391, 1389, 1390], 's_20_29': [4927], 's_20_32': [1193], 's_20_34': [4643], 's_20_36': [4508], 's_20_40': [1538], 's_20_20': [1597], 's_24_3': [4791], 's_24_6': [4580], 's_24_11': [1044], 's_24_23': [940], 's_24_25': [5105], 's_24_30': [4789], 's_24_37': [1194], 's_24_24': [999, 998, 997], 's_26_6': [1358], 's_26_11': [4687], 's_26_17': [1273], 's_26_25': [1257, 1258], 's_26_27': [1377], 's_26_28': [1393], 's_26_33': [5092], 's_26_34': [4656], 's_26_35': [5196], 's_26_26': [1363, 5541, 1319], 's_28_6': [954], 's_28_8': [5014], 's_28_11': [4864], 's_28_13': [4474], 's_28_17': [1048], 's_28_22': [1332], 's_28_30': [4879], 's_28_34': [1104, 4595, 4596], 's_28_35': [4955], 's_28_39': [1737], 's_28_28': [5074], 2: [5241, 5139, 5138, 1302, 5137], 's_33_2': [1331], 's_33_3': [4778, 1509], 's_33_8': [5016], 's_33_21': [5167], 's_33_29': [5047], 31: [1974, 1764, 1794, 4750, 1810, 4749], 's_33_31': [1825], 's_33_37': [1272], 's_33_38': [5122], 's_33_33': [4853], 's_36_6': [4688], 's_36_23': [4477], 's_36_32': [4657], 's_36_36': [4523], 's_37_2': [5091], 's_37_8': [1181], 's_37_27': [5271], 's_37_29': [4821], 's_37_34': [1314, 4551], 's_37_35': [5301], 's_37_37': [1283, 4461, 1357], 's_38_3': [1572], 's_38_9': [4926], 's_38_14': [5348, 1707], 's_38_18': [4835], 's_38_30': [4984, 881], 's_38_34': [4655], 's_38_38': [4776], 's_3_2': [1467], 's_3_6': [1649, 5453], 's_3_11': [1539], 's_3_14': [5408], 's_3_17': [5362], 's_3_21': [5197], 's_3_22': [5287], 's_3_40': [5468, 5469], 's_3_3': [1454], 's_6_2': [5153], 's_6_9': [4581], 's_6_27': [5213], 's_6_32': [1013], 's_6_6': [1058], 's_14_8': [1676], 10: [4975, 4674, 5364, 1917, 1916, 1913, 1914, 1915], 's_14_10': [4915], 's_14_23': [4913], 's_14_27': [5289], 's_14_31': [4779], 's_14_14': [1664], 's_15_18': [1300], 's_15_21': [5212], 's_15_22': [1271], 's_15_32': [1434, 4717], 's_15_15': [1255], 's_22_25': [1422], 's_22_22': [5302], 's_30_13': [909, 908], 's_30_25': [4549], 's_30_30': [4759], 's_35_2': [1317], 's_35_9': [5151], 's_35_18': [1690], 's_35_23': [1030, 1031], 's_35_27': [1196, 1197], 's_35_29': [5106], 's_35_39': [1751], 's_35_35': [1046], 's_8_2': [1511], 's_8_18': [5093], 's_8_23': [4973], 's_8_29': [1436], 's_8_39': [1631, 4988], 's_8_8': [956], 's_16_2': [1812], 's_16_10': [4960, 1961], 's_16_21': [5094], 's_16_16': [5081], 's_17_25': [5330], 's_17_27': [913], 's_17_32': [5269, 943], 's_17_17': [1078], 's_21_18': [5018], 's_21_34': [5049], 's_21_21': [5125], 's_32_25': [5209], 's_32_29': [4641], 's_32_40': [1688], 's_32_27': [5284, 867], 's_32_31': [1749], 's_32_32': [4609], 's_40_18': [4883], 's_40_29': [1373, 4522], 's_40_10': [4839], 's_40_13': [1403], 's_40_40': [1799], 's_18_2': [5154], 's_18_25': [1691], 's_18_39': [4868], 's_18_18': [4959], 's_11_25': [4894], 's_11_10': [1900, 1899], 's_11_27': [822], 's_11_31': [1959], 's_11_11': [5163], 's_23_25': [4999, 1015], 's_23_9': [1225], 's_23_13': [4642, 1508, 1507], 's_23_23': [1240], 's_25_2': [1752], 's_25_13': [1313, 4521, 4520, 4519], 's_25_39': [5168], 's_25_25': [1587], 's_34_13': [4478], 's_34_10': [5034], 's_34_34': [4719], 's_39_10': [4870], 's_39_31': [1840], 's_39_39': [5065], 's_9_13': [4475], 's_9_27': [1227], 's_9_9': [1207], 's_13_10': [4479], 's_13_13': [1748], 's_27_10': [5275], 's_27_27': [2008], 's_29_2': [1392], 's_29_29': [4417], 's_2_2': [5211], 's_31_31': [1779], 's_10_10': [4510]}</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0.0002857142857142857</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.0009810450882662971</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>{0: [973, 5120, 972, 971], 8: [5496, 5495, 808, 5494], 10: [5104, 5105, 1137, 5106], 12: [807, 806, 897, 5150, 5149], 14: [986, 5539, 988, 987], 16: [5331, 1273, 1272, 5135, 5136], 19: [884, 883, 5209, 882], 24: [5511, 5510, 1017, 1018], 25: [1183, 5524, 5525], 31: [1092, 1094, 1093], 33: [1002, 5284, 5285], 34: [1107, 5210], 35: [5390, 5388, 5389], 36: [1062, 5254, 5255], 38: [5584, 5359, 899, 898], 39: [5451, 5449, 5450], 1: [1139, 5585], 2: [1169, 1166, 1167, 5435, 1168], 5: [5226, 1197, 5420, 5421, 1198], 18: [1064, 1063, 5329, 5330], 20: [5225, 5224, 912, 913, 914], 40: [1079, 5540, 1153, 5375, 1138], 23: [5193, 5195, 5194], 41: [1181, 1182, 1228, 5360], 4: [5345, 1077, 1078], 6: [1032, 1034, 1033], 3: [5374, 1004, 5480, 1003], 11: [1303, 5271, 5269, 5270], 13: [853, 5179, 5178, 852], 15: [959, 5466, 5465], 17: [1049, 1047, 1048], 32: [957, 5419, 958], 37: [5241, 1152, 5239, 5240], 21: [5599, 5600, 1124, 1123, 1122], 22: [5406, 1243, 5315, 5316], 29: [822, 823, 5405, 5404], 26: [1229, 5555, 5554], 28: [5344, 943], 7: [5373, 778, 5300, 5299], 27: [1109, 1108], 30: [944, 5569], 9: [927, 929, 928]}</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0.01656453466104941</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.01807499929523678</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>{0: [973, 5120, 972, 971], 8: [5496, 5495, 808, 5494], 10: [5104, 5105, 1137, 5106], 12: [807, 806, 897, 5150, 5149], 14: [986, 5539, 988, 987], 16: [5331, 1273, 1272, 5135, 5136], 19: [884, 883, 5209, 882], 24: [5511, 5510, 1017, 1018], 25: [1183, 5524, 5525], 31: [1092, 1094, 1093], 33: [1002, 5284, 5285], 34: [1107, 5210], 35: [5390, 5388, 5389], 36: [1062, 5254, 5255], 38: [5584, 5359, 899, 898], 39: [5451, 5449, 5450], 1: [1139, 5585], 2: [1169, 1166, 1167, 5435, 1168], 5: [5226, 1197, 5420, 5421, 1198], 18: [1064, 1063, 5329, 5330], 20: [5225, 5224, 912, 913, 914], 40: [1079, 5540, 1153, 5375, 1138], 23: [5193, 5195, 5194], 41: [1181, 1182, 1228, 5360], 4: [5345, 1077, 1078], 6: [1032, 1034, 1033], 3: [5374, 1004, 5480, 1003], 11: [1303, 5271, 5269, 5270], 13: [853, 5179, 5178, 852], 15: [959, 5466, 5465], 17: [1049, 1047, 1048], 32: [957, 5419, 958], 37: [5241, 1152, 5239, 5240], 21: [5599, 5600, 1124, 1123, 1122], 22: [5406, 1243, 5315, 5316], 29: [822, 823, 5405, 5404], 26: [1229, 5555, 5554], 28: [5344, 943], 7: [5373, 778, 5300, 5299], 27: [1109, 1108], 30: [944, 5569], 9: [927, 929, 928]}</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0.01656453466104941</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01807499929523678</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.057</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>{0: [1901, 2092, 5021, 4450, 4449, 1823, 1824, 1825, 1826, 5020, 5019], 8: [5080, 1946, 1945, 1940, 1941, 1942, 1943, 1944], 's_0_8': [2051], 10: [4885, 4659, 1915, 1914], 's_0_10': [5004], 12: [1898, 4615, 1659, 4614], 's_0_12': [4599], 14: [4331, 4693, 2121, 2122, 4692, 4691, 2124, 2123], 's_0_14': [2077], 16: [2076, 1855, 1854, 1853, 4270, 1972, 4390], 's_0_16': [4704], 19: [5050, 5051, 5052, 5053, 2497, 4393, 2531, 2530, 2529, 2528], 's_0_19': [1961], 24: [4557, 2186, 2185, 2184, 4554, 4555, 4556], 's_0_24': [1793], 25: [2197, 4302, 4299, 4300, 2259, 2258, 2257, 4301], 's_0_25': [1897], 31: [4329, 4570, 1780, 1779, 4689, 1835, 1836, 1837, 1838, 1839], 's_0_31': [4779], 33: [1956, 4510, 1959, 4404, 4405, 1957, 1958], 's_0_33': [4585, 4584], 34: [1900, 4869, 4870], 's_0_34': [1810], 35: [2217, 4782, 4705, 4706, 2214, 2216, 2215], 's_0_35': [5186, 2261], 36: [1718, 1717, 2212, 2514, 2513, 2512, 4348, 4347, 4346, 4345, 4344], 's_0_36': [4434], 38: [1865, 1866, 1867, 4780, 1869, 1868], 's_0_38': [4539], 39: [2272, 2183, 2540, 2541, 2542, 2543, 4483, 4376, 4482, 2393, 4377], 's_0_39': [4436], 's_0_0': [4959], 1: [3943, 3942, 3939, 3940, 3941], 's_8_1': [1925], 2: [1895, 1991, 1990, 4000, 4467, 4466, 4465, 1986, 1987, 1988, 1989], 's_8_2': [4015], 5: [2485, 2484, 4558, 2481, 4255, 4257, 4258, 2061, 2483, 4256, 2482], 's_8_5': [1927], 's_8_12': [4629], 18: [2604, 2409, 2424, 2408, 2515, 4813, 4812, 4809, 4810, 2305, 4811], 's_8_18': [1930], 's_8_19': [5065], 20: [4644, 4198, 1913, 1912, 1911, 4197, 4196, 4195], 's_8_20': [4314], 's_8_35': [5081], 40: [2156, 2155, 2154, 2151, 4512, 4511, 2152, 4420, 4421, 2153], 's_8_40': [4435], 's_8_8': [1939], 's_10_16': [4795], 's_10_20': [1794], 23: [2410, 4948, 4947, 4944, 2065, 4945, 4946], 's_10_23': [4930], 41: [4452, 2140, 4854, 2318, 4572, 2199, 4855, 4856, 4871, 2200], 's_10_41': [1960], 's_10_10': [1916], 4: [2020, 2019, 2018, 1658, 4363, 4362, 4361, 4360, 4359, 1645, 1644, 1643, 4358], 's_12_4': [4553], 6: [1764, 4734, 2289, 4735, 4736, 2585, 2586, 2587, 2588, 2589, 4737, 4738], 's_12_6': [4658], 's_12_20': [4643], 's_12_33': [4600], 's_12_36': [4569], 's_12_12': [4688], 3: [2455, 2454, 2453, 2452, 2451, 4137, 2361, 4030, 4031, 4032], 's_14_3': [4662, 2349], 11: [1926, 4075, 2287, 2286, 4076, 4077, 2301], 's_14_11': [4332], 13: [2335, 2226, 2227, 4797, 4676, 2229, 2228], 's_14_13': [2304], 15: [2544, 4543, 2405, 2468, 2467, 2406, 4272], 's_14_15': [2469], 's_14_16': [4135], 17: [4003, 4002, 4061, 4001, 2181, 4224, 4225, 4226, 2182], 's_14_17': [4211], 's_14_19': [4708], 's_14_24': [4751], 32: [2498, 2275, 4887, 2380, 4589, 4588, 2379], 's_14_32': [2574], 's_14_35': [2094], 's_14_36': [2242], 37: [2511, 4244, 2631, 2496, 2046, 4120, 4123, 4121, 4122], 's_14_37': [2106], 's_14_40': [4526], 's_14_14': [2120], 's_16_2': [4464], 's_16_4': [4374], 's_16_5': [4240], 's_16_18': [4824], 21: [2240, 1899, 4690, 4049, 4048, 4047, 4046, 2031, 2032, 2033, 2034], 's_16_21': [4765], 22: [4497, 2080, 4494, 2079, 4496, 4495, 2078], 's_16_22': [4479], 's_16_37': [4241], 's_16_41': [1840], 's_16_16': [4524], 's_19_6': [4678], 29: [1731, 4992, 4991, 1732, 1733, 1734, 4974, 4975, 1735, 4976, 2171], 's_19_29': [2306, 5067], 's_19_32': [4528], 's_19_37': [4273], 's_19_39': [4318], 's_19_19': [4993], 's_24_5': [2302, 2303], 's_24_18': [4826], 's_24_22': [4586, 2138], 's_24_23': [4931], 26: [4064, 4063, 3984, 2423, 3985, 2422, 2315, 2421, 2420, 3987, 3986], 's_24_26': [4542, 2394], 28: [4645, 1975, 2109, 2110, 4842, 4841, 4840], 's_24_28': [4886], 's_24_29': [5036], 's_24_38': [1883], 's_24_40': [2108], 's_24_24': [1763], 's_25_2': [2407], 's_25_3': [2196], 's_25_5': [2392], 's_25_6': [4752], 's_25_15': [2347], 's_25_17': [4316], 's_25_18': [4722], 's_25_21': [4315], 's_25_22': [2198], 's_25_31': [1777], 's_25_35': [4617], 's_25_39': [4303], 's_25_40': [2167, 4271], 's_25_25': [4298], 's_31_1': [3954], 's_31_3': [1851], 's_31_23': [1795], 's_31_26': [1850], 's_31_33': [4509], 's_31_34': [4884], 's_31_31': [3850], 's_33_4': [1702], 's_33_6': [4720], 7: [4630, 2319, 4631, 2679, 2724, 4604, 2273, 4602, 4603], 's_33_7': [2063, 4601, 2169], 's_33_11': [2090, 4090], 's_33_20': [4180], 's_33_22': [1808], 's_33_28': [4660], 's_33_29': [4389], 's_33_36': [1792], 's_33_33': [1673], 's_34_4': [4868], 's_34_21': [2035], 's_34_23': [1765], 's_34_41': [2005], 's_34_34': [4839], 's_35_6': [2350], 's_35_7': [4707], 's_35_13': [4587], 's_35_21': [2049], 27: [4182, 2362, 2363, 2366, 2365, 2364], 's_35_27': [4962], 's_35_28': [4721], 's_35_29': [5066], 's_35_40': [5127, 5126], 's_35_35': [4977, 2321], 's_36_11': [4212], 's_36_13': [4181], 's_36_18': [4768], 's_36_20': [2527], 's_36_21': [2047, 4375], 's_36_29': [4313], 's_36_32': [4753], 's_36_37': [4288], 's_36_36': [1747, 1746], 's_38_1': [1880], 's_38_18': [1884], 's_38_21': [4674], 's_38_26': [3969], 's_38_28': [4781], 's_38_38': [4179], 's_39_1': [2525], 's_39_4': [2573], 's_39_5': [4153], 's_39_15': [4033], 's_39_18': [2603], 30: [2436, 4213, 4214], 's_39_30': [4228], 's_39_40': [2213], 's_39_41': [2333], 's_39_39': [3823], 's_1_6': [3958], 's_1_15': [3957], 's_1_21': [2615], 's_1_1': [2015], 's_2_6': [4750, 4749], 's_2_3': [1955], 's_2_4': [2062], 's_2_5': [2002], 's_2_11': [2045], 's_2_17': [2016], 's_2_23': [5005], 's_2_26': [1970], 's_2_27': [2348], 's_2_2': [2004], 's_5_21': [2017], 's_5_4': [2317], 's_5_11': [4167, 2256, 2137, 4286], 's_5_17': [1852], 's_5_20': [2377], 's_5_22': [2438], 's_5_23': [2470], 's_5_32': [2559], 's_5_37': [4078], 's_5_5': [4254], 's_18_3': [4798], 's_18_4': [4808], 's_18_27': [4917], 's_18_13': [4827], 's_18_32': [2274], 's_18_18': [4873], 's_20_4': [4540], 's_20_11': [2316], 's_20_26': [1910], 's_20_30': [2572], 's_20_13': [2241], 's_20_20': [4183], 's_40_4': [4796], 's_40_11': [4451, 2288], 's_40_26': [2150], 's_40_27': [4422], 's_40_29': [5006], 's_40_22': [4766], 's_40_40': [5111], 's_23_13': [4932], 's_23_29': [4914, 1811], 's_23_32': [2320], 's_23_41': [2260], 's_23_23': [2351], 's_41_4': [4571], 's_41_26': [4573], 's_41_27': [4872], 's_41_22': [4916], 's_41_41': [1870], 's_4_15': [4378], 's_4_21': [4480], 's_4_3': [2437], 's_4_22': [4825], 's_4_29': [4463], 's_4_4': [4748], 's_6_7': [2499], 's_6_13': [2139], 's_6_17': [4091, 2255, 4017, 4018], 's_6_26': [4079], 's_6_29': [4719], 's_6_30': [4229], 's_6_6': [4663], 's_3_15': [4333], 's_3_7': [4647, 4646], 's_3_26': [2285], 's_3_27': [4317], 's_3_28': [2440], 's_3_29': [5007], 's_3_30': [2466], 's_3_3': [4933, 4934], 's_11_17': [2075], 's_11_27': [4392], 's_11_37': [2211], 's_11_11': [4106, 4105, 2001], 's_13_7': [2243], 's_13_37': [4136], 's_13_13': [2225], 's_15_17': [4152, 2376], 's_15_22': [4408, 2378], 's_15_26': [4092], 's_15_27': [4287], 's_15_32': [4423], 's_15_15': [2404], 's_17_26': [2060], 's_17_29': [1716], 's_17_37': [2571], 's_17_17': [1761], 's_32_7': [4574], 's_32_28': [2290], 9: [4349, 2675, 2676, 2678, 2677], 's_32_9': [2693], 's_32_32': [4857], 's_37_9': [2692], 's_37_37': [4154], 's_21_9': [4034], 's_21_21': [3956], 's_22_28': [4675], 's_22_29': [4493], 's_22_22': [4990], 's_29_29': [4149], 's_26_9': [2691], 's_26_30': [2646], 's_26_26': [2419], 's_28_28': [2111], 's_7_27': [4527], 's_7_9': [4544], 's_7_7': [2680], 's_27_27': [5022], 's_30_9': [2722], 's_30_30': [2601], 's_9_9': [3944]}</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0.0001295681063122924</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0006431725513300677</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>{0: [1901, 2092, 5021, 4450, 4449, 1823, 1824, 1825, 1826, 5020, 5019], 8: [5080, 1946, 1945, 1940, 1941, 1942, 1943, 1944], 's_0_8': [2051], 10: [4885, 4659, 1915, 1914], 's_0_10': [5004], 12: [1898, 4615, 1659, 4614], 's_0_12': [4599], 14: [4331, 4693, 2121, 2122, 4692, 4691, 2124, 2123], 's_0_14': [2077], 16: [2076, 1855, 1854, 1853, 4270, 1972, 4390], 's_0_16': [4704], 19: [5050, 5051, 5052, 5053, 2497, 4393, 2531, 2530, 2529, 2528], 's_0_19': [1961], 24: [4557, 2186, 2185, 2184, 4554, 4555, 4556], 's_0_24': [1793], 25: [2197, 4302, 4299, 4300, 2259, 2258, 2257, 4301], 's_0_25': [1897], 31: [4329, 4570, 1780, 1779, 4689, 1835, 1836, 1837, 1838, 1839], 's_0_31': [4779], 33: [1956, 4510, 1959, 4404, 4405, 1957, 1958], 's_0_33': [4585, 4584], 34: [1900, 4869, 4870], 's_0_34': [1810], 35: [2217, 4782, 4705, 4706, 2214, 2216, 2215], 's_0_35': [5186, 2261], 36: [1718, 1717, 2212, 2514, 2513, 2512, 4348, 4347, 4346, 4345, 4344], 's_0_36': [4434], 38: [1865, 1866, 1867, 4780, 1869, 1868], 's_0_38': [4539], 39: [2272, 2183, 2540, 2541, 2542, 2543, 4483, 4376, 4482, 2393, 4377], 's_0_39': [4436], 's_0_0': [4959], 1: [3943, 3942, 3939, 3940, 3941], 's_8_1': [1925], 2: [1895, 1991, 1990, 4000, 4467, 4466, 4465, 1986, 1987, 1988, 1989], 's_8_2': [4015], 5: [2485, 2484, 4558, 2481, 4255, 4257, 4258, 2061, 2483, 4256, 2482], 's_8_5': [1927], 's_8_12': [4629], 18: [2604, 2409, 2424, 2408, 2515, 4813, 4812, 4809, 4810, 2305, 4811], 's_8_18': [1930], 's_8_19': [5065], 20: [4644, 4198, 1913, 1912, 1911, 4197, 4196, 4195], 's_8_20': [4314], 's_8_35': [5081], 40: [2156, 2155, 2154, 2151, 4512, 4511, 2152, 4420, 4421, 2153], 's_8_40': [4435], 's_8_8': [1939], 's_10_16': [4795], 's_10_20': [1794], 23: [2410, 4948, 4947, 4944, 2065, 4945, 4946], 's_10_23': [4930], 41: [4452, 2140, 4854, 2318, 4572, 2199, 4855, 4856, 4871, 2200], 's_10_41': [1960], 's_10_10': [1916], 4: [2020, 2019, 2018, 1658, 4363, 4362, 4361, 4360, 4359, 1645, 1644, 1643, 4358], 's_12_4': [4553], 6: [1764, 4734, 2289, 4735, 4736, 2585, 2586, 2587, 2588, 2589, 4737, 4738], 's_12_6': [4658], 's_12_20': [4643], 's_12_33': [4600], 's_12_36': [4569], 's_12_12': [4688], 3: [2455, 2454, 2453, 2452, 2451, 4137, 2361, 4030, 4031, 4032], 's_14_3': [4662, 2349], 11: [1926, 4075, 2287, 2286, 4076, 4077, 2301], 's_14_11': [4332], 13: [2335, 2226, 2227, 4797, 4676, 2229, 2228], 's_14_13': [2304], 15: [2544, 4543, 2405, 2468, 2467, 2406, 4272], 's_14_15': [2469], 's_14_16': [4135], 17: [4003, 4002, 4061, 4001, 2181, 4224, 4225, 4226, 2182], 's_14_17': [4211], 's_14_19': [4708], 's_14_24': [4751], 32: [2498, 2275, 4887, 2380, 4589, 4588, 2379], 's_14_32': [2574], 's_14_35': [2094], 's_14_36': [2242], 37: [2511, 4244, 2631, 2496, 2046, 4120, 4123, 4121, 4122], 's_14_37': [2106], 's_14_40': [4526], 's_14_14': [2120], 's_16_2': [4464], 's_16_4': [4374], 's_16_5': [4240], 's_16_18': [4824], 21: [2240, 1899, 4690, 4049, 4048, 4047, 4046, 2031, 2032, 2033, 2034], 's_16_21': [4765], 22: [4497, 2080, 4494, 2079, 4496, 4495, 2078], 's_16_22': [4479], 's_16_37': [4241], 's_16_41': [1840], 's_16_16': [4524], 's_19_6': [4678], 29: [1731, 4992, 4991, 1732, 1733, 1734, 4974, 4975, 1735, 4976, 2171], 's_19_29': [2306, 5067], 's_19_32': [4528], 's_19_37': [4273], 's_19_39': [4318], 's_19_19': [4993], 's_24_5': [2302, 2303], 's_24_18': [4826], 's_24_22': [4586, 2138], 's_24_23': [4931], 26: [4064, 4063, 3984, 2423, 3985, 2422, 2315, 2421, 2420, 3987, 3986], 's_24_26': [4542, 2394], 28: [4645, 1975, 2109, 2110, 4842, 4841, 4840], 's_24_28': [4886], 's_24_29': [5036], 's_24_38': [1883], 's_24_40': [2108], 's_24_24': [1763], 's_25_2': [2407], 's_25_3': [2196], 's_25_5': [2392], 's_25_6': [4752], 's_25_15': [2347], 's_25_17': [4316], 's_25_18': [4722], 's_25_21': [4315], 's_25_22': [2198], 's_25_31': [1777], 's_25_35': [4617], 's_25_39': [4303], 's_25_40': [2167, 4271], 's_25_25': [4298], 's_31_1': [3954], 's_31_3': [1851], 's_31_23': [1795], 's_31_26': [1850], 's_31_33': [4509], 's_31_34': [4884], 's_31_31': [3850], 's_33_4': [1702], 's_33_6': [4720], 7: [4630, 2319, 4631, 2679, 2724, 4604, 2273, 4602, 4603], 's_33_7': [2063, 4601, 2169], 's_33_11': [2090, 4090], 's_33_20': [4180], 's_33_22': [1808], 's_33_28': [4660], 's_33_29': [4389], 's_33_36': [1792], 's_33_33': [1673], 's_34_4': [4868], 's_34_21': [2035], 's_34_23': [1765], 's_34_41': [2005], 's_34_34': [4839], 's_35_6': [2350], 's_35_7': [4707], 's_35_13': [4587], 's_35_21': [2049], 27: [4182, 2362, 2363, 2366, 2365, 2364], 's_35_27': [4962], 's_35_28': [4721], 's_35_29': [5066], 's_35_40': [5127, 5126], 's_35_35': [4977, 2321], 's_36_11': [4212], 's_36_13': [4181], 's_36_18': [4768], 's_36_20': [2527], 's_36_21': [2047, 4375], 's_36_29': [4313], 's_36_32': [4753], 's_36_37': [4288], 's_36_36': [1747, 1746], 's_38_1': [1880], 's_38_18': [1884], 's_38_21': [4674], 's_38_26': [3969], 's_38_28': [4781], 's_38_38': [4179], 's_39_1': [2525], 's_39_4': [2573], 's_39_5': [4153], 's_39_15': [4033], 's_39_18': [2603], 30: [2436, 4213, 4214], 's_39_30': [4228], 's_39_40': [2213], 's_39_41': [2333], 's_39_39': [3823], 's_1_6': [3958], 's_1_15': [3957], 's_1_21': [2615], 's_1_1': [2015], 's_2_6': [4750, 4749], 's_2_3': [1955], 's_2_4': [2062], 's_2_5': [2002], 's_2_11': [2045], 's_2_17': [2016], 's_2_23': [5005], 's_2_26': [1970], 's_2_27': [2348], 's_2_2': [2004], 's_5_21': [2017], 's_5_4': [2317], 's_5_11': [4167, 2256, 2137, 4286], 's_5_17': [1852], 's_5_20': [2377], 's_5_22': [2438], 's_5_23': [2470], 's_5_32': [2559], 's_5_37': [4078], 's_5_5': [4254], 's_18_3': [4798], 's_18_4': [4808], 's_18_27': [4917], 's_18_13': [4827], 's_18_32': [2274], 's_18_18': [4873], 's_20_4': [4540], 's_20_11': [2316], 's_20_26': [1910], 's_20_30': [2572], 's_20_13': [2241], 's_20_20': [4183], 's_40_4': [4796], 's_40_11': [4451, 2288], 's_40_26': [2150], 's_40_27': [4422], 's_40_29': [5006], 's_40_22': [4766], 's_40_40': [5111], 's_23_13': [4932], 's_23_29': [4914, 1811], 's_23_32': [2320], 's_23_41': [2260], 's_23_23': [2351], 's_41_4': [4571], 's_41_26': [4573], 's_41_27': [4872], 's_41_22': [4916], 's_41_41': [1870], 's_4_15': [4378], 's_4_21': [4480], 's_4_3': [2437], 's_4_22': [4825], 's_4_29': [4463], 's_4_4': [4748], 's_6_7': [2499], 's_6_13': [2139], 's_6_17': [4091, 2255, 4017, 4018], 's_6_26': [4079], 's_6_29': [4719], 's_6_30': [4229], 's_6_6': [4663], 's_3_15': [4333], 's_3_7': [4647, 4646], 's_3_26': [2285], 's_3_27': [4317], 's_3_28': [2440], 's_3_29': [5007], 's_3_30': [2466], 's_3_3': [4933, 4934], 's_11_17': [2075], 's_11_27': [4392], 's_11_37': [2211], 's_11_11': [4106, 4105, 2001], 's_13_7': [2243], 's_13_37': [4136], 's_13_13': [2225], 's_15_17': [4152, 2376], 's_15_22': [4408, 2378], 's_15_26': [4092], 's_15_27': [4287], 's_15_32': [4423], 's_15_15': [2404], 's_17_26': [2060], 's_17_29': [1716], 's_17_37': [2571], 's_17_17': [1761], 's_32_7': [4574], 's_32_28': [2290], 9: [4349, 2675, 2676, 2678, 2677], 's_32_9': [2693], 's_32_32': [4857], 's_37_9': [2692], 's_37_37': [4154], 's_21_9': [4034], 's_21_21': [3956], 's_22_28': [4675], 's_22_29': [4493], 's_22_22': [4990], 's_29_29': [4149], 's_26_9': [2691], 's_26_30': [2646], 's_26_26': [2419], 's_28_28': [2111], 's_7_27': [4527], 's_7_9': [4544], 's_7_7': [2680], 's_27_27': [5022], 's_30_9': [2722], 's_30_30': [2601], 's_9_9': [3944]}</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0.0001295681063122924</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.0006431725513300677</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>{0: [3427, 1516, 1517], 2: [1410, 1411, 3307, 3309, 3308], 4: [3428, 3429, 1802], 6: [3472, 1382, 1380, 1381], 8: [3366, 3368, 3367], 14: [3459, 3457, 3458], 34: [3517, 3518, 1638, 1636, 1637], 41: [1502, 3323, 3247, 1501], 1: [3397, 1622, 1682, 3398], 3: [3563, 1710, 1712, 3354, 1711], 5: [1546, 1697, 3248, 1696], 11: [1320, 1515, 3172, 3173], 16: [3322, 1322, 1321], 19: [1545, 3053, 3052], 26: [3203, 3202, 1427, 1426], 28: [1726, 3294, 3293], 30: [1532, 1531, 3068, 1530], 32: [3129, 1621, 3127, 1801, 3128], 20: [1473, 1562, 3488], 42: [3277, 1667, 3278], 7: [3097, 1457, 1456], 15: [3413, 3411, 3412], 21: [1652, 3112, 1651, 3113], 23: [3504, 1397, 3502, 3503], 29: [1772, 1771, 3262, 3263, 3264], 9: [3352, 1577, 3353], 39: [1681], 10: [1547, 3473, 3474], 12: [3562, 1486, 1487, 1488], 13: [1742, 1741, 3188, 3187], 31: [1352, 1351, 1350, 3067], 33: [1590, 1592, 1591], 24: [3443, 3442], 35: [1472, 3143, 1471], 37: [3383, 3381, 3382], 17: [3338, 1366, 3337], 27: [1500, 1576, 3158], 38: [1608, 1605, 1607, 1606], 22: [3233, 1757, 1756], 40: [3532, 3533, 1727, 3534], 18: [1561, 3218, 3217], 25: [1396, 3232, 3231], 36: [1442, 1440, 1441]}</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0.01679421135693654</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0136409728584455</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>{0: [3427, 1516, 1517], 2: [1410, 1411, 3307, 3309, 3308], 4: [3428, 3429, 1802], 6: [3472, 1382, 1380, 1381], 8: [3366, 3368, 3367], 14: [3459, 3457, 3458], 34: [3517, 3518, 1638, 1636, 1637], 41: [1502, 3323, 3247, 1501], 1: [3397, 1622, 1682, 3398], 3: [3563, 1710, 1712, 3354, 1711], 5: [1546, 1697, 3248, 1696], 11: [1320, 1515, 3172, 3173], 16: [3322, 1322, 1321], 19: [1545, 3053, 3052], 26: [3203, 3202, 1427, 1426], 28: [1726, 3294, 3293], 30: [1532, 1531, 3068, 1530], 32: [3129, 1621, 3127, 1801, 3128], 20: [1473, 1562, 3488], 42: [3277, 1667, 3278], 7: [3097, 1457, 1456], 15: [3413, 3411, 3412], 21: [1652, 3112, 1651, 3113], 23: [3504, 1397, 3502, 3503], 29: [1772, 1771, 3262, 3263, 3264], 9: [3352, 1577, 3353], 39: [1681], 10: [1547, 3473, 3474], 12: [3562, 1486, 1487, 1488], 13: [1742, 1741, 3188, 3187], 31: [1352, 1351, 1350, 3067], 33: [1590, 1592, 1591], 24: [3443, 3442], 35: [1472, 3143, 1471], 37: [3383, 3381, 3382], 17: [3338, 1366, 3337], 27: [1500, 1576, 3158], 38: [1608, 1605, 1607, 1606], 22: [3233, 1757, 1756], 40: [3532, 3533, 1727, 3534], 18: [1561, 3218, 3217], 25: [1396, 3232, 3231], 36: [1442, 1440, 1441]}</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0.01679421135693654</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.0136409728584455</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>{0: [2513, 2509, 2510, 2512, 2511], 2: [3880, 1908, 1909, 3850, 3853, 3852, 3851], 's_0_2': [3868], 4: [3703, 3702, 3700, 3701], 's_0_4': [3718], 6: [4258, 1837, 4257, 4256, 1684, 1685, 1686, 4254, 4255], 's_0_6': [2497], 8: [4438, 2407, 4450, 4451, 4452], 's_0_8': [4453], 14: [4104, 4105, 4197, 2288, 4198, 2287, 2286, 4106], 's_0_14': [4183], 34: [4587, 2349, 2374, 3898, 2348, 4467, 2422, 2421, 4152, 2376, 2375], 's_0_34': [4468], 41: [1744, 4483, 4482, 4481, 4480, 4479, 4404, 3849, 1820, 1821, 1822, 1823], 's_0_41': [4498], 's_0_0': [4108], 1: [4359, 3821, 2138, 4360, 4361, 2134, 2135, 2136, 2137], 's_2_1': [2165], 3: [4001, 2183, 4302, 4301, 2182, 2179, 2180, 2181], 's_2_3': [2269, 3926], 's_2_4': [2299], 5: [2345, 2346, 4137, 2001, 4135, 4136], 's_2_5': [2000], 11: [2228, 2227, 2226, 2225, 2224, 1803, 3624, 3625, 3626, 3656, 2223], 's_2_11': [3882, 2195, 3941], 16: [3579, 3580, 3581, 2253, 2254, 2255, 2256, 2257, 4508, 4509, 4510, 4511, 2213, 4407], 's_2_16': [2329, 3717], 19: [3638, 3639, 3686, 2058, 3640], 's_2_19': [3610], 26: [1550, 2209, 1551, 2210, 2211, 2212, 4346, 4345, 4344, 4343, 1552], 's_2_26': [2360, 3897], 28: [4118, 1611, 1610, 1940, 3939, 3938], 's_2_28': [1835, 3954], 30: [1925, 1924, 3744, 3745, 2483, 2482, 2481, 2480, 2479, 3747, 3746], 's_2_30': [2284], 32: [1414, 1773, 3862, 3699, 1774, 3863, 3865, 3864], 's_2_32': [3594], 's_2_41': [3909], 's_2_2': [1907], 's_4_1': [3716], 20: [3982, 3983, 3984, 3685, 1849, 1850, 4089, 1851], 's_4_20': [1893], 's_4_32': [1954], 's_4_34': [2390, 2389], 42: [1969, 1973, 1972, 4000, 1970, 1971], 's_4_42': [3715], 's_4_4': [3704], 7: [3925, 3924, 3922, 3923], 's_6_7': [3908], 's_6_11': [2241], 15: [3758, 1670, 3578, 1668, 3803, 1669], 's_6_15': [3894], 's_6_20': [1911, 4119], 21: [2240, 4213, 4076, 4077, 2318, 2317, 4212, 4227, 2316], 's_6_21': [4182, 2377], 23: [2243, 2242, 4015, 1838, 4377, 4376, 4373, 4374, 4375, 1957, 1956, 1955], 's_6_23': [2122], 29: [1534, 4092, 2405, 3787, 3788, 3789, 3790, 3791, 3792, 2404], 's_6_29': [3818], 's_6_41': [4284], 's_6_42': [4210], 's_6_6': [2542], 's_8_1': [1988], 's_8_3': [2452], 9: [2092, 2091, 3759, 3760, 2089, 2090], 's_8_9': [4421, 2153], 's_8_16': [2123], 's_8_21': [4332], 39: [2361, 2077, 4167, 4166, 2076], 's_8_39': [4465], 's_8_42': [1958], 's_8_8': [4449], 's_14_1': [4362], 10: [4103, 3836, 4074, 1715, 3835, 3834, 1714], 's_14_10': [1806], 12: [4422, 2198, 1504, 1505, 1506, 1507, 4433, 4434, 4435, 2003, 4525, 4526], 's_14_12': [4392], 13: [4223, 2148, 2149, 2150, 2151, 2106, 4224, 4225, 4226], 's_14_13': [4196], 's_14_20': [1880], 31: [2108, 4543, 4539, 4540, 4542, 4541], 's_14_31': [2303], 33: [3727, 3655, 2016, 2015, 2014, 3728, 3729, 3730], 's_14_33': [2045, 3970], 's_14_34': [4153, 2586], 's_14_14': [2527], 's_34_3': [2347], 's_34_5': [2301], 's_34_11': [4572], 's_34_12': [4423], 's_34_21': [4527], 24: [3988, 3987, 2030, 3985, 3986], 's_34_24': [2540], 's_34_31': [4602, 4603, 2453], 35: [3673, 3775, 1984, 2118, 3672, 1608, 3668, 3669, 3670, 3671], 's_34_35': [2418, 2419], 37: [4270, 2019, 2017, 4497, 4496, 4495, 2018], 's_34_37': [4512, 2408], 's_34_41': [2437, 2438], 's_34_34': [4647], 's_41_15': [3684, 1743], 's_41_16': [2258], 17: [3819, 3609, 3999, 1865, 1863, 1864], 's_41_17': [1759], 's_41_26': [1927, 4314], 27: [1476, 1594, 1474, 3937, 1475, 1593, 3848], 's_41_27': [3743, 1609], 's_41_31': [2093], 38: [1595, 4283, 1732, 1731, 1640, 3953, 1730], 's_41_38': [4419], 's_41_42': [4405], 's_41_41': [2648], 's_1_5': [4121], 's_1_9': [2104], 's_1_10': [2239], 's_1_12': [1898, 1897], 's_1_13': [3896], 22: [1624, 1625, 1626, 4163, 2047, 2046, 1716, 2031, 4165, 4241, 4164], 's_1_22': [2062], 's_1_23': [2152], 's_1_26': [1912], 40: [1746, 1748, 1747], 's_1_40': [1762], 's_1_1': [2107], 's_3_5': [2166], 's_3_9': [4151], 's_3_12': [4466], 's_3_22': [4061], 's_3_23': [2302], 's_3_26': [3776], 's_3_19': [3641], 's_3_21': [2197], 's_3_37': [2184, 4571], 's_3_39': [4300, 4315], 's_3_3': [4303], 's_5_9': [4120], 18: [1563, 1564, 1565, 4031, 4030, 4029, 4028], 's_5_18': [1986], 's_5_21': [2271], 's_5_23': [4060], 's_5_33': [4090], 's_5_39': [2196], 's_5_5': [2406], 's_11_26': [3687], 's_11_16': [3627], 's_11_31': [2199, 4646], 's_11_32': [3519], 's_11_33': [2013], 's_11_35': [3774, 1804], 's_11_11': [3611], 's_16_23': [1658], 's_16_15': [3504, 1818], 's_16_17': [1848], 25: [4193, 4102, 1535, 1538, 4312, 1536, 4358, 1537], 's_16_25': [1643], 's_16_31': [1763], 36: [1788, 1793, 1792, 4194, 3714, 1789, 1790, 1791], 's_16_36': [4524], 's_16_37': [2048], 's_16_16': [4507], 's_19_13': [2133], 's_19_27': [3637], 's_19_30': [2043], 's_19_33': [1548], 's_19_35': [1938], 's_19_36': [1728], 's_19_19': [2088], 's_26_22': [1627], 's_26_23': [1777], 's_26_18': [4032], 's_26_21': [4347], 's_26_25': [4267], 's_26_29': [4091], 's_26_35': [2194], 's_26_36': [4179, 4178], 's_26_37': [1987], 's_26_26': [4388], 's_28_13': [1701], 's_28_22': [3968], 's_28_40': [1745], 's_28_18': [3998, 1656], 's_28_27': [4043], 's_28_30': [3895], 's_28_42': [4045], 's_28_28': [4117], 's_30_13': [3731], 's_30_23': [4378, 4363], 's_30_21': [4228], 's_30_24': [2315, 3942], 's_30_29': [3777, 2344], 's_30_31': [4558], 's_30_32': [1819], 's_30_33': [2073], 's_30_37': [2468], 's_30_30': [2238], 's_32_12': [3802], 's_32_29': [1429], 's_32_38': [1655], 's_32_32': [1339], 's_20_10': [3879, 1805], 's_20_12': [3967], 's_20_17': [1878], 's_20_18': [1910], 's_20_33': [1953], 's_20_38': [4088], 's_20_20': [1355], 's_42_37': [4180], 's_42_7': [3910], 's_42_18': [2060], 's_42_33': [3805], 's_42_35': [1968], 's_42_42': [1974], 's_7_9': [1894], 's_7_12': [3907], 's_7_24': [2120], 's_7_27': [1415], 's_7_29': [1549], 's_7_36': [1775], 's_7_7': [3921], 's_15_10': [3773], 's_15_22': [1639], 's_15_35': [3548, 1697], 's_15_36': [3534], 's_15_15': [3458], 's_21_12': [2363, 2362], 's_21_13': [2121], 's_21_22': [4436, 4437], 's_21_24': [2075], 's_21_29': [4063, 4062], 's_21_31': [4557], 's_21_21': [4317, 2392], 's_23_13': [1942, 1941], 's_23_22': [4240, 1881], 's_23_24': [1895], 's_23_25': [1597], 's_23_31': [1839], 's_23_33': [3940], 's_23_37': [2378], 's_23_38': [1717], 's_23_40': [1702, 4298], 's_23_23': [1673, 4448], 's_29_10': [2059], 's_29_12': [1519], 's_29_13': [3911, 3912], 's_29_39': [2331], 's_29_17': [1729], 's_29_36': [1654], 's_29_29': [2435], 's_9_10': [2074], 's_9_17': [1879], 's_9_24': [3866], 's_9_33': [1834], 's_9_35': [2029], 's_9_9': [4181], 's_39_22': [4211], 's_39_37': [2078], 's_39_39': [4168], 's_10_22': [1671], 's_10_24': [1985], 's_10_33': [1713], 's_10_40': [4059], 's_10_10': [4073], 's_12_18': [3772], 's_12_25': [4462, 1522], 's_12_27': [4162], 's_12_37': [2168], 's_12_12': [1943, 1944], 's_13_18': [1566], 's_13_22': [1776], 's_13_35': [3536], 's_13_36': [1852], 's_13_37': [2061], 's_13_13': [4222], 's_31_40': [4554], 's_31_37': [2033, 2034], 's_31_36': [1778], 's_31_31': [1854, 4644], 's_33_18': [4046], 's_33_17': [3654], 's_33_27': [1579], 's_33_33': [1459], 's_24_24': [2570], 's_35_18': [1578], 's_35_27': [3623], 's_35_35': [3521], 's_37_37': [2393], 's_17_36': [3804], 's_17_38': [1760], 's_17_17': [1862], 's_27_25': [1477, 4238], 's_27_38': [3878], 's_27_27': [1430, 1431, 4177], 's_38_22': [3893], 's_38_40': [4209], 's_38_18': [4044], 's_38_38': [3833], 's_22_18': [3713], 's_22_25': [4148], 's_22_22': [1623], 's_40_40': [4584], 's_18_18': [1520, 4058], 's_25_36': [4329, 4328, 1567], 's_25_25': [4627], 's_36_36': [4464]}</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0001842105263157895</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0008115338918478564</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>{0: [2513, 2509, 2510, 2512, 2511], 2: [3880, 1908, 1909, 3850, 3853, 3852, 3851], 's_0_2': [3868], 4: [3703, 3702, 3700, 3701], 's_0_4': [3718], 6: [4258, 1837, 4257, 4256, 1684, 1685, 1686, 4254, 4255], 's_0_6': [2497], 8: [4438, 2407, 4450, 4451, 4452], 's_0_8': [4453], 14: [4104, 4105, 4197, 2288, 4198, 2287, 2286, 4106], 's_0_14': [4183], 34: [4587, 2349, 2374, 3898, 2348, 4467, 2422, 2421, 4152, 2376, 2375], 's_0_34': [4468], 41: [1744, 4483, 4482, 4481, 4480, 4479, 4404, 3849, 1820, 1821, 1822, 1823], 's_0_41': [4498], 's_0_0': [4108], 1: [4359, 3821, 2138, 4360, 4361, 2134, 2135, 2136, 2137], 's_2_1': [2165], 3: [4001, 2183, 4302, 4301, 2182, 2179, 2180, 2181], 's_2_3': [2269, 3926], 's_2_4': [2299], 5: [2345, 2346, 4137, 2001, 4135, 4136], 's_2_5': [2000], 11: [2228, 2227, 2226, 2225, 2224, 1803, 3624, 3625, 3626, 3656, 2223], 's_2_11': [3882, 2195, 3941], 16: [3579, 3580, 3581, 2253, 2254, 2255, 2256, 2257, 4508, 4509, 4510, 4511, 2213, 4407], 's_2_16': [2329, 3717], 19: [3638, 3639, 3686, 2058, 3640], 's_2_19': [3610], 26: [1550, 2209, 1551, 2210, 2211, 2212, 4346, 4345, 4344, 4343, 1552], 's_2_26': [2360, 3897], 28: [4118, 1611, 1610, 1940, 3939, 3938], 's_2_28': [1835, 3954], 30: [1925, 1924, 3744, 3745, 2483, 2482, 2481, 2480, 2479, 3747, 3746], 's_2_30': [2284], 32: [1414, 1773, 3862, 3699, 1774, 3863, 3865, 3864], 's_2_32': [3594], 's_2_41': [3909], 's_2_2': [1907], 's_4_1': [3716], 20: [3982, 3983, 3984, 3685, 1849, 1850, 4089, 1851], 's_4_20': [1893], 's_4_32': [1954], 's_4_34': [2390, 2389], 42: [1969, 1973, 1972, 4000, 1970, 1971], 's_4_42': [3715], 's_4_4': [3704], 7: [3925, 3924, 3922, 3923], 's_6_7': [3908], 's_6_11': [2241], 15: [3758, 1670, 3578, 1668, 3803, 1669], 's_6_15': [3894], 's_6_20': [1911, 4119], 21: [2240, 4213, 4076, 4077, 2318, 2317, 4212, 4227, 2316], 's_6_21': [4182, 2377], 23: [2243, 2242, 4015, 1838, 4377, 4376, 4373, 4374, 4375, 1957, 1956, 1955], 's_6_23': [2122], 29: [1534, 4092, 2405, 3787, 3788, 3789, 3790, 3791, 3792, 2404], 's_6_29': [3818], 's_6_41': [4284], 's_6_42': [4210], 's_6_6': [2542], 's_8_1': [1988], 's_8_3': [2452], 9: [2092, 2091, 3759, 3760, 2089, 2090], 's_8_9': [4421, 2153], 's_8_16': [2123], 's_8_21': [4332], 39: [2361, 2077, 4167, 4166, 2076], 's_8_39': [4465], 's_8_42': [1958], 's_8_8': [4449], 's_14_1': [4362], 10: [4103, 3836, 4074, 1715, 3835, 3834, 1714], 's_14_10': [1806], 12: [4422, 2198, 1504, 1505, 1506, 1507, 4433, 4434, 4435, 2003, 4525, 4526], 's_14_12': [4392], 13: [4223, 2148, 2149, 2150, 2151, 2106, 4224, 4225, 4226], 's_14_13': [4196], 's_14_20': [1880], 31: [2108, 4543, 4539, 4540, 4542, 4541], 's_14_31': [2303], 33: [3727, 3655, 2016, 2015, 2014, 3728, 3729, 3730], 's_14_33': [2045, 3970], 's_14_34': [4153, 2586], 's_14_14': [2527], 's_34_3': [2347], 's_34_5': [2301], 's_34_11': [4572], 's_34_12': [4423], 's_34_21': [4527], 24: [3988, 3987, 2030, 3985, 3986], 's_34_24': [2540], 's_34_31': [4602, 4603, 2453], 35: [3673, 3775, 1984, 2118, 3672, 1608, 3668, 3669, 3670, 3671], 's_34_35': [2418, 2419], 37: [4270, 2019, 2017, 4497, 4496, 4495, 2018], 's_34_37': [4512, 2408], 's_34_41': [2437, 2438], 's_34_34': [4647], 's_41_15': [3684, 1743], 's_41_16': [2258], 17: [3819, 3609, 3999, 1865, 1863, 1864], 's_41_17': [1759], 's_41_26': [1927, 4314], 27: [1476, 1594, 1474, 3937, 1475, 1593, 3848], 's_41_27': [3743, 1609], 's_41_31': [2093], 38: [1595, 4283, 1732, 1731, 1640, 3953, 1730], 's_41_38': [4419], 's_41_42': [4405], 's_41_41': [2648], 's_1_5': [4121], 's_1_9': [2104], 's_1_10': [2239], 's_1_12': [1898, 1897], 's_1_13': [3896], 22: [1624, 1625, 1626, 4163, 2047, 2046, 1716, 2031, 4165, 4241, 4164], 's_1_22': [2062], 's_1_23': [2152], 's_1_26': [1912], 40: [1746, 1748, 1747], 's_1_40': [1762], 's_1_1': [2107], 's_3_5': [2166], 's_3_9': [4151], 's_3_12': [4466], 's_3_22': [4061], 's_3_23': [2302], 's_3_26': [3776], 's_3_19': [3641], 's_3_21': [2197], 's_3_37': [2184, 4571], 's_3_39': [4300, 4315], 's_3_3': [4303], 's_5_9': [4120], 18: [1563, 1564, 1565, 4031, 4030, 4029, 4028], 's_5_18': [1986], 's_5_21': [2271], 's_5_23': [4060], 's_5_33': [4090], 's_5_39': [2196], 's_5_5': [2406], 's_11_26': [3687], 's_11_16': [3627], 's_11_31': [2199, 4646], 's_11_32': [3519], 's_11_33': [2013], 's_11_35': [3774, 1804], 's_11_11': [3611], 's_16_23': [1658], 's_16_15': [3504, 1818], 's_16_17': [1848], 25: [4193, 4102, 1535, 1538, 4312, 1536, 4358, 1537], 's_16_25': [1643], 's_16_31': [1763], 36: [1788, 1793, 1792, 4194, 3714, 1789, 1790, 1791], 's_16_36': [4524], 's_16_37': [2048], 's_16_16': [4507], 's_19_13': [2133], 's_19_27': [3637], 's_19_30': [2043], 's_19_33': [1548], 's_19_35': [1938], 's_19_36': [1728], 's_19_19': [2088], 's_26_22': [1627], 's_26_23': [1777], 's_26_18': [4032], 's_26_21': [4347], 's_26_25': [4267], 's_26_29': [4091], 's_26_35': [2194], 's_26_36': [4179, 4178], 's_26_37': [1987], 's_26_26': [4388], 's_28_13': [1701], 's_28_22': [3968], 's_28_40': [1745], 's_28_18': [3998, 1656], 's_28_27': [4043], 's_28_30': [3895], 's_28_42': [4045], 's_28_28': [4117], 's_30_13': [3731], 's_30_23': [4378, 4363], 's_30_21': [4228], 's_30_24': [2315, 3942], 's_30_29': [3777, 2344], 's_30_31': [4558], 's_30_32': [1819], 's_30_33': [2073], 's_30_37': [2468], 's_30_30': [2238], 's_32_12': [3802], 's_32_29': [1429], 's_32_38': [1655], 's_32_32': [1339], 's_20_10': [3879, 1805], 's_20_12': [3967], 's_20_17': [1878], 's_20_18': [1910], 's_20_33': [1953], 's_20_38': [4088], 's_20_20': [1355], 's_42_37': [4180], 's_42_7': [3910], 's_42_18': [2060], 's_42_33': [3805], 's_42_35': [1968], 's_42_42': [1974], 's_7_9': [1894], 's_7_12': [3907], 's_7_24': [2120], 's_7_27': [1415], 's_7_29': [1549], 's_7_36': [1775], 's_7_7': [3921], 's_15_10': [3773], 's_15_22': [1639], 's_15_35': [3548, 1697], 's_15_36': [3534], 's_15_15': [3458], 's_21_12': [2363, 2362], 's_21_13': [2121], 's_21_22': [4436, 4437], 's_21_24': [2075], 's_21_29': [4063, 4062], 's_21_31': [4557], 's_21_21': [4317, 2392], 's_23_13': [1942, 1941], 's_23_22': [4240, 1881], 's_23_24': [1895], 's_23_25': [1597], 's_23_31': [1839], 's_23_33': [3940], 's_23_37': [2378], 's_23_38': [1717], 's_23_40': [1702, 4298], 's_23_23': [1673, 4448], 's_29_10': [2059], 's_29_12': [1519], 's_29_13': [3911, 3912], 's_29_39': [2331], 's_29_17': [1729], 's_29_36': [1654], 's_29_29': [2435], 's_9_10': [2074], 's_9_17': [1879], 's_9_24': [3866], 's_9_33': [1834], 's_9_35': [2029], 's_9_9': [4181], 's_39_22': [4211], 's_39_37': [2078], 's_39_39': [4168], 's_10_22': [1671], 's_10_24': [1985], 's_10_33': [1713], 's_10_40': [4059], 's_10_10': [4073], 's_12_18': [3772], 's_12_25': [4462, 1522], 's_12_27': [4162], 's_12_37': [2168], 's_12_12': [1943, 1944], 's_13_18': [1566], 's_13_22': [1776], 's_13_35': [3536], 's_13_36': [1852], 's_13_37': [2061], 's_13_13': [4222], 's_31_40': [4554], 's_31_37': [2033, 2034], 's_31_36': [1778], 's_31_31': [1854, 4644], 's_33_18': [4046], 's_33_17': [3654], 's_33_27': [1579], 's_33_33': [1459], 's_24_24': [2570], 's_35_18': [1578], 's_35_27': [3623], 's_35_35': [3521], 's_37_37': [2393], 's_17_36': [3804], 's_17_38': [1760], 's_17_17': [1862], 's_27_25': [1477, 4238], 's_27_38': [3878], 's_27_27': [1430, 1431, 4177], 's_38_22': [3893], 's_38_40': [4209], 's_38_18': [4044], 's_38_38': [3833], 's_22_18': [3713], 's_22_25': [4148], 's_22_22': [1623], 's_40_40': [4584], 's_18_18': [1520, 4058], 's_25_36': [4329, 4328, 1567], 's_25_25': [4627], 's_36_36': [4464]}</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0.0001842105263157895</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.0008115338918478564</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>{0: [1302, 5150, 5152, 5151], 2: [5182, 5466, 1437, 5467, 1438], 4: [1047, 5586, 5585, 1048, 1049], 10: [1394, 5287, 1393, 1392], 21: [1259, 5375, 5376, 1257, 1258], 23: [1094, 1092, 5405, 1093], 28: [5138, 1212, 5137, 5136], 30: [5227, 5225, 1182, 5226], 33: [1452, 1453, 5511, 5512, 1454], 42: [1242, 1243, 5315, 5316], 43: [5317, 1317, 1318], 1: [5300, 5301, 5302], 5: [5272, 5271], 7: [1289, 1288, 5242, 5241, 1287], 12: [1364, 1362, 1363], 16: [5333, 5330, 5331, 5332], 25: [5524, 1304, 5525, 5526], 26: [1349, 1274, 1319, 5601], 29: [1122, 1124, 1123], 32: [1062, 5180, 1407, 5181], 38: [5600, 5286, 1139, 1138], 3: [5539, 5540, 5542, 5541], 27: [5587, 5497, 1377, 1379, 1378], 34: [1153, 5255, 1152], 36: [5209, 5510, 1018, 1017], 41: [1334, 1332, 1333], 8: [1078, 1154, 1079, 5556, 5555], 14: [5362, 1422, 1423, 1424, 5646, 5647], 18: [5480, 5481, 1469, 5482], 31: [1303, 1347, 5345, 5346], 39: [1168, 5196, 5195, 1167], 15: [5452, 5450, 5451], 17: [5406, 5407], 19: [1483, 5257, 5256], 20: [1227, 1229, 1228], 6: [5211, 5210], 9: [5391, 5390, 1184, 1183], 35: [5527, 5303, 1497, 1499, 1498], 11: [5167, 1376, 1273, 1272, 5166], 13: [5270, 1107, 1109, 1108], 37: [1063, 5361, 5360], 24: [1169, 5570, 5572, 5571], 22: [1244, 5496, 1197, 1198], 40: [1514, 1513, 5420, 5421, 5422]}</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0.01580191271847862</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.01442628906552899</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>{0: [1302, 5150, 5152, 5151], 2: [5182, 5466, 1437, 5467, 1438], 4: [1047, 5586, 5585, 1048, 1049], 10: [1394, 5287, 1393, 1392], 21: [1259, 5375, 5376, 1257, 1258], 23: [1094, 1092, 5405, 1093], 28: [5138, 1212, 5137, 5136], 30: [5227, 5225, 1182, 5226], 33: [1452, 1453, 5511, 5512, 1454], 42: [1242, 1243, 5315, 5316], 43: [5317, 1317, 1318], 1: [5300, 5301, 5302], 5: [5272, 5271], 7: [1289, 1288, 5242, 5241, 1287], 12: [1364, 1362, 1363], 16: [5333, 5330, 5331, 5332], 25: [5524, 1304, 5525, 5526], 26: [1349, 1274, 1319, 5601], 29: [1122, 1124, 1123], 32: [1062, 5180, 1407, 5181], 38: [5600, 5286, 1139, 1138], 3: [5539, 5540, 5542, 5541], 27: [5587, 5497, 1377, 1379, 1378], 34: [1153, 5255, 1152], 36: [5209, 5510, 1018, 1017], 41: [1334, 1332, 1333], 8: [1078, 1154, 1079, 5556, 5555], 14: [5362, 1422, 1423, 1424, 5646, 5647], 18: [5480, 5481, 1469, 5482], 31: [1303, 1347, 5345, 5346], 39: [1168, 5196, 5195, 1167], 15: [5452, 5450, 5451], 17: [5406, 5407], 19: [1483, 5257, 5256], 20: [1227, 1229, 1228], 6: [5211, 5210], 9: [5391, 5390, 1184, 1183], 35: [5527, 5303, 1497, 1499, 1498], 11: [5167, 1376, 1273, 1272, 5166], 13: [5270, 1107, 1109, 1108], 37: [1063, 5361, 5360], 24: [1169, 5570, 5572, 5571], 22: [1244, 5496, 1197, 1198], 40: [1514, 1513, 5420, 5421, 5422]}</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0.01580191271847862</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01442628906552899</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>{0: [1146, 1147, 1148, 4585, 4584, 4583, 4582, 4581], 2: [1488, 1698, 3608, 3607, 1353, 1358, 1357, 1356, 1355, 4207, 1354], 's_0_2': [4567], 4: [4267, 4403, 1521, 1042, 4370, 4371, 4372, 1522], 's_0_4': [1523], 10: [1373, 1372, 1371, 1370, 3681, 3682, 1368, 1369], 's_0_10': [1388, 4537], 21: [1251, 4116, 4025, 3815, 4115, 1056, 1053, 1054, 1055], 's_0_21': [4145], 23: [1238, 1237, 1236, 4105, 4104, 4103, 4102, 1550, 4101], 's_0_23': [1253], 28: [1282, 4206, 4205, 1026, 1022, 1023, 1024, 3665, 1025], 's_0_28': [4160], 30: [4208, 4194, 4209, 1748, 1747, 1744, 1745, 1746], 's_0_30': [4569], 33: [1973, 1972, 1971, 1970, 3895, 3894, 3893, 3816, 3817, 1519], 's_0_33': [4540, 1989], 42: [1162, 1157, 4027, 4026, 1158, 1159, 1161, 1160], 's_0_42': [1163], 43: [4045, 1266, 1144, 1145, 4041, 4042, 1777, 1776, 1775, 4044, 4043], 's_0_43': [1778], 's_0_0': [1868], 1: [1386, 4310, 4222, 1133, 1132, 4221], 's_2_1': [1341], 5: [1117, 3789, 3788, 3787, 1384, 3847, 3846, 1116, 1115], 's_2_5': [3712], 7: [1508, 4190, 4191, 4192, 1507, 1506], 's_2_7': [4522], 12: [4084, 4085, 1853, 4359, 4086, 4358, 4087, 1416, 1417, 1463, 4357], 's_2_12': [4402], 16: [1323, 3981, 1327, 1326, 3771, 1324, 1325], 's_2_16': [4417], 25: [3863, 3862, 3861, 3860, 1103, 1102, 1101, 1100], 's_2_25': [1295, 3936], 26: [3591, 3592, 3577, 3578, 1788, 3579], 's_2_26': [3684], 29: [4165, 3455, 2016, 2015, 2014, 2013, 3460, 3459, 3458, 3457, 3456], 's_2_29': [1473], 's_2_30': [3743], 32: [1283, 4251, 1267, 1268, 4493, 4492, 4491], 's_2_32': [4476], 's_2_33': [1518], 38: [3638, 1322, 1563, 3535, 3531, 1294, 1293, 3534, 3533, 3532], 's_2_38': [1697], 's_2_2': [4507], 's_4_1': [1118], 3: [1073, 1716, 1058, 4460, 4461, 4462, 1731, 1732, 4463], 's_4_3': [1088], 's_4_7': [1041], 27: [3667, 1567, 1566, 3670, 1565, 1564, 3698, 1639, 3668, 3669], 's_4_27': [4373], 's_4_30': [1536], 34: [4355, 4060, 4059, 4058, 4057, 1072, 1071, 4055, 4056], 's_4_34': [4235], 36: [4400, 997, 4325, 4326, 3997, 1491, 1492, 4327], 's_4_36': [1012], 41: [4523, 1628, 4390, 4389, 4388], 's_4_41': [1643], 's_4_42': [4416, 1177], 's_4_4': [4279], 8: [1715, 1998, 2000, 3985, 1999, 1400, 3982, 3983, 3984], 's_10_8': [3951], 14: [1233, 3564, 4177, 4178, 1596, 1595, 3560, 3561, 3562, 3563, 1593, 1594], 's_10_14': [1248], 's_10_16': [4432], 18: [3696, 3697, 1459, 1460, 1461, 1911, 4134, 4133, 4132], 's_10_18': [1188], 31: [1087, 1086, 3922, 3921, 1083, 1084, 3920, 1085], 's_10_31': [3906], 's_10_33': [3832], 's_10_38': [1203], 39: [1699, 1535, 1534, 3754, 3759, 3758, 3757, 3755, 1234, 3756], 's_10_39': [1264], 's_10_43': [1143], 's_10_10': [3683], 's_21_1': [1221], 's_21_14': [1068], 15: [876, 875, 874, 3729, 3728, 3727, 3726, 3724, 3725], 's_21_15': [1039], 's_21_16': [4130, 4131], 17: [1310, 1175, 3996, 4253, 4252, 1312, 1311], 's_21_17': [3935], 19: [1204, 1278, 3786, 1281, 1280, 1279], 's_21_19': [3740], 20: [1908, 1909, 3875, 4344, 1852, 1851, 1850, 3880, 3879, 3878, 3877, 3876], 's_21_20': [1070], 's_21_23': [1401], 's_21_25': [3995], 's_21_34': [995], 's_21_39': [994], 's_21_42': [3605], 's_21_43': [4100], 's_21_21': [3785, 3784], 's_23_3': [4446], 6: [4146, 1446, 4149, 1688, 1687, 1686, 4147, 4148], 's_23_6': [1476], 's_23_8': [4088], 9: [1627, 1626, 1624, 1623, 3954, 3953, 1625], 's_23_9': [3952], 's_23_17': [1235], 's_23_18': [1656], 's_23_29': [2031], 's_23_32': [4521], 's_23_34': [1956], 's_23_39': [1549], 's_23_23': [4506], 's_28_5': [3845], 's_28_19': [3666], 's_28_29': [1037], 's_28_32': [4281], 35: [3699, 1789, 1790, 1791, 1252, 4311, 4312, 4313, 4224, 1672], 's_28_35': [4266], 's_28_28': [3379], 's_30_9': [4193], 11: [4295, 4296, 4297, 4298, 4299, 1927, 1926, 1923, 1924, 1925], 's_30_11': [1837], 13: [1772, 1773, 1774, 1760, 1759, 2059, 1761, 3820, 3819], 's_30_13': [3714], 's_30_20': [3999], 's_30_32': [1763], 's_30_34': [4074], 's_30_35': [1762], 37: [1942, 1941, 3923, 3924, 1940], 's_30_37': [4210], 's_30_30': [4554], 's_33_5': [1864], 's_33_11': [4300], 's_33_14': [3818], 's_33_17': [1174], 's_33_18': [4195], 's_33_19': [1189], 24: [3864, 3655, 3849, 1823, 1822, 1821, 3653, 3654, 1819, 1820], 's_33_24': [1879, 3850], 's_33_29': [3940], 's_33_34': [4120, 1986], 's_33_43': [1265], 's_33_33': [4270], 's_42_5': [4265], 's_42_6': [1296], 's_42_11': [4386, 1207], 's_42_16': [1340], 's_42_17': [3950], 's_42_20': [1415], 's_42_29': [3470], 's_42_31': [3545], 's_42_36': [1385], 's_42_38': [3516], 's_42_43': [1220], 's_42_42': [3425], 's_43_5': [3891], 's_43_9': [1685], 's_43_11': [3939], 's_43_16': [1190], 's_43_27': [4028], 's_43_32': [4404, 1658], 's_43_39': [3770], 's_43_41': [1792], 's_43_43': [4040], 's_1_7': [4175], 's_1_11': [1297], 's_1_12': [936, 937, 4220], 's_1_14': [1431], 's_1_31': [4340], 's_1_32': [4490], 's_1_34': [1206], 's_1_35': [4401], 's_1_1': [1192], 's_5_32': [4236], 's_5_35': [3804], 's_5_13': [1714], 22: [1413, 1128, 1414, 3620, 3623, 1383, 3621, 3622], 's_5_22': [3802], 's_5_27': [1729, 3773], 's_5_5': [1834], 's_7_3': [4447], 's_7_6': [4117], 's_7_11': [1477], 's_7_14': [4223], 's_7_17': [1447], 's_7_31': [4280, 1191], 's_7_35': [1462], 's_7_41': [4433], 's_7_7': [4642], 's_12_3': [1418], 's_12_6': [4072], 's_12_14': [1597], 's_12_15': [4099], 's_12_17': [4237], 's_12_24': [4524], 's_12_39': [980, 979, 3769], 40: [3965, 3966, 1520, 3970, 3969, 1428, 3637, 1444, 1445, 1427, 3967, 3968], 's_12_40': [1010, 3980], 's_12_12': [4420], 's_16_35': [4356], 's_16_8': [3892], 's_16_22': [3606], 's_16_27': [1309], 's_16_36': [4341], 's_16_38': [3636], 's_16_16': [3651], 's_25_34': [4385], 's_25_3': [4505], 's_25_18': [3772, 1579], 's_25_22': [1429], 's_25_24': [3848], 's_25_36': [4415], 's_25_39': [1069], 's_25_25': [3890], 's_26_11': [3549], 's_26_14': [3593], 's_26_20': [3594], 's_26_27': [1638], 's_26_38': [1833], 's_26_26': [3580], 's_29_31': [1098], 's_29_13': [3775], 's_29_18': [4135], 's_29_22': [1653], 's_29_24': [1804, 1803], 's_29_38': [1727], 's_29_40': [1412], 's_29_29': [2028], 's_32_11': [1432, 1433], 's_32_6': [4478], 's_32_32': [1553], 's_38_8': [3610, 1953], 's_38_15': [3741], 's_38_18': [1458], 's_38_22': [1443], 's_38_24': [1758], 's_38_40': [1367, 3427], 's_38_38': [1113], 's_3_34': [1057], 's_3_35': [4239], 's_3_8': [1730], 's_3_18': [4118], 's_3_20': [1717], 's_3_41': [1673], 's_3_3': [4565], 's_27_11': [3685], 's_27_8': [1984, 3640], 's_27_18': [3937], 's_27_41': [1582], 's_27_24': [1608], 's_27_39': [1849], 's_27_40': [1474], 's_27_27': [1338], 's_34_8': [1910], 's_34_18': [1806], 's_34_19': [4071], 's_34_37': [4075], 's_34_40': [1505], 's_34_34': [4061], 's_36_8': [4012], 's_36_6': [4162], 's_36_40': [1490], 's_36_36': [998], 's_41_6': [4508], 's_41_24': [1808], 's_41_37': [4405], 's_41_41': [1988], 's_8_14': [3565], 's_8_9': [1670], 's_8_13': [1985], 's_8_20': [3625], 's_8_40': [1955], 's_8_8': [3550], 's_14_11': [1938], 's_14_9': [3833], 's_14_19': [1263], 's_14_20': [1907], 's_14_22': [1218], 's_14_24': [1743], 's_14_37': [1610], 's_14_40': [1398], 's_14_14': [3518], 's_18_35': [1671, 4029], 's_18_15': [1249], 's_18_24': [4119], 's_18_37': [4225, 1881, 4269], 's_18_18': [1173], 's_31_22': [3576, 3575], 's_31_37': [3908, 3907, 1504], 's_31_39': [1114, 3650], 's_31_40': [1250], 's_31_31': [3500], 's_39_20': [964], 's_39_24': [3803, 1669], 's_39_37': [1894], 's_39_15': [1489], 's_39_39': [3760], 's_15_35': [1654], 's_15_22': [1129], 's_15_15': [4054], 's_17_35': [1612], 's_17_9': [4238], 's_17_19': [4011], 's_17_17': [4254], 's_19_20': [1205], 's_19_19': [1277], 's_20_6': [1835, 1836], 's_20_9': [4329, 4328], 's_20_24': [4014], 's_20_37': [4284], 's_20_40': [1040], 's_20_20': [4030], 's_6_11': [4150], 's_6_13': [4164], 's_6_6': [4628], 's_9_11': [1642], 's_9_22': [1668, 3548], 's_9_24': [1805], 's_9_37': [1640], 's_9_9': [3503], 's_35_11': [1552], 's_35_24': [1728], 's_35_35': [4343], 's_11_40': [4015, 2045], 's_11_11': [1928], 's_13_24': [4179], 's_13_37': [1939], 's_13_40': [2030], 's_13_13': [3925], 's_37_40': [1655], 's_37_37': [3909, 3910], 's_24_40': [3652], 's_24_24': [1578], 's_22_22': [1127], 's_40_40': [3964]}</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0004802431610942249</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.001181256849377155</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>{0: [1146, 1147, 1148, 4585, 4584, 4583, 4582, 4581], 2: [1488, 1698, 3608, 3607, 1353, 1358, 1357, 1356, 1355, 4207, 1354], 's_0_2': [4567], 4: [4267, 4403, 1521, 1042, 4370, 4371, 4372, 1522], 's_0_4': [1523], 10: [1373, 1372, 1371, 1370, 3681, 3682, 1368, 1369], 's_0_10': [1388, 4537], 21: [1251, 4116, 4025, 3815, 4115, 1056, 1053, 1054, 1055], 's_0_21': [4145], 23: [1238, 1237, 1236, 4105, 4104, 4103, 4102, 1550, 4101], 's_0_23': [1253], 28: [1282, 4206, 4205, 1026, 1022, 1023, 1024, 3665, 1025], 's_0_28': [4160], 30: [4208, 4194, 4209, 1748, 1747, 1744, 1745, 1746], 's_0_30': [4569], 33: [1973, 1972, 1971, 1970, 3895, 3894, 3893, 3816, 3817, 1519], 's_0_33': [4540, 1989], 42: [1162, 1157, 4027, 4026, 1158, 1159, 1161, 1160], 's_0_42': [1163], 43: [4045, 1266, 1144, 1145, 4041, 4042, 1777, 1776, 1775, 4044, 4043], 's_0_43': [1778], 's_0_0': [1868], 1: [1386, 4310, 4222, 1133, 1132, 4221], 's_2_1': [1341], 5: [1117, 3789, 3788, 3787, 1384, 3847, 3846, 1116, 1115], 's_2_5': [3712], 7: [1508, 4190, 4191, 4192, 1507, 1506], 's_2_7': [4522], 12: [4084, 4085, 1853, 4359, 4086, 4358, 4087, 1416, 1417, 1463, 4357], 's_2_12': [4402], 16: [1323, 3981, 1327, 1326, 3771, 1324, 1325], 's_2_16': [4417], 25: [3863, 3862, 3861, 3860, 1103, 1102, 1101, 1100], 's_2_25': [1295, 3936], 26: [3591, 3592, 3577, 3578, 1788, 3579], 's_2_26': [3684], 29: [4165, 3455, 2016, 2015, 2014, 2013, 3460, 3459, 3458, 3457, 3456], 's_2_29': [1473], 's_2_30': [3743], 32: [1283, 4251, 1267, 1268, 4493, 4492, 4491], 's_2_32': [4476], 's_2_33': [1518], 38: [3638, 1322, 1563, 3535, 3531, 1294, 1293, 3534, 3533, 3532], 's_2_38': [1697], 's_2_2': [4507], 's_4_1': [1118], 3: [1073, 1716, 1058, 4460, 4461, 4462, 1731, 1732, 4463], 's_4_3': [1088], 's_4_7': [1041], 27: [3667, 1567, 1566, 3670, 1565, 1564, 3698, 1639, 3668, 3669], 's_4_27': [4373], 's_4_30': [1536], 34: [4355, 4060, 4059, 4058, 4057, 1072, 1071, 4055, 4056], 's_4_34': [4235], 36: [4400, 997, 4325, 4326, 3997, 1491, 1492, 4327], 's_4_36': [1012], 41: [4523, 1628, 4390, 4389, 4388], 's_4_41': [1643], 's_4_42': [4416, 1177], 's_4_4': [4279], 8: [1715, 1998, 2000, 3985, 1999, 1400, 3982, 3983, 3984], 's_10_8': [3951], 14: [1233, 3564, 4177, 4178, 1596, 1595, 3560, 3561, 3562, 3563, 1593, 1594], 's_10_14': [1248], 's_10_16': [4432], 18: [3696, 3697, 1459, 1460, 1461, 1911, 4134, 4133, 4132], 's_10_18': [1188], 31: [1087, 1086, 3922, 3921, 1083, 1084, 3920, 1085], 's_10_31': [3906], 's_10_33': [3832], 's_10_38': [1203], 39: [1699, 1535, 1534, 3754, 3759, 3758, 3757, 3755, 1234, 3756], 's_10_39': [1264], 's_10_43': [1143], 's_10_10': [3683], 's_21_1': [1221], 's_21_14': [1068], 15: [876, 875, 874, 3729, 3728, 3727, 3726, 3724, 3725], 's_21_15': [1039], 's_21_16': [4130, 4131], 17: [1310, 1175, 3996, 4253, 4252, 1312, 1311], 's_21_17': [3935], 19: [1204, 1278, 3786, 1281, 1280, 1279], 's_21_19': [3740], 20: [1908, 1909, 3875, 4344, 1852, 1851, 1850, 3880, 3879, 3878, 3877, 3876], 's_21_20': [1070], 's_21_23': [1401], 's_21_25': [3995], 's_21_34': [995], 's_21_39': [994], 's_21_42': [3605], 's_21_43': [4100], 's_21_21': [3785, 3784], 's_23_3': [4446], 6: [4146, 1446, 4149, 1688, 1687, 1686, 4147, 4148], 's_23_6': [1476], 's_23_8': [4088], 9: [1627, 1626, 1624, 1623, 3954, 3953, 1625], 's_23_9': [3952], 's_23_17': [1235], 's_23_18': [1656], 's_23_29': [2031], 's_23_32': [4521], 's_23_34': [1956], 's_23_39': [1549], 's_23_23': [4506], 's_28_5': [3845], 's_28_19': [3666], 's_28_29': [1037], 's_28_32': [4281], 35: [3699, 1789, 1790, 1791, 1252, 4311, 4312, 4313, 4224, 1672], 's_28_35': [4266], 's_28_28': [3379], 's_30_9': [4193], 11: [4295, 4296, 4297, 4298, 4299, 1927, 1926, 1923, 1924, 1925], 's_30_11': [1837], 13: [1772, 1773, 1774, 1760, 1759, 2059, 1761, 3820, 3819], 's_30_13': [3714], 's_30_20': [3999], 's_30_32': [1763], 's_30_34': [4074], 's_30_35': [1762], 37: [1942, 1941, 3923, 3924, 1940], 's_30_37': [4210], 's_30_30': [4554], 's_33_5': [1864], 's_33_11': [4300], 's_33_14': [3818], 's_33_17': [1174], 's_33_18': [4195], 's_33_19': [1189], 24: [3864, 3655, 3849, 1823, 1822, 1821, 3653, 3654, 1819, 1820], 's_33_24': [1879, 3850], 's_33_29': [3940], 's_33_34': [4120, 1986], 's_33_43': [1265], 's_33_33': [4270], 's_42_5': [4265], 's_42_6': [1296], 's_42_11': [4386, 1207], 's_42_16': [1340], 's_42_17': [3950], 's_42_20': [1415], 's_42_29': [3470], 's_42_31': [3545], 's_42_36': [1385], 's_42_38': [3516], 's_42_43': [1220], 's_42_42': [3425], 's_43_5': [3891], 's_43_9': [1685], 's_43_11': [3939], 's_43_16': [1190], 's_43_27': [4028], 's_43_32': [4404, 1658], 's_43_39': [3770], 's_43_41': [1792], 's_43_43': [4040], 's_1_7': [4175], 's_1_11': [1297], 's_1_12': [936, 937, 4220], 's_1_14': [1431], 's_1_31': [4340], 's_1_32': [4490], 's_1_34': [1206], 's_1_35': [4401], 's_1_1': [1192], 's_5_32': [4236], 's_5_35': [3804], 's_5_13': [1714], 22: [1413, 1128, 1414, 3620, 3623, 1383, 3621, 3622], 's_5_22': [3802], 's_5_27': [1729, 3773], 's_5_5': [1834], 's_7_3': [4447], 's_7_6': [4117], 's_7_11': [1477], 's_7_14': [4223], 's_7_17': [1447], 's_7_31': [4280, 1191], 's_7_35': [1462], 's_7_41': [4433], 's_7_7': [4642], 's_12_3': [1418], 's_12_6': [4072], 's_12_14': [1597], 's_12_15': [4099], 's_12_17': [4237], 's_12_24': [4524], 's_12_39': [980, 979, 3769], 40: [3965, 3966, 1520, 3970, 3969, 1428, 3637, 1444, 1445, 1427, 3967, 3968], 's_12_40': [1010, 3980], 's_12_12': [4420], 's_16_35': [4356], 's_16_8': [3892], 's_16_22': [3606], 's_16_27': [1309], 's_16_36': [4341], 's_16_38': [3636], 's_16_16': [3651], 's_25_34': [4385], 's_25_3': [4505], 's_25_18': [3772, 1579], 's_25_22': [1429], 's_25_24': [3848], 's_25_36': [4415], 's_25_39': [1069], 's_25_25': [3890], 's_26_11': [3549], 's_26_14': [3593], 's_26_20': [3594], 's_26_27': [1638], 's_26_38': [1833], 's_26_26': [3580], 's_29_31': [1098], 's_29_13': [3775], 's_29_18': [4135], 's_29_22': [1653], 's_29_24': [1804, 1803], 's_29_38': [1727], 's_29_40': [1412], 's_29_29': [2028], 's_32_11': [1432, 1433], 's_32_6': [4478], 's_32_32': [1553], 's_38_8': [3610, 1953], 's_38_15': [3741], 's_38_18': [1458], 's_38_22': [1443], 's_38_24': [1758], 's_38_40': [1367, 3427], 's_38_38': [1113], 's_3_34': [1057], 's_3_35': [4239], 's_3_8': [1730], 's_3_18': [4118], 's_3_20': [1717], 's_3_41': [1673], 's_3_3': [4565], 's_27_11': [3685], 's_27_8': [1984, 3640], 's_27_18': [3937], 's_27_41': [1582], 's_27_24': [1608], 's_27_39': [1849], 's_27_40': [1474], 's_27_27': [1338], 's_34_8': [1910], 's_34_18': [1806], 's_34_19': [4071], 's_34_37': [4075], 's_34_40': [1505], 's_34_34': [4061], 's_36_8': [4012], 's_36_6': [4162], 's_36_40': [1490], 's_36_36': [998], 's_41_6': [4508], 's_41_24': [1808], 's_41_37': [4405], 's_41_41': [1988], 's_8_14': [3565], 's_8_9': [1670], 's_8_13': [1985], 's_8_20': [3625], 's_8_40': [1955], 's_8_8': [3550], 's_14_11': [1938], 's_14_9': [3833], 's_14_19': [1263], 's_14_20': [1907], 's_14_22': [1218], 's_14_24': [1743], 's_14_37': [1610], 's_14_40': [1398], 's_14_14': [3518], 's_18_35': [1671, 4029], 's_18_15': [1249], 's_18_24': [4119], 's_18_37': [4225, 1881, 4269], 's_18_18': [1173], 's_31_22': [3576, 3575], 's_31_37': [3908, 3907, 1504], 's_31_39': [1114, 3650], 's_31_40': [1250], 's_31_31': [3500], 's_39_20': [964], 's_39_24': [3803, 1669], 's_39_37': [1894], 's_39_15': [1489], 's_39_39': [3760], 's_15_35': [1654], 's_15_22': [1129], 's_15_15': [4054], 's_17_35': [1612], 's_17_9': [4238], 's_17_19': [4011], 's_17_17': [4254], 's_19_20': [1205], 's_19_19': [1277], 's_20_6': [1835, 1836], 's_20_9': [4329, 4328], 's_20_24': [4014], 's_20_37': [4284], 's_20_40': [1040], 's_20_20': [4030], 's_6_11': [4150], 's_6_13': [4164], 's_6_6': [4628], 's_9_11': [1642], 's_9_22': [1668, 3548], 's_9_24': [1805], 's_9_37': [1640], 's_9_9': [3503], 's_35_11': [1552], 's_35_24': [1728], 's_35_35': [4343], 's_11_40': [4015, 2045], 's_11_11': [1928], 's_13_24': [4179], 's_13_37': [1939], 's_13_40': [2030], 's_13_13': [3925], 's_37_40': [1655], 's_37_37': [3909, 3910], 's_24_40': [3652], 's_24_24': [1578], 's_22_22': [1127], 's_40_40': [3964]}</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0.0004802431610942249</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.001181256849377155</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>{0: [608, 610, 609], 3: [4861, 595, 4862], 9: [354, 4667, 4666], 14: [489, 4713, 4711, 4712], 19: [248, 4982, 4981, 4980, 250, 249], 20: [684, 4608, 4606, 4607], 22: [4502, 4501, 310, 309, 308], 23: [4593, 4548, 745, 744], 25: [399, 488, 4578, 4577], 30: [4472, 533, 4727, 535, 534], 37: [4530, 4532, 293, 4531], 38: [4682, 4681, 160, 159, 4680], 42: [774, 4878, 475, 775, 4877], 43: [625, 4652, 623, 624], 44: [4906, 4908, 4907], 2: [4831, 640, 669, 670, 4832], 5: [4847, 4845, 4846], 8: [430, 428, 429], 12: [4741, 4743, 4742], 15: [490, 653, 654, 4802, 4801], 16: [549, 4772, 551, 550], 21: [594, 4621, 4622], 33: [280, 279, 4547, 4546, 278], 34: [506, 503, 504, 505], 36: [4771, 369, 370], 39: [414, 4876, 416, 415], 4: [371, 4997, 4996, 443, 445, 444], 6: [220, 219, 4638, 4637, 4636, 4635], 10: [578, 581, 579, 4787, 580, 4788], 11: [295, 4665, 294], 13: [458, 460, 459], 31: [4756, 520, 519, 4757], 35: [386, 4650, 385, 384, 4651], 17: [4471, 324, 323, 4470], 28: [263, 4591, 4592], 1: [401, 4726, 400], 7: [4695, 4698, 4696, 4697], 18: [4892, 4891, 4800, 325], 24: [4818, 4815, 4817, 4816], 27: [746, 4968, 4967, 264, 265, 4966], 41: [4441, 338, 341, 340, 339], 29: [714, 4936, 4937, 4938, 715], 26: [311, 5056], 40: [4921, 4922, 565, 566], 32: [4563, 235, 4561, 234, 4562]}</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0.02385107620709714</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.01996531294842727</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>{0: [608, 610, 609], 3: [4861, 595, 4862], 9: [354, 4667, 4666], 14: [489, 4713, 4711, 4712], 19: [248, 4982, 4981, 4980, 250, 249], 20: [684, 4608, 4606, 4607], 22: [4502, 4501, 310, 309, 308], 23: [4593, 4548, 745, 744], 25: [399, 488, 4578, 4577], 30: [4472, 533, 4727, 535, 534], 37: [4530, 4532, 293, 4531], 38: [4682, 4681, 160, 159, 4680], 42: [774, 4878, 475, 775, 4877], 43: [625, 4652, 623, 624], 44: [4906, 4908, 4907], 2: [4831, 640, 669, 670, 4832], 5: [4847, 4845, 4846], 8: [430, 428, 429], 12: [4741, 4743, 4742], 15: [490, 653, 654, 4802, 4801], 16: [549, 4772, 551, 550], 21: [594, 4621, 4622], 33: [280, 279, 4547, 4546, 278], 34: [506, 503, 504, 505], 36: [4771, 369, 370], 39: [414, 4876, 416, 415], 4: [371, 4997, 4996, 443, 445, 444], 6: [220, 219, 4638, 4637, 4636, 4635], 10: [578, 581, 579, 4787, 580, 4788], 11: [295, 4665, 294], 13: [458, 460, 459], 31: [4756, 520, 519, 4757], 35: [386, 4650, 385, 384, 4651], 17: [4471, 324, 323, 4470], 28: [263, 4591, 4592], 1: [401, 4726, 400], 7: [4695, 4698, 4696, 4697], 18: [4892, 4891, 4800, 325], 24: [4818, 4815, 4817, 4816], 27: [746, 4968, 4967, 264, 265, 4966], 41: [4441, 338, 341, 340, 339], 29: [714, 4936, 4937, 4938, 715], 26: [311, 5056], 40: [4921, 4922, 565, 566], 32: [4563, 235, 4561, 234, 4562]}</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0.02385107620709714</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01996531294842727</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>{0: [1851, 1852, 4299, 996, 997, 998, 4580, 4581, 4582, 4583, 4584, 4585, 1943, 1942], 3: [4296, 1281, 4041, 4042, 1296, 1898, 1297, 4615, 4614, 4613, 4612, 1299, 1298], 's_0_3': [1479], 9: [4220, 3532, 3531, 1233, 1117, 1445, 3847, 3846, 1234, 4221, 1236, 1235], 's_0_9': [4190], 14: [3940, 1444, 1974, 1973, 1972, 1971, 1970, 1969, 3715, 3714, 3652, 3653, 1654], 's_0_14': [4345], 19: [1143, 4102, 4103, 4101, 4104, 4100, 1056, 1055, 1054, 3740], 's_0_19': [4205], 20: [4329, 1026, 1027, 4328, 4325, 1447, 4327, 4326], 's_0_20': [4385], 22: [3757, 1223, 4417, 4416, 4418, 1552, 1551, 1550, 1549, 1548, 3577], 's_0_22': [1403], 23: [1490, 1927, 1926, 3937, 3938, 1880, 1925, 3939], 's_0_23': [4360], 25: [1323, 1324, 1682, 3892, 3563, 1593, 1594, 1598, 1597, 1596, 3893, 1595], 's_0_25': [1613], 30: [3865, 1718, 1984, 1985, 1986, 1987, 4523, 1988, 3730, 4525, 4524], 's_0_30': [1958], 37: [4040, 1101, 1313, 1312, 1202, 1203, 3651, 1309, 4145, 4146, 1311, 1310], 's_0_37': [1314], 38: [4284, 1792, 1673, 4355, 4356, 4357, 4359, 4358], 's_0_38': [1853], 42: [4162, 4163, 4164, 4165, 4166, 2121, 2120, 1488, 2119, 3547, 3548, 3549, 3550, 2118], 's_0_42': [1836], 43: [1537, 1583, 4463, 4460, 4461, 4462], 's_0_43': [1073], 44: [1251, 4494, 1252, 1253, 4493, 4492, 4491], 's_0_44': [1688], 's_0_0': [1163], 2: [1457, 3427, 4644, 4643, 4642, 4641, 1373, 1372, 1367, 1368, 1369, 1370, 1371], 's_3_2': [4597], 5: [2030, 4506, 2031, 1643, 2032, 2033, 1328, 4507, 4508, 4509, 4510], 's_3_5': [1703], 8: [3471, 1731, 4283, 1337, 4282, 4281, 1338, 1339, 1340, 1341], 's_3_8': [1282], 12: [4085, 3578, 1623, 3458, 1190, 1189, 1188, 1187, 3501, 3502, 3503, 4084, 1607], 's_3_12': [1116], 's_3_14': [4570], 15: [4071, 4072, 4073, 1566, 4297, 4540, 4539, 4538, 1568, 1567], 's_3_15': [1659], 16: [4000, 3999, 3908, 4074, 4555, 4554, 1745, 1746, 1748, 1747], 's_3_16': [1913], 21: [3816, 1279, 3936, 1280], 's_3_21': [1355], 's_3_22': [4521], 33: [4226, 4479, 4222, 4223, 4224, 1838, 1837, 4225], 's_3_33': [1883], 34: [1358, 4192, 4265, 4266, 1357, 1356], 's_3_34': [4626], 36: [1565, 3925, 1220, 3920, 3921, 3924, 3923, 3922], 's_3_36': [1385], 39: [2089, 1779, 3787, 3788, 1684, 1685, 1686, 4254, 2090, 2091, 4270, 4269, 1777, 1778], 's_3_39': [4599], 's_3_3': [4671], 's_9_2': [3561], 4: [3862, 1428, 3727, 1429, 1430, 1433, 1432, 1431], 's_9_4': [1414], 6: [1413, 1162, 1161, 1160, 3607, 3606, 3605, 3517, 3516, 1157, 1158, 1159], 's_9_6': [4295], 10: [3635, 1669, 3636, 3637, 3640, 3639, 3638], 's_9_10': [1248], 11: [1400, 3986, 3985, 3982, 3983, 3984], 's_9_11': [3906], 13: [4280, 4056, 3875, 1222, 3878, 3877, 3876, 1176, 3879, 1175, 1174], 's_9_13': [1115], 's_9_14': [1383], 's_9_25': [3891], 31: [3835, 1924, 3759, 4236, 4237, 4238, 3833, 1612, 1611, 1610, 1609, 3758], 's_9_31': [1608, 3533], 's_9_34': [1267], 35: [4312, 1477, 1476, 4031, 4030, 4029, 4025, 1535, 4026, 4027, 4028], 's_9_35': [1446], 's_9_9': [1113], 's_14_4': [3728], 's_14_15': [2004, 4600], 17: [1866, 1865, 3966, 4240, 3967, 3968, 3965, 3969], 's_14_17': [4075], 's_14_23': [4405], 28: [1879, 1878, 1877, 3441, 3442, 3443, 3444], 's_14_28': [3895], 's_14_31': [3700], 's_14_33': [1881, 4255], 's_14_35': [4045], 's_14_36': [2015], 's_14_14': [4705], 1: [4105, 2060, 3397, 3398, 4015, 1940, 1939, 1938, 1937, 3399], 's_19_1': [1895], 7: [3755, 1458, 1460, 1204, 1459, 3711, 3712], 's_19_7': [3725], 's_19_10': [1099], 's_19_13': [4130], 's_19_16': [1776], 18: [3592, 3593, 1713, 1823, 1717, 4434, 1716, 3591, 1715, 1714], 's_19_18': [3590], 24: [4119, 1909, 1910, 1463, 4372, 4373, 1808, 4374, 4375, 1912, 1911], 's_19_24': [4134, 1821], 27: [4175, 4176, 4177, 4118, 1774, 3909, 1775, 4044, 1416, 4117, 1491, 4043], 's_19_27': [1461], 's_19_35': [1656], 's_19_37': [4055], 41: [3770, 3771, 3772, 1504, 4627, 1508, 1507, 1506, 1505], 's_19_41': [1084], 's_19_19': [3815], 's_20_6': [1132, 4310], 's_20_8': [1237], 's_20_12': [4099], 's_20_15': [1087, 1086, 4070], 's_20_22': [4370, 1133], 29: [1517, 4568, 1518, 1523, 1522, 1521, 3804, 3803, 3802, 1519, 1520], 's_20_29': [4208, 1642], 's_20_31': [4235], 's_20_33': [1672], 's_20_34': [1057], 's_20_35': [1025], 's_20_37': [4341], 's_20_39': [1627, 4178], 's_20_41': [4342], 's_20_20': [1102], 's_22_5': [1283], 's_22_7': [3907], 's_22_10': [3623, 1668], 's_22_12': [3608], 's_22_13': [1177], 's_22_24': [4419], 26: [3863, 1579], 's_22_26': [3713], 's_22_34': [4193], 's_22_35': [1492, 4253], 's_22_36': [1534], 's_22_38': [1118], 's_22_44': [4566], 's_22_22': [1388], 's_23_21': [3817], 's_23_24': [4060], 's_23_25': [1475], 's_23_27': [1760], 's_23_28': [3880], 's_23_29': [3952], 's_23_33': [4210], 's_23_23': [4014], 's_25_1': [1727], 's_25_7': [3697, 3698], 's_25_10': [1743], 's_25_16': [3894], 's_25_17': [1415], 's_25_33': [4478], 's_25_41': [4388], 's_25_25': [3953], 's_30_2': [4628], 's_30_5': [3866], 's_30_10': [2014], 's_30_15': [1989], 's_30_17': [3970], 's_30_28': [3670], 's_30_31': [2000], 40: [4058, 1908, 3729, 3667, 3668, 1626, 1625, 3744, 3743, 1624], 's_30_40': [3655], 's_30_43': [1658], 's_30_44': [4495], 's_30_30': [3760], 's_37_6': [3575, 1218], 's_37_8': [3726], 's_37_13': [4371], 's_37_17': [995], 's_37_28': [1217], 's_37_36': [3996], 's_37_43': [4446], 's_37_37': [3336], 's_38_5': [1448], 's_38_6': [1147], 's_38_16': [4344], 's_38_17': [1867], 's_38_18': [1732], 's_38_24': [1807], 's_38_31': [1207], 's_38_34': [1072], 's_38_39': [4389], 's_38_41': [1628, 4433], 's_38_38': [4354], 's_42_2': [1487], 's_42_4': [3622], 's_42_6': [1473], 's_42_7': [3457], 's_42_18': [1653], 's_42_27': [3910], 's_42_29': [3488], 's_42_34': [1386], 's_42_39': [2088, 3716], 's_42_40': [3745], 's_42_42': [2136], 's_43_2': [1584], 's_43_5': [1268], 's_43_6': [4445], 's_43_16': [4553], 's_43_18': [4464], 's_43_35': [1582], 's_43_44': [1418], 's_43_43': [1192], 's_44_2': [4476], 's_44_8': [4086], 's_44_13': [4401], 's_44_18': [1763], 's_44_29': [1553], 's_44_33': [1868], 's_44_39': [1793], 's_44_44': [4536], 's_2_1': [1442], 's_2_6': [1352], 's_2_7': [3472], 's_2_15': [1824], 's_2_21': [3951], 's_2_24': [1809], 's_2_27': [4012], 's_2_29': [4567], 's_2_41': [1494], 's_2_2': [1366], 's_5_1': [2016], 's_5_4': [4522], 's_5_15': [1733], 's_5_16': [2048], 's_5_31': [3820], 32: [3861, 1262, 1263, 1264, 1265, 1327, 1326, 4116, 1266], 's_5_32': [1342, 1343], 's_5_33': [1928], 's_5_35': [4046], 's_5_41': [1538], 's_5_5': [2018, 4436], 's_8_16': [4179], 's_8_29': [3801], 's_8_31': [4133], 's_8_7': [3487], 's_8_21': [3981], 's_8_27': [4057], 's_8_4': [4267], 's_8_28': [1247], 's_8_39': [4209], 's_8_8': [4194], 's_12_1': [3396, 1382], 's_12_10': [1562, 1563], 's_12_13': [1173], 's_12_15': [1206], 's_12_32': [3486], 's_12_35': [980], 's_12_40': [3579], 's_12_12': [3338], 's_15_16': [2034], 's_15_29': [1629], 's_15_6': [1145], 's_15_4': [4132], 's_15_13': [1221], 's_15_32': [1325], 's_15_39': [1839, 4674], 's_15_40': [4148], 's_15_15': [2063], 's_16_1': [4090, 4089, 1791], 's_16_13': [4088, 1641, 1640], 's_16_27': [1761], 's_16_31': [4239], 's_16_40': [1744], 's_16_16': [4556], 's_21_36': [1250], 's_21_32': [1278], 's_21_41': [1249], 's_21_21': [3741], 's_33_31': [1462], 's_33_27': [1701], 's_33_17': [2002], 's_33_18': [4435], 's_33_32': [4207], 's_33_34': [1401], 's_33_39': [2061], 's_33_33': [2167], 's_34_24': [4387], 's_34_27': [4252, 1417], 's_34_41': [4537], 's_34_32': [4432], 's_34_34': [4131], 's_36_1': [1955], 's_36_11': [1835], 's_36_24': [1894], 's_36_31': [1670], 's_36_6': [1144], 's_36_7': [1219], 's_36_18': [3864, 1699], 's_36_27': [1790], 's_36_28': [1864], 's_36_32': [4011], 's_36_36': [3950], 's_39_11': [3971], 's_39_31': [3836], 's_39_41': [3773], 's_39_10': [1489], 's_39_26': [3818], 's_39_35': [2075], 's_39_40': [1639], 's_39_39': [4241], 's_4_24': [4402], 's_4_31': [3832], 's_4_6': [3682], 's_4_41': [1384], 's_4_17': [1295], 's_4_26': [1564], 's_4_40': [1474], 's_4_4': [1354], 's_6_29': [3562, 1502], 's_6_18': [1443], 's_6_41': [1069, 3785], 's_6_6': [3470], 's_10_29': [1849], 's_10_31': [1923], 's_10_40': [1819], 's_10_10': [1968], 's_11_1': [2045], 's_11_7': [1399], 's_11_17': [1655], 's_11_24': [3954, 1820], 's_11_29': [3997], 's_11_35': [2105], 's_11_11': [2240], 's_13_7': [3786], 's_13_27': [3834, 1805], 's_13_32': [4191], 's_13_35': [1040], 's_13_18': [1729], 's_13_13': [979], 's_31_1': [3850], 's_31_24': [4313, 1762], 's_31_31': [4298], 's_35_29': [4087], 's_35_17': [1070], 's_35_32': [4311], 's_35_35': [2001], 's_17_7': [1205], 's_17_17': [3964], 's_28_27': [3819], 's_28_32': [3426], 's_28_28': [3609], 's_1_24': [4180, 1941], 's_1_29': [3805], 's_1_1': [3610], 's_7_41': [1114], 's_7_7': [3696], 's_18_24': [4449], 's_18_40': [3684, 1698], 's_18_32': [3576], 's_18_18': [3789], 's_24_27': [3774], 's_24_29': [4447], 's_24_41': [1464], 's_24_24': [3790], 's_27_41': [3848, 3849], 's_27_27': [3699], 's_41_29': [4403], 's_41_32': [3756], 's_41_40': [1294], 's_41_41': [4598], 's_29_29': [1834], 's_26_26': [1578], 's_40_40': [1353], 's_32_32': [1261]}</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0007340720221606649</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.001353590273402077</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>{0: [1851, 1852, 4299, 996, 997, 998, 4580, 4581, 4582, 4583, 4584, 4585, 1943, 1942], 3: [4296, 1281, 4041, 4042, 1296, 1898, 1297, 4615, 4614, 4613, 4612, 1299, 1298], 's_0_3': [1479], 9: [4220, 3532, 3531, 1233, 1117, 1445, 3847, 3846, 1234, 4221, 1236, 1235], 's_0_9': [4190], 14: [3940, 1444, 1974, 1973, 1972, 1971, 1970, 1969, 3715, 3714, 3652, 3653, 1654], 's_0_14': [4345], 19: [1143, 4102, 4103, 4101, 4104, 4100, 1056, 1055, 1054, 3740], 's_0_19': [4205], 20: [4329, 1026, 1027, 4328, 4325, 1447, 4327, 4326], 's_0_20': [4385], 22: [3757, 1223, 4417, 4416, 4418, 1552, 1551, 1550, 1549, 1548, 3577], 's_0_22': [1403], 23: [1490, 1927, 1926, 3937, 3938, 1880, 1925, 3939], 's_0_23': [4360], 25: [1323, 1324, 1682, 3892, 3563, 1593, 1594, 1598, 1597, 1596, 3893, 1595], 's_0_25': [1613], 30: [3865, 1718, 1984, 1985, 1986, 1987, 4523, 1988, 3730, 4525, 4524], 's_0_30': [1958], 37: [4040, 1101, 1313, 1312, 1202, 1203, 3651, 1309, 4145, 4146, 1311, 1310], 's_0_37': [1314], 38: [4284, 1792, 1673, 4355, 4356, 4357, 4359, 4358], 's_0_38': [1853], 42: [4162, 4163, 4164, 4165, 4166, 2121, 2120, 1488, 2119, 3547, 3548, 3549, 3550, 2118], 's_0_42': [1836], 43: [1537, 1583, 4463, 4460, 4461, 4462], 's_0_43': [1073], 44: [1251, 4494, 1252, 1253, 4493, 4492, 4491], 's_0_44': [1688], 's_0_0': [1163], 2: [1457, 3427, 4644, 4643, 4642, 4641, 1373, 1372, 1367, 1368, 1369, 1370, 1371], 's_3_2': [4597], 5: [2030, 4506, 2031, 1643, 2032, 2033, 1328, 4507, 4508, 4509, 4510], 's_3_5': [1703], 8: [3471, 1731, 4283, 1337, 4282, 4281, 1338, 1339, 1340, 1341], 's_3_8': [1282], 12: [4085, 3578, 1623, 3458, 1190, 1189, 1188, 1187, 3501, 3502, 3503, 4084, 1607], 's_3_12': [1116], 's_3_14': [4570], 15: [4071, 4072, 4073, 1566, 4297, 4540, 4539, 4538, 1568, 1567], 's_3_15': [1659], 16: [4000, 3999, 3908, 4074, 4555, 4554, 1745, 1746, 1748, 1747], 's_3_16': [1913], 21: [3816, 1279, 3936, 1280], 's_3_21': [1355], 's_3_22': [4521], 33: [4226, 4479, 4222, 4223, 4224, 1838, 1837, 4225], 's_3_33': [1883], 34: [1358, 4192, 4265, 4266, 1357, 1356], 's_3_34': [4626], 36: [1565, 3925, 1220, 3920, 3921, 3924, 3923, 3922], 's_3_36': [1385], 39: [2089, 1779, 3787, 3788, 1684, 1685, 1686, 4254, 2090, 2091, 4270, 4269, 1777, 1778], 's_3_39': [4599], 's_3_3': [4671], 's_9_2': [3561], 4: [3862, 1428, 3727, 1429, 1430, 1433, 1432, 1431], 's_9_4': [1414], 6: [1413, 1162, 1161, 1160, 3607, 3606, 3605, 3517, 3516, 1157, 1158, 1159], 's_9_6': [4295], 10: [3635, 1669, 3636, 3637, 3640, 3639, 3638], 's_9_10': [1248], 11: [1400, 3986, 3985, 3982, 3983, 3984], 's_9_11': [3906], 13: [4280, 4056, 3875, 1222, 3878, 3877, 3876, 1176, 3879, 1175, 1174], 's_9_13': [1115], 's_9_14': [1383], 's_9_25': [3891], 31: [3835, 1924, 3759, 4236, 4237, 4238, 3833, 1612, 1611, 1610, 1609, 3758], 's_9_31': [1608, 3533], 's_9_34': [1267], 35: [4312, 1477, 1476, 4031, 4030, 4029, 4025, 1535, 4026, 4027, 4028], 's_9_35': [1446], 's_9_9': [1113], 's_14_4': [3728], 's_14_15': [2004, 4600], 17: [1866, 1865, 3966, 4240, 3967, 3968, 3965, 3969], 's_14_17': [4075], 's_14_23': [4405], 28: [1879, 1878, 1877, 3441, 3442, 3443, 3444], 's_14_28': [3895], 's_14_31': [3700], 's_14_33': [1881, 4255], 's_14_35': [4045], 's_14_36': [2015], 's_14_14': [4705], 1: [4105, 2060, 3397, 3398, 4015, 1940, 1939, 1938, 1937, 3399], 's_19_1': [1895], 7: [3755, 1458, 1460, 1204, 1459, 3711, 3712], 's_19_7': [3725], 's_19_10': [1099], 's_19_13': [4130], 's_19_16': [1776], 18: [3592, 3593, 1713, 1823, 1717, 4434, 1716, 3591, 1715, 1714], 's_19_18': [3590], 24: [4119, 1909, 1910, 1463, 4372, 4373, 1808, 4374, 4375, 1912, 1911], 's_19_24': [4134, 1821], 27: [4175, 4176, 4177, 4118, 1774, 3909, 1775, 4044, 1416, 4117, 1491, 4043], 's_19_27': [1461], 's_19_35': [1656], 's_19_37': [4055], 41: [3770, 3771, 3772, 1504, 4627, 1508, 1507, 1506, 1505], 's_19_41': [1084], 's_19_19': [3815], 's_20_6': [1132, 4310], 's_20_8': [1237], 's_20_12': [4099], 's_20_15': [1087, 1086, 4070], 's_20_22': [4370, 1133], 29: [1517, 4568, 1518, 1523, 1522, 1521, 3804, 3803, 3802, 1519, 1520], 's_20_29': [4208, 1642], 's_20_31': [4235], 's_20_33': [1672], 's_20_34': [1057], 's_20_35': [1025], 's_20_37': [4341], 's_20_39': [1627, 4178], 's_20_41': [4342], 's_20_20': [1102], 's_22_5': [1283], 's_22_7': [3907], 's_22_10': [3623, 1668], 's_22_12': [3608], 's_22_13': [1177], 's_22_24': [4419], 26: [3863, 1579], 's_22_26': [3713], 's_22_34': [4193], 's_22_35': [1492, 4253], 's_22_36': [1534], 's_22_38': [1118], 's_22_44': [4566], 's_22_22': [1388], 's_23_21': [3817], 's_23_24': [4060], 's_23_25': [1475], 's_23_27': [1760], 's_23_28': [3880], 's_23_29': [3952], 's_23_33': [4210], 's_23_23': [4014], 's_25_1': [1727], 's_25_7': [3697, 3698], 's_25_10': [1743], 's_25_16': [3894], 's_25_17': [1415], 's_25_33': [4478], 's_25_41': [4388], 's_25_25': [3953], 's_30_2': [4628], 's_30_5': [3866], 's_30_10': [2014], 's_30_15': [1989], 's_30_17': [3970], 's_30_28': [3670], 's_30_31': [2000], 40: [4058, 1908, 3729, 3667, 3668, 1626, 1625, 3744, 3743, 1624], 's_30_40': [3655], 's_30_43': [1658], 's_30_44': [4495], 's_30_30': [3760], 's_37_6': [3575, 1218], 's_37_8': [3726], 's_37_13': [4371], 's_37_17': [995], 's_37_28': [1217], 's_37_36': [3996], 's_37_43': [4446], 's_37_37': [3336], 's_38_5': [1448], 's_38_6': [1147], 's_38_16': [4344], 's_38_17': [1867], 's_38_18': [1732], 's_38_24': [1807], 's_38_31': [1207], 's_38_34': [1072], 's_38_39': [4389], 's_38_41': [1628, 4433], 's_38_38': [4354], 's_42_2': [1487], 's_42_4': [3622], 's_42_6': [1473], 's_42_7': [3457], 's_42_18': [1653], 's_42_27': [3910], 's_42_29': [3488], 's_42_34': [1386], 's_42_39': [2088, 3716], 's_42_40': [3745], 's_42_42': [2136], 's_43_2': [1584], 's_43_5': [1268], 's_43_6': [4445], 's_43_16': [4553], 's_43_18': [4464], 's_43_35': [1582], 's_43_44': [1418], 's_43_43': [1192], 's_44_2': [4476], 's_44_8': [4086], 's_44_13': [4401], 's_44_18': [1763], 's_44_29': [1553], 's_44_33': [1868], 's_44_39': [1793], 's_44_44': [4536], 's_2_1': [1442], 's_2_6': [1352], 's_2_7': [3472], 's_2_15': [1824], 's_2_21': [3951], 's_2_24': [1809], 's_2_27': [4012], 's_2_29': [4567], 's_2_41': [1494], 's_2_2': [1366], 's_5_1': [2016], 's_5_4': [4522], 's_5_15': [1733], 's_5_16': [2048], 's_5_31': [3820], 32: [3861, 1262, 1263, 1264, 1265, 1327, 1326, 4116, 1266], 's_5_32': [1342, 1343], 's_5_33': [1928], 's_5_35': [4046], 's_5_41': [1538], 's_5_5': [2018, 4436], 's_8_16': [4179], 's_8_29': [3801], 's_8_31': [4133], 's_8_7': [3487], 's_8_21': [3981], 's_8_27': [4057], 's_8_4': [4267], 's_8_28': [1247], 's_8_39': [4209], 's_8_8': [4194], 's_12_1': [3396, 1382], 's_12_10': [1562, 1563], 's_12_13': [1173], 's_12_15': [1206], 's_12_32': [3486], 's_12_35': [980], 's_12_40': [3579], 's_12_12': [3338], 's_15_16': [2034], 's_15_29': [1629], 's_15_6': [1145], 's_15_4': [4132], 's_15_13': [1221], 's_15_32': [1325], 's_15_39': [1839, 4674], 's_15_40': [4148], 's_15_15': [2063], 's_16_1': [4090, 4089, 1791], 's_16_13': [4088, 1641, 1640], 's_16_27': [1761], 's_16_31': [4239], 's_16_40': [1744], 's_16_16': [4556], 's_21_36': [1250], 's_21_32': [1278], 's_21_41': [1249], 's_21_21': [3741], 's_33_31': [1462], 's_33_27': [1701], 's_33_17': [2002], 's_33_18': [4435], 's_33_32': [4207], 's_33_34': [1401], 's_33_39': [2061], 's_33_33': [2167], 's_34_24': [4387], 's_34_27': [4252, 1417], 's_34_41': [4537], 's_34_32': [4432], 's_34_34': [4131], 's_36_1': [1955], 's_36_11': [1835], 's_36_24': [1894], 's_36_31': [1670], 's_36_6': [1144], 's_36_7': [1219], 's_36_18': [3864, 1699], 's_36_27': [1790], 's_36_28': [1864], 's_36_32': [4011], 's_36_36': [3950], 's_39_11': [3971], 's_39_31': [3836], 's_39_41': [3773], 's_39_10': [1489], 's_39_26': [3818], 's_39_35': [2075], 's_39_40': [1639], 's_39_39': [4241], 's_4_24': [4402], 's_4_31': [3832], 's_4_6': [3682], 's_4_41': [1384], 's_4_17': [1295], 's_4_26': [1564], 's_4_40': [1474], 's_4_4': [1354], 's_6_29': [3562, 1502], 's_6_18': [1443], 's_6_41': [1069, 3785], 's_6_6': [3470], 's_10_29': [1849], 's_10_31': [1923], 's_10_40': [1819], 's_10_10': [1968], 's_11_1': [2045], 's_11_7': [1399], 's_11_17': [1655], 's_11_24': [3954, 1820], 's_11_29': [3997], 's_11_35': [2105], 's_11_11': [2240], 's_13_7': [3786], 's_13_27': [3834, 1805], 's_13_32': [4191], 's_13_35': [1040], 's_13_18': [1729], 's_13_13': [979], 's_31_1': [3850], 's_31_24': [4313, 1762], 's_31_31': [4298], 's_35_29': [4087], 's_35_17': [1070], 's_35_32': [4311], 's_35_35': [2001], 's_17_7': [1205], 's_17_17': [3964], 's_28_27': [3819], 's_28_32': [3426], 's_28_28': [3609], 's_1_24': [4180, 1941], 's_1_29': [3805], 's_1_1': [3610], 's_7_41': [1114], 's_7_7': [3696], 's_18_24': [4449], 's_18_40': [3684, 1698], 's_18_32': [3576], 's_18_18': [3789], 's_24_27': [3774], 's_24_29': [4447], 's_24_41': [1464], 's_24_24': [3790], 's_27_41': [3848, 3849], 's_27_27': [3699], 's_41_29': [4403], 's_41_32': [3756], 's_41_40': [1294], 's_41_41': [4598], 's_29_29': [1834], 's_26_26': [1578], 's_40_40': [1353], 's_32_32': [1261]}</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0.0007340720221606649</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.001353590273402077</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>{0: [1523, 4672, 1525, 4763, 1524], 1: [4731, 1584, 4732, 4733], 5: [4671, 1255, 4746, 1253, 1254], 8: [1540, 1538, 1539], 12: [1658, 1659, 4807, 4808, 1660], 14: [1494, 4748, 1495], 16: [4883, 4881, 4882], 18: [4762, 1239, 4761], 21: [4613, 4611, 4612], 28: [4626, 4627], 31: [1420, 1419, 4491, 1418, 4492], 32: [1285, 4868, 4867, 4866], 33: [1570, 4928, 4927], 34: [4718, 1631, 1628, 1629, 1630], 38: [1510, 1508, 1509], 39: [4973, 4972, 1330, 1328, 1329], 42: [4688, 1555, 1553, 4657, 1554], 45: [4521, 1403, 1583, 4522, 4523], 7: [1646, 1644, 1645], 10: [1298, 1299, 4747, 1300], 17: [1388, 1390, 4656, 1389], 23: [4596, 4911, 1224, 1225], 26: [1451, 1209, 4943, 4942, 4941, 1210], 36: [4852, 1269, 1270, 4851], 37: [1568, 4642, 4568, 1479], 41: [1313, 1316, 1314, 1315], 44: [1344, 4791, 4793, 4792], 3: [4703, 4701, 1434, 4702], 9: [1193, 4806, 4805, 1194], 11: [4776, 1179, 1178, 4567, 4566], 13: [1283, 1448, 4506, 4508, 4507], 15: [1480, 4716, 4717], 40: [4536, 1358, 4538, 4537], 43: [1149, 4820, 4823, 4822, 4821], 22: [1268, 4476, 4478, 1433, 4477], 24: [4897, 1598, 1599, 1600, 4898], 29: [4778, 1405, 1359, 4777], 2: [1463, 1466, 1465, 1464], 4: [4581, 1450, 4582, 1449], 27: [4599, 1404, 4598, 4597], 30: [1435, 4837], 35: [1360, 4896, 4986, 1240, 1241], 6: [4913, 4912, 1373, 1374, 1375], 25: [1284, 4687, 4686], 20: [4583, 1615, 1614, 1613], 19: [4641, 4640]}</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.009287286736378646</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0139072564975734</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>{0: [1523, 4672, 1525, 4763, 1524], 1: [4731, 1584, 4732, 4733], 5: [4671, 1255, 4746, 1253, 1254], 8: [1540, 1538, 1539], 12: [1658, 1659, 4807, 4808, 1660], 14: [1494, 4748, 1495], 16: [4883, 4881, 4882], 18: [4762, 1239, 4761], 21: [4613, 4611, 4612], 28: [4626, 4627], 31: [1420, 1419, 4491, 1418, 4492], 32: [1285, 4868, 4867, 4866], 33: [1570, 4928, 4927], 34: [4718, 1631, 1628, 1629, 1630], 38: [1510, 1508, 1509], 39: [4973, 4972, 1330, 1328, 1329], 42: [4688, 1555, 1553, 4657, 1554], 45: [4521, 1403, 1583, 4522, 4523], 7: [1646, 1644, 1645], 10: [1298, 1299, 4747, 1300], 17: [1388, 1390, 4656, 1389], 23: [4596, 4911, 1224, 1225], 26: [1451, 1209, 4943, 4942, 4941, 1210], 36: [4852, 1269, 1270, 4851], 37: [1568, 4642, 4568, 1479], 41: [1313, 1316, 1314, 1315], 44: [1344, 4791, 4793, 4792], 3: [4703, 4701, 1434, 4702], 9: [1193, 4806, 4805, 1194], 11: [4776, 1179, 1178, 4567, 4566], 13: [1283, 1448, 4506, 4508, 4507], 15: [1480, 4716, 4717], 40: [4536, 1358, 4538, 4537], 43: [1149, 4820, 4823, 4822, 4821], 22: [1268, 4476, 4478, 1433, 4477], 24: [4897, 1598, 1599, 1600, 4898], 29: [4778, 1405, 1359, 4777], 2: [1463, 1466, 1465, 1464], 4: [4581, 1450, 4582, 1449], 27: [4599, 1404, 4598, 4597], 30: [1435, 4837], 35: [1360, 4896, 4986, 1240, 1241], 6: [4913, 4912, 1373, 1374, 1375], 25: [1284, 4687, 4686], 20: [4583, 1615, 1614, 1613], 19: [4641, 4640]}</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0.009287286736378646</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.0139072564975734</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>{0: [2303, 2302, 2301, 1702, 1701, 4167, 4166, 4164, 4163, 4165], 1: [4898, 4527, 4526, 4525, 4524, 1540, 1539, 1538, 4522, 4523], 's_0_1': [4512], 5: [2511, 2512, 2513, 4558, 4944, 4945, 4946, 4557, 2349, 2350, 2351, 4947], 's_0_5': [4168], 8: [4572, 2199, 2259, 2079, 4692, 4690, 4691], 's_0_8': [2304], 12: [1598, 4447, 4450, 4448, 4449], 's_0_12': [1687], 14: [1807, 1806, 4101, 4102, 4106, 4105, 4104, 4103], 's_0_14': [1641], 16: [4192, 1477, 4872, 4224, 4223, 1627, 4871, 4870, 4869, 1555, 1628, 1629, 1630, 4868], 's_0_16': [4358], 18: [4838, 4152, 4839, 2256, 1946, 1944, 1943, 1945, 4271, 4270, 4269, 1942], 's_0_18': [4182], 21: [2165, 2170, 2169, 2166, 2168, 2167], 's_0_21': [4451], 28: [2152, 2469, 2468, 4438, 4437, 1911, 1912, 4435, 2153, 4436], 's_0_28': [4434], 31: [4332, 4123, 2362, 4120, 4122, 2361, 4121, 2196, 4047], 's_0_31': [2406], 32: [4329, 1840, 4147, 4148, 4149, 4045, 1839, 1838, 1837, 1836], 's_0_32': [1851], 33: [4212, 4211, 4210, 1674, 1673, 1672, 4209], 's_0_33': [1686], 34: [4372, 1656, 4466, 4464, 1657, 4373, 1658, 4465, 4463], 's_0_34': [4419], 38: [1761, 4193, 4315, 2015, 4181, 4180, 4194, 4195, 2016, 2017], 's_0_38': [2226], 39: [2435, 2436, 2437, 4423, 4422, 4569, 1718, 4539, 2241, 4540, 4541, 2243, 2242], 's_0_39': [1703], 42: [3987, 3954, 4494, 4493, 1613, 1612, 1611, 4088, 3986, 3985, 1910, 4089], 's_0_42': [4133], 45: [2062, 4376, 4375, 4403, 4840, 2005, 2004, 1792, 4404, 4405, 2003], 's_0_45': [4254], 's_0_0': [1536], 7: [1626, 1373, 1372, 1371, 4033, 4032, 4031, 4030, 4029, 4028, 4027, 1370], 's_1_7': [1358], 10: [4091, 4092, 5003, 5004, 1720, 5005, 2481, 5006, 5007, 2440, 2439, 2438, 4528, 2482, 2483], 's_1_10': [5002], 's_1_12': [1853], 17: [4585, 2075, 4226, 4225, 1869, 1868, 2076, 1867, 1866], 's_1_17': [1883], 's_1_21': [4481, 2138], 23: [1765, 1900, 4885, 4882, 4883, 4884], 's_1_23': [1705], 26: [2288, 2287, 2286, 2285, 1554, 1553, 1552, 3897, 3896, 3895, 1835, 3984, 1551, 1550, 3983], 's_1_26': [4718], 's_1_28': [2378], 36: [4782, 1461, 1462, 2140, 4781, 2049, 1898, 1463, 1464, 4672, 4673, 4674, 1899, 4720], 's_1_36': [4477], 37: [3997, 1519, 1520, 4253, 1524, 1523, 1522, 1521], 's_1_37': [4492], 41: [1991, 1990, 1988, 1989, 4613, 4614, 4615], 's_1_41': [4598], 44: [3912, 3911, 3910, 3909, 3908, 1450, 1449, 1448, 1447, 4207, 4208, 1595, 1596], 's_1_44': [4627], 's_1_45': [1643], 's_1_1': [1631, 5018], 3: [1715, 4752, 4751, 3938, 3939, 3940, 2090, 2094, 2093, 2092, 2091], 's_5_3': [2365], 9: [1793, 2470, 1794, 1795, 4824, 4828, 4827, 4826, 4825], 's_5_9': [4812, 2454], 's_5_10': [4842], 11: [1506, 1492, 4297, 4298, 4267, 1735, 4766, 4765, 4764, 1734, 1733, 1732], 's_5_11': [4929], 13: [2228, 4498, 4497, 1958, 4495, 4496], 's_5_13': [2333], 15: [1821, 1505, 4073, 4078, 4077, 4076, 4075, 4074], 's_5_15': [2497, 2496], 's_5_18': [1780], 's_5_23': [1690], 's_5_28': [2364, 4662, 2484], 's_5_31': [4393, 2407], 40: [2021, 2020, 2019, 4228, 2376, 2377, 4345, 4347, 2392, 4346, 4601, 2078, 2077], 's_5_40': [4258], 43: [4977, 1822, 1823, 2186, 4582, 1824, 1825, 4584, 1826, 4974, 4975, 4583, 4976], 's_5_43': [1676], 's_5_5': [2366, 5022], 's_8_3': [4573, 2529, 2530, 4753], 's_8_13': [2424, 2423], 22: [2272, 2273, 4631, 4793, 4794, 4795, 4796, 2154, 2155], 's_8_22': [4676], 24: [4930, 1970, 1971, 1972, 1975, 1974, 1973], 's_8_24': [4675], 's_8_26': [2289], 29: [2321, 2320, 2319, 3972, 2315, 2316, 2317, 2318], 's_8_29': [4722], 's_8_36': [4660], 's_8_40': [2139], 's_8_45': [2080], 's_8_8': [4737], 2: [2108, 4302, 4301, 3922, 3923, 3924, 3925, 2105, 4299, 4300, 2107, 2106], 's_12_2': [2047], 4: [4452, 2393, 2394, 1748, 4708, 4707, 4642, 4643, 1749, 4706, 2034, 4704, 4705], 's_12_4': [1599], 's_12_13': [2033], 27: [2002, 1420, 1419, 4240, 4239, 4238, 1418, 1417, 4237], 's_12_27': [1433], 's_12_32': [1717], 's_12_34': [4478], 's_12_43': [1583], 's_12_12': [4508, 1568], 's_14_3': [1805], 's_14_7': [4086], 's_14_10': [2270], 's_14_27': [1416], 30: [2136, 4060, 4062, 4061], 's_14_30': [2211], 's_14_34': [1671], 's_14_36': [4087], 's_14_37': [4117, 1476], 's_14_43': [1809, 1808], 's_14_44': [1401], 's_14_14': [1311], 's_16_4': [4628], 's_16_7': [4222], 's_16_10': [2410], 's_16_17': [4688, 4689], 's_16_26': [4418], 's_16_29': [4886, 4887], 's_16_32': [1716], 's_16_33': [4658], 35: [2216, 2230, 4900, 4902, 4901], 's_16_35': [2245, 4991], 's_16_38': [1746], 's_16_42': [4388], 's_16_16': [4313], 6: [4948, 4903, 1986, 4135, 2515, 2514, 2499, 4136, 4137, 4138, 2586, 2587, 4453, 2498], 's_18_6': [1987], 's_18_11': [1810], 's_18_21': [2182], 's_18_23': [4960], 25: [4797, 2330, 3999, 4000, 4001, 4002, 2420, 4798, 2545, 2544, 2543, 2542, 4213, 2421], 's_18_25': [2255], 's_18_27': [1777], 's_18_29': [4272], 's_18_32': [4629], 's_18_35': [4915], 's_18_41': [5065], 's_18_43': [1976, 5095], 's_18_18': [5110], 's_21_4': [4571], 's_21_7': [4046], 's_21_10': [2171], 's_21_17': [4151], 20: [4556, 4407, 2212, 2214, 2213], 's_21_20': [4661], 's_21_25': [3971, 2225], 's_21_36': [4811], 's_21_39': [3941, 3942], 's_21_40': [4421], 's_21_21': [2164], 's_28_2': [1897], 's_28_4': [4603], 's_28_6': [4738], 's_28_27': [4241], 's_28_38': [4150], 's_28_39': [4286], 's_28_41': [4390], 's_28_42': [1913], 's_28_28': [2363], 's_31_2': [2346, 2347], 's_31_6': [2631], 's_31_10': [2466, 4198], 's_31_15': [4048, 2541], 's_31_22': [2271], 's_31_30': [2151], 's_31_38': [2061], 's_31_39': [2257], 's_31_40': [4197], 's_31_31': [2646], 's_32_6': [4134], 's_32_7': [4162], 's_32_9': [4644], 's_32_15': [1566], 's_32_17': [4119], 's_32_23': [1855], 's_32_24': [1841], 's_32_25': [1895], 's_32_36': [4780], 's_32_32': [4044], 's_33_20': [2197], 's_33_29': [4227], 's_33_30': [2121], 's_33_38': [1791], 's_33_39': [4538], 's_33_41': [1659], 's_33_33': [4703], 's_34_3': [1655], 's_34_13': [2018], 's_34_26': [4328], 's_34_27': [1567], 's_34_37': [4462], 's_34_39': [2198], 's_34_42': [1763], 's_34_44': [4357], 's_34_45': [1537], 's_34_34': [1432], 's_38_24': [3970], 's_38_25': [4015], 's_38_26': [2030], 's_38_27': [1881], 's_38_39': [4316], 's_38_40': [2122], 's_38_44': [1642], 's_38_45': [1731, 4284, 4283], 's_38_38': [3835], 's_39_2': [2452], 's_39_7': [2480, 4003], 's_39_10': [4363], 's_39_15': [2240], 's_39_17': [4196], 's_39_22': [4646], 's_39_36': [1854, 4570], 's_39_41': [1688], 's_39_39': [4511], 's_42_2': [1775], 's_42_3': [1790], 's_42_13': [4555, 1928], 's_42_17': [1865], 's_42_25': [2045], 's_42_27': [1597], 's_42_29': [2180, 3956, 2300], 's_42_36': [4058, 4057], 's_42_37': [4433], 's_42_43': [1778], 's_42_42': [4479], 's_45_2': [4480], 's_45_9': [2110], 's_45_11': [4359], 's_45_13': [2183], 's_45_20': [4361], 's_45_24': [4855], 's_45_37': [1507], 's_45_40': [1927], 's_45_45': [4374], 's_7_3': [1730], 's_7_6': [2031], 's_7_27': [4597], 's_7_29': [2405], 's_7_37': [4177], 's_7_40': [2450, 2451], 's_7_43': [4567], 's_7_7': [4252], 's_10_2': [2467], 's_10_4': [4618], 's_10_9': [2471], 's_10_11': [4988], 's_10_25': [4287, 4288], 's_10_29': [4992], 's_10_40': [4348], 's_10_43': [2156], 's_10_10': [2603], 's_17_4': [4719], 's_17_6': [2046], 's_17_36': [4600], 's_17_40': [4344], 's_17_17': [4509], 's_23_9': [4823], 's_23_27': [1435], 's_23_35': [2065], 's_23_41': [1764], 's_23_44': [4867], 's_23_23': [1405], 's_26_2': [1565], 's_26_4': [4377], 's_26_11': [4763], 's_26_15': [3982], 19: [1645, 4807, 4810, 4809, 4808], 's_26_19': [4748], 's_26_20': [4587], 's_26_25': [1760], 's_26_30': [2135], 's_26_44': [2360], 's_26_26': [3865], 's_36_3': [4721], 's_36_9': [2335], 's_36_19': [1644], 's_36_22': [4841], 's_36_25': [4783], 's_36_35': [2229], 's_36_36': [4432], 's_37_2': [3907], 's_37_11': [4342], 's_37_15': [1504], 's_37_22': [4778], 's_37_27': [4687], 's_37_37': [3772], 's_41_9': [4599], 's_41_11': [4750], 's_41_13': [4420], 's_41_35': [2006], 's_41_43': [1494], 's_41_41': [1508], 's_44_2': [3926], 's_44_11': [4327], 's_44_24': [1955], 's_44_29': [2390], 's_44_44': [1297], 's_3_2': [1625], 's_3_4': [4645], 's_3_6': [1985], 's_3_11': [2124], 's_3_22': [4856, 2185], 's_3_30': [2060], 's_3_3': [2095], 's_9_6': [2500], 's_9_4': [2395], 's_9_19': [2125], 's_9_25': [4813], 's_9_43': [1856, 4914], 's_9_9': [4918], 's_11_2': [2109], 's_11_15': [1491, 4012], 's_11_19': [1660], 's_11_22': [1675], 's_11_11': [4959], 's_13_40': [2048], 's_13_4': [1959], 's_13_22': [2258], 's_13_20': [2348], 's_13_25': [2528], 's_13_13': [4510], 's_15_6': [2526], 's_15_30': [1941], 's_15_29': [2331], 's_15_43': [4179, 1776], 's_15_15': [4072], 's_40_2': [4317], 's_40_4': [4630], 's_40_19': [2035], 's_40_29': [4017], 's_40_40': [2527], 's_43_4': [4554], 's_43_29': [2336], 's_43_35': [4916], 's_43_43': [1328], 's_22_24': [1930], 's_22_4': [1914], 's_22_20': [4602], 's_22_22': [4792], 's_24_2': [1957, 4360], 's_24_30': [1956], 's_24_35': [1915], 's_24_24': [1969], 's_29_4': [4467], 's_29_20': [4392], 's_29_35': [4932], 's_29_29': [2314], 's_2_6': [4090], 's_2_27': [1852], 's_2_30': [4331, 2137], 's_2_2': [1445], 's_4_6': [4693], 's_4_27': [4537, 1479], 's_4_20': [4408], 's_4_25': [2409], 's_4_4': [2559], 's_27_19': [4822], 's_27_27': [1326], 's_30_6': [2001], 's_30_30': [1926], 's_35_6': [2381], 's_35_35': [2217], 's_6_6': [2576], 's_25_25': [4678], 's_20_20': [4257], 's_19_19': [1465]}</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.001415555359439939</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>{0: [2303, 2302, 2301, 1702, 1701, 4167, 4166, 4164, 4163, 4165], 1: [4898, 4527, 4526, 4525, 4524, 1540, 1539, 1538, 4522, 4523], 's_0_1': [4512], 5: [2511, 2512, 2513, 4558, 4944, 4945, 4946, 4557, 2349, 2350, 2351, 4947], 's_0_5': [4168], 8: [4572, 2199, 2259, 2079, 4692, 4690, 4691], 's_0_8': [2304], 12: [1598, 4447, 4450, 4448, 4449], 's_0_12': [1687], 14: [1807, 1806, 4101, 4102, 4106, 4105, 4104, 4103], 's_0_14': [1641], 16: [4192, 1477, 4872, 4224, 4223, 1627, 4871, 4870, 4869, 1555, 1628, 1629, 1630, 4868], 's_0_16': [4358], 18: [4838, 4152, 4839, 2256, 1946, 1944, 1943, 1945, 4271, 4270, 4269, 1942], 's_0_18': [4182], 21: [2165, 2170, 2169, 2166, 2168, 2167], 's_0_21': [4451], 28: [2152, 2469, 2468, 4438, 4437, 1911, 1912, 4435, 2153, 4436], 's_0_28': [4434], 31: [4332, 4123, 2362, 4120, 4122, 2361, 4121, 2196, 4047], 's_0_31': [2406], 32: [4329, 1840, 4147, 4148, 4149, 4045, 1839, 1838, 1837, 1836], 's_0_32': [1851], 33: [4212, 4211, 4210, 1674, 1673, 1672, 4209], 's_0_33': [1686], 34: [4372, 1656, 4466, 4464, 1657, 4373, 1658, 4465, 4463], 's_0_34': [4419], 38: [1761, 4193, 4315, 2015, 4181, 4180, 4194, 4195, 2016, 2017], 's_0_38': [2226], 39: [2435, 2436, 2437, 4423, 4422, 4569, 1718, 4539, 2241, 4540, 4541, 2243, 2242], 's_0_39': [1703], 42: [3987, 3954, 4494, 4493, 1613, 1612, 1611, 4088, 3986, 3985, 1910, 4089], 's_0_42': [4133], 45: [2062, 4376, 4375, 4403, 4840, 2005, 2004, 1792, 4404, 4405, 2003], 's_0_45': [4254], 's_0_0': [1536], 7: [1626, 1373, 1372, 1371, 4033, 4032, 4031, 4030, 4029, 4028, 4027, 1370], 's_1_7': [1358], 10: [4091, 4092, 5003, 5004, 1720, 5005, 2481, 5006, 5007, 2440, 2439, 2438, 4528, 2482, 2483], 's_1_10': [5002], 's_1_12': [1853], 17: [4585, 2075, 4226, 4225, 1869, 1868, 2076, 1867, 1866], 's_1_17': [1883], 's_1_21': [4481, 2138], 23: [1765, 1900, 4885, 4882, 4883, 4884], 's_1_23': [1705], 26: [2288, 2287, 2286, 2285, 1554, 1553, 1552, 3897, 3896, 3895, 1835, 3984, 1551, 1550, 3983], 's_1_26': [4718], 's_1_28': [2378], 36: [4782, 1461, 1462, 2140, 4781, 2049, 1898, 1463, 1464, 4672, 4673, 4674, 1899, 4720], 's_1_36': [4477], 37: [3997, 1519, 1520, 4253, 1524, 1523, 1522, 1521], 's_1_37': [4492], 41: [1991, 1990, 1988, 1989, 4613, 4614, 4615], 's_1_41': [4598], 44: [3912, 3911, 3910, 3909, 3908, 1450, 1449, 1448, 1447, 4207, 4208, 1595, 1596], 's_1_44': [4627], 's_1_45': [1643], 's_1_1': [1631, 5018], 3: [1715, 4752, 4751, 3938, 3939, 3940, 2090, 2094, 2093, 2092, 2091], 's_5_3': [2365], 9: [1793, 2470, 1794, 1795, 4824, 4828, 4827, 4826, 4825], 's_5_9': [4812, 2454], 's_5_10': [4842], 11: [1506, 1492, 4297, 4298, 4267, 1735, 4766, 4765, 4764, 1734, 1733, 1732], 's_5_11': [4929], 13: [2228, 4498, 4497, 1958, 4495, 4496], 's_5_13': [2333], 15: [1821, 1505, 4073, 4078, 4077, 4076, 4075, 4074], 's_5_15': [2497, 2496], 's_5_18': [1780], 's_5_23': [1690], 's_5_28': [2364, 4662, 2484], 's_5_31': [4393, 2407], 40: [2021, 2020, 2019, 4228, 2376, 2377, 4345, 4347, 2392, 4346, 4601, 2078, 2077], 's_5_40': [4258], 43: [4977, 1822, 1823, 2186, 4582, 1824, 1825, 4584, 1826, 4974, 4975, 4583, 4976], 's_5_43': [1676], 's_5_5': [2366, 5022], 's_8_3': [4573, 2529, 2530, 4753], 's_8_13': [2424, 2423], 22: [2272, 2273, 4631, 4793, 4794, 4795, 4796, 2154, 2155], 's_8_22': [4676], 24: [4930, 1970, 1971, 1972, 1975, 1974, 1973], 's_8_24': [4675], 's_8_26': [2289], 29: [2321, 2320, 2319, 3972, 2315, 2316, 2317, 2318], 's_8_29': [4722], 's_8_36': [4660], 's_8_40': [2139], 's_8_45': [2080], 's_8_8': [4737], 2: [2108, 4302, 4301, 3922, 3923, 3924, 3925, 2105, 4299, 4300, 2107, 2106], 's_12_2': [2047], 4: [4452, 2393, 2394, 1748, 4708, 4707, 4642, 4643, 1749, 4706, 2034, 4704, 4705], 's_12_4': [1599], 's_12_13': [2033], 27: [2002, 1420, 1419, 4240, 4239, 4238, 1418, 1417, 4237], 's_12_27': [1433], 's_12_32': [1717], 's_12_34': [4478], 's_12_43': [1583], 's_12_12': [4508, 1568], 's_14_3': [1805], 's_14_7': [4086], 's_14_10': [2270], 's_14_27': [1416], 30: [2136, 4060, 4062, 4061], 's_14_30': [2211], 's_14_34': [1671], 's_14_36': [4087], 's_14_37': [4117, 1476], 's_14_43': [1809, 1808], 's_14_44': [1401], 's_14_14': [1311], 's_16_4': [4628], 's_16_7': [4222], 's_16_10': [2410], 's_16_17': [4688, 4689], 's_16_26': [4418], 's_16_29': [4886, 4887], 's_16_32': [1716], 's_16_33': [4658], 35: [2216, 2230, 4900, 4902, 4901], 's_16_35': [2245, 4991], 's_16_38': [1746], 's_16_42': [4388], 's_16_16': [4313], 6: [4948, 4903, 1986, 4135, 2515, 2514, 2499, 4136, 4137, 4138, 2586, 2587, 4453, 2498], 's_18_6': [1987], 's_18_11': [1810], 's_18_21': [2182], 's_18_23': [4960], 25: [4797, 2330, 3999, 4000, 4001, 4002, 2420, 4798, 2545, 2544, 2543, 2542, 4213, 2421], 's_18_25': [2255], 's_18_27': [1777], 's_18_29': [4272], 's_18_32': [4629], 's_18_35': [4915], 's_18_41': [5065], 's_18_43': [1976, 5095], 's_18_18': [5110], 's_21_4': [4571], 's_21_7': [4046], 's_21_10': [2171], 's_21_17': [4151], 20: [4556, 4407, 2212, 2214, 2213], 's_21_20': [4661], 's_21_25': [3971, 2225], 's_21_36': [4811], 's_21_39': [3941, 3942], 's_21_40': [4421], 's_21_21': [2164], 's_28_2': [1897], 's_28_4': [4603], 's_28_6': [4738], 's_28_27': [4241], 's_28_38': [4150], 's_28_39': [4286], 's_28_41': [4390], 's_28_42': [1913], 's_28_28': [2363], 's_31_2': [2346, 2347], 's_31_6': [2631], 's_31_10': [2466, 4198], 's_31_15': [4048, 2541], 's_31_22': [2271], 's_31_30': [2151], 's_31_38': [2061], 's_31_39': [2257], 's_31_40': [4197], 's_31_31': [2646], 's_32_6': [4134], 's_32_7': [4162], 's_32_9': [4644], 's_32_15': [1566], 's_32_17': [4119], 's_32_23': [1855], 's_32_24': [1841], 's_32_25': [1895], 's_32_36': [4780], 's_32_32': [4044], 's_33_20': [2197], 's_33_29': [4227], 's_33_30': [2121], 's_33_38': [1791], 's_33_39': [4538], 's_33_41': [1659], 's_33_33': [4703], 's_34_3': [1655], 's_34_13': [2018], 's_34_26': [4328], 's_34_27': [1567], 's_34_37': [4462], 's_34_39': [2198], 's_34_42': [1763], 's_34_44': [4357], 's_34_45': [1537], 's_34_34': [1432], 's_38_24': [3970], 's_38_25': [4015], 's_38_26': [2030], 's_38_27': [1881], 's_38_39': [4316], 's_38_40': [2122], 's_38_44': [1642], 's_38_45': [1731, 4284, 4283], 's_38_38': [3835], 's_39_2': [2452], 's_39_7': [2480, 4003], 's_39_10': [4363], 's_39_15': [2240], 's_39_17': [4196], 's_39_22': [4646], 's_39_36': [1854, 4570], 's_39_41': [1688], 's_39_39': [4511], 's_42_2': [1775], 's_42_3': [1790], 's_42_13': [4555, 1928], 's_42_17': [1865], 's_42_25': [2045], 's_42_27': [1597], 's_42_29': [2180, 3956, 2300], 's_42_36': [4058, 4057], 's_42_37': [4433], 's_42_43': [1778], 's_42_42': [4479], 's_45_2': [4480], 's_45_9': [2110], 's_45_11': [4359], 's_45_13': [2183], 's_45_20': [4361], 's_45_24': [4855], 's_45_37': [1507], 's_45_40': [1927], 's_45_45': [4374], 's_7_3': [1730], 's_7_6': [2031], 's_7_27': [4597], 's_7_29': [2405], 's_7_37': [4177], 's_7_40': [2450, 2451], 's_7_43': [4567], 's_7_7': [4252], 's_10_2': [2467], 's_10_4': [4618], 's_10_9': [2471], 's_10_11': [4988], 's_10_25': [4287, 4288], 's_10_29': [4992], 's_10_40': [4348], 's_10_43': [2156], 's_10_10': [2603], 's_17_4': [4719], 's_17_6': [2046], 's_17_36': [4600], 's_17_40': [4344], 's_17_17': [4509], 's_23_9': [4823], 's_23_27': [1435], 's_23_35': [2065], 's_23_41': [1764], 's_23_44': [4867], 's_23_23': [1405], 's_26_2': [1565], 's_26_4': [4377], 's_26_11': [4763], 's_26_15': [3982], 19: [1645, 4807, 4810, 4809, 4808], 's_26_19': [4748], 's_26_20': [4587], 's_26_25': [1760], 's_26_30': [2135], 's_26_44': [2360], 's_26_26': [3865], 's_36_3': [4721], 's_36_9': [2335], 's_36_19': [1644], 's_36_22': [4841], 's_36_25': [4783], 's_36_35': [2229], 's_36_36': [4432], 's_37_2': [3907], 's_37_11': [4342], 's_37_15': [1504], 's_37_22': [4778], 's_37_27': [4687], 's_37_37': [3772], 's_41_9': [4599], 's_41_11': [4750], 's_41_13': [4420], 's_41_35': [2006], 's_41_43': [1494], 's_41_41': [1508], 's_44_2': [3926], 's_44_11': [4327], 's_44_24': [1955], 's_44_29': [2390], 's_44_44': [1297], 's_3_2': [1625], 's_3_4': [4645], 's_3_6': [1985], 's_3_11': [2124], 's_3_22': [4856, 2185], 's_3_30': [2060], 's_3_3': [2095], 's_9_6': [2500], 's_9_4': [2395], 's_9_19': [2125], 's_9_25': [4813], 's_9_43': [1856, 4914], 's_9_9': [4918], 's_11_2': [2109], 's_11_15': [1491, 4012], 's_11_19': [1660], 's_11_22': [1675], 's_11_11': [4959], 's_13_40': [2048], 's_13_4': [1959], 's_13_22': [2258], 's_13_20': [2348], 's_13_25': [2528], 's_13_13': [4510], 's_15_6': [2526], 's_15_30': [1941], 's_15_29': [2331], 's_15_43': [4179, 1776], 's_15_15': [4072], 's_40_2': [4317], 's_40_4': [4630], 's_40_19': [2035], 's_40_29': [4017], 's_40_40': [2527], 's_43_4': [4554], 's_43_29': [2336], 's_43_35': [4916], 's_43_43': [1328], 's_22_24': [1930], 's_22_4': [1914], 's_22_20': [4602], 's_22_22': [4792], 's_24_2': [1957, 4360], 's_24_30': [1956], 's_24_35': [1915], 's_24_24': [1969], 's_29_4': [4467], 's_29_20': [4392], 's_29_35': [4932], 's_29_29': [2314], 's_2_6': [4090], 's_2_27': [1852], 's_2_30': [4331, 2137], 's_2_2': [1445], 's_4_6': [4693], 's_4_27': [4537, 1479], 's_4_20': [4408], 's_4_25': [2409], 's_4_4': [2559], 's_27_19': [4822], 's_27_27': [1326], 's_30_6': [2001], 's_30_30': [1926], 's_35_6': [2381], 's_35_35': [2217], 's_6_6': [2576], 's_25_25': [4678], 's_20_20': [4257], 's_19_19': [1465]}</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.001415555359439939</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>{0: [1855, 1854, 4553, 4554], 4: [4477, 1583, 4657, 1584], 8: [4854, 1615, 4853], 9: [1628, 4568, 4688, 1629], 11: [1840, 4374, 4373, 1839, 1838], 14: [1717, 1720, 1719, 4478, 1718], 18: [1973, 4435, 1853, 4358, 4359], 27: [4569, 1673, 1674], 33: [1703, 1614, 4642, 1702, 4644, 4643], 42: [1598, 4838, 1599, 1600], 44: [1748, 4539, 4419, 1810, 1809], 45: [1883, 1884, 4823, 4824], 10: [1479, 4794, 4793, 1480], 12: [4627, 1868, 4628, 4629], 15: [1567, 1568, 4434, 4432, 4433], 17: [4747, 1825, 4748, 4749], 22: [4462, 4463, 4464], 29: [1735, 1733, 1734, 4658], 31: [4719, 4717, 4718], 38: [1508, 1509, 1465, 4822], 40: [4494, 4492, 4493], 41: [1463, 1464, 4674, 4673, 4672], 46: [1555, 1552, 1553, 1554], 2: [4839, 1944, 1945], 16: [4780, 4778, 4779], 19: [1841, 1811, 1765, 1870, 4914], 24: [4372, 4808, 1448, 4807, 1449, 1450], 39: [1975, 4870, 4868, 4869], 1: [1646, 4538, 1643, 1644, 1645], 28: [1539, 4734, 4733], 30: [4885, 1630, 4882, 4884, 4883], 35: [1660, 1659, 1658], 7: [1897, 1898, 4659, 1900, 1899], 13: [1824, 4449, 4404, 1823], 20: [1732, 4447, 4448], 23: [1913, 1914, 4809, 4898, 4899, 1780], 6: [4524, 1779, 1778], 25: [4585, 1688, 4583, 4584], 36: [4507, 1613, 4509, 4508], 37: [4598, 2004, 4599, 4600], 5: [4389, 1808, 4479], 34: [4735, 4689, 4690, 1974], 3: [4705, 4703, 1869, 4704], 26: [4765, 1749, 1675, 4764], 32: [1764, 1763], 43: [4523, 4522, 4763, 1523, 1524], 21: [1793, 4614, 1795, 1794]}</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.01006556018620068</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.01330960046732281</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>{0: [1855, 1854, 4553, 4554], 4: [4477, 1583, 4657, 1584], 8: [4854, 1615, 4853], 9: [1628, 4568, 4688, 1629], 11: [1840, 4374, 4373, 1839, 1838], 14: [1717, 1720, 1719, 4478, 1718], 18: [1973, 4435, 1853, 4358, 4359], 27: [4569, 1673, 1674], 33: [1703, 1614, 4642, 1702, 4644, 4643], 42: [1598, 4838, 1599, 1600], 44: [1748, 4539, 4419, 1810, 1809], 45: [1883, 1884, 4823, 4824], 10: [1479, 4794, 4793, 1480], 12: [4627, 1868, 4628, 4629], 15: [1567, 1568, 4434, 4432, 4433], 17: [4747, 1825, 4748, 4749], 22: [4462, 4463, 4464], 29: [1735, 1733, 1734, 4658], 31: [4719, 4717, 4718], 38: [1508, 1509, 1465, 4822], 40: [4494, 4492, 4493], 41: [1463, 1464, 4674, 4673, 4672], 46: [1555, 1552, 1553, 1554], 2: [4839, 1944, 1945], 16: [4780, 4778, 4779], 19: [1841, 1811, 1765, 1870, 4914], 24: [4372, 4808, 1448, 4807, 1449, 1450], 39: [1975, 4870, 4868, 4869], 1: [1646, 4538, 1643, 1644, 1645], 28: [1539, 4734, 4733], 30: [4885, 1630, 4882, 4884, 4883], 35: [1660, 1659, 1658], 7: [1897, 1898, 4659, 1900, 1899], 13: [1824, 4449, 4404, 1823], 20: [1732, 4447, 4448], 23: [1913, 1914, 4809, 4898, 4899, 1780], 6: [4524, 1779, 1778], 25: [4585, 1688, 4583, 4584], 36: [4507, 1613, 4509, 4508], 37: [4598, 2004, 4599, 4600], 5: [4389, 1808, 4479], 34: [4735, 4689, 4690, 1974], 3: [4705, 4703, 1869, 4704], 26: [4765, 1749, 1675, 4764], 32: [1764, 1763], 43: [4523, 4522, 4763, 1523, 1524], 21: [1793, 4614, 1795, 1794]}</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0.01006556018620068</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.01330960046732281</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>{0: [2420, 2225, 3973, 3970, 3971, 3972], 4: [2224, 2015, 3098, 3762, 3099, 3100, 2011, 2012, 2013, 2014, 3760, 3761], 's_0_4': [2404, 2405], 8: [1628, 2330, 2331, 4212, 2212, 2213, 2272, 4464, 4463, 4465, 4466], 's_0_8': [2315], 9: [2435, 2434, 2570, 3823, 3191, 3192, 2494, 2493, 2492, 2491, 3313, 2476], 's_0_9': [2450], 11: [2001, 1746, 2615, 2616, 4209, 4210, 2002, 4270, 4271, 4272, 2585, 2586, 4273], 's_0_11': [3974], 14: [1893, 1894, 1578, 1579, 3818, 3819, 2660, 3943, 3942, 3941, 2180, 3821, 3820], 's_0_14': [2195], 18: [2539, 4513, 2543, 2540, 2542, 2541], 's_0_18': [4033], 27: [4453, 2528, 2527, 2526, 2525, 3883, 3882, 3880, 1803, 1804, 3774, 3775, 2089, 3881], 's_0_27': [4078], 33: [4091, 1973, 2181, 4061, 1972, 1971, 4060, 1865, 3789, 1864], 's_0_33': [3969], 42: [4077, 4076, 2061, 2057, 2058, 2059, 2060], 's_0_42': [4062], 44: [2312, 3597, 2258, 4392, 2313, 3672, 2253, 2257, 2254, 2256, 2255], 's_0_44': [4032], 45: [2266, 2267, 2268, 3894, 3895, 4138, 4018, 4017, 2270, 3896, 3897, 2556, 2269], 's_0_45': [2555], 's_0_0': [2135], 's_4_9': [3763], 10: [1853, 2523, 1852, 1851, 1850, 3538, 3537, 3536, 3535, 1849, 1848], 's_4_10': [3580, 1998], 12: [1710, 3203, 1606, 2046, 1607, 1608, 1609, 1610, 1611, 4178, 4182, 4181, 4179, 4180], 's_4_12': [1605], 's_4_14': [3836], 15: [3853, 3852, 4153, 4152, 2286, 2179, 4197, 3730, 3731, 2284, 2285], 's_4_15': [2419], 17: [2090, 1802, 1667, 1561, 3293, 3294, 3986, 2211, 1668, 2210, 2209, 2208, 3296, 3295, 2207], 's_4_17': [1801], 22: [1836, 4045, 1970, 3253, 3252, 3251, 3250, 1966, 1967, 1968, 1969], 's_4_22': [2026], 29: [3683, 1758, 3684, 3685, 2687, 3494, 2568, 1999, 3805, 2569, 3808, 3807, 3806], 's_4_29': [2359], 31: [2045, 4031, 2120, 1621, 3940, 3939, 3938, 1622, 1623, 1624, 1625], 's_4_31': [3985], 38: [2401, 1817, 3383, 3384, 3385, 3387, 3386], 's_4_38': [1816], 40: [1576, 3263, 3264, 3265, 2191, 3357, 2192, 3281, 1892, 1891, 3280], 's_4_40': [1575], 41: [4419, 4420, 4421, 4422, 4423, 2407, 2406, 4122, 2481, 3343, 2480, 2479, 2478, 3416, 3417, 2477], 's_4_41': [3777], 46: [3908, 1771, 1773, 1774, 1775, 3910, 2436, 4228, 4227, 3909, 4226, 1772, 2106, 2105], 's_4_46': [1770], 's_4_4': [3097], 2: [3458, 1658, 1657, 1656, 3507, 3506, 3505, 3504, 1655, 1654, 1653], 's_8_2': [4478, 1613], 's_8_10': [1838], 16: [3928, 2342, 2343, 3927, 2347, 2346, 2345, 2344], 's_8_16': [4137], 19: [3508, 3988, 3987, 3462, 2388, 2390, 2389], 's_8_19': [3957], 24: [3415, 1952, 3792, 1687, 1686, 1685, 3355, 1937, 1938, 3791, 3790, 1939, 3759, 3758, 1684], 's_8_24': [4373], 's_8_33': [4092], 39: [4229, 2717, 3674, 2196, 2707, 2718, 4047, 4048, 4049, 2703, 2704, 2705, 2706], 's_8_39': [2197], 's_8_44': [4002], 's_8_45': [2271], 's_8_8': [4433], 1: [1491, 1490, 1489, 1488, 3562, 3563, 3564, 2582, 3565, 3566, 3567, 3568], 's_9_1': [3403], 's_9_14': [2599, 3913], 's_9_15': [3854], 's_9_27': [3838], 28: [2146, 2147, 2152, 2151, 2150, 2283, 3581, 2148, 2149], 's_9_28': [3207, 3206], 's_9_29': [3553], 30: [2117, 3430, 3434, 3433, 3431, 3432], 's_9_30': [3314, 2641, 2642], 35: [2567, 1762, 1761, 1760, 1759, 3699, 3700, 3701, 2043, 2042, 2041, 3329, 3326, 3327, 3328], 's_9_35': [2522], 's_9_38': [2416], 's_9_40': [2206], 's_9_46': [4168, 2571], 's_9_9': [2250, 3117], 's_11_2': [4118], 7: [2521, 3344, 3223, 2630, 2629, 2626, 2627, 2628], 's_11_7': [4093], 13: [2178, 3524, 3523, 3522, 3521, 3520, 4059, 1671, 1670, 1669, 3714, 1728, 3609, 1833, 1832], 's_11_13': [1866, 4164, 1821], 's_11_15': [2601], 's_11_19': [2600], 20: [3757, 1564, 1565, 1566, 2437, 4163, 2468, 4452, 4451, 1701, 1702, 4448, 4449, 4450], 's_11_20': [1987, 1988], 's_11_22': [4088, 4089, 1910], 23: [2394, 2393, 2482, 4393, 2512, 3598, 2508, 2509, 2510, 2511], 's_11_23': [2662, 4303], 's_11_24': [4103], 's_11_28': [2137], 's_11_35': [4224], 's_11_44': [2287], 's_11_45': [2631], 's_11_11': [2587], 6: [3732, 1943, 1942, 2121, 2122, 4360, 2464, 2465, 2466, 2467, 4363, 4362, 4361], 's_14_6': [3899, 3898], 's_14_12': [3533], 's_14_13': [1549, 1548, 3653], 's_14_16': [2495], 's_14_18': [3958], 's_14_19': [2360], 's_14_22': [3610], 25: [3804, 3534, 3668, 3669, 1790, 1789, 1786, 1787, 1788], 's_14_25': [1639, 3803], 36: [3414, 4284, 1881, 1880, 1877, 1878, 1879], 's_14_36': [3834], 37: [4015, 4014, 1745, 3748, 3747, 3746, 3745, 1744, 3743, 3744], 's_14_37': [2659], 's_14_39': [4004], 's_14_40': [1577], 's_14_42': [2240], 's_14_44': [3911], 's_14_14': [3727], 5: [1895, 4104, 4374, 2438, 4497, 1806, 1807, 1808, 4496, 4495, 4494], 's_18_5': [4498], 's_18_15': [3868], 's_18_20': [2483], 's_18_27': [4378], 34: [3689, 2463, 3687, 3688], 's_18_34': [3658], 's_18_46': [4213], 's_18_18': [2453], 's_27_1': [1818], 3: [1909, 3428, 2358, 2357, 3312, 3311, 3310, 3729, 1908, 1907, 1906, 3325, 3429, 1847], 's_27_3': [1682, 3519], 's_27_15': [2449], 's_27_20': [4528], 's_27_22': [3925], 's_27_25': [3474], 26: [1923, 1924, 4511, 4512, 1925, 4000, 2016, 2017, 4510, 4509, 2018], 's_27_26': [3549], 32: [4167, 3776, 2301, 2300, 2297, 2298, 3718, 3717, 2299], 's_27_32': [2239], 's_27_27': [4348], 's_33_10': [4225], 's_33_12': [1926], 's_33_13': [3788], 's_33_17': [4001], 's_33_20': [1958], 's_33_24': [1834], 's_33_25': [3924], 's_33_26': [4375], 's_33_28': [2136], 's_33_32': [4106], 's_33_36': [3850], 's_33_37': [1819], 43: [4480, 2078, 3865, 3866, 3656, 2071, 2072, 2077, 2076, 2075, 2074, 2073], 's_33_43': [4120], 's_33_45': [1729], 's_33_33': [1714], 's_42_1': [3550], 's_42_2': [2087, 3400], 's_42_10': [4075], 's_42_12': [4241], 's_42_15': [3716], 's_42_16': [2361], 's_42_26': [4150], 's_42_29': [3686], 's_42_35': [3595], 's_42_42': [3625], 's_44_1': [2328], 's_44_5': [4481], 's_44_13': [2373], 's_44_16': [4257], 's_44_17': [3612, 3611], 's_44_19': [3642], 's_44_20': [4542, 4543], 21: [3460, 2165, 4255, 3851, 4287, 4286, 2167, 4256, 2028, 2029, 2030, 2032, 2031], 's_44_21': [2317], 's_44_23': [4557], 's_44_26': [2198], 's_44_28': [4316], 's_44_34': [2433], 's_44_37': [2238], 's_44_39': [3673], 's_44_40': [3596, 2163, 2162], 's_44_41': [2363], 's_44_45': [3702], 's_44_44': [4332], 's_45_16': [3282], 's_45_21': [3956], 's_45_23': [4108], 's_45_25': [3879], 's_45_26': [1940], 's_45_37': [1985, 1984], 's_45_38': [3267], 's_45_40': [3236], 's_45_45': [3893], 's_10_23': [3628], 's_10_29': [3583], 's_10_35': [4329], 's_10_19': [2402], 's_10_41': [4435], 's_10_25': [3459], 's_10_10': [1862], 's_12_1': [3608, 1563], 's_12_2': [3503], 's_12_3': [3233, 1742, 3354, 1681], 's_12_5': [1822], 's_12_21': [4195], 's_12_25': [1791], 's_12_29': [3593], 's_12_32': [2421], 's_12_36': [1911], 's_12_40': [3308], 's_12_41': [2047], 's_12_46': [3623, 3624], 's_12_12': [1627], 's_15_22': [1954], 's_15_35': [2088], 's_15_46': [2496], 's_15_41': [4198, 2451], 's_15_13': [2133, 3671], 's_15_21': [2377], 's_15_24': [2119], 's_15_43': [4196], 's_15_15': [2316], 's_17_1': [3548], 's_17_2': [1652], 's_17_24': [1997], 's_17_28': [3641], 's_17_31': [3158], 's_17_38': [1726], 's_17_39': [4136], 's_17_43': [4166], 's_17_46': [4151], 's_17_17': [1560], 's_22_1': [2581], 's_22_5': [4119], 's_22_7': [2566], 's_22_24': [1936, 3175], 's_22_35': [2056], 's_22_36': [1837], 's_22_46': [3249], 's_22_22': [3254, 2731], 's_29_1': [2553], 's_29_3': [1757], 's_29_6': [3793], 's_29_7': [3719], 's_29_24': [2104], 's_29_25': [1518], 's_29_26': [3670], 's_29_30': [2612], 's_29_32': [2329], 's_29_35': [3359], 's_29_36': [1863], 's_29_37': [1698], 's_29_39': [3479], 's_29_29': [3374], 's_31_46': [1640], 's_31_3': [1592, 3473], 's_31_26': [1955], 's_31_6': [4090], 's_31_24': [3833], 's_31_28': [4046], 's_31_38': [1637], 's_31_43': [4105], 's_31_31': [3937], 's_38_30': [1922], 's_38_36': [3444], 's_38_41': [2446], 's_38_16': [3372], 's_38_25': [3399], 's_38_43': [3370], 's_38_38': [2221], 's_40_13': [3340], 's_40_21': [2027, 3341], 's_40_24': [1876, 3219], 's_40_25': [3234], 's_40_32': [3401], 's_40_43': [2086], 's_40_40': [3132], 's_41_20': [1867], 's_41_2': [2327], 's_41_7': [3418], 's_41_13': [2432], 's_41_24': [4434], 's_41_26': [1793], 's_41_28': [2153], 's_41_32': [4121], 's_41_41': [4437], 's_46_1': [3907], 's_46_20': [2226, 2227], 's_46_23': [4258], 's_46_36': [3594], 's_46_3': [3309], 's_46_16': [2362], 's_46_24': [3835, 2000], 's_46_25': [3189], 's_46_28': [2107, 4331], 's_46_39': [4183, 4184], 's_46_43': [2091], 's_46_46': [3324], 's_2_30': [2237], 's_2_3': [2102, 2101], 's_2_19': [2222, 3461], 's_2_37': [3864], 's_2_2': [4523], 's_16_23': [4302], 's_16_30': [3447], 's_16_3': [3492], 's_16_19': [2375], 's_16_7': [2614], 's_16_16': [2348], 's_19_3': [3582], 's_19_24': [2374], 's_19_19': [3703], 's_24_20': [4358], 's_24_30': [1982], 's_24_35': [4404], 's_24_36': [3490], 's_24_43': [2164], 's_24_28': [2134], 's_24_24': [3998, 1535], 's_39_35': [2702], 's_39_34': [2719], 's_39_7': [3884], 's_39_39': [4304], 's_1_20': [4162], 's_1_23': [2538], 's_1_30': [2447], 's_1_35': [3698], 's_1_36': [4132, 4133, 4134], 's_1_1': [1517], 's_28_21': [3926], 's_28_32': [2282], 's_28_34': [2223], 's_28_28': [3176], 's_30_7': [3449], 's_30_35': [2387], 's_30_43': [2118], 's_30_30': [2747], 's_35_3': [2177], 's_35_5': [4194], 's_35_21': [4254], 's_35_25': [4044], 's_35_26': [1763], 's_35_37': [3999], 's_35_43': [3491], 's_35_35': [4344], 's_7_23': [3778], 's_7_13': [3539], 's_7_7': [3224], 's_13_3': [3369], 's_13_5': [4074], 's_13_21': [1953, 3640], 's_13_34': [2688], 's_13_13': [1713], 's_20_20': [4447], 's_23_5': [4647], 's_23_6': [2422], 's_23_21': [2392], 's_23_26': [2378], 's_23_37': [3733], 's_23_23': [4394], 's_6_36': [4240], 's_6_26': [1928], 's_6_5': [2003], 's_6_21': [4300, 1957], 's_6_32': [2302], 's_6_34': [2418], 's_6_43': [4346], 's_6_6': [2558], 's_25_36': [3639], 's_25_37': [4029], 's_25_25': [1593], 's_36_5': [4269], 's_36_21': [1927], 's_36_36': [3413], 's_37_3': [3728], 's_37_26': [3655, 1743, 3654], 's_37_32': [2448], 's_37_43': [2194], 's_37_37': [2644], 's_5_5': [2063], 's_34_34': [2554], 's_3_26': [3715], 's_3_3': [1727, 3398], 's_26_21': [2033], 's_26_43': [4436], 's_26_26': [1898], 's_32_32': [3477], 's_43_43': [3266], 's_21_21': [2182]}</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.0002963917525773196</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0008769516897344889</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>{0: [2420, 2225, 3973, 3970, 3971, 3972], 4: [2224, 2015, 3098, 3762, 3099, 3100, 2011, 2012, 2013, 2014, 3760, 3761], 's_0_4': [2404, 2405], 8: [1628, 2330, 2331, 4212, 2212, 2213, 2272, 4464, 4463, 4465, 4466], 's_0_8': [2315], 9: [2435, 2434, 2570, 3823, 3191, 3192, 2494, 2493, 2492, 2491, 3313, 2476], 's_0_9': [2450], 11: [2001, 1746, 2615, 2616, 4209, 4210, 2002, 4270, 4271, 4272, 2585, 2586, 4273], 's_0_11': [3974], 14: [1893, 1894, 1578, 1579, 3818, 3819, 2660, 3943, 3942, 3941, 2180, 3821, 3820], 's_0_14': [2195], 18: [2539, 4513, 2543, 2540, 2542, 2541], 's_0_18': [4033], 27: [4453, 2528, 2527, 2526, 2525, 3883, 3882, 3880, 1803, 1804, 3774, 3775, 2089, 3881], 's_0_27': [4078], 33: [4091, 1973, 2181, 4061, 1972, 1971, 4060, 1865, 3789, 1864], 's_0_33': [3969], 42: [4077, 4076, 2061, 2057, 2058, 2059, 2060], 's_0_42': [4062], 44: [2312, 3597, 2258, 4392, 2313, 3672, 2253, 2257, 2254, 2256, 2255], 's_0_44': [4032], 45: [2266, 2267, 2268, 3894, 3895, 4138, 4018, 4017, 2270, 3896, 3897, 2556, 2269], 's_0_45': [2555], 's_0_0': [2135], 's_4_9': [3763], 10: [1853, 2523, 1852, 1851, 1850, 3538, 3537, 3536, 3535, 1849, 1848], 's_4_10': [3580, 1998], 12: [1710, 3203, 1606, 2046, 1607, 1608, 1609, 1610, 1611, 4178, 4182, 4181, 4179, 4180], 's_4_12': [1605], 's_4_14': [3836], 15: [3853, 3852, 4153, 4152, 2286, 2179, 4197, 3730, 3731, 2284, 2285], 's_4_15': [2419], 17: [2090, 1802, 1667, 1561, 3293, 3294, 3986, 2211, 1668, 2210, 2209, 2208, 3296, 3295, 2207], 's_4_17': [1801], 22: [1836, 4045, 1970, 3253, 3252, 3251, 3250, 1966, 1967, 1968, 1969], 's_4_22': [2026], 29: [3683, 1758, 3684, 3685, 2687, 3494, 2568, 1999, 3805, 2569, 3808, 3807, 3806], 's_4_29': [2359], 31: [2045, 4031, 2120, 1621, 3940, 3939, 3938, 1622, 1623, 1624, 1625], 's_4_31': [3985], 38: [2401, 1817, 3383, 3384, 3385, 3387, 3386], 's_4_38': [1816], 40: [1576, 3263, 3264, 3265, 2191, 3357, 2192, 3281, 1892, 1891, 3280], 's_4_40': [1575], 41: [4419, 4420, 4421, 4422, 4423, 2407, 2406, 4122, 2481, 3343, 2480, 2479, 2478, 3416, 3417, 2477], 's_4_41': [3777], 46: [3908, 1771, 1773, 1774, 1775, 3910, 2436, 4228, 4227, 3909, 4226, 1772, 2106, 2105], 's_4_46': [1770], 's_4_4': [3097], 2: [3458, 1658, 1657, 1656, 3507, 3506, 3505, 3504, 1655, 1654, 1653], 's_8_2': [4478, 1613], 's_8_10': [1838], 16: [3928, 2342, 2343, 3927, 2347, 2346, 2345, 2344], 's_8_16': [4137], 19: [3508, 3988, 3987, 3462, 2388, 2390, 2389], 's_8_19': [3957], 24: [3415, 1952, 3792, 1687, 1686, 1685, 3355, 1937, 1938, 3791, 3790, 1939, 3759, 3758, 1684], 's_8_24': [4373], 's_8_33': [4092], 39: [4229, 2717, 3674, 2196, 2707, 2718, 4047, 4048, 4049, 2703, 2704, 2705, 2706], 's_8_39': [2197], 's_8_44': [4002], 's_8_45': [2271], 's_8_8': [4433], 1: [1491, 1490, 1489, 1488, 3562, 3563, 3564, 2582, 3565, 3566, 3567, 3568], 's_9_1': [3403], 's_9_14': [2599, 3913], 's_9_15': [3854], 's_9_27': [3838], 28: [2146, 2147, 2152, 2151, 2150, 2283, 3581, 2148, 2149], 's_9_28': [3207, 3206], 's_9_29': [3553], 30: [2117, 3430, 3434, 3433, 3431, 3432], 's_9_30': [3314, 2641, 2642], 35: [2567, 1762, 1761, 1760, 1759, 3699, 3700, 3701, 2043, 2042, 2041, 3329, 3326, 3327, 3328], 's_9_35': [2522], 's_9_38': [2416], 's_9_40': [2206], 's_9_46': [4168, 2571], 's_9_9': [2250, 3117], 's_11_2': [4118], 7: [2521, 3344, 3223, 2630, 2629, 2626, 2627, 2628], 's_11_7': [4093], 13: [2178, 3524, 3523, 3522, 3521, 3520, 4059, 1671, 1670, 1669, 3714, 1728, 3609, 1833, 1832], 's_11_13': [1866, 4164, 1821], 's_11_15': [2601], 's_11_19': [2600], 20: [3757, 1564, 1565, 1566, 2437, 4163, 2468, 4452, 4451, 1701, 1702, 4448, 4449, 4450], 's_11_20': [1987, 1988], 's_11_22': [4088, 4089, 1910], 23: [2394, 2393, 2482, 4393, 2512, 3598, 2508, 2509, 2510, 2511], 's_11_23': [2662, 4303], 's_11_24': [4103], 's_11_28': [2137], 's_11_35': [4224], 's_11_44': [2287], 's_11_45': [2631], 's_11_11': [2587], 6: [3732, 1943, 1942, 2121, 2122, 4360, 2464, 2465, 2466, 2467, 4363, 4362, 4361], 's_14_6': [3899, 3898], 's_14_12': [3533], 's_14_13': [1549, 1548, 3653], 's_14_16': [2495], 's_14_18': [3958], 's_14_19': [2360], 's_14_22': [3610], 25: [3804, 3534, 3668, 3669, 1790, 1789, 1786, 1787, 1788], 's_14_25': [1639, 3803], 36: [3414, 4284, 1881, 1880, 1877, 1878, 1879], 's_14_36': [3834], 37: [4015, 4014, 1745, 3748, 3747, 3746, 3745, 1744, 3743, 3744], 's_14_37': [2659], 's_14_39': [4004], 's_14_40': [1577], 's_14_42': [2240], 's_14_44': [3911], 's_14_14': [3727], 5: [1895, 4104, 4374, 2438, 4497, 1806, 1807, 1808, 4496, 4495, 4494], 's_18_5': [4498], 's_18_15': [3868], 's_18_20': [2483], 's_18_27': [4378], 34: [3689, 2463, 3687, 3688], 's_18_34': [3658], 's_18_46': [4213], 's_18_18': [2453], 's_27_1': [1818], 3: [1909, 3428, 2358, 2357, 3312, 3311, 3310, 3729, 1908, 1907, 1906, 3325, 3429, 1847], 's_27_3': [1682, 3519], 's_27_15': [2449], 's_27_20': [4528], 's_27_22': [3925], 's_27_25': [3474], 26: [1923, 1924, 4511, 4512, 1925, 4000, 2016, 2017, 4510, 4509, 2018], 's_27_26': [3549], 32: [4167, 3776, 2301, 2300, 2297, 2298, 3718, 3717, 2299], 's_27_32': [2239], 's_27_27': [4348], 's_33_10': [4225], 's_33_12': [1926], 's_33_13': [3788], 's_33_17': [4001], 's_33_20': [1958], 's_33_24': [1834], 's_33_25': [3924], 's_33_26': [4375], 's_33_28': [2136], 's_33_32': [4106], 's_33_36': [3850], 's_33_37': [1819], 43: [4480, 2078, 3865, 3866, 3656, 2071, 2072, 2077, 2076, 2075, 2074, 2073], 's_33_43': [4120], 's_33_45': [1729], 's_33_33': [1714], 's_42_1': [3550], 's_42_2': [2087, 3400], 's_42_10': [4075], 's_42_12': [4241], 's_42_15': [3716], 's_42_16': [2361], 's_42_26': [4150], 's_42_29': [3686], 's_42_35': [3595], 's_42_42': [3625], 's_44_1': [2328], 's_44_5': [4481], 's_44_13': [2373], 's_44_16': [4257], 's_44_17': [3612, 3611], 's_44_19': [3642], 's_44_20': [4542, 4543], 21: [3460, 2165, 4255, 3851, 4287, 4286, 2167, 4256, 2028, 2029, 2030, 2032, 2031], 's_44_21': [2317], 's_44_23': [4557], 's_44_26': [2198], 's_44_28': [4316], 's_44_34': [2433], 's_44_37': [2238], 's_44_39': [3673], 's_44_40': [3596, 2163, 2162], 's_44_41': [2363], 's_44_45': [3702], 's_44_44': [4332], 's_45_16': [3282], 's_45_21': [3956], 's_45_23': [4108], 's_45_25': [3879], 's_45_26': [1940], 's_45_37': [1985, 1984], 's_45_38': [3267], 's_45_40': [3236], 's_45_45': [3893], 's_10_23': [3628], 's_10_29': [3583], 's_10_35': [4329], 's_10_19': [2402], 's_10_41': [4435], 's_10_25': [3459], 's_10_10': [1862], 's_12_1': [3608, 1563], 's_12_2': [3503], 's_12_3': [3233, 1742, 3354, 1681], 's_12_5': [1822], 's_12_21': [4195], 's_12_25': [1791], 's_12_29': [3593], 's_12_32': [2421], 's_12_36': [1911], 's_12_40': [3308], 's_12_41': [2047], 's_12_46': [3623, 3624], 's_12_12': [1627], 's_15_22': [1954], 's_15_35': [2088], 's_15_46': [2496], 's_15_41': [4198, 2451], 's_15_13': [2133, 3671], 's_15_21': [2377], 's_15_24': [2119], 's_15_43': [4196], 's_15_15': [2316], 's_17_1': [3548], 's_17_2': [1652], 's_17_24': [1997], 's_17_28': [3641], 's_17_31': [3158], 's_17_38': [1726], 's_17_39': [4136], 's_17_43': [4166], 's_17_46': [4151], 's_17_17': [1560], 's_22_1': [2581], 's_22_5': [4119], 's_22_7': [2566], 's_22_24': [1936, 3175], 's_22_35': [2056], 's_22_36': [1837], 's_22_46': [3249], 's_22_22': [3254, 2731], 's_29_1': [2553], 's_29_3': [1757], 's_29_6': [3793], 's_29_7': [3719], 's_29_24': [2104], 's_29_25': [1518], 's_29_26': [3670], 's_29_30': [2612], 's_29_32': [2329], 's_29_35': [3359], 's_29_36': [1863], 's_29_37': [1698], 's_29_39': [3479], 's_29_29': [3374], 's_31_46': [1640], 's_31_3': [1592, 3473], 's_31_26': [1955], 's_31_6': [4090], 's_31_24': [3833], 's_31_28': [4046], 's_31_38': [1637], 's_31_43': [4105], 's_31_31': [3937], 's_38_30': [1922], 's_38_36': [3444], 's_38_41': [2446], 's_38_16': [3372], 's_38_25': [3399], 's_38_43': [3370], 's_38_38': [2221], 's_40_13': [3340], 's_40_21': [2027, 3341], 's_40_24': [1876, 3219], 's_40_25': [3234], 's_40_32': [3401], 's_40_43': [2086], 's_40_40': [3132], 's_41_20': [1867], 's_41_2': [2327], 's_41_7': [3418], 's_41_13': [2432], 's_41_24': [4434], 's_41_26': [1793], 's_41_28': [2153], 's_41_32': [4121], 's_41_41': [4437], 's_46_1': [3907], 's_46_20': [2226, 2227], 's_46_23': [4258], 's_46_36': [3594], 's_46_3': [3309], 's_46_16': [2362], 's_46_24': [3835, 2000], 's_46_25': [3189], 's_46_28': [2107, 4331], 's_46_39': [4183, 4184], 's_46_43': [2091], 's_46_46': [3324], 's_2_30': [2237], 's_2_3': [2102, 2101], 's_2_19': [2222, 3461], 's_2_37': [3864], 's_2_2': [4523], 's_16_23': [4302], 's_16_30': [3447], 's_16_3': [3492], 's_16_19': [2375], 's_16_7': [2614], 's_16_16': [2348], 's_19_3': [3582], 's_19_24': [2374], 's_19_19': [3703], 's_24_20': [4358], 's_24_30': [1982], 's_24_35': [4404], 's_24_36': [3490], 's_24_43': [2164], 's_24_28': [2134], 's_24_24': [3998, 1535], 's_39_35': [2702], 's_39_34': [2719], 's_39_7': [3884], 's_39_39': [4304], 's_1_20': [4162], 's_1_23': [2538], 's_1_30': [2447], 's_1_35': [3698], 's_1_36': [4132, 4133, 4134], 's_1_1': [1517], 's_28_21': [3926], 's_28_32': [2282], 's_28_34': [2223], 's_28_28': [3176], 's_30_7': [3449], 's_30_35': [2387], 's_30_43': [2118], 's_30_30': [2747], 's_35_3': [2177], 's_35_5': [4194], 's_35_21': [4254], 's_35_25': [4044], 's_35_26': [1763], 's_35_37': [3999], 's_35_43': [3491], 's_35_35': [4344], 's_7_23': [3778], 's_7_13': [3539], 's_7_7': [3224], 's_13_3': [3369], 's_13_5': [4074], 's_13_21': [1953, 3640], 's_13_34': [2688], 's_13_13': [1713], 's_20_20': [4447], 's_23_5': [4647], 's_23_6': [2422], 's_23_21': [2392], 's_23_26': [2378], 's_23_37': [3733], 's_23_23': [4394], 's_6_36': [4240], 's_6_26': [1928], 's_6_5': [2003], 's_6_21': [4300, 1957], 's_6_32': [2302], 's_6_34': [2418], 's_6_43': [4346], 's_6_6': [2558], 's_25_36': [3639], 's_25_37': [4029], 's_25_25': [1593], 's_36_5': [4269], 's_36_21': [1927], 's_36_36': [3413], 's_37_3': [3728], 's_37_26': [3655, 1743, 3654], 's_37_32': [2448], 's_37_43': [2194], 's_37_37': [2644], 's_5_5': [2063], 's_34_34': [2554], 's_3_26': [3715], 's_3_3': [1727, 3398], 's_26_21': [2033], 's_26_43': [4436], 's_26_26': [1898], 's_32_32': [3477], 's_43_43': [3266], 's_21_21': [2182]}</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0.0002963917525773196</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.0008769516897344889</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>{0: [3556, 360, 363, 361, 362], 2: [3182, 377, 376, 3181], 9: [3375, 451, 3376], 14: [226, 3316, 227], 15: [151, 150, 3060, 195, 3015, 3017, 495, 3016], 20: [407, 3348, 3346, 3347], 21: [3165, 3166, 3168, 3167], 23: [3135, 721, 300, 3138, 3136, 3137], 27: [405, 3257, 3241, 406, 3255, 3256], 29: [647, 513, 3557], 42: [393, 3527, 3526], 1: [467, 465, 466], 7: [481], 12: [421, 420], 13: [3076, 3078, 510, 600, 3077], 16: [3227, 3226, 330, 331], 18: [496, 3301, 3302], 19: [3210, 3212, 3211], 22: [450, 3197, 3195, 3196], 25: [3091, 2943, 2942, 390, 392, 391], 30: [3242, 555, 556], 33: [558, 3391, 482, 3467], 36: [3273, 3303, 645, 646], 40: [332, 3437, 3436, 196, 197, 3390, 272], 6: [588, 3452, 3451, 3450, 152], 38: [318, 317, 3270, 3272, 316, 3271], 44: [3361, 181, 182, 3360], 45: [511, 3497, 3377, 512], 47: [3180, 271, 270, 3062, 3061], 3: [3032, 3031, 347, 346, 345], 4: [3496, 3435, 256, 257], 5: [3423, 3422, 301, 302, 3421], 8: [285, 3287, 287, 3286, 286], 24: [662, 661, 3151, 3152, 3153], 37: [3407, 422, 3405, 3406], 41: [3123, 3121, 3122], 46: [3318, 557, 3317], 17: [3047, 540, 543, 542, 541], 26: [632, 3107, 3108, 630, 3528, 631], 34: [436, 90, 91, 3330, 3332, 3331], 39: [585, 3092, 586, 587], 43: [3105, 435, 165, 3046, 3045], 11: [617, 615, 616], 32: [3513, 3333, 573, 570, 571, 572], 10: [3285, 3240, 3420, 211, 212], 31: [166, 167, 3465, 3512, 3466, 408], 35: [528, 525, 3362, 527, 526], 28: [602, 601]}</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0.0111695433297375</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.01345289539309808</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>{0: [3556, 360, 363, 361, 362], 2: [3182, 377, 376, 3181], 9: [3375, 451, 3376], 14: [226, 3316, 227], 15: [151, 150, 3060, 195, 3015, 3017, 495, 3016], 20: [407, 3348, 3346, 3347], 21: [3165, 3166, 3168, 3167], 23: [3135, 721, 300, 3138, 3136, 3137], 27: [405, 3257, 3241, 406, 3255, 3256], 29: [647, 513, 3557], 42: [393, 3527, 3526], 1: [467, 465, 466], 7: [481], 12: [421, 420], 13: [3076, 3078, 510, 600, 3077], 16: [3227, 3226, 330, 331], 18: [496, 3301, 3302], 19: [3210, 3212, 3211], 22: [450, 3197, 3195, 3196], 25: [3091, 2943, 2942, 390, 392, 391], 30: [3242, 555, 556], 33: [558, 3391, 482, 3467], 36: [3273, 3303, 645, 646], 40: [332, 3437, 3436, 196, 197, 3390, 272], 6: [588, 3452, 3451, 3450, 152], 38: [318, 317, 3270, 3272, 316, 3271], 44: [3361, 181, 182, 3360], 45: [511, 3497, 3377, 512], 47: [3180, 271, 270, 3062, 3061], 3: [3032, 3031, 347, 346, 345], 4: [3496, 3435, 256, 257], 5: [3423, 3422, 301, 302, 3421], 8: [285, 3287, 287, 3286, 286], 24: [662, 661, 3151, 3152, 3153], 37: [3407, 422, 3405, 3406], 41: [3123, 3121, 3122], 46: [3318, 557, 3317], 17: [3047, 540, 543, 542, 541], 26: [632, 3107, 3108, 630, 3528, 631], 34: [436, 90, 91, 3330, 3332, 3331], 39: [585, 3092, 586, 587], 43: [3105, 435, 165, 3046, 3045], 11: [617, 615, 616], 32: [3513, 3333, 573, 570, 571, 572], 10: [3285, 3240, 3420, 211, 212], 31: [166, 167, 3465, 3512, 3466, 408], 35: [528, 525, 3362, 527, 526], 28: [602, 601]}</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0.0111695433297375</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.01345289539309808</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>{0: [4091, 2255, 3973, 2387, 3972, 2390, 2285, 2388, 2389], 2: [1519, 2643, 1817, 1818, 2538, 1518, 3592, 3593, 3594, 3598, 3597, 3596, 3595], 's_0_2': [3582], 9: [3669, 3671, 4409, 2165, 2164, 3956, 3670, 2240, 4408, 4407, 2148, 2242, 2241], 's_0_9': [3971, 2135], 14: [4465, 2047, 2046, 2045, 4063, 3938, 3939, 3940, 2075, 4061, 2302, 2301, 4062], 's_0_14': [2405], 15: [2525, 4254, 2526, 1908, 4253, 1909, 1910, 1911, 4255, 2527, 4256, 4258, 4257], 's_0_15': [2540], 20: [3355, 3282, 1999, 1998, 1997, 3280, 2236, 3281], 's_0_20': [2416, 3313], 21: [1563, 1562, 3458, 4227, 2226, 2225, 2224, 3459, 3460, 3461, 2178, 3626, 2223], 's_0_21': [4032], 23: [3878, 3879, 3880, 2105, 3883, 3882, 3881], 's_0_23': [2330], 27: [3549, 2117, 3744, 3372, 1791, 3371, 2162, 3446, 3445, 1790, 1789, 1788, 1787, 3444], 's_0_27': [3386, 3387], 29: [3910, 3912, 3911], 's_0_29': [2300], 42: [2554, 2555, 2558, 2557, 4153, 2556], 's_0_42': [4079, 2600], 's_0_0': [3974], 1: [2207, 2462, 3402, 3401, 3397, 3398, 3399, 3400], 's_2_1': [1517], 7: [3504, 3369, 1742, 3368], 's_2_7': [1802], 12: [4076, 4225, 4226, 2121, 2583, 2584, 2585, 2586, 4198, 4197, 4196], 's_2_12': [3583], 13: [2031, 4122, 2137, 2136, 4121, 4120, 4119, 4118, 1626, 1625, 3683, 1624], 's_2_13': [1578], 16: [2659, 3809, 3808, 2407, 4270, 4271, 2434, 2435, 2436, 2658, 2406, 4272], 's_2_16': [2539], 18: [2661, 2317, 2316, 4092, 4093, 2630, 2629, 2627, 3418, 2628, 3417, 3416, 2177], 's_2_18': [3659], 19: [4033, 4317, 2376, 2377, 2089, 3806, 3807, 3941, 3942, 2375, 2373, 2374], 's_2_19': [3523], 22: [1655, 1653, 2479, 3732, 3731, 3730, 3729, 3728, 3638, 1654], 's_2_22': [1668], 25: [4123, 2647, 2644, 2645, 2646], 's_2_25': [2613, 3704], 30: [3714, 1699, 3863, 1743, 1744, 3866, 3865, 3864], 's_2_30': [3713, 1594], 33: [4404, 1732, 1731, 1730, 1726, 1727, 1728, 1729], 's_2_33': [3279], 36: [1987, 1986, 1595, 1520, 1608, 1609, 1610, 1955, 4030, 4029, 4028], 's_2_36': [3578], 40: [2493, 2032, 4211, 4212, 2494, 4300, 2495, 2496, 4213], 's_2_40': [3568], 's_2_2': [3652], 6: [1773, 3623, 3625, 3624], 's_9_6': [1893], 's_9_12': [4151], 's_9_14': [4301], 's_9_18': [4392], 's_9_22': [2029], 's_9_25': [2616, 2617], 's_9_27': [3684], 's_9_30': [1669, 1670], 38: [4394, 2587, 1939, 1940, 1941, 1942, 2437, 4360, 4361, 4362, 4363], 's_9_38': [2497], 's_9_40': [4315, 4316], 44: [2238, 3609, 3610, 3613, 3612, 3611], 's_9_44': [2073], 45: [4087, 4088, 4089, 4090, 3988, 3987, 2209, 2210, 3986, 2090], 's_9_45': [3656], 47: [2074, 1879, 2298, 2299, 3853, 3850, 3851, 2297, 3852], 's_9_47': [2163, 3566], 's_9_9': [4451], 3: [4137, 4136, 4135, 4134, 4133, 1637, 1638, 1639, 1640, 1641], 's_14_3': [2106], 4: [1922, 1923, 1924, 1925, 4183, 4182, 4181, 4180, 4184, 1926], 's_14_4': [3970], 5: [2272, 2271, 2270, 2269, 3627, 3431, 3432, 2266, 2267, 2268], 's_14_5': [4377], 8: [3520, 1862, 1863, 1864, 1865, 1866, 4439, 4438, 4437, 4436, 4435, 1867], 's_14_8': [2303], 's_14_18': [4064], 's_14_22': [3953], 's_14_23': [1894, 1895], 24: [2357, 1628, 4418, 4419, 4420, 4421, 4422, 2358, 2359, 2360, 2361, 2362, 2363], 's_14_24': [2077], 's_14_27': [3954], 37: [3552, 2463, 2468, 4287, 2467, 2464, 2465, 2466], 's_14_37': [2481], 's_14_38': [2018], 's_14_40': [2151], 41: [3923, 3924, 4075, 1848, 1849, 1850, 1851], 's_14_41': [3969, 1820], 46: [2033, 4375, 1838, 4373, 4374], 's_14_46': [2003], 's_14_14': [2048], 's_15_3': [1701], 's_15_6': [3579], 's_15_13': [2451], 's_15_16': [4273], 17: [2001, 2118, 2119, 2120, 4004, 4003, 4002, 4000, 4001], 's_15_17': [4015], 's_15_23': [2030, 3820], 's_15_25': [4303], 26: [4047, 2196, 2541, 4078, 4077], 's_15_26': [4168], 's_15_27': [1907], 34: [3699, 1775, 4167, 3700, 4166, 4165, 1774, 4164, 4179, 1776], 's_15_34': [1716], 39: [1547, 1548, 1552, 1551, 1550, 1549], 's_15_39': [1536], 's_15_40': [4299, 1837], 's_15_41': [4060], 43: [3719, 3716, 3717, 2524, 3718], 's_15_43': [3823, 2509], 's_15_15': [1642], 's_20_1': [3357, 3358], 's_20_5': [3251, 3252], 's_20_8': [1861], 11: [2237, 2315, 2314, 2313, 3533, 3534, 3535, 3537, 3536], 's_20_11': [2057, 2056], 's_20_18': [2192], 's_20_24': [3312], 's_20_27': [1832], 32: [2254, 3763, 1808, 1807, 3762, 3761, 1819, 1806, 1805, 1804, 3760, 3759], 's_20_32': [1984], 's_20_34': [3715], 's_20_20': [1906], 's_21_5': [2087], 's_21_7': [3474], 's_21_12': [2212], 's_21_13': [2256], 's_21_18': [2312, 2208, 3507], 's_21_26': [2197], 's_21_32': [1803], 's_21_34': [2286], 's_21_40': [4228], 's_21_44': [2133], 's_21_45': [3821], 's_21_21': [1892], 's_23_5': [3897], 's_23_16': [3898], 's_23_17': [4031, 2060], 's_23_24': [2345], 's_23_27': [1745, 3984], 's_23_30': [1475], 's_23_32': [2449], 's_23_36': [1760], 's_23_40': [2510], 's_23_47': [2419], 's_23_23': [1490], 's_27_1': [1772], 's_27_3': [3443], 's_27_4': [3430], 's_27_7': [3384], 10: [3490, 2222, 3491, 3492], 's_27_10': [2221], 's_27_17': [3999], 's_27_30': [1684, 1685, 4059], 's_27_32': [4044], 's_27_34': [4104], 's_27_41': [1847], 's_27_47': [3849], 's_27_27': [2161], 31: [2015, 2058, 3775, 3688, 3687, 3789, 3790, 2013, 2014, 3686], 's_29_31': [2059], 's_29_32': [2404], 's_29_36': [3985, 1985], 's_29_37': [2480], 's_29_45': [3926], 's_29_29': [2150], 's_42_4': [2572], 's_42_8': [4424], 's_42_17': [2571], 's_42_25': [4259, 2662], 's_42_26': [2511], 35: [3639, 3640, 3641, 2253, 2570, 2569, 3643, 3642], 's_42_35': [3913], 's_42_37': [4513], 's_42_38': [2573], 's_42_40': [3838], 's_42_45': [3989, 4049, 2660], 's_42_42': [4468], 's_1_3': [1622], 's_1_5': [3433], 's_1_18': [3403], 's_1_24': [2342], 's_1_33': [3413], 's_1_37': [2447], 's_1_39': [3412], 's_1_47': [2282], 's_1_1': [1412], 's_7_33': [3429], 's_7_22': [3489], 's_7_7': [3367], 's_12_3': [1971], 's_12_18': [3884, 2614], 's_12_37': [4288], 's_12_8': [4210], 's_12_16': [2599], 's_12_25': [4244], 's_12_38': [2122], 's_12_41': [1852], 's_12_43': [3748], 's_12_44': [3628], 's_12_12': [4214, 2722], 's_13_24': [1627], 's_13_39': [4117], 's_13_8': [2138], 's_13_26': [2211], 28: [2392, 1717, 4347, 4345, 4344, 4346], 's_13_28': [4331], 's_13_30': [3788], 's_13_32': [1821], 's_13_41': [1836], 's_13_45': [4103], 's_13_13': [1671], 's_16_3': [2421], 's_16_8': [4423, 2452], 's_16_17': [2450], 's_16_19': [3777], 's_16_28': [2287], 's_16_36': [2002], 's_16_38': [4452], 's_16_40': [2167], 's_16_43': [2433, 3703], 's_16_16': [2107, 4376], 's_18_5': [2402], 's_18_4': [2631], 's_18_10': [2327], 's_18_34': [4152], 's_18_38': [4302], 's_18_18': [3794, 2704, 2703], 's_19_5': [2372], 's_19_47': [3657], 's_19_17': [3896], 's_19_26': [2420, 3957], 's_19_30': [2180], 's_19_31': [3925], 's_19_38': [3835, 3836], 's_19_44': [2239], 's_19_45': [2195], 's_19_19': [3477], 's_22_24': [3747], 's_22_39': [3803], 's_22_47': [2134], 's_22_17': [3745], 's_22_32': [2329], 's_22_35': [2088], 's_22_44': [2418], 's_22_22': [3473, 3472], 's_25_17': [4019], 's_25_32': [3778], 's_25_38': [4318], 's_25_25': [4364, 2738], 's_30_3': [3773], 's_30_47': [1835], 's_30_32': [1954], 's_30_30': [3862], 's_33_3': [3743], 's_33_6': [3519], 's_33_11': [1712], 's_33_28': [1792], 's_33_31': [1714], 's_33_44': [1713], 's_33_46': [1747], 's_33_33': [3294], 's_36_3': [3908], 's_36_11': [1593], 's_36_38': [1988], 's_36_41': [3895], 's_36_45': [1611], 's_36_36': [1476], 's_40_47': [3868], 's_40_4': [4195], 's_40_17': [2182, 2181], 's_40_28': [2017], 's_40_31': [3673], 's_40_35': [3928], 's_40_43': [3793], 's_40_44': [2508], 's_40_46': [1972], 's_40_40': [2492], 's_6_3': [1623], 's_6_39': [3608], 's_6_4': [3564], 's_6_8': [1953], 's_6_31': [2028], 's_6_34': [1698], 's_6_44': [1878], 's_6_6': [3622], 's_38_47': [3909], 's_38_31': [3805], 's_38_8': [2422], 's_38_38': [2168], 's_44_8': [1938], 's_44_35': [2328], 's_44_44': [2523], 's_45_5': [3672], 's_45_39': [1535], 's_45_4': [2091], 's_45_35': [2194], 's_45_45': [4102], 's_47_8': [1880], 's_47_11': [3702], 's_47_31': [1969], 's_47_35': [3581], 's_47_43': [2149], 's_47_47': [2284], 's_3_11': [3518], 's_3_17': [2016], 's_3_34': [2076], 's_3_41': [1956], 's_3_3': [3653], 's_4_10': [1937], 's_4_31': [3655], 's_4_4': [2691], 's_5_10': [2072], 's_5_24': [3342], 's_5_26': [4106], 's_5_28': [4332], 's_5_5': [3236], 's_8_37': [2483], 's_8_11': [3685, 1968], 's_8_41': [3804], 's_8_10': [1877], 's_8_31': [3774], 's_8_28': [4434], 's_8_46': [4390], 's_8_8': [2708], 's_24_10': [2343], 's_24_37': [4467], 's_24_39': [4403], 's_24_43': [2344], 's_24_46': [4493, 4494], 's_24_24': [4512, 2258], 's_37_26': [4018], 's_37_28': [2347], 's_37_37': [4543], 's_41_11': [1833], 's_41_35': [1834], 's_41_41': [4149], 's_46_39': [4358], 's_46_28': [2062], 's_46_32': [4509], 's_46_46': [1612], 's_17_11': [3521], 's_17_26': [4046], 's_17_31': [3550], 's_17_34': [2166], 's_17_43': [2104], 's_17_17': [3701], 's_26_11': [2346, 4017], 's_26_26': [4108], 's_34_31': [1759], 's_34_32': [4224], 's_34_34': [1761], 's_39_11': [1532], 's_39_39': [4223], 's_43_31': [3658, 2478], 's_43_43': [3733], 's_11_11': [1697], 's_32_31': [2179], 's_32_28': [4359], 's_32_35': [3654], 's_32_32': [4014], 's_10_31': [3506], 's_10_10': [3505], 's_31_31': [3791], 's_35_35': [3854], 's_28_28': [4343]}</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.0003934426229508197</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.001012272036492027</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>{0: [4091, 2255, 3973, 2387, 3972, 2390, 2285, 2388, 2389], 2: [1519, 2643, 1817, 1818, 2538, 1518, 3592, 3593, 3594, 3598, 3597, 3596, 3595], 's_0_2': [3582], 9: [3669, 3671, 4409, 2165, 2164, 3956, 3670, 2240, 4408, 4407, 2148, 2242, 2241], 's_0_9': [3971, 2135], 14: [4465, 2047, 2046, 2045, 4063, 3938, 3939, 3940, 2075, 4061, 2302, 2301, 4062], 's_0_14': [2405], 15: [2525, 4254, 2526, 1908, 4253, 1909, 1910, 1911, 4255, 2527, 4256, 4258, 4257], 's_0_15': [2540], 20: [3355, 3282, 1999, 1998, 1997, 3280, 2236, 3281], 's_0_20': [2416, 3313], 21: [1563, 1562, 3458, 4227, 2226, 2225, 2224, 3459, 3460, 3461, 2178, 3626, 2223], 's_0_21': [4032], 23: [3878, 3879, 3880, 2105, 3883, 3882, 3881], 's_0_23': [2330], 27: [3549, 2117, 3744, 3372, 1791, 3371, 2162, 3446, 3445, 1790, 1789, 1788, 1787, 3444], 's_0_27': [3386, 3387], 29: [3910, 3912, 3911], 's_0_29': [2300], 42: [2554, 2555, 2558, 2557, 4153, 2556], 's_0_42': [4079, 2600], 's_0_0': [3974], 1: [2207, 2462, 3402, 3401, 3397, 3398, 3399, 3400], 's_2_1': [1517], 7: [3504, 3369, 1742, 3368], 's_2_7': [1802], 12: [4076, 4225, 4226, 2121, 2583, 2584, 2585, 2586, 4198, 4197, 4196], 's_2_12': [3583], 13: [2031, 4122, 2137, 2136, 4121, 4120, 4119, 4118, 1626, 1625, 3683, 1624], 's_2_13': [1578], 16: [2659, 3809, 3808, 2407, 4270, 4271, 2434, 2435, 2436, 2658, 2406, 4272], 's_2_16': [2539], 18: [2661, 2317, 2316, 4092, 4093, 2630, 2629, 2627, 3418, 2628, 3417, 3416, 2177], 's_2_18': [3659], 19: [4033, 4317, 2376, 2377, 2089, 3806, 3807, 3941, 3942, 2375, 2373, 2374], 's_2_19': [3523], 22: [1655, 1653, 2479, 3732, 3731, 3730, 3729, 3728, 3638, 1654], 's_2_22': [1668], 25: [4123, 2647, 2644, 2645, 2646], 's_2_25': [2613, 3704], 30: [3714, 1699, 3863, 1743, 1744, 3866, 3865, 3864], 's_2_30': [3713, 1594], 33: [4404, 1732, 1731, 1730, 1726, 1727, 1728, 1729], 's_2_33': [3279], 36: [1987, 1986, 1595, 1520, 1608, 1609, 1610, 1955, 4030, 4029, 4028], 's_2_36': [3578], 40: [2493, 2032, 4211, 4212, 2494, 4300, 2495, 2496, 4213], 's_2_40': [3568], 's_2_2': [3652], 6: [1773, 3623, 3625, 3624], 's_9_6': [1893], 's_9_12': [4151], 's_9_14': [4301], 's_9_18': [4392], 's_9_22': [2029], 's_9_25': [2616, 2617], 's_9_27': [3684], 's_9_30': [1669, 1670], 38: [4394, 2587, 1939, 1940, 1941, 1942, 2437, 4360, 4361, 4362, 4363], 's_9_38': [2497], 's_9_40': [4315, 4316], 44: [2238, 3609, 3610, 3613, 3612, 3611], 's_9_44': [2073], 45: [4087, 4088, 4089, 4090, 3988, 3987, 2209, 2210, 3986, 2090], 's_9_45': [3656], 47: [2074, 1879, 2298, 2299, 3853, 3850, 3851, 2297, 3852], 's_9_47': [2163, 3566], 's_9_9': [4451], 3: [4137, 4136, 4135, 4134, 4133, 1637, 1638, 1639, 1640, 1641], 's_14_3': [2106], 4: [1922, 1923, 1924, 1925, 4183, 4182, 4181, 4180, 4184, 1926], 's_14_4': [3970], 5: [2272, 2271, 2270, 2269, 3627, 3431, 3432, 2266, 2267, 2268], 's_14_5': [4377], 8: [3520, 1862, 1863, 1864, 1865, 1866, 4439, 4438, 4437, 4436, 4435, 1867], 's_14_8': [2303], 's_14_18': [4064], 's_14_22': [3953], 's_14_23': [1894, 1895], 24: [2357, 1628, 4418, 4419, 4420, 4421, 4422, 2358, 2359, 2360, 2361, 2362, 2363], 's_14_24': [2077], 's_14_27': [3954], 37: [3552, 2463, 2468, 4287, 2467, 2464, 2465, 2466], 's_14_37': [2481], 's_14_38': [2018], 's_14_40': [2151], 41: [3923, 3924, 4075, 1848, 1849, 1850, 1851], 's_14_41': [3969, 1820], 46: [2033, 4375, 1838, 4373, 4374], 's_14_46': [2003], 's_14_14': [2048], 's_15_3': [1701], 's_15_6': [3579], 's_15_13': [2451], 's_15_16': [4273], 17: [2001, 2118, 2119, 2120, 4004, 4003, 4002, 4000, 4001], 's_15_17': [4015], 's_15_23': [2030, 3820], 's_15_25': [4303], 26: [4047, 2196, 2541, 4078, 4077], 's_15_26': [4168], 's_15_27': [1907], 34: [3699, 1775, 4167, 3700, 4166, 4165, 1774, 4164, 4179, 1776], 's_15_34': [1716], 39: [1547, 1548, 1552, 1551, 1550, 1549], 's_15_39': [1536], 's_15_40': [4299, 1837], 's_15_41': [4060], 43: [3719, 3716, 3717, 2524, 3718], 's_15_43': [3823, 2509], 's_15_15': [1642], 's_20_1': [3357, 3358], 's_20_5': [3251, 3252], 's_20_8': [1861], 11: [2237, 2315, 2314, 2313, 3533, 3534, 3535, 3537, 3536], 's_20_11': [2057, 2056], 's_20_18': [2192], 's_20_24': [3312], 's_20_27': [1832], 32: [2254, 3763, 1808, 1807, 3762, 3761, 1819, 1806, 1805, 1804, 3760, 3759], 's_20_32': [1984], 's_20_34': [3715], 's_20_20': [1906], 's_21_5': [2087], 's_21_7': [3474], 's_21_12': [2212], 's_21_13': [2256], 's_21_18': [2312, 2208, 3507], 's_21_26': [2197], 's_21_32': [1803], 's_21_34': [2286], 's_21_40': [4228], 's_21_44': [2133], 's_21_45': [3821], 's_21_21': [1892], 's_23_5': [3897], 's_23_16': [3898], 's_23_17': [4031, 2060], 's_23_24': [2345], 's_23_27': [1745, 3984], 's_23_30': [1475], 's_23_32': [2449], 's_23_36': [1760], 's_23_40': [2510], 's_23_47': [2419], 's_23_23': [1490], 's_27_1': [1772], 's_27_3': [3443], 's_27_4': [3430], 's_27_7': [3384], 10: [3490, 2222, 3491, 3492], 's_27_10': [2221], 's_27_17': [3999], 's_27_30': [1684, 1685, 4059], 's_27_32': [4044], 's_27_34': [4104], 's_27_41': [1847], 's_27_47': [3849], 's_27_27': [2161], 31: [2015, 2058, 3775, 3688, 3687, 3789, 3790, 2013, 2014, 3686], 's_29_31': [2059], 's_29_32': [2404], 's_29_36': [3985, 1985], 's_29_37': [2480], 's_29_45': [3926], 's_29_29': [2150], 's_42_4': [2572], 's_42_8': [4424], 's_42_17': [2571], 's_42_25': [4259, 2662], 's_42_26': [2511], 35: [3639, 3640, 3641, 2253, 2570, 2569, 3643, 3642], 's_42_35': [3913], 's_42_37': [4513], 's_42_38': [2573], 's_42_40': [3838], 's_42_45': [3989, 4049, 2660], 's_42_42': [4468], 's_1_3': [1622], 's_1_5': [3433], 's_1_18': [3403], 's_1_24': [2342], 's_1_33': [3413], 's_1_37': [2447], 's_1_39': [3412], 's_1_47': [2282], 's_1_1': [1412], 's_7_33': [3429], 's_7_22': [3489], 's_7_7': [3367], 's_12_3': [1971], 's_12_18': [3884, 2614], 's_12_37': [4288], 's_12_8': [4210], 's_12_16': [2599], 's_12_25': [4244], 's_12_38': [2122], 's_12_41': [1852], 's_12_43': [3748], 's_12_44': [3628], 's_12_12': [4214, 2722], 's_13_24': [1627], 's_13_39': [4117], 's_13_8': [2138], 's_13_26': [2211], 28: [2392, 1717, 4347, 4345, 4344, 4346], 's_13_28': [4331], 's_13_30': [3788], 's_13_32': [1821], 's_13_41': [1836], 's_13_45': [4103], 's_13_13': [1671], 's_16_3': [2421], 's_16_8': [4423, 2452], 's_16_17': [2450], 's_16_19': [3777], 's_16_28': [2287], 's_16_36': [2002], 's_16_38': [4452], 's_16_40': [2167], 's_16_43': [2433, 3703], 's_16_16': [2107, 4376], 's_18_5': [2402], 's_18_4': [2631], 's_18_10': [2327], 's_18_34': [4152], 's_18_38': [4302], 's_18_18': [3794, 2704, 2703], 's_19_5': [2372], 's_19_47': [3657], 's_19_17': [3896], 's_19_26': [2420, 3957], 's_19_30': [2180], 's_19_31': [3925], 's_19_38': [3835, 3836], 's_19_44': [2239], 's_19_45': [2195], 's_19_19': [3477], 's_22_24': [3747], 's_22_39': [3803], 's_22_47': [2134], 's_22_17': [3745], 's_22_32': [2329], 's_22_35': [2088], 's_22_44': [2418], 's_22_22': [3473, 3472], 's_25_17': [4019], 's_25_32': [3778], 's_25_38': [4318], 's_25_25': [4364, 2738], 's_30_3': [3773], 's_30_47': [1835], 's_30_32': [1954], 's_30_30': [3862], 's_33_3': [3743], 's_33_6': [3519], 's_33_11': [1712], 's_33_28': [1792], 's_33_31': [1714], 's_33_44': [1713], 's_33_46': [1747], 's_33_33': [3294], 's_36_3': [3908], 's_36_11': [1593], 's_36_38': [1988], 's_36_41': [3895], 's_36_45': [1611], 's_36_36': [1476], 's_40_47': [3868], 's_40_4': [4195], 's_40_17': [2182, 2181], 's_40_28': [2017], 's_40_31': [3673], 's_40_35': [3928], 's_40_43': [3793], 's_40_44': [2508], 's_40_46': [1972], 's_40_40': [2492], 's_6_3': [1623], 's_6_39': [3608], 's_6_4': [3564], 's_6_8': [1953], 's_6_31': [2028], 's_6_34': [1698], 's_6_44': [1878], 's_6_6': [3622], 's_38_47': [3909], 's_38_31': [3805], 's_38_8': [2422], 's_38_38': [2168], 's_44_8': [1938], 's_44_35': [2328], 's_44_44': [2523], 's_45_5': [3672], 's_45_39': [1535], 's_45_4': [2091], 's_45_35': [2194], 's_45_45': [4102], 's_47_8': [1880], 's_47_11': [3702], 's_47_31': [1969], 's_47_35': [3581], 's_47_43': [2149], 's_47_47': [2284], 's_3_11': [3518], 's_3_17': [2016], 's_3_34': [2076], 's_3_41': [1956], 's_3_3': [3653], 's_4_10': [1937], 's_4_31': [3655], 's_4_4': [2691], 's_5_10': [2072], 's_5_24': [3342], 's_5_26': [4106], 's_5_28': [4332], 's_5_5': [3236], 's_8_37': [2483], 's_8_11': [3685, 1968], 's_8_41': [3804], 's_8_10': [1877], 's_8_31': [3774], 's_8_28': [4434], 's_8_46': [4390], 's_8_8': [2708], 's_24_10': [2343], 's_24_37': [4467], 's_24_39': [4403], 's_24_43': [2344], 's_24_46': [4493, 4494], 's_24_24': [4512, 2258], 's_37_26': [4018], 's_37_28': [2347], 's_37_37': [4543], 's_41_11': [1833], 's_41_35': [1834], 's_41_41': [4149], 's_46_39': [4358], 's_46_28': [2062], 's_46_32': [4509], 's_46_46': [1612], 's_17_11': [3521], 's_17_26': [4046], 's_17_31': [3550], 's_17_34': [2166], 's_17_43': [2104], 's_17_17': [3701], 's_26_11': [2346, 4017], 's_26_26': [4108], 's_34_31': [1759], 's_34_32': [4224], 's_34_34': [1761], 's_39_11': [1532], 's_39_39': [4223], 's_43_31': [3658, 2478], 's_43_43': [3733], 's_11_11': [1697], 's_32_31': [2179], 's_32_28': [4359], 's_32_35': [3654], 's_32_32': [4014], 's_10_31': [3506], 's_10_10': [3505], 's_31_31': [3791], 's_35_35': [3854], 's_28_28': [4343]}</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0.0003934426229508197</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.001012272036492027</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>{0: [1301, 5226, 1302], 2: [5031, 5029, 5030], 5: [5074, 5076, 1031, 5075], 8: [5046, 1272, 1271], 17: [1406, 5181, 5196, 1407], 26: [1030, 1121, 4896, 4895], 28: [4986, 4984, 4985], 29: [4866, 1210, 4955, 4956, 1212, 1211], 33: [1182, 5315, 5316], 39: [5179, 1227, 5180], 40: [5329, 1287, 1288, 5330, 5331], 41: [1000, 4971, 4970, 1241, 1242], 46: [5137, 5134, 5135, 5136], 6: [4940, 956, 958, 957], 7: [1002, 1001], 10: [5253, 5028, 805, 807, 806], 11: [1078, 1075, 1076, 1077], 12: [4998, 4999, 5001, 1061, 5000], 13: [5121, 986, 5120], 15: [5105, 1106, 1107], 20: [1167, 1166, 1091, 5045], 38: [5150, 4894, 943, 941, 942], 42: [926, 4954, 5225, 5224, 852, 851], 45: [897, 5104, 896], 47: [971, 972, 5271, 5270, 5269], 48: [1181, 5090, 5091], 3: [5345, 927, 5344, 928], 16: [1256, 1257, 5254, 5255, 5256], 22: [1136, 5374, 5375, 1137, 1138], 23: [880, 5149, 5044, 883, 881, 882], 25: [5060, 1197, 1196, 5061], 30: [5208, 820, 5089, 822, 821], 43: [5317, 1330, 5240, 1331, 5241, 5239, 1332], 14: [4924, 4927, 4925, 4926], 36: [1273, 5286, 5284, 5285], 44: [4909, 4910, 4911, 1316, 5166, 1317], 32: [5359, 1345, 1346, 5360, 1347, 5361], 34: [5152, 1122, 5151], 9: [5016, 5014, 5015], 31: [1015, 1017, 1016], 27: [910, 5389, 911, 912, 4834, 913], 21: [1045, 1048, 1046, 1047], 37: [5211, 987, 5210, 5209], 1: [5195, 1151, 1152], 18: [1062, 868, 5419, 1063, 1123, 5420], 19: [1093, 1092], 4: [1032, 1108, 5299, 5301, 5300], 35: [4969, 5119, 866, 867], 24: [835, 5059, 5358, 837, 836]}</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.02021421028812792</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.01838941638453523</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>{0: [1301, 5226, 1302], 2: [5031, 5029, 5030], 5: [5074, 5076, 1031, 5075], 8: [5046, 1272, 1271], 17: [1406, 5181, 5196, 1407], 26: [1030, 1121, 4896, 4895], 28: [4986, 4984, 4985], 29: [4866, 1210, 4955, 4956, 1212, 1211], 33: [1182, 5315, 5316], 39: [5179, 1227, 5180], 40: [5329, 1287, 1288, 5330, 5331], 41: [1000, 4971, 4970, 1241, 1242], 46: [5137, 5134, 5135, 5136], 6: [4940, 956, 958, 957], 7: [1002, 1001], 10: [5253, 5028, 805, 807, 806], 11: [1078, 1075, 1076, 1077], 12: [4998, 4999, 5001, 1061, 5000], 13: [5121, 986, 5120], 15: [5105, 1106, 1107], 20: [1167, 1166, 1091, 5045], 38: [5150, 4894, 943, 941, 942], 42: [926, 4954, 5225, 5224, 852, 851], 45: [897, 5104, 896], 47: [971, 972, 5271, 5270, 5269], 48: [1181, 5090, 5091], 3: [5345, 927, 5344, 928], 16: [1256, 1257, 5254, 5255, 5256], 22: [1136, 5374, 5375, 1137, 1138], 23: [880, 5149, 5044, 883, 881, 882], 25: [5060, 1197, 1196, 5061], 30: [5208, 820, 5089, 822, 821], 43: [5317, 1330, 5240, 1331, 5241, 5239, 1332], 14: [4924, 4927, 4925, 4926], 36: [1273, 5286, 5284, 5285], 44: [4909, 4910, 4911, 1316, 5166, 1317], 32: [5359, 1345, 1346, 5360, 1347, 5361], 34: [5152, 1122, 5151], 9: [5016, 5014, 5015], 31: [1015, 1017, 1016], 27: [910, 5389, 911, 912, 4834, 913], 21: [1045, 1048, 1046, 1047], 37: [5211, 987, 5210, 5209], 1: [5195, 1151, 1152], 18: [1062, 868, 5419, 1063, 1123, 5420], 19: [1093, 1092], 4: [1032, 1108, 5299, 5301, 5300], 35: [4969, 5119, 866, 867], 24: [835, 5059, 5358, 837, 836]}</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0.02021421028812792</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.01838941638453523</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>{0: [1646, 1645, 1644, 1550, 1551, 4193, 1642, 1643], 2: [4137, 4047, 4733, 4734, 2360, 2361, 2362, 4735, 4736, 4737, 2363, 2364, 2365], 's_0_2': [4718], 5: [1566, 2526, 4048, 4102, 4103, 4104, 1895, 2420, 3985, 2555, 3988, 3987, 3986], 's_0_5': [4087], 8: [4902, 4901, 4900, 4899, 1615, 1614, 4898, 1656, 4163, 1611, 1612, 1613], 's_0_8': [4208], 17: [1690, 2200, 4885, 4583, 4797, 4796, 4795, 1840, 1629, 1630, 4883, 4884], 's_0_17': [4673], 26: [2375, 2376, 2377, 2378, 2379, 5063, 5064, 5065, 5066, 5067, 2381, 2380], 's_0_26': [1631], 28: [4228, 3968, 3969, 3970, 4227, 2316, 2315, 3972, 3971], 's_0_28': [3983], 29: [1610, 2059, 3943, 2063, 2062, 3937, 3939, 3938, 3942, 3941, 3940, 4555, 2061, 2060], 's_0_29': [3952], 33: [1764, 1763, 1985, 1986, 4150, 1911, 4447, 1913, 4448, 4449, 1912], 's_0_33': [4493], 39: [1732, 1733, 1734, 1735, 2436, 2437, 4929, 4930, 4931, 4932, 4933, 2440, 2439, 4463, 2438], 's_0_39': [4928], 40: [1582, 2301, 1583, 4508, 4213, 4212, 2197, 2198, 4509, 4510, 4511], 's_0_40': [4388, 1567, 4267], 41: [4838, 2179, 4839, 4840, 3866, 2180, 2181, 2182, 2183, 2184, 4841, 2185], 's_0_41': [5003, 1720], 46: [4478, 3758, 1594, 1598, 1597, 1596, 1595], 's_0_46': [4223], 's_0_0': [1549], 6: [2527, 2601, 4273, 4272, 4857, 2395, 2394, 2393, 2392], 's_2_6': [4647], 7: [1661, 4779, 1658, 1660, 1659], 's_2_7': [1675], 10: [3809, 2464, 3777, 3775, 3776, 2238, 4062, 3808, 2240, 2239], 's_2_10': [2359], 11: [4483, 4482, 4481, 2001, 4210, 2002, 2003, 4480], 's_2_11': [4497], 12: [4842, 3732, 3733, 2628, 2629, 2630, 4093, 2661, 2662, 2663, 2665, 2664, 4813, 4812, 2335], 's_2_12': [2409], 13: [1749, 1748, 1747, 2017, 4195, 4194, 3908, 1745, 1746], 's_2_13': [4719], 15: [2035, 1795, 4869, 4872, 4871, 4870, 1900], 's_2_15': [2020], 20: [2454, 4662, 1825, 4658, 4374, 1823, 1824, 4659, 4661, 4660], 's_2_20': [1599], 's_2_26': [4182], 's_2_29': [2285], 38: [2256, 2257, 4316, 3883, 4317, 4198, 2465, 2469, 2468, 2467, 2466], 's_2_38': [3957], 42: [4409, 4408, 4407, 4825, 4826, 2226, 2229, 2228, 2227], 's_2_42': [2094], 45: [3836, 3956, 2211, 2209, 2210], 's_2_45': [2300], 47: [2318, 4015, 4468, 4467, 2348, 1925, 1926, 1927, 4375, 4377, 4376], 's_2_47': [4422], 48: [2138, 2155, 2154, 4601, 4600, 2139], 's_2_48': [4602], 's_2_2': [1539], 3: [2479, 4122, 2481, 2480], 's_5_3': [3838], 's_5_6': [4138], 's_5_8': [1626], 's_5_13': [1761], 16: [4568, 1688, 2539, 2540, 4569, 4570, 2541, 2542, 2543, 4573, 4572, 2544, 4571], 's_5_16': [3928], 22: [4314, 4645, 4089, 4090, 2124, 4315, 2119, 2120, 2121, 2123, 2122], 's_5_22': [1806], 23: [4001, 2150, 2151, 1792, 4299, 4300, 2152, 4303, 4302, 4301], 's_5_23': [2090], 25: [1870, 1869, 3763, 1868, 3762, 3761, 3760, 1969, 1970, 1867, 1866, 4045, 1865], 's_5_25': [1880], 's_5_26': [4017], 's_5_28': [2015], 's_5_29': [1505], 30: [3924, 3853, 4283, 3852, 3851, 3850, 1850, 1718, 1717, 1716, 1715, 3984], 's_5_30': [3954], 's_5_41': [2255, 4091], 43: [4135, 2125, 2074, 4333, 4332, 4331, 2075, 2076, 4809, 4810, 2079, 2078, 2077], 's_5_43': [4105], 's_5_5': [1446], 's_8_12': [2260, 4947, 2201], 14: [4059, 4061, 1909, 1910, 4060], 's_8_14': [4058], 's_8_16': [1674, 4688], 's_8_17': [4598], 's_8_20': [1826], 's_8_25': [4164, 1731], 's_8_26': [2396], 's_8_29': [1655], 36: [1789, 1790, 1657, 1702, 1701, 4224, 4121, 4120, 4119, 1791], 's_8_36': [4328], 44: [2644, 3854, 2705, 3974, 2750, 2752, 2753, 2751, 4529, 4528, 4527, 2287, 2290, 2289, 2288], 's_8_44': [4917], 's_8_8': [2036], 's_17_12': [2320], 's_17_16': [4584], 32: [2513, 2545, 1897, 1776, 1777, 1778, 4494, 1898, 1899, 4720, 2514, 4723, 4722, 4721], 's_17_32': [4765], 34: [1987, 1991, 4780, 1990, 1988, 1989], 's_17_34': [2005], 's_17_39': [4798], 's_17_40': [1553], 's_17_41': [1915], 's_17_43': [1945], 's_17_44': [4782], 's_17_46': [4538], 's_17_17': [1479], 9: [4525, 4526, 4436, 2407, 4452, 4451, 2165, 2166, 2167, 2168], 's_26_9': [4362], 's_26_15': [1796], 's_26_28': [4002], 31: [3894, 3899, 3898, 3897, 3895, 3896], 's_26_31': [3912, 2449], 's_26_38': [4618], 's_26_43': [4393, 2512], 's_26_26': [1616], 's_28_23': [2347], 27: [4168, 4167, 2374, 3792, 2269, 4271, 2271, 2270], 's_28_27': [4152], 's_28_38': [3927], 's_28_42': [2225], 's_28_43': [2317], 's_28_45': [4077], 's_28_28': [3967], 's_29_11': [4270], 's_29_12': [2615], 's_29_13': [1625], 's_29_14': [4000], 's_29_16': [4586], 21: [4255, 2482, 4258, 4256, 4257], 's_29_21': [4241], 's_29_22': [2105], 's_29_31': [2660], 's_29_32': [4495], 's_29_36': [4211, 2106], 37: [4542, 2215, 2214, 2153, 4539, 4540, 4541], 's_29_37': [2048], 's_29_38': [3973, 2450, 2525], 's_29_41': [4556], 's_29_47': [2045], 's_29_48': [2019], 's_29_29': [1445], 1: [1794, 4418, 4421, 4420, 4419, 1793], 's_33_1': [1522], 's_33_7': [4764], 's_33_16': [4643], 18: [2509, 4345, 2032, 2031, 4031, 2510, 4033, 4032], 's_33_18': [4165], 19: [4585, 1856, 1855, 1854], 's_33_19': [4704], 's_33_20': [1808], 's_33_22': [3925], 's_33_25': [4390], 's_33_31': [2000], 's_33_40': [4462], 's_33_43': [3910], 's_33_47': [4030], 's_33_33': [4446], 's_39_1': [4614], 's_39_3': [4183], 4: [3790, 4343, 4344, 1954, 1838, 1837, 4149, 1836, 3865, 1835], 's_39_4': [4329], 's_39_7': [4808], 's_39_15': [4945, 4944], 's_39_19': [1841], 's_39_21': [4287], 's_39_27': [4153], 's_39_34': [2006], 's_39_36': [4359, 4358], 's_39_37': [2216], 's_39_46': [4313], 's_39_47': [4378], 's_39_48': [2140], 's_39_39': [2546], 's_40_3': [2421], 's_40_4': [4524], 's_40_6': [4197, 2331], 's_40_7': [4523], 's_40_10': [2196], 's_40_11': [1958], 's_40_22': [4181], 's_40_27': [2212], 's_40_30': [4282], 's_40_36': [1703], 's_40_48': [4466], 's_40_40': [4477], 's_41_7': [4853], 's_41_9': [2164], 's_41_12': [4811], 's_41_14': [2030, 2029, 3805], 's_41_20': [4854], 's_41_25': [2104], 's_41_31': [2089], 's_41_34': [4855], 35: [3704, 1654, 3699, 3700, 3703, 3702, 3701], 's_41_35': [2149], 's_41_44': [4856], 's_41_47': [4361], 's_41_48': [4706], 's_41_41': [2095], 's_46_1': [4433], 's_46_4': [4148], 's_46_13': [3923], 's_46_16': [4553], 's_46_30': [3953], 's_46_35': [3773], 's_46_46': [1624], 's_6_15': [2350], 's_6_20': [2455], 's_6_9': [4347], 's_6_11': [2483, 4438, 2528], 's_6_16': [4588], 24: [2588, 2584, 4453, 3958, 2585, 2587, 2586], 's_6_24': [2600], 's_6_27': [2451], 's_6_38': [4603], 's_6_42': [2485, 4827], 's_6_44': [4557], 's_6_6': [2425], 's_7_15': [4868], 's_7_20': [4434], 's_7_36': [4404], 's_7_7': [4389], 's_10_4': [3791], 's_10_12': [2314], 's_10_14': [3774], 's_10_16': [4063], 's_10_23': [3926], 's_10_45': [3821], 's_10_10': [2237], 's_11_36': [1941], 's_11_37': [2213], 's_11_48': [2093], 's_11_4': [4240], 's_11_9': [4496, 2303], 's_11_14': [4075], 's_11_42': [2259, 4692, 4693, 2574, 2573], 's_11_44': [2273], 's_11_11': [2618], 's_12_15': [2410], 's_12_32': [2604, 4784], 's_12_18': [3913], 's_12_23': [4318], 's_12_24': [4574], 's_12_31': [2646, 2645, 3884], 's_12_35': [2418], 's_12_12': [4874], 's_13_1': [2018], 's_13_16': [4628], 's_13_20': [1762], 's_13_21': [4254], 's_13_23': [4239], 's_13_25': [4014], 's_13_30': [4088], 's_13_31': [1684], 's_13_13': [3907], 's_15_1': [4749, 1810], 's_15_19': [4915, 4914], 's_15_20': [4794], 's_15_37': [4886], 's_15_42': [4824], 's_15_43': [1780], 's_15_44': [4887], 's_15_15': [1975, 1974], 's_20_1': [1779], 's_20_23': [1822], 's_20_25': [4674], 's_20_32': [4708], 's_20_42': [2274], 's_20_43': [2049], 's_20_44': [2304], 's_20_48': [2034], 's_20_20': [4657], 's_38_32': [2484], 's_38_24': [4558], 's_38_27': [2419], 's_38_31': [2404], 's_38_42': [2422], 's_38_44': [2678, 4424, 4423], 's_38_47': [2452], 's_38_38': [4199, 2676], 's_42_34': [1960], 's_42_36': [4136], 's_42_37': [2243], 's_42_43': [2272], 's_42_21': [2302], 's_42_24': [4394], 's_42_42': [2242], 's_45_43': [4166], 's_45_9': [4151], 's_45_27': [3882], 's_45_30': [2134], 's_45_35': [3717], 's_45_45': [3746], 's_47_37': [4587], 's_47_43': [2602], 's_47_9': [4437, 2333], 's_47_18': [1957], 's_47_25': [1955], 's_47_30': [1942, 4284], 's_47_31': [1940], 's_47_47': [2648], 's_48_1': [4599], 's_48_9': [4646, 2169], 's_48_16': [2004], 's_48_22': [4691], 's_48_48': [2156], 's_3_21': [2406], 's_3_25': [2494, 3823], 's_3_27': [3747], 's_3_3': [2478], 's_16_37': [2349], 's_16_27': [2571, 2570, 2569, 3674, 3673], 's_16_22': [2108], 's_16_30': [4078, 2435, 2434], 's_16_19': [1839], 's_16_35': [2524], 's_16_44': [3778, 2659], 's_16_16': [2258], 's_22_34': [4465], 's_22_25': [3730], 's_22_4': [1821], 's_22_18': [4346], 's_22_23': [4196], 's_22_22': [4630], 's_23_27': [3911], 's_23_18': [2047], 's_23_44': [4304], 's_23_23': [2632], 's_25_37': [4644, 1809], 's_25_43': [4046], 's_25_21': [1881], 's_25_24': [2599], 's_25_44': [3764, 2719, 2723, 2722, 2721, 2720], 's_25_25': [1968], 's_30_36': [4298], 's_30_37': [4554], 's_30_27': [2329], 's_30_4': [3834], 's_30_14': [3909], 's_30_44': [3869, 3868], 's_30_30': [1627], 's_43_1': [2092], 's_43_34': [1884], 's_43_14': [4076], 's_43_21': [2091], 's_43_24': [4348], 's_43_43': [2110], 's_14_32': [4074], 's_14_31': [3880], 's_14_14': [2136], 's_36_1': [1687], 's_36_27': [2241], 's_36_31': [3879], 's_36_35': [1774], 's_36_36': [3789], 's_44_21': [4274, 2692, 4259], 's_44_44': [3914], 's_32_1': [4464], 's_32_4': [4405], 's_32_9': [1928], 's_32_24': [2498, 2499], 's_32_34': [4360], 's_32_37': [1883], 's_32_32': [4678], 's_34_1': [4435], 's_34_18': [4180], 's_34_34': [4960], 's_9_27': [4286], 's_9_31': [3881], 's_9_9': [2033], 's_31_27': [2254], 's_31_4': [1864], 's_31_31': [2690], 's_27_21': [2137], 's_27_18': [2346], 's_27_24': [4123, 2511], 's_27_35': [2268], 's_27_27': [3657], 's_21_4': [1852], 's_21_21': [4363], 's_37_1': [1973], 's_37_37': [4752], 's_1_1': [1507], 's_18_24': [2495], 's_18_35': [3718], 's_18_18': [2508], 's_19_19': [5019], 's_4_4': [3745], 's_35_35': [2058], 's_24_24': [4079]}</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0.0004896907216494845</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.001068577960908653</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>{0: [1646, 1645, 1644, 1550, 1551, 4193, 1642, 1643], 2: [4137, 4047, 4733, 4734, 2360, 2361, 2362, 4735, 4736, 4737, 2363, 2364, 2365], 's_0_2': [4718], 5: [1566, 2526, 4048, 4102, 4103, 4104, 1895, 2420, 3985, 2555, 3988, 3987, 3986], 's_0_5': [4087], 8: [4902, 4901, 4900, 4899, 1615, 1614, 4898, 1656, 4163, 1611, 1612, 1613], 's_0_8': [4208], 17: [1690, 2200, 4885, 4583, 4797, 4796, 4795, 1840, 1629, 1630, 4883, 4884], 's_0_17': [4673], 26: [2375, 2376, 2377, 2378, 2379, 5063, 5064, 5065, 5066, 5067, 2381, 2380], 's_0_26': [1631], 28: [4228, 3968, 3969, 3970, 4227, 2316, 2315, 3972, 3971], 's_0_28': [3983], 29: [1610, 2059, 3943, 2063, 2062, 3937, 3939, 3938, 3942, 3941, 3940, 4555, 2061, 2060], 's_0_29': [3952], 33: [1764, 1763, 1985, 1986, 4150, 1911, 4447, 1913, 4448, 4449, 1912], 's_0_33': [4493], 39: [1732, 1733, 1734, 1735, 2436, 2437, 4929, 4930, 4931, 4932, 4933, 2440, 2439, 4463, 2438], 's_0_39': [4928], 40: [1582, 2301, 1583, 4508, 4213, 4212, 2197, 2198, 4509, 4510, 4511], 's_0_40': [4388, 1567, 4267], 41: [4838, 2179, 4839, 4840, 3866, 2180, 2181, 2182, 2183, 2184, 4841, 2185], 's_0_41': [5003, 1720], 46: [4478, 3758, 1594, 1598, 1597, 1596, 1595], 's_0_46': [4223], 's_0_0': [1549], 6: [2527, 2601, 4273, 4272, 4857, 2395, 2394, 2393, 2392], 's_2_6': [4647], 7: [1661, 4779, 1658, 1660, 1659], 's_2_7': [1675], 10: [3809, 2464, 3777, 3775, 3776, 2238, 4062, 3808, 2240, 2239], 's_2_10': [2359], 11: [4483, 4482, 4481, 2001, 4210, 2002, 2003, 4480], 's_2_11': [4497], 12: [4842, 3732, 3733, 2628, 2629, 2630, 4093, 2661, 2662, 2663, 2665, 2664, 4813, 4812, 2335], 's_2_12': [2409], 13: [1749, 1748, 1747, 2017, 4195, 4194, 3908, 1745, 1746], 's_2_13': [4719], 15: [2035, 1795, 4869, 4872, 4871, 4870, 1900], 's_2_15': [2020], 20: [2454, 4662, 1825, 4658, 4374, 1823, 1824, 4659, 4661, 4660], 's_2_20': [1599], 's_2_26': [4182], 's_2_29': [2285], 38: [2256, 2257, 4316, 3883, 4317, 4198, 2465, 2469, 2468, 2467, 2466], 's_2_38': [3957], 42: [4409, 4408, 4407, 4825, 4826, 2226, 2229, 2228, 2227], 's_2_42': [2094], 45: [3836, 3956, 2211, 2209, 2210], 's_2_45': [2300], 47: [2318, 4015, 4468, 4467, 2348, 1925, 1926, 1927, 4375, 4377, 4376], 's_2_47': [4422], 48: [2138, 2155, 2154, 4601, 4600, 2139], 's_2_48': [4602], 's_2_2': [1539], 3: [2479, 4122, 2481, 2480], 's_5_3': [3838], 's_5_6': [4138], 's_5_8': [1626], 's_5_13': [1761], 16: [4568, 1688, 2539, 2540, 4569, 4570, 2541, 2542, 2543, 4573, 4572, 2544, 4571], 's_5_16': [3928], 22: [4314, 4645, 4089, 4090, 2124, 4315, 2119, 2120, 2121, 2123, 2122], 's_5_22': [1806], 23: [4001, 2150, 2151, 1792, 4299, 4300, 2152, 4303, 4302, 4301], 's_5_23': [2090], 25: [1870, 1869, 3763, 1868, 3762, 3761, 3760, 1969, 1970, 1867, 1866, 4045, 1865], 's_5_25': [1880], 's_5_26': [4017], 's_5_28': [2015], 's_5_29': [1505], 30: [3924, 3853, 4283, 3852, 3851, 3850, 1850, 1718, 1717, 1716, 1715, 3984], 's_5_30': [3954], 's_5_41': [2255, 4091], 43: [4135, 2125, 2074, 4333, 4332, 4331, 2075, 2076, 4809, 4810, 2079, 2078, 2077], 's_5_43': [4105], 's_5_5': [1446], 's_8_12': [2260, 4947, 2201], 14: [4059, 4061, 1909, 1910, 4060], 's_8_14': [4058], 's_8_16': [1674, 4688], 's_8_17': [4598], 's_8_20': [1826], 's_8_25': [4164, 1731], 's_8_26': [2396], 's_8_29': [1655], 36: [1789, 1790, 1657, 1702, 1701, 4224, 4121, 4120, 4119, 1791], 's_8_36': [4328], 44: [2644, 3854, 2705, 3974, 2750, 2752, 2753, 2751, 4529, 4528, 4527, 2287, 2290, 2289, 2288], 's_8_44': [4917], 's_8_8': [2036], 's_17_12': [2320], 's_17_16': [4584], 32: [2513, 2545, 1897, 1776, 1777, 1778, 4494, 1898, 1899, 4720, 2514, 4723, 4722, 4721], 's_17_32': [4765], 34: [1987, 1991, 4780, 1990, 1988, 1989], 's_17_34': [2005], 's_17_39': [4798], 's_17_40': [1553], 's_17_41': [1915], 's_17_43': [1945], 's_17_44': [4782], 's_17_46': [4538], 's_17_17': [1479], 9: [4525, 4526, 4436, 2407, 4452, 4451, 2165, 2166, 2167, 2168], 's_26_9': [4362], 's_26_15': [1796], 's_26_28': [4002], 31: [3894, 3899, 3898, 3897, 3895, 3896], 's_26_31': [3912, 2449], 's_26_38': [4618], 's_26_43': [4393, 2512], 's_26_26': [1616], 's_28_23': [2347], 27: [4168, 4167, 2374, 3792, 2269, 4271, 2271, 2270], 's_28_27': [4152], 's_28_38': [3927], 's_28_42': [2225], 's_28_43': [2317], 's_28_45': [4077], 's_28_28': [3967], 's_29_11': [4270], 's_29_12': [2615], 's_29_13': [1625], 's_29_14': [4000], 's_29_16': [4586], 21: [4255, 2482, 4258, 4256, 4257], 's_29_21': [4241], 's_29_22': [2105], 's_29_31': [2660], 's_29_32': [4495], 's_29_36': [4211, 2106], 37: [4542, 2215, 2214, 2153, 4539, 4540, 4541], 's_29_37': [2048], 's_29_38': [3973, 2450, 2525], 's_29_41': [4556], 's_29_47': [2045], 's_29_48': [2019], 's_29_29': [1445], 1: [1794, 4418, 4421, 4420, 4419, 1793], 's_33_1': [1522], 's_33_7': [4764], 's_33_16': [4643], 18: [2509, 4345, 2032, 2031, 4031, 2510, 4033, 4032], 's_33_18': [4165], 19: [4585, 1856, 1855, 1854], 's_33_19': [4704], 's_33_20': [1808], 's_33_22': [3925], 's_33_25': [4390], 's_33_31': [2000], 's_33_40': [4462], 's_33_43': [3910], 's_33_47': [4030], 's_33_33': [4446], 's_39_1': [4614], 's_39_3': [4183], 4: [3790, 4343, 4344, 1954, 1838, 1837, 4149, 1836, 3865, 1835], 's_39_4': [4329], 's_39_7': [4808], 's_39_15': [4945, 4944], 's_39_19': [1841], 's_39_21': [4287], 's_39_27': [4153], 's_39_34': [2006], 's_39_36': [4359, 4358], 's_39_37': [2216], 's_39_46': [4313], 's_39_47': [4378], 's_39_48': [2140], 's_39_39': [2546], 's_40_3': [2421], 's_40_4': [4524], 's_40_6': [4197, 2331], 's_40_7': [4523], 's_40_10': [2196], 's_40_11': [1958], 's_40_22': [4181], 's_40_27': [2212], 's_40_30': [4282], 's_40_36': [1703], 's_40_48': [4466], 's_40_40': [4477], 's_41_7': [4853], 's_41_9': [2164], 's_41_12': [4811], 's_41_14': [2030, 2029, 3805], 's_41_20': [4854], 's_41_25': [2104], 's_41_31': [2089], 's_41_34': [4855], 35: [3704, 1654, 3699, 3700, 3703, 3702, 3701], 's_41_35': [2149], 's_41_44': [4856], 's_41_47': [4361], 's_41_48': [4706], 's_41_41': [2095], 's_46_1': [4433], 's_46_4': [4148], 's_46_13': [3923], 's_46_16': [4553], 's_46_30': [3953], 's_46_35': [3773], 's_46_46': [1624], 's_6_15': [2350], 's_6_20': [2455], 's_6_9': [4347], 's_6_11': [2483, 4438, 2528], 's_6_16': [4588], 24: [2588, 2584, 4453, 3958, 2585, 2587, 2586], 's_6_24': [2600], 's_6_27': [2451], 's_6_38': [4603], 's_6_42': [2485, 4827], 's_6_44': [4557], 's_6_6': [2425], 's_7_15': [4868], 's_7_20': [4434], 's_7_36': [4404], 's_7_7': [4389], 's_10_4': [3791], 's_10_12': [2314], 's_10_14': [3774], 's_10_16': [4063], 's_10_23': [3926], 's_10_45': [3821], 's_10_10': [2237], 's_11_36': [1941], 's_11_37': [2213], 's_11_48': [2093], 's_11_4': [4240], 's_11_9': [4496, 2303], 's_11_14': [4075], 's_11_42': [2259, 4692, 4693, 2574, 2573], 's_11_44': [2273], 's_11_11': [2618], 's_12_15': [2410], 's_12_32': [2604, 4784], 's_12_18': [3913], 's_12_23': [4318], 's_12_24': [4574], 's_12_31': [2646, 2645, 3884], 's_12_35': [2418], 's_12_12': [4874], 's_13_1': [2018], 's_13_16': [4628], 's_13_20': [1762], 's_13_21': [4254], 's_13_23': [4239], 's_13_25': [4014], 's_13_30': [4088], 's_13_31': [1684], 's_13_13': [3907], 's_15_1': [4749, 1810], 's_15_19': [4915, 4914], 's_15_20': [4794], 's_15_37': [4886], 's_15_42': [4824], 's_15_43': [1780], 's_15_44': [4887], 's_15_15': [1975, 1974], 's_20_1': [1779], 's_20_23': [1822], 's_20_25': [4674], 's_20_32': [4708], 's_20_42': [2274], 's_20_43': [2049], 's_20_44': [2304], 's_20_48': [2034], 's_20_20': [4657], 's_38_32': [2484], 's_38_24': [4558], 's_38_27': [2419], 's_38_31': [2404], 's_38_42': [2422], 's_38_44': [2678, 4424, 4423], 's_38_47': [2452], 's_38_38': [4199, 2676], 's_42_34': [1960], 's_42_36': [4136], 's_42_37': [2243], 's_42_43': [2272], 's_42_21': [2302], 's_42_24': [4394], 's_42_42': [2242], 's_45_43': [4166], 's_45_9': [4151], 's_45_27': [3882], 's_45_30': [2134], 's_45_35': [3717], 's_45_45': [3746], 's_47_37': [4587], 's_47_43': [2602], 's_47_9': [4437, 2333], 's_47_18': [1957], 's_47_25': [1955], 's_47_30': [1942, 4284], 's_47_31': [1940], 's_47_47': [2648], 's_48_1': [4599], 's_48_9': [4646, 2169], 's_48_16': [2004], 's_48_22': [4691], 's_48_48': [2156], 's_3_21': [2406], 's_3_25': [2494, 3823], 's_3_27': [3747], 's_3_3': [2478], 's_16_37': [2349], 's_16_27': [2571, 2570, 2569, 3674, 3673], 's_16_22': [2108], 's_16_30': [4078, 2435, 2434], 's_16_19': [1839], 's_16_35': [2524], 's_16_44': [3778, 2659], 's_16_16': [2258], 's_22_34': [4465], 's_22_25': [3730], 's_22_4': [1821], 's_22_18': [4346], 's_22_23': [4196], 's_22_22': [4630], 's_23_27': [3911], 's_23_18': [2047], 's_23_44': [4304], 's_23_23': [2632], 's_25_37': [4644, 1809], 's_25_43': [4046], 's_25_21': [1881], 's_25_24': [2599], 's_25_44': [3764, 2719, 2723, 2722, 2721, 2720], 's_25_25': [1968], 's_30_36': [4298], 's_30_37': [4554], 's_30_27': [2329], 's_30_4': [3834], 's_30_14': [3909], 's_30_44': [3869, 3868], 's_30_30': [1627], 's_43_1': [2092], 's_43_34': [1884], 's_43_14': [4076], 's_43_21': [2091], 's_43_24': [4348], 's_43_43': [2110], 's_14_32': [4074], 's_14_31': [3880], 's_14_14': [2136], 's_36_1': [1687], 's_36_27': [2241], 's_36_31': [3879], 's_36_35': [1774], 's_36_36': [3789], 's_44_21': [4274, 2692, 4259], 's_44_44': [3914], 's_32_1': [4464], 's_32_4': [4405], 's_32_9': [1928], 's_32_24': [2498, 2499], 's_32_34': [4360], 's_32_37': [1883], 's_32_32': [4678], 's_34_1': [4435], 's_34_18': [4180], 's_34_34': [4960], 's_9_27': [4286], 's_9_31': [3881], 's_9_9': [2033], 's_31_27': [2254], 's_31_4': [1864], 's_31_31': [2690], 's_27_21': [2137], 's_27_18': [2346], 's_27_24': [4123, 2511], 's_27_35': [2268], 's_27_27': [3657], 's_21_4': [1852], 's_21_21': [4363], 's_37_1': [1973], 's_37_37': [4752], 's_1_1': [1507], 's_18_24': [2495], 's_18_35': [3718], 's_18_18': [2508], 's_19_19': [5019], 's_4_4': [3745], 's_35_35': [2058], 's_24_24': [4079]}</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0.0004896907216494845</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.001068577960908653</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>{0: [624, 622, 623], 7: [4547, 4545, 4546], 17: [4517, 502, 504, 503], 21: [4413, 607], 23: [4425, 4428, 4426, 4427], 25: [234, 4773, 4772, 4771, 235], 27: [4440, 4442, 4441, 354, 352, 353], 30: [4711, 4487, 548, 549, 4712, 550], 34: [4292, 4291, 443, 442], 41: [4323, 382, 4322, 4321], 47: [4275, 4276, 4277, 4398, 682], 9: [444, 203, 4667, 204, 4665, 4666], 13: [370, 368, 4560, 369, 4561], 14: [532, 533, 4637, 4697, 534], 15: [248, 4621, 4620], 29: [339, 4456, 337, 338], 36: [4472, 4471, 262, 263, 4470], 5: [4727, 294, 323, 324, 4726], 12: [4485, 4247, 4246, 233, 232], 18: [412, 4367, 4365, 414, 413, 4366], 19: [4397, 4457, 564, 563], 20: [457, 459, 4486, 458], 28: [4608, 4606, 4607], 35: [4381, 4382, 669, 4383, 4593, 638, 637], 39: [4531, 518, 517, 4532], 40: [520, 519, 473, 4592], 49: [4307, 562, 4262, 4260, 4261], 8: [594, 593], 4: [4801, 385, 383, 384], 11: [277, 4757, 4756, 278, 279], 37: [4650, 683, 684, 4652, 489, 4651], 42: [4832, 4831, 218, 219, 220, 4830], 43: [4605, 187, 188, 189], 1: [4591, 309, 4336, 307, 308], 2: [397, 4563, 398, 400, 4562, 399], 3: [652, 4622, 654, 653], 10: [157, 158, 159, 4696, 4695], 26: [429, 427, 428], 46: [202, 4530, 128, 4290, 127, 4320], 48: [4680, 4683, 4681, 4682], 16: [172, 4410, 4455, 173], 24: [355, 670, 4816, 4817], 32: [322, 4395, 4396], 38: [4636, 4635, 293, 292], 45: [415, 714, 4741, 580, 4742, 4743], 31: [4575, 4576, 488, 4577], 33: [609, 608, 4500, 4502, 4501], 22: [579, 578, 4350, 4351, 4352], 6: [246, 247, 4412, 4411], 44: [217, 487, 472, 4305, 4306]}</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.02920700308959835</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.01998169585616679</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>{0: [624, 622, 623], 7: [4547, 4545, 4546], 17: [4517, 502, 504, 503], 21: [4413, 607], 23: [4425, 4428, 4426, 4427], 25: [234, 4773, 4772, 4771, 235], 27: [4440, 4442, 4441, 354, 352, 353], 30: [4711, 4487, 548, 549, 4712, 550], 34: [4292, 4291, 443, 442], 41: [4323, 382, 4322, 4321], 47: [4275, 4276, 4277, 4398, 682], 9: [444, 203, 4667, 204, 4665, 4666], 13: [370, 368, 4560, 369, 4561], 14: [532, 533, 4637, 4697, 534], 15: [248, 4621, 4620], 29: [339, 4456, 337, 338], 36: [4472, 4471, 262, 263, 4470], 5: [4727, 294, 323, 324, 4726], 12: [4485, 4247, 4246, 233, 232], 18: [412, 4367, 4365, 414, 413, 4366], 19: [4397, 4457, 564, 563], 20: [457, 459, 4486, 458], 28: [4608, 4606, 4607], 35: [4381, 4382, 669, 4383, 4593, 638, 637], 39: [4531, 518, 517, 4532], 40: [520, 519, 473, 4592], 49: [4307, 562, 4262, 4260, 4261], 8: [594, 593], 4: [4801, 385, 383, 384], 11: [277, 4757, 4756, 278, 279], 37: [4650, 683, 684, 4652, 489, 4651], 42: [4832, 4831, 218, 219, 220, 4830], 43: [4605, 187, 188, 189], 1: [4591, 309, 4336, 307, 308], 2: [397, 4563, 398, 400, 4562, 399], 3: [652, 4622, 654, 653], 10: [157, 158, 159, 4696, 4695], 26: [429, 427, 428], 46: [202, 4530, 128, 4290, 127, 4320], 48: [4680, 4683, 4681, 4682], 16: [172, 4410, 4455, 173], 24: [355, 670, 4816, 4817], 32: [322, 4395, 4396], 38: [4636, 4635, 293, 292], 45: [415, 714, 4741, 580, 4742, 4743], 31: [4575, 4576, 488, 4577], 33: [609, 608, 4500, 4502, 4501], 22: [579, 578, 4350, 4351, 4352], 6: [246, 247, 4412, 4411], 44: [217, 487, 472, 4305, 4306]}</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0.02920700308959835</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.01998169585616679</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>{0: [1547, 3608, 1548, 1549, 1552, 1551, 1550], 7: [4417, 1673, 4419, 4421, 4418, 4420], 's_0_7': [4358], 17: [3772, 1534, 2211, 3833, 3834, 3835, 3854, 3853, 3852, 2210, 3836], 's_0_17': [3788], 21: [1532, 3533], 's_0_21': [3412], 23: [3548, 1608, 1609, 1610, 1611, 4257, 4256, 2017, 4195, 4193, 4194], 's_0_23': [3683], 25: [1982, 3355, 3354, 3653, 1763, 1762, 1761, 1760, 1759, 1757, 3654, 1758], 's_0_25': [3714, 1698], 27: [2492, 2493, 2494, 2495, 2496, 4213, 4212, 1612, 4211, 2032, 4345, 4344, 4343], 's_0_27': [1537], 30: [3623, 1668, 1667, 3325, 3324], 's_0_30': [3428], 34: [3611, 3517, 2148, 2163, 3521, 3518, 3519, 3520], 's_0_34': [1638], 41: [2552, 1627, 2553, 2554, 2555, 2556, 2557, 4297, 4298, 4299, 4300, 4301, 4302, 4303], 's_0_41': [4238], 47: [1507, 1657, 4312, 4313, 4316, 4315, 4314], 's_0_47': [4462], 's_0_0': [1553], 9: [4346, 3628, 2078, 2077, 2076, 2072, 3627, 3626, 2073, 2075, 2074], 's_7_9': [2092], 13: [1717, 1716, 1715, 1714, 1713, 1712, 1711, 3309, 3310, 3311, 3312, 3313, 3314], 's_7_13': [4404], 14: [1878, 1879, 3927, 1928, 1927, 1926, 1925, 3926, 3925, 3924], 's_7_14': [1943], 15: [2193, 2194, 3806, 3805, 3804, 1628, 4403, 1567, 1566, 1565, 1564, 3803], 's_7_15': [4433], 's_7_25': [4434], 29: [3622, 1458, 1459, 1460, 4375, 4374, 4373, 4372, 1372, 1461, 1462, 4327], 's_7_29': [1522], 36: [3897, 4526, 4422, 2198, 3702, 2242, 2299, 2300, 2301, 2302, 4407], 's_7_36': [2108], 's_7_7': [1973], 5: [2347, 2346, 2372, 2373, 2374, 4137, 2376, 2375], 's_17_5': [3868], 's_17_9': [3986], 12: [4072, 4078, 4077, 4361, 2122, 2121, 4076, 1641, 4073, 4074, 4075], 's_17_12': [4166], 's_17_14': [2434], 's_17_15': [1579], 18: [2165, 1582, 1517, 3851, 3850, 3849, 3848, 4283, 4282, 1521, 1518, 1519, 1520], 's_17_18': [1640], 19: [2312, 3432, 1912, 1891, 1895, 3431, 1894, 3430, 1910, 1892, 1911, 1893], 's_17_19': [3820], 20: [4103, 1730, 3444, 2001, 2000, 1727, 1728, 1790, 1655, 1729, 3895, 3894], 's_17_20': [3818], 28: [2120, 3896, 2059, 2056, 2057, 2058], 's_17_28': [3971], 's_17_29': [3922], 35: [2691, 2690, 3879, 3880, 3884, 4184, 3883, 2285, 3882, 3881], 's_17_35': [2584], 39: [2317, 2316, 2451, 4153, 4149, 4150, 2196, 4152, 4151], 's_17_39': [4121], 40: [1955, 1951, 1953, 1954, 3733, 3732, 3731, 1952, 2043, 3730], 's_17_40': [2644], 's_17_41': [3869], 49: [2464, 3401, 3402, 2447, 2541, 2540, 3838, 2449, 2448], 's_17_49': [2599], 's_17_17': [2689], 8: [2315, 2313, 1653, 3534, 2314, 3535, 3536, 3538, 3537], 's_21_8': [3458], 's_21_18': [3503], 's_21_23': [1623], 's_21_34': [1593], 's_21_21': [3532], 4: [3562, 3568, 3567, 3563, 3566, 1876, 1877, 3564, 3565], 's_23_4': [1682], 's_23_5': [4258, 2436, 4122], 's_23_9': [2152], 11: [1922, 1923, 1984, 4254, 4255, 3655, 1988, 1987, 1986, 1985], 's_23_11': [2002], 's_23_13': [3923], 's_23_20': [3908], 's_23_30': [3578], 's_23_34': [1697], 's_23_36': [2287], 37: [2241, 2240, 2239, 1924, 3776, 3775, 3774, 4239, 1686, 1685, 1684, 3773], 's_23_37': [4148], 's_23_39': [2061], 42: [1607, 3413, 1817, 3641, 1939, 3642, 3414, 3640, 1937, 1938], 's_23_42': [3549], 43: [4286, 4046, 2168, 2167, 2166], 's_23_43': [2137], 's_23_23': [2362], 1: [3472, 3473, 1592, 3367, 3369, 3373, 3372, 3371, 3370, 3368, 2013, 2012], 's_25_1': [1696], 2: [2102, 3506, 3505, 1862, 4062, 4061, 4060, 1865, 1864, 1863], 's_25_2': [1861], 3: [2597, 3463, 3357, 3415, 2477, 3417, 2208, 2207, 3416], 's_25_3': [3385, 3386], 10: [1743, 1431, 3598, 3596, 3595, 3597, 3594, 1430, 1429, 1432, 1428, 3592, 3593], 's_25_10': [3652], 's_25_12': [1746], 's_25_20': [3743], 26: [3625, 1908, 2253, 3717, 1850, 3716, 1849, 3715], 's_25_26': [3789], 's_25_37': [1654], 's_25_40': [1756, 3264, 1846, 3175], 's_25_42': [1847], 46: [1822, 1820, 4058, 4059, 1821], 's_25_46': [3819], 48: [1774, 1773, 3282, 3281, 3280, 1997, 3579, 3580, 1998], 's_25_48': [1981, 1996], 's_25_25': [4584], 's_27_1': [2507], 's_27_4': [2508], 's_27_8': [3523], 's_27_10': [4342], 's_27_14': [1852, 4240], 's_27_15': [4493, 1613], 16: [2033, 3703, 2417, 4465, 4466, 4467, 2422, 2418, 2419, 2420, 2421], 's_27_16': [3718], 's_27_18': [4388], 24: [3613, 2567, 2568, 2570, 2569], 's_27_24': [3763], 's_27_29': [1702], 32: [1837, 3958, 4179, 2359, 2360, 1776, 4087, 4088, 4089, 3957, 2405, 4092, 4090, 4091], 's_27_32': [2136], 's_27_37': [1792], 38: [1597, 2016, 1595, 4120, 1596, 4225, 1940, 4117, 1941, 4119, 4118], 's_27_38': [2106], 's_27_39': [4228], 's_27_43': [2226], 45: [2060, 4001, 3973, 2465, 2151, 2150, 3940, 3942, 3941], 's_27_45': [2511, 2510], 's_27_27': [2542], 's_30_4': [3294, 3293], 's_30_8': [3504], 's_30_19': [1906], 's_30_40': [1966], 's_30_42': [3279, 3278], 's_30_30': [1771], 's_34_1': [1367], 's_34_2': [2147], 's_34_3': [3476], 's_34_9': [2178], 's_34_15': [1563], 's_34_18': [1502], 's_34_28': [3686], 's_34_29': [1383], 31: [3672, 3671, 3670, 1806, 1805, 1803, 1804, 3669], 's_34_31': [2133], 33: [3761, 3792, 4105, 4106, 2270, 3612, 2266, 2267, 2268, 2269], 's_34_33': [3461, 3462], 's_34_34': [1322], 's_41_1': [3388], 's_41_3': [3433], 's_41_4': [3553], 's_41_14': [3928], 's_41_18': [4328], 's_41_29': [4296], 's_41_32': [4093], 's_41_46': [1626], 's_41_41': [4123], 's_47_10': [1417], 's_47_12': [2107], 22: [4183, 2212, 4182, 1971, 4181, 4180], 's_47_22': [1972], 's_47_29': [2062], 's_47_32': [4178], 's_47_37': [1747], 's_47_43': [2182], 's_47_46': [4224], 's_47_47': [4311], 's_9_4': [2298], 's_9_10': [2538], 's_9_18': [3866], 's_9_26': [2119, 2118], 's_9_42': [3656], 's_9_48': [2088], 's_9_3': [2478], 's_9_40': [2433], 's_9_15': [3791], 's_9_16': [4347], 's_9_24': [2583, 3583], 's_9_32': [2090], 's_9_35': [2089], 's_9_36': [4511], 's_9_37': [3821], 's_9_9': [4630], 's_13_1': [1832], 's_13_10': [3609], 's_13_11': [3685, 3684], 's_13_15': [4463], 's_13_24': [3329], 's_13_28': [3326], 's_13_31': [4164], 's_13_37': [1687, 4389], 's_13_38': [3938], 's_13_39': [1731], 's_13_46': [3969], 's_13_13': [2326], 's_14_10': [3624], 's_14_28': [3910], 's_14_48': [1775], 's_14_5': [2390], 's_14_8': [3912], 's_14_11': [4510], 's_14_22': [4210], 's_14_45': [2345], 's_14_19': [4464], 's_14_31': [3729], 's_14_37': [3865], 's_14_14': [4555], 's_15_26': [1969], 's_15_29': [4402], 's_15_42': [2179], 's_15_3': [2192], 's_15_12': [4028], 's_15_20': [1699], 's_15_31': [1999], 's_15_36': [3807], 's_15_37': [1744], 's_15_38': [4163], 's_15_46': [1819], 's_15_15': [1624], 's_29_1': [3502, 1352], 's_29_4': [1443], 's_29_10': [4222], 's_29_18': [3577], 6: [3997, 3493, 1476, 1475, 1474, 1473, 3488, 3489, 2238, 2237, 3492, 3491, 3490], 's_29_6': [3787], 's_29_11': [1957], 's_29_12': [2047, 2046, 4270], 's_29_16': [2018], 's_29_19': [1897], 's_29_38': [1942], 's_29_29': [1353, 3741], 's_36_28': [2135, 3911], 's_36_6': [2223], 's_36_39': [4377], 's_36_40': [2329], 's_36_12': [2213], 's_36_16': [2288], 's_36_35': [4017], 's_36_36': [4408], 's_5_2': [2361], 's_5_4': [3552], 's_5_10': [2388], 's_5_48': [2387], 's_5_12': [4063], 's_5_39': [4167], 's_5_40': [2389], 's_5_45': [3898], 's_5_5': [3343], 's_12_18': [4043], 's_12_39': [2450], 's_12_49': [2526], 's_12_33': [2286], 's_12_16': [4362], 's_12_38': [1791], 's_12_43': [2183], 's_12_46': [1535], 's_12_12': [4079], 's_18_1': [1516, 1501], 's_18_6': [3817], 's_18_11': [4253], 's_18_19': [1909], 's_18_20': [3893], 's_18_28': [2030], 's_18_38': [4208], 's_18_40': [2104], 's_18_45': [2180], 's_18_46': [1505], 's_18_48': [1789], 's_18_18': [1504], 's_19_28': [3265], 's_19_3': [3387], 's_19_6': [3507], 's_19_8': [2222], 's_19_40': [3460], 44: [3985, 1880, 3984], 's_19_44': [3970], 's_19_32': [4284], 's_19_33': [3342], 's_19_37': [3790], 's_19_49': [2162], 's_19_19': [1913], 's_20_4': [3429], 's_20_26': [3639], 's_20_39': [4165], 's_20_44': [4030], 's_20_45': [4000], 's_20_35': [1670], 's_20_38': [3983], 's_20_20': [3953], 's_28_1': [2041], 's_28_26': [3701], 's_28_8': [2042], 's_28_40': [3235], 's_28_42': [3445], 's_28_43': [4031], 's_28_45': [2105], 's_28_28': [3220], 's_35_26': [2254], 's_35_8': [3972], 's_35_22': [1970], 's_35_40': [2284], 's_35_24': [3899], 's_35_32': [2645], 's_35_38': [3878], 's_35_37': [2224], 's_35_35': [2631], 's_39_2': [2031], 's_39_8': [4047], 's_39_31': [4134, 1851], 's_39_33': [2181], 's_39_49': [4168], 's_39_39': [4317], 's_40_2': [3700], 's_40_42': [3399, 3400], 's_40_11': [4015], 's_40_24': [3748], 's_40_31': [2029], 's_40_33': [2164], 's_40_37': [2149], 's_40_44': [4045], 's_40_40': [1950], 's_49_10': [2463], 's_49_3': [2177], 's_49_6': [2282], 's_49_16': [3582], 's_49_49': [2479], 's_8_2': [2087], 's_8_48': [1833], 's_8_3': [3522], 's_8_8': [3747], 's_4_1': [2028], 's_4_2': [3474], 's_4_6': [2343], 's_4_24': [2627, 3403], 's_4_31': [3459], 's_4_33': [2283], 's_4_42': [3340], 's_4_48': [3550], 's_4_4': [2643], 's_11_2': [1866], 's_11_26': [3610], 's_11_48': [1968], 's_11_22': [4135], 's_11_32': [1777], 's_11_33': [3760], 's_11_37': [1672], 's_11_11': [1989], 's_37_26': [1834], 's_37_42': [2209], 's_37_48': [3864], 's_37_45': [3956], 's_37_31': [1669], 's_37_37': [4209], 's_42_1': [1772], 's_42_6': [1787], 's_42_16': [3657], 's_42_31': [2328], 's_42_42': [1622], 's_43_22': [2197], 's_43_16': [4287], 's_43_38': [4226], 's_43_43': [2169], 's_1_2': [3341], 's_1_10': [1742], 's_1_26': [2014], 's_1_48': [2251], 's_1_1': [1427, 3487], 's_2_3': [1967], 's_2_6': [3446], 's_2_22': [2331], 's_2_26': [3759], 's_2_44': [4014], 's_2_45': [2225], 's_2_2': [2255], 's_3_48': [2221], 's_3_24': [3539], 's_3_3': [3327], 's_10_26': [3581], 's_10_32': [1415, 1416], 's_10_48': [1788], 's_10_10': [4042], 's_26_33': [2344], 's_26_44': [1835], 's_26_26': [3909], 's_46_6': [1491], 's_46_44': [3954], 's_46_31': [4029], 's_46_38': [1656], 's_46_46': [1823], 's_48_33': [3295, 3296, 3297], 's_48_48': [2146], 's_16_6': [2402], 's_16_22': [2406], 's_16_33': [2404], 's_16_32': [3777], 's_16_16': [4452], 's_24_45': [3988], 's_24_24': [3704], 's_32_6': [2358], 's_32_22': [2466], 's_32_44': [2045], 's_32_38': [1446], 's_32_32': [2630], 's_38_6': [4132], 's_38_22': [1956], 's_38_44': [1881], 's_38_38': [4223], 's_45_22': [4196], 's_45_45': [2480], 's_31_6': [1818], 's_31_44': [3939], 's_31_33': [3687], 's_31_31': [1802], 's_33_22': [2271], 's_33_33': [3252], 's_22_22': [4198], 's_6_6': [1385], 's_44_44': [3999]}</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E97" t="n">
         <v>0.000222488038277512</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F97" t="n">
         <v>0.0007191015089342764</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G97" t="n">
         <v>0.003</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>{0: [1547, 3608, 1548, 1549, 1552, 1551, 1550], 7: [4417, 1673, 4419, 4421, 4418, 4420], 's_0_7': [4358], 17: [3772, 1534, 2211, 3833, 3834, 3835, 3854, 3853, 3852, 2210, 3836], 's_0_17': [3788], 21: [1532, 3533], 's_0_21': [3412], 23: [3548, 1608, 1609, 1610, 1611, 4257, 4256, 2017, 4195, 4193, 4194], 's_0_23': [3683], 25: [1982, 3355, 3354, 3653, 1763, 1762, 1761, 1760, 1759, 1757, 3654, 1758], 's_0_25': [3714, 1698], 27: [2492, 2493, 2494, 2495, 2496, 4213, 4212, 1612, 4211, 2032, 4345, 4344, 4343], 's_0_27': [1537], 30: [3623, 1668, 1667, 3325, 3324], 's_0_30': [3428], 34: [3611, 3517, 2148, 2163, 3521, 3518, 3519, 3520], 's_0_34': [1638], 41: [2552, 1627, 2553, 2554, 2555, 2556, 2557, 4297, 4298, 4299, 4300, 4301, 4302, 4303], 's_0_41': [4238], 47: [1507, 1657, 4312, 4313, 4316, 4315, 4314], 's_0_47': [4462], 's_0_0': [1553], 9: [4346, 3628, 2078, 2077, 2076, 2072, 3627, 3626, 2073, 2075, 2074], 's_7_9': [2092], 13: [1717, 1716, 1715, 1714, 1713, 1712, 1711, 3309, 3310, 3311, 3312, 3313, 3314], 's_7_13': [4404], 14: [1878, 1879, 3927, 1928, 1927, 1926, 1925, 3926, 3925, 3924], 's_7_14': [1943], 15: [2193, 2194, 3806, 3805, 3804, 1628, 4403, 1567, 1566, 1565, 1564, 3803], 's_7_15': [4433], 's_7_25': [4434], 29: [3622, 1458, 1459, 1460, 4375, 4374, 4373, 4372, 1372, 1461, 1462, 4327], 's_7_29': [1522], 36: [3897, 4526, 4422, 2198, 3702, 2242, 2299, 2300, 2301, 2302, 4407], 's_7_36': [2108], 's_7_7': [1973], 5: [2347, 2346, 2372, 2373, 2374, 4137, 2376, 2375], 's_17_5': [3868], 's_17_9': [3986], 12: [4072, 4078, 4077, 4361, 2122, 2121, 4076, 1641, 4073, 4074, 4075], 's_17_12': [4166], 's_17_14': [2434], 's_17_15': [1579], 18: [2165, 1582, 1517, 3851, 3850, 3849, 3848, 4283, 4282, 1521, 1518, 1519, 1520], 's_17_18': [1640], 19: [2312, 3432, 1912, 1891, 1895, 3431, 1894, 3430, 1910, 1892, 1911, 1893], 's_17_19': [3820], 20: [4103, 1730, 3444, 2001, 2000, 1727, 1728, 1790, 1655, 1729, 3895, 3894], 's_17_20': [3818], 28: [2120, 3896, 2059, 2056, 2057, 2058], 's_17_28': [3971], 's_17_29': [3922], 35: [2691, 2690, 3879, 3880, 3884, 4184, 3883, 2285, 3882, 3881], 's_17_35': [2584], 39: [2317, 2316, 2451, 4153, 4149, 4150, 2196, 4152, 4151], 's_17_39': [4121], 40: [1955, 1951, 1953, 1954, 3733, 3732, 3731, 1952, 2043, 3730], 's_17_40': [2644], 's_17_41': [3869], 49: [2464, 3401, 3402, 2447, 2541, 2540, 3838, 2449, 2448], 's_17_49': [2599], 's_17_17': [2689], 8: [2315, 2313, 1653, 3534, 2314, 3535, 3536, 3538, 3537], 's_21_8': [3458], 's_21_18': [3503], 's_21_23': [1623], 's_21_34': [1593], 's_21_21': [3532], 4: [3562, 3568, 3567, 3563, 3566, 1876, 1877, 3564, 3565], 's_23_4': [1682], 's_23_5': [4258, 2436, 4122], 's_23_9': [2152], 11: [1922, 1923, 1984, 4254, 4255, 3655, 1988, 1987, 1986, 1985], 's_23_11': [2002], 's_23_13': [3923], 's_23_20': [3908], 's_23_30': [3578], 's_23_34': [1697], 's_23_36': [2287], 37: [2241, 2240, 2239, 1924, 3776, 3775, 3774, 4239, 1686, 1685, 1684, 3773], 's_23_37': [4148], 's_23_39': [2061], 42: [1607, 3413, 1817, 3641, 1939, 3642, 3414, 3640, 1937, 1938], 's_23_42': [3549], 43: [4286, 4046, 2168, 2167, 2166], 's_23_43': [2137], 's_23_23': [2362], 1: [3472, 3473, 1592, 3367, 3369, 3373, 3372, 3371, 3370, 3368, 2013, 2012], 's_25_1': [1696], 2: [2102, 3506, 3505, 1862, 4062, 4061, 4060, 1865, 1864, 1863], 's_25_2': [1861], 3: [2597, 3463, 3357, 3415, 2477, 3417, 2208, 2207, 3416], 's_25_3': [3385, 3386], 10: [1743, 1431, 3598, 3596, 3595, 3597, 3594, 1430, 1429, 1432, 1428, 3592, 3593], 's_25_10': [3652], 's_25_12': [1746], 's_25_20': [3743], 26: [3625, 1908, 2253, 3717, 1850, 3716, 1849, 3715], 's_25_26': [3789], 's_25_37': [1654], 's_25_40': [1756, 3264, 1846, 3175], 's_25_42': [1847], 46: [1822, 1820, 4058, 4059, 1821], 's_25_46': [3819], 48: [1774, 1773, 3282, 3281, 3280, 1997, 3579, 3580, 1998], 's_25_48': [1981, 1996], 's_25_25': [4584], 's_27_1': [2507], 's_27_4': [2508], 's_27_8': [3523], 's_27_10': [4342], 's_27_14': [1852, 4240], 's_27_15': [4493, 1613], 16: [2033, 3703, 2417, 4465, 4466, 4467, 2422, 2418, 2419, 2420, 2421], 's_27_16': [3718], 's_27_18': [4388], 24: [3613, 2567, 2568, 2570, 2569], 's_27_24': [3763], 's_27_29': [1702], 32: [1837, 3958, 4179, 2359, 2360, 1776, 4087, 4088, 4089, 3957, 2405, 4092, 4090, 4091], 's_27_32': [2136], 's_27_37': [1792], 38: [1597, 2016, 1595, 4120, 1596, 4225, 1940, 4117, 1941, 4119, 4118], 's_27_38': [2106], 's_27_39': [4228], 's_27_43': [2226], 45: [2060, 4001, 3973, 2465, 2151, 2150, 3940, 3942, 3941], 's_27_45': [2511, 2510], 's_27_27': [2542], 's_30_4': [3294, 3293], 's_30_8': [3504], 's_30_19': [1906], 's_30_40': [1966], 's_30_42': [3279, 3278], 's_30_30': [1771], 's_34_1': [1367], 's_34_2': [2147], 's_34_3': [3476], 's_34_9': [2178], 's_34_15': [1563], 's_34_18': [1502], 's_34_28': [3686], 's_34_29': [1383], 31: [3672, 3671, 3670, 1806, 1805, 1803, 1804, 3669], 's_34_31': [2133], 33: [3761, 3792, 4105, 4106, 2270, 3612, 2266, 2267, 2268, 2269], 's_34_33': [3461, 3462], 's_34_34': [1322], 's_41_1': [3388], 's_41_3': [3433], 's_41_4': [3553], 's_41_14': [3928], 's_41_18': [4328], 's_41_29': [4296], 's_41_32': [4093], 's_41_46': [1626], 's_41_41': [4123], 's_47_10': [1417], 's_47_12': [2107], 22: [4183, 2212, 4182, 1971, 4181, 4180], 's_47_22': [1972], 's_47_29': [2062], 's_47_32': [4178], 's_47_37': [1747], 's_47_43': [2182], 's_47_46': [4224], 's_47_47': [4311], 's_9_4': [2298], 's_9_10': [2538], 's_9_18': [3866], 's_9_26': [2119, 2118], 's_9_42': [3656], 's_9_48': [2088], 's_9_3': [2478], 's_9_40': [2433], 's_9_15': [3791], 's_9_16': [4347], 's_9_24': [2583, 3583], 's_9_32': [2090], 's_9_35': [2089], 's_9_36': [4511], 's_9_37': [3821], 's_9_9': [4630], 's_13_1': [1832], 's_13_10': [3609], 's_13_11': [3685, 3684], 's_13_15': [4463], 's_13_24': [3329], 's_13_28': [3326], 's_13_31': [4164], 's_13_37': [1687, 4389], 's_13_38': [3938], 's_13_39': [1731], 's_13_46': [3969], 's_13_13': [2326], 's_14_10': [3624], 's_14_28': [3910], 's_14_48': [1775], 's_14_5': [2390], 's_14_8': [3912], 's_14_11': [4510], 's_14_22': [4210], 's_14_45': [2345], 's_14_19': [4464], 's_14_31': [3729], 's_14_37': [3865], 's_14_14': [4555], 's_15_26': [1969], 's_15_29': [4402], 's_15_42': [2179], 's_15_3': [2192], 's_15_12': [4028], 's_15_20': [1699], 's_15_31': [1999], 's_15_36': [3807], 's_15_37': [1744], 's_15_38': [4163], 's_15_46': [1819], 's_15_15': [1624], 's_29_1': [3502, 1352], 's_29_4': [1443], 's_29_10': [4222], 's_29_18': [3577], 6: [3997, 3493, 1476, 1475, 1474, 1473, 3488, 3489, 2238, 2237, 3492, 3491, 3490], 's_29_6': [3787], 's_29_11': [1957], 's_29_12': [2047, 2046, 4270], 's_29_16': [2018], 's_29_19': [1897], 's_29_38': [1942], 's_29_29': [1353, 3741], 's_36_28': [2135, 3911], 's_36_6': [2223], 's_36_39': [4377], 's_36_40': [2329], 's_36_12': [2213], 's_36_16': [2288], 's_36_35': [4017], 's_36_36': [4408], 's_5_2': [2361], 's_5_4': [3552], 's_5_10': [2388], 's_5_48': [2387], 's_5_12': [4063], 's_5_39': [4167], 's_5_40': [2389], 's_5_45': [3898], 's_5_5': [3343], 's_12_18': [4043], 's_12_39': [2450], 's_12_49': [2526], 's_12_33': [2286], 's_12_16': [4362], 's_12_38': [1791], 's_12_43': [2183], 's_12_46': [1535], 's_12_12': [4079], 's_18_1': [1516, 1501], 's_18_6': [3817], 's_18_11': [4253], 's_18_19': [1909], 's_18_20': [3893], 's_18_28': [2030], 's_18_38': [4208], 's_18_40': [2104], 's_18_45': [2180], 's_18_46': [1505], 's_18_48': [1789], 's_18_18': [1504], 's_19_28': [3265], 's_19_3': [3387], 's_19_6': [3507], 's_19_8': [2222], 's_19_40': [3460], 44: [3985, 1880, 3984], 's_19_44': [3970], 's_19_32': [4284], 's_19_33': [3342], 's_19_37': [3790], 's_19_49': [2162], 's_19_19': [1913], 's_20_4': [3429], 's_20_26': [3639], 's_20_39': [4165], 's_20_44': [4030], 's_20_45': [4000], 's_20_35': [1670], 's_20_38': [3983], 's_20_20': [3953], 's_28_1': [2041], 's_28_26': [3701], 's_28_8': [2042], 's_28_40': [3235], 's_28_42': [3445], 's_28_43': [4031], 's_28_45': [2105], 's_28_28': [3220], 's_35_26': [2254], 's_35_8': [3972], 's_35_22': [1970], 's_35_40': [2284], 's_35_24': [3899], 's_35_32': [2645], 's_35_38': [3878], 's_35_37': [2224], 's_35_35': [2631], 's_39_2': [2031], 's_39_8': [4047], 's_39_31': [4134, 1851], 's_39_33': [2181], 's_39_49': [4168], 's_39_39': [4317], 's_40_2': [3700], 's_40_42': [3399, 3400], 's_40_11': [4015], 's_40_24': [3748], 's_40_31': [2029], 's_40_33': [2164], 's_40_37': [2149], 's_40_44': [4045], 's_40_40': [1950], 's_49_10': [2463], 's_49_3': [2177], 's_49_6': [2282], 's_49_16': [3582], 's_49_49': [2479], 's_8_2': [2087], 's_8_48': [1833], 's_8_3': [3522], 's_8_8': [3747], 's_4_1': [2028], 's_4_2': [3474], 's_4_6': [2343], 's_4_24': [2627, 3403], 's_4_31': [3459], 's_4_33': [2283], 's_4_42': [3340], 's_4_48': [3550], 's_4_4': [2643], 's_11_2': [1866], 's_11_26': [3610], 's_11_48': [1968], 's_11_22': [4135], 's_11_32': [1777], 's_11_33': [3760], 's_11_37': [1672], 's_11_11': [1989], 's_37_26': [1834], 's_37_42': [2209], 's_37_48': [3864], 's_37_45': [3956], 's_37_31': [1669], 's_37_37': [4209], 's_42_1': [1772], 's_42_6': [1787], 's_42_16': [3657], 's_42_31': [2328], 's_42_42': [1622], 's_43_22': [2197], 's_43_16': [4287], 's_43_38': [4226], 's_43_43': [2169], 's_1_2': [3341], 's_1_10': [1742], 's_1_26': [2014], 's_1_48': [2251], 's_1_1': [1427, 3487], 's_2_3': [1967], 's_2_6': [3446], 's_2_22': [2331], 's_2_26': [3759], 's_2_44': [4014], 's_2_45': [2225], 's_2_2': [2255], 's_3_48': [2221], 's_3_24': [3539], 's_3_3': [3327], 's_10_26': [3581], 's_10_32': [1415, 1416], 's_10_48': [1788], 's_10_10': [4042], 's_26_33': [2344], 's_26_44': [1835], 's_26_26': [3909], 's_46_6': [1491], 's_46_44': [3954], 's_46_31': [4029], 's_46_38': [1656], 's_46_46': [1823], 's_48_33': [3295, 3296, 3297], 's_48_48': [2146], 's_16_6': [2402], 's_16_22': [2406], 's_16_33': [2404], 's_16_32': [3777], 's_16_16': [4452], 's_24_45': [3988], 's_24_24': [3704], 's_32_6': [2358], 's_32_22': [2466], 's_32_44': [2045], 's_32_38': [1446], 's_32_32': [2630], 's_38_6': [4132], 's_38_22': [1956], 's_38_44': [1881], 's_38_38': [4223], 's_45_22': [4196], 's_45_45': [2480], 's_31_6': [1818], 's_31_44': [3939], 's_31_33': [3687], 's_31_31': [1802], 's_33_22': [2271], 's_33_33': [3252], 's_22_22': [4198], 's_6_6': [1385], 's_44_44': [3999]}</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="I97" t="n">
         <v>0.000222488038277512</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J97" t="n">
         <v>0.0007191015089342764</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K97" t="n">
         <v>0.003</v>
       </c>
     </row>
